--- a/IMP_X_FDR/Resources/plink_bin.xlsx
+++ b/IMP_X_FDR/Resources/plink_bin.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/IMP_X_FDR/Resources/plink_bin.xlsx
+++ b/IMP_X_FDR/Resources/plink_bin.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A96"/>
+  <dimension ref="A1:A1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,665 +431,8631 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.4221.4221.3 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=4221""",3,1671.86,AAALAAADAR(8)-EAAPAK(1),Cross-Linked,DHSO,1671.86,null,1.000000e+000,2.223221e-023,0.000770,0.460565,sg|P0A9Q7|ADHE_ECOLI (44)-sg|P0A9Q7|ADHE_ECOLI (877)/,Intra-Protein,1,1,16.0,5.0,1.000000e+000,1.000000e+000</t>
+          <t>1,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.15270.15270.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=15270""",4,1852.93,AKLYYLR(2)-KSSAAR(1),Cross-Linked,DSBSO,1852.93,null,1.000000e+000,4.737906e-007,-0.000637,-0.343780,sg|P0A7K6|RL19_ECOLI (96)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,9.5,7.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.18531.18531.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=18531""",4,1.975074e+003,MAEITASLVK(3)-AELGIPK(2),Cross-Linked,DHSO,1.975071e+003,null,1.000000e+000,3.423238e-021,0.002734,1.384254,sg|P0A6P1|EFTS_ECOLI (3)-sg|P0A9Q7|ADHE_ECOLI (808)/,Inter-Protein,1,1,10.5,5.5,1.000000e+000,1.000000e+000</t>
+          <t>2,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.40431.40431.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=40431""",4,4.067027e+003,FAAYAKAYPQEAAEFTR(6)-VVEPLITLAKTDSVANR(10),Cross-Linked,DSBSO,4.067014e+003,null,1.000000e+000,1.127964e-005,0.013155,3.234560,sg|P27302|TKT1_ECOLI (316)-sg|P0AG44|RL17_ECOLI (56)/,Inter-Protein,1,1,16.0,14.0,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.7647.7647.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=7647""",4,1.754861e+003,SELVNVAK(2)-MTEAMK(3),Cross-Linked,DHSO,1.754860e+003,null,1.000000e+000,4.094325e-020,0.001050,0.598338,sg|P0A850|TIG_ECOLI (31)-sg|P37095|PEPB_ECOLI (3)/,Inter-Protein,1,1,9.5,4.5,1.000000e+000,1.000000e+000</t>
+          <t>3,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24833.24833.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24833""",4,2.194161e+003,TIKITQTR(3)-AKLYYLR(2),Cross-Linked,DSBSO,2.194161e+003,null,1.000000e+000,1.152708e-005,-0.000045,-0.020509,sg|P0AG51|RL30_ECOLI (6)-sg|P0A7K6|RL19_ECOLI (96)/,Inter-Protein,1,1,9.5,7.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.13554.13554.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13554""",4,1.989081e+003,SQAIEGLVK(5)-SELVNVAK(2),Cross-Linked,DHSO,1.989080e+003,null,1.000000e+000,3.418260e-018,0.001016,0.510789,sg|P0A850|TIG_ECOLI (292)-sg|P0A850|TIG_ECOLI (31)/,Intra-Protein,1,1,9.5,7.5,1.000000e+000,1.000000e+000</t>
+          <t>4,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.30785.30785.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=30785""",4,2.461220e+003,KLQLVGVGYR(1)-DVKFGNDAR(3),Cross-Linked,DSBSO,2.461221e+003,null,1.000000e+000,1.306318e-005,-0.001094,-0.444495,sg|P0AG55|RL6_ECOLI (86)-sg|P0A6F5|CH60_ECOLI (7)/,Inter-Protein,1,1,19.5,10.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.13959.13959.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13959""",4,1.759973e+003,SELVNVAK(2)-IDGLGIK(2),Cross-Linked,DHSO,1.759973e+003,null,1.000000e+000,1.680257e-017,0.000016,0.009091,sg|P0A850|TIG_ECOLI (31)-sg|P37095|PEPB_ECOLI (52)/,Inter-Protein,1,1,10.5,5.5,1.000000e+000,1.000000e+000</t>
+          <t>5,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.9422.9422.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=9422""",5,1.938956e+003,TDKFIVR(3)-KQQGHR(1),Cross-Linked,DSBSO,1.938952e+003,null,1.000000e+000,1.696061e-005,0.003460,1.784469,sg|P60422|RL2_ECOLI (265)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,7.5,11.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.6412.6412.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=6412""",4,1.770854e+003,SELVNVAK(2)-MTEAMK(3),Cross-Linked,DHSO,1.770855e+003,Oxidation[M](12),1.000000e+000,1.076012e-016,-0.000456,-0.257503,sg|P0A850|TIG_ECOLI (31)-sg|P37095|PEPB_ECOLI (3)/,Inter-Protein,1,1,6.5,2.5,1.000000e+000,1.000000e+000</t>
+          <t>6,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.13457.13457.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13457""",4,2.174055e+003,KISNGEGVER(1)-KAGFVTR(1),Cross-Linked,DSBSO,2.174058e+003,null,1.000000e+000,1.873684e-005,-0.002678,-1.231798,sg|P0A7K6|RL19_ECOLI (63)-sg|P0A7X3|RS9_ECOLI (100)/,Inter-Protein,1,1,15.5,8.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.8968.8968.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=8968""",4,1.907987e+003,SQAIEGLVK(5)-TGDTISGK(3),Cross-Linked,DHSO,1.907985e+003,null,1.000000e+000,1.142126e-014,0.001916,1.004201,sg|P0A850|TIG_ECOLI (292)-sg|P0AG30|RHO_ECOLI (95)/,Inter-Protein,1,1,11.5,5.5,1.000000e+000,1.000000e+000</t>
+          <t>7,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.34628.34628.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=34628""",4,2.572399e+003,KLQLVGVGYR(1)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.572399e+003,null,1.000000e+000,2.309203e-005,0.000629,0.244519,sg|P0AG55|RL6_ECOLI (86)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,10.0,10.0,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.22183.22183.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=22183""",4,1.968108e+003,LPVEFVPVR(4)-AELGIPK(2),Cross-Linked,DHSO,1.968110e+003,null,1.000000e+000,3.512722e-014,-0.002037,-1.035003,sg|P00864|CAPP_ECOLI (239)-sg|P0A9Q7|ADHE_ECOLI (808)/,Inter-Protein,1,1,9.0,6.0,1.000000e+000,1.000000e+000</t>
+          <t>8,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29991.29991.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29991""",4,2.323251e+003,KLQLVGVGYR(1)-VKDLPGVR(2),Cross-Linked,DSBSO,2.323251e+003,null,1.000000e+000,2.704179e-005,-0.000537,-0.231142,sg|P0AG55|RL6_ECOLI (86)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,16.5,8.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.12122.12122.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=12122""",4,1.800977e+003,AAALAAADAR(8)-IDGLGIK(2),Cross-Linked,DHSO,1.800975e+003,null,1.000000e+000,2.622967e-013,0.002161,1.199906,sg|P0A9Q7|ADHE_ECOLI (44)-sg|P37095|PEPB_ECOLI (52)/,Inter-Protein,1,1,13.0,6.0,1.000000e+000,1.000000e+000</t>
+          <t>9,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.31066.31066.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=31066""",4,2.461225e+003,KLQLVGVGYR(1)-DVKFGNDAR(3),Cross-Linked,DSBSO,2.461221e+003,null,1.000000e+000,3.242981e-005,0.003231,1.312763,sg|P0AG55|RL6_ECOLI (86)-sg|P0A6F5|CH60_ECOLI (7)/,Inter-Protein,1,1,20.5,12.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.8229.8229.3 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=8229""",3,2.055919e+003,AAALAAADAR(8)-TGAGMMDCK(7),Cross-Linked,DHSO,2.055919e+003,Carbamidomethyl[C](21),1.000000e+000,2.798284e-013,-0.000018,-0.008755,sg|P0A9Q7|ADHE_ECOLI (44)-sg|P0A6P1|EFTS_ECOLI (22)/,Inter-Protein,1,1,13.0,8.0,1.000000e+000,1.000000e+000</t>
+          <t>10,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.22727.22727.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=22727""",4,1.963997e+003,TDKFIVR(3)-KAGFVTR(1),Cross-Linked,DSBSO,1.963998e+003,null,1.000000e+000,3.278194e-005,-0.000798,-0.406314,sg|P60422|RL2_ECOLI (265)-sg|P0A7X3|RS9_ECOLI (100)/,Inter-Protein,1,1,7.5,11.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.9139.9139.5 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=9139""",5,2.109971e+003,GTGNMELHLSR(6)-MTEAMK(3),Cross-Linked,DHSO,2.109966e+003,null,1.000000e+000,6.926857e-013,0.004685,2.220415,sg|P0AG30|RHO_ECOLI (342)-sg|P37095|PEPB_ECOLI (3)/,Inter-Protein,1,1,8.0,5.0,1.000000e+000,1.000000e+000</t>
+          <t>11,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.14379.14379.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14379""",4,2.356185e+003,KISNGEGVER(1)-TIKITQTR(3),Cross-Linked,DSBSO,2.356185e+003,null,1.000000e+000,3.425307e-005,0.000242,0.102708,sg|P0A7K6|RL19_ECOLI (63)-sg|P0AG51|RL30_ECOLI (6)/,Inter-Protein,1,1,13.5,9.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.13540.13540.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13540""",4,1.989078e+003,SQAIEGLVK(5)-SELVNVAK(2),Cross-Linked,DHSO,1.989080e+003,null,1.000000e+000,9.362443e-013,-0.001539,-0.773725,sg|P0A850|TIG_ECOLI (292)-sg|P0A850|TIG_ECOLI (31)/,Intra-Protein,1,1,8.5,9.5,1.000000e+000,1.000000e+000</t>
+          <t>12,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23256.23256.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23256""",4,2.139080e+003,MAALMKQR(6)-VKDLPGVR(2),Cross-Linked,DSBSO,2.139079e+003,null,1.000000e+000,4.273284e-005,0.000601,0.280962,sg|P27302|TKT1_ECOLI (452)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,10.5,7.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>13,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.10490.10490.3 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=10490""",3,1.833957e+003,MAEITASLVK(3)-EAAPAK(1),Cross-Linked,DHSO,1.833956e+003,null,1.000000e+000,3.539272e-012,0.001404,0.765558,sg|P0A6P1|EFTS_ECOLI (3)-sg|P0A9Q7|ADHE_ECOLI (877)/,Inter-Protein,1,1,11.5,4.5,1.000000e+000,1.000000e+000</t>
+          <t>13,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24660.24660.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24660""",4,2.084070e+003,VKDLPGVR(2)-ILKCGFR(3),Cross-Linked,DSBSO,2.084070e+003,Carbamidomethyl[C](15),1.000000e+000,5.764151e-005,0.000339,0.162662,sg|P0A7S3|RS12_ECOLI (88)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,10.5,7.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>14,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.16276.16276.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16276""",4,1.845030e+003,SQAIEGLVK(5)-IDGLGIK(2),Cross-Linked,DHSO,1.845026e+003,null,1.000000e+000,4.078059e-012,0.003615,1.959322,sg|P0A850|TIG_ECOLI (292)-sg|P37095|PEPB_ECOLI (52)/,Inter-Protein,1,1,11.5,5.5,1.000000e+000,1.000000e+000</t>
+          <t>14,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.26433.26433.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26433""",4,2.352161e+003,EIAEKMVEGR(5)-VKDLPGVR(2),Cross-Linked,DSBSO,2.352161e+003,null,1.000000e+000,6.670593e-005,0.000444,0.188763,sg|P0A6P1|EFTS_ECOLI (214)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,12.5,9.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>15,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.10439.10439.3 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=10439""",3,2.026972e+003,MVEVNACLK(3)-TGDTISGK(3),Cross-Linked,DHSO,2.026972e+003,Carbamidomethyl[C](7),1.000000e+000,8.526859e-012,-0.000093,-0.045881,sg|P00864|CAPP_ECOLI (153)-sg|P0AG30|RHO_ECOLI (95)/,Inter-Protein,1,1,7.5,5.5,1.000000e+000,1.000000e+000</t>
+          <t>15,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.13738.13738.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13738""",4,2.174059e+003,KISNGEGVER(1)-KAGFVTR(1),Cross-Linked,DSBSO,2.174058e+003,null,1.000000e+000,7.116915e-005,0.001312,0.603480,sg|P0A7K6|RL19_ECOLI (63)-sg|P0A7X3|RS9_ECOLI (100)/,Inter-Protein,1,1,9.5,6.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>16,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.5704.5704.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=5704""",4,1.770854e+003,SELVNVAK(2)-MTEAMK(3),Cross-Linked,DHSO,1.770855e+003,Oxidation[M](16),1.000000e+000,5.289565e-011,-0.000700,-0.395289,sg|P0A850|TIG_ECOLI (31)-sg|P37095|PEPB_ECOLI (3)/,Inter-Protein,1,1,5.5,4.5,1.000000e+000,1.000000e+000</t>
+          <t>16,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.15915.15915.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=15915""",4,1.852926e+003,AKLYYLR(2)-KSSAAR(1),Cross-Linked,DSBSO,1.852929e+003,null,1.000000e+000,7.306486e-005,-0.003190,-1.721598,sg|P0A7K6|RL19_ECOLI (96)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,10.5,9.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>17,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.10501.10501.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=10501""",4,1.833959e+003,MAEITASLVK(3)-EAAPAK(1),Cross-Linked,DHSO,1.833956e+003,null,1.000000e+000,7.253877e-011,0.002733,1.490221,sg|P0A6P1|EFTS_ECOLI (3)-sg|P0A9Q7|ADHE_ECOLI (877)/,Inter-Protein,1,1,8.5,4.5,1.000000e+000,1.000000e+000</t>
+          <t>17,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.16239.16239.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16239""",5,2.231133e+003,SHALNATKR(8)-AKLYYLR(2),Cross-Linked,DSBSO,2.231131e+003,null,1.000000e+000,7.326971e-005,0.002050,0.918817,sg|P0A7M2|RL28_ECOLI (26)-sg|P0A7K6|RL19_ECOLI (96)/,Inter-Protein,1,1,10.5,8.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>18,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.12259.12259.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=12259""",4,1.870864e+003,TGAGMMDCK(7)-IDGLGIK(2),Cross-Linked,DHSO,1.870864e+003,Carbamidomethyl[C](8),1.000000e+000,1.711467e-010,0.000305,0.163026,sg|P0A6P1|EFTS_ECOLI (22)-sg|P37095|PEPB_ECOLI (52)/,Inter-Protein,1,1,9.5,4.5,1.000000e+000,1.000000e+000</t>
+          <t>18,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.21211.21211.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=21211""",3,2.334195e+003,KLQLVGVGYR(1)-ELKPHDR(3),Cross-Linked,DSBSO,2.334194e+003,null,1.000000e+000,9.098727e-005,0.000744,0.318740,sg|P0AG55|RL6_ECOLI (86)-sg|P0A9Q1|ARCA_ECOLI (195)/,Inter-Protein,1,1,9.5,9.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>19,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.13230.13230.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13230""",4,2.407255e+003,AVTDKPSLLMCK(4)-SELVNVAK(2),Cross-Linked,DHSO,2.407250e+003,Carbamidomethyl[C](11),1.000000e+000,4.989077e-010,0.004559,1.893862,sg|P27302|TKT1_ECOLI (236)-sg|P0A850|TIG_ECOLI (31)/,Inter-Protein,1,1,11.0,8.0,1.000000e+000,1.000000e+000</t>
+          <t>19,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.6855.6855.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=6855""",4,2.014952e+003,KISNGEGVER(1)-KSSAAR(1),Cross-Linked,DSBSO,2.014953e+003,null,1.000000e+000,1.016229e-004,-0.000818,-0.405965,sg|P0A7K6|RL19_ECOLI (63)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,12.5,6.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.2894.2894.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=2894""",4,1.619791e+003,LTAEGVK(4)-AGNDANR(4),Cross-Linked,DHSO,1.619792e+003,null,1.000000e+000,8.036960e-010,-0.000835,-0.515498,sg|P27302|TKT1_ECOLI (574)-sg|P00864|CAPP_ECOLI (50)/,Inter-Protein,1,1,5.0,5.0,1.000000e+000,1.000000e+000</t>
+          <t>20,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.27327.27327.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=27327""",4,2.400300e+003,KLQLVGVGYR(1)-TIKITQTR(3),Cross-Linked,DSBSO,2.400299e+003,null,1.000000e+000,1.050131e-004,0.001267,0.527851,sg|P0AG55|RL6_ECOLI (86)-sg|P0AG51|RL30_ECOLI (6)/,Inter-Protein,1,1,16.5,9.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>21,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.12167.12167.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=12167""",4,1.971080e+003,AAALAAADAR(8)-AVQDVILK(4),Cross-Linked,DHSO,1.971080e+003,null,1.000000e+000,1.674418e-009,0.000096,0.048704,sg|P0A9Q7|ADHE_ECOLI (44)-sg|P0A9Q7|ADHE_ECOLI (284)/,Intra-Protein,1,1,10.0,8.0,1.000000e+000,1.000000e+000</t>
+          <t>21,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.14666.14666.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14666""",4,2.356185e+003,KISNGEGVER(1)-TIKITQTR(3),Cross-Linked,DSBSO,2.356185e+003,null,1.000000e+000,1.079440e-004,0.000463,0.196504,sg|P0A7K6|RL19_ECOLI (63)-sg|P0AG51|RL30_ECOLI (6)/,Inter-Protein,1,1,11.5,8.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>22,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.6500.6500.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=6500""",4,1.498805e+003,AELGIPK(2)-EAAPAK(1),Cross-Linked,DHSO,1.498805e+003,null,1.000000e+000,6.269307e-009,0.000353,0.235521,sg|P0A9Q7|ADHE_ECOLI (808)-sg|P0A9Q7|ADHE_ECOLI (877)/,Intra-Protein,1,1,5.5,5.5,1.000000e+000,1.000000e+000</t>
+          <t>22,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.32824.32824.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=32824""",4,2.668382e+003,DAAAAVGKAVAER(8)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.668380e+003,null,1.000000e+000,1.111710e-004,0.002395,0.897548,sg|P0C018|RL18_ECOLI (76)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,19.0,11.0,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>23,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.6658.6658.3 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=6658""",3,1.850893e+003,MVEVNACLK(3)-EAAPAK(1),Cross-Linked,DHSO,1.850892e+003,Carbamidomethyl[C](7);Oxidation[M](1),1.000000e+000,1.042457e-008,0.000809,0.437087,sg|P00864|CAPP_ECOLI (153)-sg|P0A9Q7|ADHE_ECOLI (877)/,Inter-Protein,1,1,9.5,3.5,1.000000e+000,1.000000e+000</t>
+          <t>23,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.8502.8502.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=8502""",4,1.886969e+003,TIKITQTR(3)-KSSAAR(1),Cross-Linked,DSBSO,1.886967e+003,null,1.000000e+000,1.120616e-004,0.001250,0.662439,sg|P0AG51|RL30_ECOLI (6)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,7.0,6.0,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>24,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.12241.12241.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=12241""",4,1.991046e+003,ALSMDAVQK(5)-VLDAAVAGK(3),Cross-Linked,DHSO,1.991041e+003,null,1.000000e+000,1.952246e-008,0.005014,2.518280,sg|P27302|TKT1_ECOLI (17)-sg|P0A6P1|EFTS_ECOLI (98)/,Inter-Protein,1,1,6.0,7.0,1.000000e+000,1.000000e+000</t>
+          <t>24,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.1598.1598.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=1598""",5,1.813854e+003,KQQGHR(1)-KQQGHR(1),Cross-Linked,DSBSO,1.813854e+003,null,1.000000e+000,1.156103e-004,-0.000012,-0.006616,sg|P0AG48|RL21_ECOLI (85)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,5.5,5.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>25,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.8218.8218.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=8218""",4,1.834898e+003,MVEVNACLK(3)-EAAPAK(1),Cross-Linked,DHSO,1.834897e+003,Carbamidomethyl[C](7),1.000000e+000,2.478320e-008,0.000965,0.525915,sg|P00864|CAPP_ECOLI (153)-sg|P0A9Q7|ADHE_ECOLI (877)/,Inter-Protein,1,1,7.5,4.5,1.000000e+000,1.000000e+000</t>
+          <t>25,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.7608.7608.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=7608""",4,1.704839e+003,KAGFVTR(1)-KSSAAR(1),Cross-Linked,DSBSO,1.704841e+003,null,1.000000e+000,1.318334e-004,-0.001783,-1.045846,sg|P0A7X3|RS9_ECOLI (100)-sg|P0A7X3|RS9_ECOLI (13)/,Intra-Protein,1,1,7.5,6.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>26,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.8460.8460.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=8460""",4,1.849955e+003,MAEITASLVK(3)-EAAPAK(1),Cross-Linked,DHSO,1.849951e+003,Oxidation[M](1),1.000000e+000,4.587316e-007,0.004035,2.181139,sg|P0A6P1|EFTS_ECOLI (3)-sg|P0A9Q7|ADHE_ECOLI (877)/,Inter-Protein,1,1,11.0,4.0,1.000000e+000,1.000000e+000</t>
+          <t>26,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.38596.38596.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=38596""",4,2.996496e+003,ITDVEVLKAQFEEER(8)-VKDLPGVR(2),Cross-Linked,DSBSO,2.996495e+003,null,1.000000e+000,1.367841e-004,0.000256,0.085433,sg|P0A6P1|EFTS_ECOLI (112)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,19.0,7.0,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>27,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.12137.12137.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=12137""",4,1.971082e+003,AAALAAADAR(8)-AVQDVILK(4),Cross-Linked,DHSO,1.971080e+003,null,1.000000e+000,4.903725e-007,0.001604,0.813767,sg|P0A9Q7|ADHE_ECOLI (44)-sg|P0A9Q7|ADHE_ECOLI (284)/,Intra-Protein,1,1,10.0,8.0,1.000000e+000,1.000000e+000</t>
+          <t>27,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.40909.40909.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=40909""",4,4.175953e+003,ATIDGLENMNSPEMVAAKR(18)-ITDVEVLKAQFEEER(8),Cross-Linked,DSBSO,4.175949e+003,Oxidation[M](14),1.000000e+000,1.500803e-004,0.003850,0.921946,sg|P0A7W1|RS5_ECOLI (156)-sg|P0A6P1|EFTS_ECOLI (112)/,Inter-Protein,1,1,7.0,11.0,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>28,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.9529.9529.3 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=9529""",3,1.839913e+003,SQAIEGLVK(5)-MTEAMK(3),Cross-Linked,DHSO,1.839912e+003,null,1.000000e+000,5.166498e-007,0.000671,0.364691,sg|P0A850|TIG_ECOLI (292)-sg|P37095|PEPB_ECOLI (3)/,Inter-Protein,1,1,11.5,4.5,1.000000e+000,1.000000e+000</t>
+          <t>28,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.26727.26727.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26727""",4,2.352160e+003,EIAEKMVEGR(5)-VKDLPGVR(2),Cross-Linked,DSBSO,2.352161e+003,null,1.000000e+000,1.515035e-004,-0.000387,-0.164530,sg|P0A6P1|EFTS_ECOLI (214)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,8.5,8.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>29,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.17007.17007.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=17007""",4,1.760938e+003,MNLTELK(5)-AELGIPK(2),Cross-Linked,DHSO,1.760940e+003,null,1.000000e+000,9.823669e-007,-0.001377,-0.781969,sg|P0AG30|RHO_ECOLI (5)-sg|P0A9Q7|ADHE_ECOLI (808)/,Inter-Protein,1,1,9.5,6.5,1.000000e+000,1.000000e+000</t>
+          <t>29,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.33753.33753.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=33753""",5,4.039964e+003,FAAYAKAYPQEAAEFTR(6)-VFQTHSPVVDSISVKR(15),Cross-Linked,DSBSO,4.039957e+003,null,1.000000e+000,1.626252e-004,0.007756,1.919823,sg|P27302|TKT1_ECOLI (316)-sg|P0A7K6|RL19_ECOLI (87)/,Inter-Protein,1,1,22.0,17.0,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>30,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.12331.12331.3 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=12331""",3,2.162111e+003,AGNVAADGVIK(7)-ALSMDAVQK(5),Cross-Linked,DHSO,2.162106e+003,null,1.000000e+000,9.839399e-007,0.005834,2.698296,sg|P0A6P1|EFTS_ECOLI (59)-sg|P27302|TKT1_ECOLI (17)/,Inter-Protein,1,1,10.0,7.0,1.000000e+000,1.000000e+000</t>
+          <t>30,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.22363.22363.6 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=22363""",6,3.070437e+003,DMLKAGVHFGHQTR(4)-MQKQAELYR(3),Cross-Linked,DSBSO,3.070436e+003,null,1.000000e+000,1.626821e-004,0.000576,0.187595,sg|P0A7V0|RS2_ECOLI (11)-sg|P0A7D7|PUR7_ECOLI (3)/,Inter-Protein,1,1,18.0,9.0,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>31,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.15216.15216.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=15216""",4,2.302217e+003,ITLSTQPADAR(9)-SQAIEGLVK(5),Cross-Linked,DHSO,2.302218e+003,null,1.000000e+000,1.163706e-006,-0.000946,-0.410908,sg|P37095|PEPB_ECOLI (15)-sg|P0A850|TIG_ECOLI (292)/,Inter-Protein,1,1,7.0,8.0,1.000000e+000,1.000000e+000</t>
+          <t>31,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.33107.33107.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=33107""",4,2.668382e+003,DAAAAVGKAVAER(8)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.668380e+003,null,1.000000e+000,1.698508e-004,0.002857,1.070687,sg|P0C018|RL18_ECOLI (76)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,21.0,11.0,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>32,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.15716.15716.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=15716""",4,1.798027e+003,AVQDVILK(4)-AELGIPK(2),Cross-Linked,DHSO,1.798025e+003,null,1.000000e+000,2.070952e-006,0.001446,0.804216,sg|P0A9Q7|ADHE_ECOLI (284)-sg|P0A9Q7|ADHE_ECOLI (808)/,Intra-Protein,1,1,7.5,5.5,1.000000e+000,1.000000e+000</t>
+          <t>32,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.34871.34871.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=34871""",4,2.572399e+003,KLQLVGVGYR(1)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.572399e+003,null,1.000000e+000,2.092629e-004,0.000283,0.110014,sg|P0AG55|RL6_ECOLI (86)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,10.0,10.0,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>33,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.12684.12684.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=12684""",4,1.832007e+003,SELVNVAK(2)-ALIVTDR(6),Cross-Linked,DHSO,1.832006e+003,null,1.000000e+000,5.785789e-006,0.001348,0.735806,sg|P0A850|TIG_ECOLI (31)-sg|P0A9Q7|ADHE_ECOLI (487)/,Inter-Protein,1,1,6.0,4.0,1.000000e+000,1.000000e+000</t>
+          <t>33,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.8249.8249.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=8249""",4,1.886967e+003,TIKITQTR(3)-KSSAAR(1),Cross-Linked,DSBSO,1.886967e+003,null,1.000000e+000,2.113888e-004,-0.000743,-0.393754,sg|P0AG51|RL30_ECOLI (6)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,8.5,6.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>34,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.10143.10143.5 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=10143""",5,2.345205e+003,SNVPALEACPQKR(7)-SLTEIK(4),Cross-Linked,DHSO,2.345206e+003,Carbamidomethyl[C](9),1.000000e+000,6.967828e-006,-0.000932,-0.397406,sg|P0A7S3|RS12_ECOLI (25)-sg|P0A7Z4|RPOA_ECOLI (302)/,Inter-Protein,1,1,14.0,4.0,1.000000e+000,1.000000e+000</t>
+          <t>34,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.39897.39897.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=39897""",3,3.564655e+003,ITDVEVLKAQFEEER(8)-SMKQAIYDPENR(3),Cross-Linked,DSBSO,3.564654e+003,null,1.000000e+000,2.261084e-004,0.001064,0.298486,sg|P0A6P1|EFTS_ECOLI (112)-sg|P21499|RNR_ECOLI (544)/,Inter-Protein,1,1,4.0,5.0,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>35,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.14543.14543.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14543""",4,1.699954e+003,ALIVTDR(6)-AELGIPK(2),Cross-Linked,DHSO,1.699952e+003,null,1.000000e+000,1.169076e-005,0.002221,1.306507,sg|P0A9Q7|ADHE_ECOLI (487)-sg|P0A9Q7|ADHE_ECOLI (808)/,Intra-Protein,1,1,10.0,7.0,1.000000e+000,1.000000e+000</t>
+          <t>35,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.30575.30575.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=30575""",4,2.323248e+003,KLQLVGVGYR(1)-VKDLPGVR(2),Cross-Linked,DSBSO,2.323251e+003,null,1.000000e+000,2.315808e-004,-0.002690,-1.157860,sg|P0AG55|RL6_ECOLI (86)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,18.5,8.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>36,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.6652.6652.5 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=6652""",5,2.116970e+003,GTGNMELHLSR(6)-AGNDANR(4),Cross-Linked,DHSO,2.116972e+003,null,1.000000e+000,2.069495e-005,-0.002341,-1.105825,sg|P0AG30|RHO_ECOLI (342)-sg|P00864|CAPP_ECOLI (50)/,Inter-Protein,1,1,7.5,3.5,1.000000e+000,1.000000e+000</t>
+          <t>36,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.22609.22609.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=22609""",4,2.495137e+003,MQKQAELYR(3)-DVKFGNDAR(3),Cross-Linked,DSBSO,2.495136e+003,null,1.000000e+000,2.482589e-004,0.001097,0.439655,sg|P0A7D7|PUR7_ECOLI (3)-sg|P0A6F5|CH60_ECOLI (7)/,Inter-Protein,1,1,10.5,9.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>37,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.16970.16970.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16970""",4,1.955010e+003,ALSMDAVQK(5)-ATDLFLK(3),Cross-Linked,DHSO,1.955009e+003,null,1.000000e+000,3.843898e-005,0.000878,0.449103,sg|P27302|TKT1_ECOLI (17)-sg|P00864|CAPP_ECOLI (277)/,Inter-Protein,1,1,6.5,5.5,1.000000e+000,1.000000e+000</t>
+          <t>37,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24343.24343.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24343""",4,2.084071e+003,VKDLPGVR(2)-ILKCGFR(3),Cross-Linked,DSBSO,2.084070e+003,Carbamidomethyl[C](15),1.000000e+000,2.562143e-004,0.000992,0.475992,sg|P0A7S3|RS12_ECOLI (88)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,10.5,6.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>38,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.10112.10112.3 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=10112""",3,1.718948e+003,VLDAAVAGK(3)-SLTEIK(4),Cross-Linked,DHSO,1.718947e+003,null,1.000000e+000,4.052707e-005,0.001124,0.653889,sg|P0A6P1|EFTS_ECOLI (98)-sg|P0A7Z4|RPOA_ECOLI (302)/,Inter-Protein,1,1,9.5,5.5,1.000000e+000,1.000000e+000</t>
+          <t>38,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.32808.32808.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=32808""",3,2.668381e+003,DAAAAVGKAVAER(8)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.668380e+003,null,1.000000e+000,2.574108e-004,0.001476,0.553145,sg|P0C018|RL18_ECOLI (76)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,14.0,10.0,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>39,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.12668.12668.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=12668""",4,1.832006e+003,SELVNVAK(2)-ALIVTDR(6),Cross-Linked,DHSO,1.832006e+003,null,1.000000e+000,5.545352e-005,0.000558,0.304584,sg|P0A850|TIG_ECOLI (31)-sg|P0A9Q7|ADHE_ECOLI (487)/,Inter-Protein,1,1,7.0,6.0,1.000000e+000,1.000000e+000</t>
+          <t>39,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.33729.33729.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=33729""",5,4.039959e+003,FAAYAKAYPQEAAEFTR(6)-VFQTHSPVVDSISVKR(15),Cross-Linked,DSBSO,4.039957e+003,null,1.000000e+000,2.612008e-004,0.001938,0.479708,sg|P27302|TKT1_ECOLI (316)-sg|P0A7K6|RL19_ECOLI (87)/,Inter-Protein,1,1,19.0,17.0,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>40,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.9812.9812.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=9812""",4,1.780912e+003,AVQDVILK(4)-MTEAMK(3),Cross-Linked,DHSO,1.780912e+003,null,1.000000e+000,8.482546e-005,0.000606,0.340275,sg|P0A9Q7|ADHE_ECOLI (284)-sg|P37095|PEPB_ECOLI (3)/,Inter-Protein,1,1,6.5,4.5,1.000000e+000,1.000000e+000</t>
+          <t>40,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.37146.37146.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=37146""",4,3.486708e+003,ATIDGLENMNSPEMVAAKR(18)-KLQLVGVGYR(1),Cross-Linked,DSBSO,3.486710e+003,null,1.000000e+000,2.644669e-004,-0.001301,-0.373131,sg|P0A7W1|RS5_ECOLI (156)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,22.0,10.0,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>41,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.10740.10740.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=10740""",4,1.617898e+003,LTAEGVK(4)-IDGLGIK(2),Cross-Linked,DHSO,1.617899e+003,null,1.000000e+000,1.024903e-004,-0.000959,-0.592744,sg|P27302|TKT1_ECOLI (574)-sg|P37095|PEPB_ECOLI (52)/,Inter-Protein,1,1,6.0,5.0,1.000000e+000,1.000000e+000</t>
+          <t>41,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.32162.32162.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=32162""",5,2.412311e+003,HKATLLGLGLR(2)-AKLYYLR(2),Cross-Linked,DSBSO,2.412314e+003,null,1.000000e+000,2.811672e-004,-0.003223,-1.336062,sg|P0AG51|RL30_ECOLI (21)-sg|P0A7K6|RL19_ECOLI (96)/,Inter-Protein,1,1,15.0,9.0,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>42,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.11530.11530.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=11530""",4,1.812978e+003,AAALAAADAR(8)-AELGIPK(2),Cross-Linked,DHSO,1.812975e+003,null,1.000000e+000,1.332873e-004,0.003220,1.776086,sg|P0A9Q7|ADHE_ECOLI (44)-sg|P0A9Q7|ADHE_ECOLI (808)/,Intra-Protein,1,1,12.0,6.0,1.000000e+000,1.000000e+000</t>
+          <t>42,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.31088.31088.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=31088""",5,2.364279e+003,HKATLLGLGLR(2)-TDKFIVR(3),Cross-Linked,DSBSO,2.364278e+003,null,1.000000e+000,2.974669e-004,0.001232,0.521089,sg|P0AG51|RL30_ECOLI (21)-sg|P60422|RL2_ECOLI (265)/,Inter-Protein,1,1,14.5,9.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>43,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.4578.4578.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=4578""",4,1.916935e+003,AGNVAADGVIK(7)-AGNDANR(4),Cross-Linked,DHSO,1.916935e+003,null,1.000000e+000,1.537729e-004,-0.000116,-0.060513,sg|P0A6P1|EFTS_ECOLI (59)-sg|P00864|CAPP_ECOLI (50)/,Inter-Protein,1,1,5.5,3.5,1.000000e+000,1.000000e+000</t>
+          <t>43,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.15264.15264.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=15264""",5,2.466179e+003,EIAEKMVEGR(5)-SHALNATKR(8),Cross-Linked,DSBSO,2.466178e+003,null,1.000000e+000,3.164876e-004,0.000576,0.233560,sg|P0A6P1|EFTS_ECOLI (214)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,9.5,10.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>44,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.22720.22720.3 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=22720""",3,1.923999e+003,MAEITASLVK(3)-DVLASR(1),Cross-Linked,DHSO,1.923999e+003,Oxidation[M](1),1.000000e+000,1.666097e-004,0.000047,0.024428,sg|P0A6P1|EFTS_ECOLI (3)-sg|P0A7Z4|RPOA_ECOLI (305)/,Inter-Protein,1,1,10.0,2.0,1.000000e+000,1.000000e+000</t>
+          <t>44,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.4039.4039.6 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=4039""",6,2.284082e+003,HIGGGHKQAYR(7)-KQQGHR(1),Cross-Linked,DSBSO,2.284082e+003,null,1.000000e+000,3.295542e-004,-0.000085,-0.037214,sg|P60422|RL2_ECOLI (59)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,9.5,7.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>45,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.14021.14021.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14021""",4,1.938979e+003,MVEVNACLK(3)-SLTEIK(4),Cross-Linked,DHSO,1.938981e+003,Carbamidomethyl[C](7),1.000000e+000,1.708079e-004,-0.002076,-1.070666,sg|P00864|CAPP_ECOLI (153)-sg|P0A7Z4|RPOA_ECOLI (302)/,Inter-Protein,1,1,7.0,5.0,1.000000e+000,1.000000e+000</t>
+          <t>45,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.25204.25204.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=25204""",4,3.238532e+003,FAAYAKAYPQEAAEFTR(6)-SHALNATKR(8),Cross-Linked,DSBSO,3.238529e+003,null,1.000000e+000,3.350352e-004,0.002632,0.812715,sg|P27302|TKT1_ECOLI (316)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,21.0,10.0,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>46,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.13249.13249.3 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13249""",3,2.407251e+003,AVTDKPSLLMCK(4)-SELVNVAK(2),Cross-Linked,DHSO,2.407250e+003,Carbamidomethyl[C](11),1.000000e+000,2.017317e-004,0.001032,0.428705,sg|P27302|TKT1_ECOLI (236)-sg|P0A850|TIG_ECOLI (31)/,Inter-Protein,1,1,11.0,5.0,1.000000e+000,1.000000e+000</t>
+          <t>46,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.27111.27111.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=27111""",3,3.071414e+003,EGGNEKVILCDR(6)-EAEKYANPIPSR(4),Cross-Linked,DSBSO,3.071412e+003,Carbamidomethyl[C](10),1.000000e+000,3.542831e-004,0.001964,0.639445,sg|P0A715|KDSA_ECOLI (162)-sg|P21499|RNR_ECOLI (13)/,Inter-Protein,1,1,4.0,5.0,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>47,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.6794.6794.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=6794""",4,1.715912e+003,SQAIEGLVK(5)-EAAPAK(1),Cross-Linked,DHSO,1.715911e+003,null,1.000000e+000,3.407366e-004,0.001088,0.634066,sg|P0A850|TIG_ECOLI (292)-sg|P0A9Q7|ADHE_ECOLI (877)/,Inter-Protein,1,1,8.5,3.5,1.000000e+000,1.000000e+000</t>
+          <t>47,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24659.24659.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24659""",4,2.074104e+003,VKDLPGVR(2)-VKDLPGVR(2),Cross-Linked,DSBSO,2.074103e+003,null,1.000000e+000,3.608166e-004,0.000816,0.393423,sg|P0A7S3|RS12_ECOLI (88)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,6.0,6.0,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>48,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.9791.9791.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=9791""",4,1.780911e+003,AVQDVILK(4)-MTEAMK(3),Cross-Linked,DHSO,1.780912e+003,null,1.000000e+000,3.734324e-004,-0.001057,-0.593516,sg|P0A9Q7|ADHE_ECOLI (284)-sg|P37095|PEPB_ECOLI (3)/,Inter-Protein,1,1,8.5,4.5,1.000000e+000,1.000000e+000</t>
+          <t>48,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.21020.21020.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=21020""",4,2.322148e+003,KISNGEGVER(1)-AKLYYLR(2),Cross-Linked,DSBSO,2.322147e+003,null,1.000000e+000,3.798364e-004,0.001612,0.694185,sg|P0A7K6|RL19_ECOLI (63)-sg|P0A7K6|RL19_ECOLI (96)/,Intra-Protein,1,1,11.5,7.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>49,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.26639.26639.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26639""",4,2.411325e+003,QDGPTALILSR(2)-LPVEFVPVR(4),Cross-Linked,DHSO,2.411323e+003,null,1.000000e+000,3.976224e-004,0.002631,1.091102,sg|P27302|TKT1_ECOLI (511)-sg|P00864|CAPP_ECOLI (239)/,Inter-Protein,1,1,10.5,6.5,1.000000e+000,1.000000e+000</t>
+          <t>49,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.39401.39401.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=39401""",3,3.274557e+003,ITDVEVLKAQFEEER(8)-EIAEKMVEGR(5),Cross-Linked,DSBSO,3.274553e+003,null,1.000000e+000,4.032381e-004,0.004118,1.257576,sg|P0A6P1|EFTS_ECOLI (112)-sg|P0A6P1|EFTS_ECOLI (214)/,Intra-Protein,1,1,9.0,4.0,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>50,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.8953.8953.3 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=8953""",3,1.907988e+003,SQAIEGLVK(5)-TGDTISGK(3),Cross-Linked,DHSO,1.907985e+003,null,1.000000e+000,5.107957e-004,0.002112,1.106927,sg|P0A850|TIG_ECOLI (292)-sg|P0AG30|RHO_ECOLI (95)/,Inter-Protein,1,1,9.5,7.5,1.000000e+000,1.000000e+000</t>
+          <t>50,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.3837.3837.6 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=3837""",6,2.284082e+003,HIGGGHKQAYR(7)-KQQGHR(1),Cross-Linked,DSBSO,2.284082e+003,null,1.000000e+000,4.172907e-004,-0.000228,-0.099821,sg|P60422|RL2_ECOLI (59)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,11.5,7.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>51,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.5641.5641.3 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=5641""",3,1.558838e+003,ALIVTDR(6)-EAAPAK(1),Cross-Linked,DHSO,1.558837e+003,null,1.000000e+000,5.262541e-004,0.001074,0.688975,sg|P0A9Q7|ADHE_ECOLI (487)-sg|P0A9Q7|ADHE_ECOLI (877)/,Intra-Protein,1,1,8.0,4.0,1.000000e+000,1.000000e+000</t>
+          <t>51,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29998.29998.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29998""",3,2.323254e+003,KLQLVGVGYR(1)-VKDLPGVR(2),Cross-Linked,DSBSO,2.323251e+003,null,1.000000e+000,4.325327e-004,0.002996,1.289572,sg|P0AG55|RL6_ECOLI (86)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,9.5,7.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>52,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.8979.8979.3 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=8979""",3,2.136073e+003,ITLSTQPADAR(9)-TGDTISGK(3),Cross-Linked,DHSO,2.136071e+003,null,1.000000e+000,7.261555e-004,0.002087,0.977027,sg|P37095|PEPB_ECOLI (15)-sg|P0AG30|RHO_ECOLI (95)/,Inter-Protein,1,1,14.0,6.0,1.000000e+000,1.000000e+000</t>
+          <t>52,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.25134.25134.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=25134""",4,2.194159e+003,TIKITQTR(3)-AKLYYLR(2),Cross-Linked,DSBSO,2.194161e+003,null,1.000000e+000,4.544355e-004,-0.001614,-0.735589,sg|P0AG51|RL30_ECOLI (6)-sg|P0A7K6|RL19_ECOLI (96)/,Inter-Protein,1,1,8.5,7.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>53,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.6530.6530.3 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=6530""",3,1.960986e+003,ITLSTQPADAR(9)-EAGQAK(1),Cross-Linked,DHSO,1.960987e+003,null,1.000000e+000,1.427303e-003,-0.001053,-0.536975,sg|P37095|PEPB_ECOLI (15)-sg|P27302|TKT1_ECOLI (298)/,Inter-Protein,1,1,9.0,4.0,1.000000e+000,1.000000e+000</t>
+          <t>53,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24505.24505.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24505""",4,2.139079e+003,MAALMKQR(6)-VKDLPGVR(2),Cross-Linked,DSBSO,2.139079e+003,null,1.000000e+000,4.657061e-004,-0.000669,-0.312751,sg|P27302|TKT1_ECOLI (452)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,10.5,8.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>54,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.19378.19378.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=19378""",4,1.818989e+003,QALELPR(4)-ATDLFLK(3),Cross-Linked,DHSO,1.818989e+003,null,1.000000e+000,1.611045e-003,-0.000099,-0.054426,sg|P0A850|TIG_ECOLI (331)-sg|P00864|CAPP_ECOLI (277)/,Inter-Protein,1,1,8.0,7.0,1.000000e+000,1.000000e+000</t>
+          <t>54,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.36302.36302.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=36302""",5,3.566835e+003,VFQTHSPVVDSISVKR(15)-MAEITASLVKELR(10),Cross-Linked,DSBSO,3.566827e+003,null,1.000000e+000,4.693183e-004,0.008238,2.309616,sg|P0A7K6|RL19_ECOLI (87)-sg|P0A6P1|EFTS_ECOLI (10)/,Inter-Protein,1,1,17.0,13.0,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>55,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.7642.7642.3 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=7642""",3,1.754862e+003,SELVNVAK(2)-MTEAMK(3),Cross-Linked,DHSO,1.754860e+003,null,1.000000e+000,3.347294e-003,0.002223,1.266768,sg|P0A850|TIG_ECOLI (31)-sg|P37095|PEPB_ECOLI (3)/,Inter-Protein,1,1,6.5,4.5,1.000000e+000,1.000000e+000</t>
+          <t>55,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.2612.2612.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=2612""",4,1.545737e+003,KSSAAR(1)-KSSAAR(1),Cross-Linked,DSBSO,1.545736e+003,null,1.000000e+000,4.742745e-004,0.000836,0.540843,sg|P0A7X3|RS9_ECOLI (13)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,4.5,4.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>56,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.26690.26690.3 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26690""",3,1.923998e+003,MAEITASLVK(3)-DVLASR(1),Cross-Linked,DHSO,1.923999e+003,Oxidation[M](1),1.000000e+000,3.513055e-003,-0.000502,-0.260915,sg|P0A6P1|EFTS_ECOLI (3)-sg|P0A7Z4|RPOA_ECOLI (305)/,Inter-Protein,1,1,10.0,3.0,1.000000e+000,1.000000e+000</t>
+          <t>56,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.39786.39786.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=39786""",3,3.177539e+003,ITDVEVLKAQFEEER(8)-MTDKLTSLR(4),Cross-Linked,DSBSO,3.177536e+003,null,1.000000e+000,5.078990e-004,0.002882,0.906992,sg|P0A6P1|EFTS_ECOLI (112)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,13.0,6.0,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>57,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.8584.8584.3 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=8584""",3,2.042966e+003,MVEVNACLK(3)-TGDTISGK(3),Cross-Linked,DHSO,2.042967e+003,Carbamidomethyl[C](7);Oxidation[M](1),1.000000e+000,3.578131e-003,-0.000195,-0.095449,sg|P00864|CAPP_ECOLI (153)-sg|P0AG30|RHO_ECOLI (95)/,Inter-Protein,1,1,7.5,4.5,1.000000e+000,1.000000e+000</t>
+          <t>57,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23030.23030.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23030""",4,1.963999e+003,TDKFIVR(3)-KAGFVTR(1),Cross-Linked,DSBSO,1.963998e+003,null,1.000000e+000,5.226426e-004,0.001522,0.774950,sg|P60422|RL2_ECOLI (265)-sg|P0A7X3|RS9_ECOLI (100)/,Inter-Protein,1,1,7.5,7.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>58,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.10660.10660.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=10660""",4,1.811899e+003,TGDTISGK(3)-MNLTELK(5),Cross-Linked,DHSO,1.811899e+003,null,1.000000e+000,5.950570e-003,-0.000083,-0.045808,sg|P0AG30|RHO_ECOLI (95)-sg|P0AG30|RHO_ECOLI (5)/,Intra-Protein,1,1,6.5,4.5,1.000000e+000,1.000000e+000</t>
+          <t>58,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29990.29990.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29990""",4,2.823303e+003,SMKQAIYDPENR(3)-MTDKLTSLR(4),Cross-Linked,DSBSO,2.823303e+003,null,1.000000e+000,5.357163e-004,0.000096,0.034003,sg|P21499|RNR_ECOLI (544)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,20.0,10.0,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>59,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.14210.14210.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14210""",4,2.462265e+003,SNVPALEACPQKR(7)-ATDLFLK(3),Cross-Linked,DHSO,2.462264e+003,Carbamidomethyl[C](9),1.000000e+000,8.859904e-003,0.000406,0.164889,sg|P0A7S3|RS12_ECOLI (25)-sg|P00864|CAPP_ECOLI (277)/,Inter-Protein,1,1,17.0,4.0,1.000000e+000,1.000000e+000</t>
+          <t>59,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.16538.16538.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16538""",5,2.369162e+003,MTDKLTSLR(4)-SHALNATKR(8),Cross-Linked,DSBSO,2.369162e+003,null,1.000000e+000,5.606460e-004,0.000358,0.151108,sg|P0A870|TALB_ECOLI (4)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,10.5,12.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>60,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.26236.26236.3 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26236""",3,1.924003e+003,MAEITASLVK(3)-DVLASR(1),Cross-Linked,DHSO,1.923999e+003,Oxidation[M](1),1.000000e+000,1.001664e-002,0.004258,2.213099,sg|P0A6P1|EFTS_ECOLI (3)-sg|P0A7Z4|RPOA_ECOLI (305)/,Inter-Protein,1,1,10.0,2.0,1.000000e+000,1.000000e+000</t>
+          <t>60,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.40011.40011.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=40011""",4,3.177536e+003,ITDVEVLKAQFEEER(8)-MTDKLTSLR(4),Cross-Linked,DSBSO,3.177536e+003,null,1.000000e+000,5.780338e-004,0.000024,0.007553,sg|P0A6P1|EFTS_ECOLI (112)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,20.0,8.0,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>61,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.6929.6929.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=6929""",4,1.656910e+003,AVQDVILK(4)-EAAPAK(1),Cross-Linked,DHSO,1.656910e+003,null,1.000000e+000,1.057229e-002,0.000105,0.063371,sg|P0A9Q7|ADHE_ECOLI (284)-sg|P0A9Q7|ADHE_ECOLI (877)/,Intra-Protein,1,1,7.5,3.5,1.000000e+000,1.000000e+000</t>
+          <t>61,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.39896.39896.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=39896""",4,3.564655e+003,ITDVEVLKAQFEEER(8)-SMKQAIYDPENR(3),Cross-Linked,DSBSO,3.564654e+003,null,1.000000e+000,5.970634e-004,0.001064,0.298486,sg|P0A6P1|EFTS_ECOLI (112)-sg|P21499|RNR_ECOLI (544)/,Inter-Protein,1,1,20.0,9.0,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>62,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.16959.16959.3 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16959""",3,1.955003e+003,ALSMDAVQK(5)-ATDLFLK(3),Cross-Linked,DHSO,1.955009e+003,null,1.000000e+000,1.156557e-002,-0.005457,-2.791292,sg|P27302|TKT1_ECOLI (17)-sg|P00864|CAPP_ECOLI (277)/,Inter-Protein,1,1,8.5,5.5,1.000000e+000,1.000000e+000</t>
+          <t>62,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.8743.8743.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=8743""",4,1.886968e+003,TIKITQTR(3)-KSSAAR(1),Cross-Linked,DSBSO,1.886967e+003,null,1.000000e+000,6.454417e-004,0.000844,0.447279,sg|P0AG51|RL30_ECOLI (6)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,9.0,6.0,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>63,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.20064.20064.3 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=20064""",3,2.083135e+003,QDGPTALILSR(2)-AELGIPK(2),Cross-Linked,DHSO,2.083133e+003,null,1.000000e+000,1.282311e-002,0.002311,1.109387,sg|P27302|TKT1_ECOLI (511)-sg|P0A9Q7|ADHE_ECOLI (808)/,Inter-Protein,1,1,9.0,4.0,1.000000e+000,1.000000e+000</t>
+          <t>63,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24005.24005.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24005""",4,2.293083e+003,GLSAKSFDGR(5)-MAALMKQR(6),Cross-Linked,DSBSO,2.293081e+003,null,1.000000e+000,7.092238e-004,0.002484,1.083259,sg|P62399|RL5_ECOLI (120)-sg|P27302|TKT1_ECOLI (452)/,Inter-Protein,1,1,9.5,13.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>64,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.12098.12098.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=12098""",4,1.801977e+003,AAALAAADAR(8)-KAIGEAK(5),Cross-Linked,DHSO,1.801970e+003,null,1.000000e+000,1.296528e-002,0.007400,4.106617,sg|P0A9Q7|ADHE_ECOLI (44)-sg|P0ABT2|DPS_ECOLI (138)/,Inter-Protein,1,1,12.5,6.5,1.000000e+000,1.000000e+000</t>
+          <t>64,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.40233.40233.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=40233""",4,3.177536e+003,ITDVEVLKAQFEEER(8)-MTDKLTSLR(4),Cross-Linked,DSBSO,3.177536e+003,null,1.000000e+000,7.257782e-004,-0.000662,-0.208338,sg|P0A6P1|EFTS_ECOLI (112)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,19.0,8.0,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>65,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.7524.7524.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=7524""",4,1.709840e+003,ATDLFLK(3)-AGNDANR(4),Cross-Linked,DHSO,1.709839e+003,null,1.000000e+000,1.499367e-002,0.001393,0.814697,sg|P00864|CAPP_ECOLI (277)-sg|P00864|CAPP_ECOLI (50)/,Intra-Protein,1,1,6.0,5.0,1.000000e+000,1.000000e+000</t>
+          <t>65,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.14380.14380.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14380""",3,2.356185e+003,KISNGEGVER(1)-TIKITQTR(3),Cross-Linked,DSBSO,2.356185e+003,null,1.000000e+000,7.267217e-004,0.000242,0.102708,sg|P0A7K6|RL19_ECOLI (63)-sg|P0AG51|RL30_ECOLI (6)/,Inter-Protein,1,1,8.5,8.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>66,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.5630.5630.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=5630""",4,1.558837e+003,ALIVTDR(6)-EAAPAK(1),Cross-Linked,DHSO,1.558837e+003,null,1.000000e+000,1.817850e-002,-0.000099,-0.063509,sg|P0A9Q7|ADHE_ECOLI (487)-sg|P0A9Q7|ADHE_ECOLI (877)/,Intra-Protein,1,1,5.0,7.0,1.000000e+000,1.000000e+000</t>
+          <t>66,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29410.29410.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29410""",4,3.557710e+003,VFQTHSPVVDSISVKR(15)-SMKQAIYDPENR(3),Cross-Linked,DSBSO,3.557707e+003,null,1.000000e+000,7.309531e-004,0.002967,0.833964,sg|P0A7K6|RL19_ECOLI (87)-sg|P21499|RNR_ECOLI (544)/,Inter-Protein,1,1,15.0,15.0,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>67,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.36883.36883.3 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=36883""",3,1.711778e+003,AENSNTSR(2)-DTTVGR(1),Cross-Linked,DHSO,1.711778e+003,null,1.000000e+000,2.156675e-002,0.000741,0.432883,sg|P0A8M0|SYN_ECOLI (236)-sg|P0A8T7|RPOC_ECOLI (571)/,Inter-Protein,1,1,3.5,3.5,1.000000e+000,1.000000e+000</t>
+          <t>67,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.21127.21127.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=21127""",4,2.334195e+003,KLQLVGVGYR(1)-ELKPHDR(3),Cross-Linked,DSBSO,2.334194e+003,null,1.000000e+000,7.407029e-004,0.000218,0.093394,sg|P0AG55|RL6_ECOLI (86)-sg|P0A9Q1|ARCA_ECOLI (195)/,Inter-Protein,1,1,15.5,7.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>68,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.12325.12325.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=12325""",4,2.162109e+003,AGNVAADGVIK(7)-ALSMDAVQK(5),Cross-Linked,DHSO,2.162106e+003,null,1.000000e+000,2.239014e-002,0.003257,1.506402,sg|P0A6P1|EFTS_ECOLI (59)-sg|P27302|TKT1_ECOLI (17)/,Inter-Protein,1,1,10.0,9.0,1.000000e+000,1.000000e+000</t>
+          <t>68,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.25415.25415.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=25415""",3,2.366078e+003,GLSAKSFDGR(5)-DVKFGNDAR(3),Cross-Linked,DSBSO,2.366075e+003,null,1.000000e+000,7.833557e-004,0.002900,1.225659,sg|P62399|RL5_ECOLI (120)-sg|P0A6F5|CH60_ECOLI (7)/,Inter-Protein,1,1,8.5,8.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>69,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.12591.12591.3 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=12591""",3,2.156058e+003,MNEQYSALR(3)-SELVNVAK(2),Cross-Linked,DHSO,2.156059e+003,null,1.000000e+000,2.270241e-002,-0.000503,-0.233296,sg|P00864|CAPP_ECOLI (3)-sg|P0A850|TIG_ECOLI (31)/,Inter-Protein,1,1,8.0,4.0,1.000000e+000,1.000000e+000</t>
+          <t>69,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.9683.9683.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=9683""",4,2.097982e+003,GLSAKSFDGR(5)-KQQGHR(1),Cross-Linked,DSBSO,2.097980e+003,null,1.000000e+000,7.908430e-004,0.002034,0.969504,sg|P62399|RL5_ECOLI (120)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,7.5,5.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>70,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.9536.9536.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=9536""",4,1.839915e+003,SQAIEGLVK(5)-MTEAMK(3),Cross-Linked,DHSO,1.839912e+003,null,1.000000e+000,3.085576e-002,0.002123,1.153859,sg|P0A850|TIG_ECOLI (292)-sg|P37095|PEPB_ECOLI (3)/,Inter-Protein,1,1,5.5,4.5,1.000000e+000,1.000000e+000</t>
+          <t>70,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.13023.13023.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13023""",5,2.409180e+003,HIGGGHKQAYR(7)-TDKFIVR(3),Cross-Linked,DSBSO,2.409180e+003,null,1.000000e+000,7.997990e-004,-0.000452,-0.187616,sg|P60422|RL2_ECOLI (59)-sg|P60422|RL2_ECOLI (265)/,Intra-Protein,1,1,11.5,6.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>71,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.8368.8368.3 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=8368""",3,1.796909e+003,AVQDVILK(4)-MTEAMK(3),Cross-Linked,DHSO,1.796907e+003,Oxidation[M](12),1.000000e+000,3.676079e-002,0.002333,1.298342,sg|P0A9Q7|ADHE_ECOLI (284)-sg|P37095|PEPB_ECOLI (3)/,Inter-Protein,1,1,7.5,4.5,1.000000e+000,1.000000e+000</t>
+          <t>71,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.43139.43139.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=43139""",4,3.959104e+003,VVEPLITLAKTDSVANR(10)-VVEPLITLAKTDSVANR(10),Cross-Linked,DSBSO,3.959108e+003,null,1.000000e+000,8.757620e-004,-0.003592,-0.907275,sg|P0AG44|RL17_ECOLI (56)-sg|P0AG44|RL17_ECOLI (56)/,Inter-Protein,1,1,10.0,10.0,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>72,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.10415.10415.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=10415""",4,1.872037e+003,VLDAAVAGK(3)-VLDAAVAGK(3),Cross-Linked,DHSO,1.872037e+003,null,1.000000e+000,3.754490e-002,-0.000166,-0.088673,sg|P0A6P1|EFTS_ECOLI (98)-sg|P0A6P1|EFTS_ECOLI (98)/,Inter-Protein,1,1,5.0,5.0,1.000000e+000,1.000000e+000</t>
+          <t>72,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.30786.30786.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=30786""",3,2.461220e+003,KLQLVGVGYR(1)-DVKFGNDAR(3),Cross-Linked,DSBSO,2.461221e+003,null,1.000000e+000,8.932593e-004,-0.001094,-0.444495,sg|P0AG55|RL6_ECOLI (86)-sg|P0A6F5|CH60_ECOLI (7)/,Inter-Protein,1,1,12.5,8.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>73,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.10721.10721.3 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=10721""",3,1.959070e+003,AGNVAADGVIK(7)-VLGETIK(4),Cross-Linked,DHSO,1.959069e+003,null,1.000000e+000,4.730134e-002,0.001075,0.548730,sg|P0A6P1|EFTS_ECOLI (59)-sg|P00864|CAPP_ECOLI (21)/,Inter-Protein,1,1,12.0,6.0,1.000000e+000,1.000000e+000</t>
+          <t>73,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.32542.32542.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=32542""",4,2.668382e+003,DAAAAVGKAVAER(8)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.668380e+003,null,1.000000e+000,9.417016e-004,0.002169,0.812853,sg|P0C018|RL18_ECOLI (76)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,23.0,11.0,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>74,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.22175.22175.3 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=22175""",3,1.923998e+003,MAEITASLVK(3)-DVLASR(1),Cross-Linked,DHSO,1.923999e+003,Oxidation[M](1),1.000000e+000,4.874173e-002,-0.001235,-0.641892,sg|P0A6P1|EFTS_ECOLI (3)-sg|P0A7Z4|RPOA_ECOLI (305)/,Inter-Protein,1,1,10.0,2.0,1.000000e+000,1.000000e+000</t>
+          <t>74,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.40951.40951.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=40951""",4,3.814840e+003,ATIDGLENMNSPEMVAAKR(18)-MAEITASLVKELR(10),Cross-Linked,DSBSO,3.814840e+003,null,1.000000e+000,9.923221e-004,0.000190,0.049805,sg|P0A7W1|RS5_ECOLI (156)-sg|P0A6P1|EFTS_ECOLI (10)/,Inter-Protein,1,1,12.0,18.0,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>75,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.5930.5930.3 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=5930""",3,2.071917e+003,AAALAAADAR(8)-TGAGMMDCK(7),Cross-Linked,DHSO,2.071914e+003,Carbamidomethyl[C](21);Oxidation[M](19),1.000000e+000,4.876956e-002,0.002808,1.355269,sg|P0A9Q7|ADHE_ECOLI (44)-sg|P0A6P1|EFTS_ECOLI (22)/,Inter-Protein,1,1,9.0,3.0,1.000000e+000,1.000000e+000</t>
+          <t>75,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.19201.19201.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=19201""",5,2.696334e+003,QGYPIGCKVTLR(8)-SHALNATKR(8),Cross-Linked,DSBSO,2.696332e+003,Carbamidomethyl[C](7),1.000000e+000,9.933139e-004,0.002386,0.884906,sg|P62399|RL5_ECOLI (88)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,18.0,12.0,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>76,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.9333.9333.3 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=9333""",3,1.998924e+003,TGAGMMDCK(7)-VLDAAVAGK(3),Cross-Linked,DHSO,1.998923e+003,Carbamidomethyl[C](8),1.000000e+000,5.193107e-002,0.001664,0.832448,sg|P0A6P1|EFTS_ECOLI (22)-sg|P0A6P1|EFTS_ECOLI (98)/,Intra-Protein,1,1,6.5,7.5,1.000000e+000,1.000000e+000</t>
+          <t>76,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.37438.37438.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=37438""",4,3.957951e+003,VVEPLITLAKTDSVANR(10)-DFLKHNPQNPSWADR(4),Cross-Linked,DSBSO,3.957947e+003,null,1.000000e+000,9.950918e-004,0.003369,0.851199,sg|P0AG44|RL17_ECOLI (56)-sg|P27302|TKT1_ECOLI (46)/,Inter-Protein,1,1,23.0,10.0,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>77,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.12022.12022.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=12022""",4,2.090050e+003,GTGNMELHLSR(6)-SLTEIK(4),Cross-Linked,DHSO,2.090048e+003,null,1.000000e+000,5.323676e-002,0.002173,1.039689,sg|P0AG30|RHO_ECOLI (342)-sg|P0A7Z4|RPOA_ECOLI (302)/,Inter-Protein,1,1,12.0,6.0,1.000000e+000,1.000000e+000</t>
+          <t>77,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.15511.15511.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=15511""",4,2.466178e+003,EIAEKMVEGR(5)-SHALNATKR(8),Cross-Linked,DSBSO,2.466178e+003,null,1.000000e+000,1.005293e-003,-0.000556,-0.225450,sg|P0A6P1|EFTS_ECOLI (214)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,10.5,10.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>78,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.22410.22410.3 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=22410""",3,1.923999e+003,MAEITASLVK(3)-DVLASR(1),Cross-Linked,DHSO,1.923999e+003,Oxidation[M](1),1.000000e+000,5.378170e-002,0.000230,0.119543,sg|P0A6P1|EFTS_ECOLI (3)-sg|P0A7Z4|RPOA_ECOLI (305)/,Inter-Protein,1,1,10.0,2.0,1.000000e+000,1.000000e+000</t>
+          <t>78,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29918.29918.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29918""",5,3.930887e+003,VFQTHSPVVDSISVKR(15)-DFLKHNPQNPSWADR(4),Cross-Linked,DSBSO,3.930890e+003,null,1.000000e+000,1.017753e-003,-0.002657,-0.675928,sg|P0A7K6|RL19_ECOLI (87)-sg|P27302|TKT1_ECOLI (46)/,Inter-Protein,1,1,21.0,16.0,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>79,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.7098.7098.3 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=7098""",3,1.872844e+003,TGAGMMDCK(7)-LTAEGVK(4),Cross-Linked,DHSO,1.872843e+003,Carbamidomethyl[C](8),1.000000e+000,7.702657e-002,0.000707,0.377501,sg|P0A6P1|EFTS_ECOLI (22)-sg|P27302|TKT1_ECOLI (574)/,Inter-Protein,1,1,9.5,4.5,1.000000e+000,1.000000e+000</t>
+          <t>79,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.11248.11248.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=11248""",4,1.819888e+003,ILKCGFR(3)-KSSAAR(1),Cross-Linked,DSBSO,1.819886e+003,Carbamidomethyl[C](4),1.000000e+000,1.031355e-003,0.001603,0.880824,sg|P0AG44|RL17_ECOLI (99)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,7.5,6.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>80,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.13194.13194.3 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13194""",3,1.914086e+003,VLDAAVAGK(3)-AVQDVILK(4),Cross-Linked,DHSO,1.914084e+003,null,1.000000e+000,7.718740e-002,0.001915,1.000479,sg|P0A6P1|EFTS_ECOLI (98)-sg|P0A9Q7|ADHE_ECOLI (284)/,Inter-Protein,1,1,7.5,7.5,1.000000e+000,1.000000e+000</t>
+          <t>80,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.31246.31246.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=31246""",5,3.538624e+003,FAAYAKAYPQEAAEFTR(6)-DIDGHDAASIKR(11),Cross-Linked,DSBSO,3.538625e+003,null,1.000000e+000,1.129737e-003,-0.000728,-0.205730,sg|P27302|TKT1_ECOLI (316)-sg|P27302|TKT1_ECOLI (225)/,Intra-Protein,1,1,23.0,14.0,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>81,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.15253.15253.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=15253""",4,2.302217e+003,ITLSTQPADAR(9)-SQAIEGLVK(5),Cross-Linked,DHSO,2.302218e+003,null,1.000000e+000,1.001887e-001,-0.000837,-0.363562,sg|P37095|PEPB_ECOLI (15)-sg|P0A850|TIG_ECOLI (292)/,Inter-Protein,1,1,9.0,7.0,1.000000e+000,1.000000e+000</t>
+          <t>81,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.30118.30118.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=30118""",3,3.210425e+003,SMKQAIYDPENR(3)-SMKQAIYDPENR(3),Cross-Linked,DSBSO,3.210421e+003,null,1.000000e+000,1.137085e-003,0.003810,1.186760,sg|P21499|RNR_ECOLI (544)-sg|P21499|RNR_ECOLI (544)/,Inter-Protein,1,1,3.5,3.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>82,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.8269.8269.3 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=8269""",3,1.986033e+003,AAALAAADAR(8)-AAALAAADAR(8),Cross-Linked,DHSO,1.986030e+003,null,1.000000e+000,1.110362e-001,0.003809,1.917897,sg|P0A9Q7|ADHE_ECOLI (44)-sg|P0A9Q7|ADHE_ECOLI (44)/,Inter-Protein,1,1,8.0,8.0,1.000000e+000,1.000000e+000</t>
+          <t>82,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.18761.18761.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=18761""",3,2.483322e+003,HKATLLGLGLR(2)-SHALNATKR(8),Cross-Linked,DSBSO,2.483322e+003,null,1.000000e+000,1.173981e-003,0.000500,0.201343,sg|P0AG51|RL30_ECOLI (21)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,9.5,9.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>83,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.14223.14223.5 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14223""",5,2.462263e+003,SNVPALEACPQKR(7)-ATDLFLK(3),Cross-Linked,DHSO,2.462264e+003,Carbamidomethyl[C](9),1.000000e+000,1.603683e-001,-0.001140,-0.462989,sg|P0A7S3|RS12_ECOLI (25)-sg|P00864|CAPP_ECOLI (277)/,Inter-Protein,1,1,15.0,4.0,1.000000e+000,1.000000e+000</t>
+          <t>83,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.40094.40094.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=40094""",4,4.134021e+003,VVSMPSTDAFDKQDAAYR(12)-VVEPLITLAKTDSVANR(10),Cross-Linked,DSBSO,4.134008e+003,null,1.000000e+000,1.174849e-003,0.012884,3.116588,sg|P27302|TKT1_ECOLI (591)-sg|P0AG44|RL17_ECOLI (56)/,Inter-Protein,1,1,7.5,10.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>84,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.7596.7596.3 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=7596""",3,2.015047e+003,VLDAAVAGK(3)-QNLAQQER(7),Cross-Linked,DHSO,2.015045e+003,null,1.000000e+000,1.612009e-001,0.001558,0.773184,sg|P0A6P1|EFTS_ECOLI (98)-sg|P27302|TKT1_ECOLI (527)/,Inter-Protein,1,1,9.0,7.0,1.000000e+000,1.000000e+000</t>
+          <t>84,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.34629.34629.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=34629""",3,2.572399e+003,KLQLVGVGYR(1)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.572399e+003,null,1.000000e+000,1.210622e-003,0.000629,0.244519,sg|P0AG55|RL6_ECOLI (86)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,5.5,5.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>85,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.3809.3809.3 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=3809""",3,1.802871e+003,AAALAAADAR(8)-AGNDANR(4),Cross-Linked,DHSO,1.802867e+003,null,1.000000e+000,2.966802e-001,0.003525,1.955219,sg|P0A9Q7|ADHE_ECOLI (44)-sg|P00864|CAPP_ECOLI (50)/,Inter-Protein,1,1,10.5,2.5,1.000000e+000,1.000000e+000</t>
+          <t>85,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.26143.26143.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26143""",4,2.352161e+003,EIAEKMVEGR(5)-VKDLPGVR(2),Cross-Linked,DSBSO,2.352161e+003,null,1.000000e+000,1.236232e-003,0.000622,0.264438,sg|P0A6P1|EFTS_ECOLI (214)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,14.5,10.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>86,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.19056.19056.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=19056""",4,1.747899e+003,SELVNVAK(2)-KPGMDR(5),Cross-Linked,DHSO,1.747894e+003,null,1.000000e+000,2.970515e-001,0.004847,2.773051,sg|P0A850|TIG_ECOLI (31)-sg|P61889|MDH_ECOLI (86)/,Inter-Protein,1,1,6.0,3.0,1.000000e+000,1.000000e+000</t>
+          <t>86,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.35972.35972.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=35972""",5,3.932052e+003,VVEPLITLAKTDSVANR(10)-VFQTHSPVVDSISVKR(15),Cross-Linked,DSBSO,3.932051e+003,null,1.000000e+000,1.344631e-003,0.001114,0.283313,sg|P0AG44|RL17_ECOLI (56)-sg|P0A7K6|RL19_ECOLI (87)/,Inter-Protein,1,1,17.0,19.0,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>87,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.11523.11523.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=11523""",4,1.812974e+003,AAALAAADAR(8)-AELGIPK(2),Cross-Linked,DHSO,1.812975e+003,null,1.000000e+000,3.016930e-001,-0.001257,-0.693336,sg|P0A9Q7|ADHE_ECOLI (44)-sg|P0A9Q7|ADHE_ECOLI (808)/,Intra-Protein,1,1,10.0,6.0,1.000000e+000,1.000000e+000</t>
+          <t>87,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24033.24033.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24033""",4,2.848333e+003,EAEKYANPIPSR(4)-MQKQAELYR(3),Cross-Linked,DSBSO,2.848331e+003,null,1.000000e+000,1.349595e-003,0.001910,0.670568,sg|P21499|RNR_ECOLI (13)-sg|P0A7D7|PUR7_ECOLI (3)/,Inter-Protein,1,1,14.0,9.0,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>88,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.3485.3485.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=3485""",4,1.872759e+003,TGAGMMDCK(7)-AGNDANR(4),Cross-Linked,DHSO,1.872757e+003,Carbamidomethyl[C](8),1.000000e+000,3.262874e-001,0.002713,1.448667,sg|P0A6P1|EFTS_ECOLI (22)-sg|P00864|CAPP_ECOLI (50)/,Inter-Protein,1,1,7.0,5.0,1.000000e+000,1.000000e+000</t>
+          <t>88,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.20382.20382.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=20382""",4,2.155074e+003,MAALMKQR(6)-VKDLPGVR(2),Cross-Linked,DSBSO,2.155074e+003,Oxidation[M](5),1.000000e+000,1.355160e-003,-0.000221,-0.102549,sg|P27302|TKT1_ECOLI (452)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,10.5,9.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>89,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.4327.4327.3 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=4327""",3,1.661838e+003,VLGETIK(4)-AGNDANR(4),Cross-Linked,DHSO,1.661839e+003,null,1.000000e+000,3.509156e-001,-0.000823,-0.495235,sg|P00864|CAPP_ECOLI (21)-sg|P00864|CAPP_ECOLI (50)/,Intra-Protein,1,1,5.0,5.0,1.000000e+000,1.000000e+000</t>
+          <t>89,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23177.23177.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23177""",4,2.362166e+003,MTDKLTSLR(4)-IGSTIKTDR(6),Cross-Linked,DSBSO,2.362166e+003,null,1.000000e+000,1.360787e-003,-0.000374,-0.158329,sg|P0A870|TALB_ECOLI (4)-sg|P0A7N1|RL31B_ECOLI (30)/,Inter-Protein,1,1,9.5,8.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>90,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.46007.46007.3 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=46007""",3,1.976080e+003,AEITASLVK(2)-SELVNVAK(2),Cross-Linked,DHSO,1.976084e+003,null,1.000000e+000,3.541120e-001,-0.004889,-2.474085,sg|P0A6P1|EFTS_ECOLI (3)-sg|P0A850|TIG_ECOLI (31)/,Inter-Protein,1,1,6.5,5.5,1.000000e+000,1.000000e+000</t>
+          <t>90,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.26234.26234.6 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26234""",6,2.968409e+003,DMLKAGVHFGHQTR(4)-MTDKLTSLR(4),Cross-Linked,DSBSO,2.968415e+003,null,1.000000e+000,1.392182e-003,-0.005127,-1.727185,sg|P0A7V0|RS2_ECOLI (11)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,19.0,9.0,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>91,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.8412.8412.3 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=8412""",3,1.849954e+003,MAEITASLVK(3)-EAAPAK(1),Cross-Linked,DHSO,1.849951e+003,Oxidation[M](1),1.000000e+000,3.749577e-001,0.003499,1.891402,sg|P0A6P1|EFTS_ECOLI (3)-sg|P0A9Q7|ADHE_ECOLI (877)/,Inter-Protein,1,1,7.5,3.5,1.000000e+000,1.000000e+000</t>
+          <t>91,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.36316.36316.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=36316""",4,3.077467e+003,ITDVEVLKAQFEEER(8)-MAALMKQR(6),Cross-Linked,DSBSO,3.077466e+003,Oxidation[M](19),1.000000e+000,1.394881e-003,0.000747,0.242732,sg|P0A6P1|EFTS_ECOLI (112)-sg|P27302|TKT1_ECOLI (452)/,Inter-Protein,1,1,17.0,11.0,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>92,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.9798.9798.3 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=9798""",3,2.344178e+003,ITLSTQPADAR(9)-QNLAQQER(7),Cross-Linked,DHSO,2.344179e+003,null,1.000000e+000,3.778495e-001,-0.000795,-0.339138,sg|P37095|PEPB_ECOLI (15)-sg|P27302|TKT1_ECOLI (527)/,Inter-Protein,1,1,13.5,5.5,1.000000e+000,1.000000e+000</t>
+          <t>92,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23545.23545.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23545""",4,2.139082e+003,MAALMKQR(6)-VKDLPGVR(2),Cross-Linked,DSBSO,2.139079e+003,null,1.000000e+000,1.398689e-003,0.003047,1.424445,sg|P27302|TKT1_ECOLI (452)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,8.5,7.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>93,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.32473.32473.4 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=32473""",4,1.985990e+003,IHPGEAMDK(8)-ALIVTDR(6),Cross-Linked,DHSO,1.985989e+003,Oxidation[M](7),1.000000e+000,4.086708e-001,0.000238,0.119840,sg|P0A9C5|GLNA_ECOLI (394)-sg|P0A9Q7|ADHE_ECOLI (487)/,Inter-Protein,1,1,3.0,6.0,1.000000e+000,1.000000e+000</t>
+          <t>93,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.13870.13870.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13870""",4,2.316064e+003,EGGNEKVILCDR(6)-KSSAAR(1),Cross-Linked,DSBSO,2.316063e+003,Carbamidomethyl[C](10),1.000000e+000,1.441757e-003,0.001687,0.728391,sg|P0A715|KDSA_ECOLI (162)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,18.5,6.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>94,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.14801.14801.6 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14801""",6,2.910476e+003,AVTDKPSLLMCK(4)-AVTDKPSLLMCK(4),Cross-Linked,DHSO,2.910474e+003,Carbamidomethyl[C](11);Carbamidomethyl[C](26),1.000000e+000,4.399414e-001,0.001740,0.597841,sg|P27302|TKT1_ECOLI (236)-sg|P27302|TKT1_ECOLI (236)/,Inter-Protein,1,1,6.0,6.0,1.000000e+000,1.000000e+000</t>
+          <t>94,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.27068.27068.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=27068""",3,2.400299e+003,KLQLVGVGYR(1)-TIKITQTR(3),Cross-Linked,DSBSO,2.400299e+003,null,1.000000e+000,1.448207e-003,-0.000229,-0.095405,sg|P0AG55|RL6_ECOLI (86)-sg|P0AG51|RL30_ECOLI (6)/,Inter-Protein,1,1,10.5,8.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>95,"20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.3782.3782.3 File:""20210521_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_DHSO_high_conc_5times_rep1.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=3782""",3,1.592781e+003,AGNDANR(4)-SLTEIK(4),Cross-Linked,DHSO,1.592781e+003,null,1.000000e+000,4.753981e-001,0.000126,0.079107,sg|P00864|CAPP_ECOLI (50)-sg|P0A7Z4|RPOA_ECOLI (302)/,Inter-Protein,1,1,4.0,6.0,1.000000e+000,1.000000e+000</t>
+          <t>95,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.6590.6590.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=6590""",4,2.014951e+003,KISNGEGVER(1)-KSSAAR(1),Cross-Linked,DSBSO,2.014953e+003,null,1.000000e+000,1.468712e-003,-0.001758,-0.872477,sg|P0A7K6|RL19_ECOLI (63)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,11.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>96,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.14683.14683.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14683""",5,2.901389e+003,DMLKAGVHFGHQTR(4)-SHALNATKR(8),Cross-Linked,DSBSO,2.901392e+003,null,1.000000e+000,1.543096e-003,-0.002410,-0.830636,sg|P0A7V0|RS2_ECOLI (11)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,19.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>97,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.18964.18964.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=18964""",4,2.222188e+003,VVNSKEDIR(5)-VAVIKAVR(5),Cross-Linked,DSBSO,2.222188e+003,null,1.000000e+000,1.589476e-003,-0.000076,-0.034201,sg|P0A836|SUCC_ECOLI (66)-sg|P0A7K2|RL7_ECOLI (71)/,Inter-Protein,1,1,9.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>98,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.42263.42263.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=42263""",5,4.159958e+003,ATIDGLENMNSPEMVAAKR(18)-ITDVEVLKAQFEEER(8),Cross-Linked,DSBSO,4.159954e+003,null,1.000000e+000,1.621566e-003,0.003695,0.888231,sg|P0A7W1|RS5_ECOLI (156)-sg|P0A6P1|EFTS_ECOLI (112)/,Inter-Protein,1,1,15.0,17.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>99,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23353.23353.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23353""",4,2.184116e+003,DVKFGNDAR(3)-VAVIKAVR(5),Cross-Linked,DSBSO,2.184115e+003,null,1.000000e+000,1.623089e-003,0.001427,0.653354,sg|P0A6F5|CH60_ECOLI (7)-sg|P0A7K2|RL7_ECOLI (71)/,Inter-Protein,1,1,9.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>100,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.38399.38399.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=38399""",4,2.996495e+003,ITDVEVLKAQFEEER(8)-VKDLPGVR(2),Cross-Linked,DSBSO,2.996495e+003,null,1.000000e+000,1.628916e-003,-0.000833,-0.277991,sg|P0A6P1|EFTS_ECOLI (112)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,25.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>101,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24465.24465.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24465""",5,2.902355e+003,EGGNEKVILCDR(6)-SHPFYTGKLR(8),Cross-Linked,DSBSO,2.902353e+003,Carbamidomethyl[C](10),1.000000e+000,1.705245e-003,0.001472,0.507175,sg|P0A715|KDSA_ECOLI (162)-sg|P0A7N1|RL31B_ECOLI (60)/,Inter-Protein,1,1,13.0,11.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>102,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24541.24541.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24541""",4,3.278530e+003,DMLKAGVHFGHQTR(4)-EAEKYANPIPSR(4),Cross-Linked,DSBSO,3.278539e+003,null,1.000000e+000,1.728330e-003,-0.008854,-2.700593,sg|P0A7V0|RS2_ECOLI (11)-sg|P21499|RNR_ECOLI (13)/,Inter-Protein,1,1,14.0,12.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>103,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.25446.25446.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=25446""",4,2.417137e+003,EIAEKMVEGR(5)-MAALMKQR(6),Cross-Linked,DSBSO,2.417136e+003,null,1.000000e+000,1.743841e-003,0.000665,0.275119,sg|P0A6P1|EFTS_ECOLI (214)-sg|P27302|TKT1_ECOLI (452)/,Inter-Protein,1,1,8.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>104,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.3655.3655.6 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=3655""",6,2.284084e+003,HIGGGHKQAYR(7)-KQQGHR(1),Cross-Linked,DSBSO,2.284082e+003,null,1.000000e+000,1.781191e-003,0.001806,0.790690,sg|P60422|RL2_ECOLI (59)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,10.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>105,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.3132.3132.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=3132""",4,1.545736e+003,KSSAAR(1)-KSSAAR(1),Cross-Linked,DSBSO,1.545736e+003,null,1.000000e+000,1.827641e-003,0.000055,0.035582,sg|P0A7X3|RS9_ECOLI (13)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,4.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>106,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.38386.38386.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=38386""",3,2.996498e+003,ITDVEVLKAQFEEER(8)-VKDLPGVR(2),Cross-Linked,DSBSO,2.996495e+003,null,1.000000e+000,1.845367e-003,0.002598,0.867013,sg|P0A6P1|EFTS_ECOLI (112)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,23.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>107,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.1847.1847.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=1847""",5,1.813860e+003,KQQGHR(1)-KQQGHR(1),Cross-Linked,DSBSO,1.813854e+003,null,1.000000e+000,1.850144e-003,0.005670,3.125940,sg|P0AG48|RL21_ECOLI (85)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,3.0,3.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>108,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24834.24834.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24834""",3,2.194161e+003,TIKITQTR(3)-AKLYYLR(2),Cross-Linked,DSBSO,2.194161e+003,null,1.000000e+000,1.866932e-003,-0.000045,-0.020509,sg|P0AG51|RL30_ECOLI (6)-sg|P0A7K6|RL19_ECOLI (96)/,Inter-Protein,1,1,7.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>109,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.39661.39661.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=39661""",4,3.564665e+003,ITDVEVLKAQFEEER(8)-SMKQAIYDPENR(3),Cross-Linked,DSBSO,3.564654e+003,null,1.000000e+000,1.921185e-003,0.011169,3.133263,sg|P0A6P1|EFTS_ECOLI (112)-sg|P21499|RNR_ECOLI (544)/,Inter-Protein,1,1,17.0,11.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>110,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.40234.40234.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=40234""",3,3.177536e+003,ITDVEVLKAQFEEER(8)-MTDKLTSLR(4),Cross-Linked,DSBSO,3.177536e+003,null,1.000000e+000,1.938830e-003,-0.000662,-0.208338,sg|P0A6P1|EFTS_ECOLI (112)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,14.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>111,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.34376.34376.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=34376""",4,2.572402e+003,KLQLVGVGYR(1)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.572399e+003,null,1.000000e+000,1.941890e-003,0.003121,1.213264,sg|P0AG55|RL6_ECOLI (86)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,9.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>112,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.15497.15497.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=15497""",3,2.466179e+003,EIAEKMVEGR(5)-SHALNATKR(8),Cross-Linked,DSBSO,2.466178e+003,null,1.000000e+000,1.946449e-003,0.000128,0.051902,sg|P0A6P1|EFTS_ECOLI (214)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,8.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>113,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.6350.6350.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=6350""",3,2.014955e+003,KISNGEGVER(1)-KSSAAR(1),Cross-Linked,DSBSO,2.014953e+003,null,1.000000e+000,2.060467e-003,0.002237,1.110200,sg|P0A7K6|RL19_ECOLI (63)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,10.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>114,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.39384.39384.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=39384""",4,3.274557e+003,ITDVEVLKAQFEEER(8)-EIAEKMVEGR(5),Cross-Linked,DSBSO,3.274553e+003,null,1.000000e+000,2.112708e-003,0.004022,1.228259,sg|P0A6P1|EFTS_ECOLI (112)-sg|P0A6P1|EFTS_ECOLI (214)/,Intra-Protein,1,1,18.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>115,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.22362.22362.6 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=22362""",6,3.070439e+003,DMLKAGVHFGHQTR(4)-MQKQAELYR(3),Cross-Linked,DSBSO,3.070436e+003,null,1.000000e+000,2.113214e-003,0.002868,0.934069,sg|P0A7V0|RS2_ECOLI (11)-sg|P0A7D7|PUR7_ECOLI (3)/,Inter-Protein,1,1,18.0,10.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>116,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.18802.18802.6 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=18802""",6,2.483324e+003,HKATLLGLGLR(2)-SHALNATKR(8),Cross-Linked,DSBSO,2.483322e+003,null,1.000000e+000,2.131767e-003,0.001577,0.635036,sg|P0AG51|RL30_ECOLI (21)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,10.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>117,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.35312.35312.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=35312""",4,2.640235e+003,EIAEKMVEGR(5)-DYSKYLNIR(4),Cross-Linked,DSBSO,2.640235e+003,null,1.000000e+000,2.134918e-003,-0.000705,-0.267022,sg|P0A6P1|EFTS_ECOLI (214)-sg|P25888|RHLE_ECOLI (100)/,Inter-Protein,1,1,11.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>118,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.18745.18745.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=18745""",5,2.483320e+003,HKATLLGLGLR(2)-SHALNATKR(8),Cross-Linked,DSBSO,2.483322e+003,null,1.000000e+000,2.230737e-003,-0.001618,-0.651547,sg|P0AG51|RL30_ECOLI (21)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,15.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>119,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.16226.16226.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16226""",5,2.369163e+003,MTDKLTSLR(4)-SHALNATKR(8),Cross-Linked,DSBSO,2.369162e+003,null,1.000000e+000,2.246103e-003,0.000743,0.313613,sg|P0A870|TALB_ECOLI (4)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,11.5,13.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>120,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.21636.21636.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=21636""",4,2.036019e+003,AKLYYLR(2)-EKLQER(2),Cross-Linked,DSBSO,2.036019e+003,null,1.000000e+000,2.258936e-003,0.000170,0.083496,sg|P0A7K6|RL19_ECOLI (96)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,8.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>121,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.21227.21227.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=21227""",4,2.036018e+003,AKLYYLR(2)-EKLQER(2),Cross-Linked,DSBSO,2.036019e+003,null,1.000000e+000,2.264510e-003,-0.000684,-0.335950,sg|P0A7K6|RL19_ECOLI (96)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,12.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>122,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.22550.22550.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=22550""",4,2.334192e+003,KLQLVGVGYR(1)-ELKPHDR(3),Cross-Linked,DSBSO,2.334194e+003,null,1.000000e+000,2.289614e-003,-0.002301,-0.985779,sg|P0AG55|RL6_ECOLI (86)-sg|P0A9Q1|ARCA_ECOLI (195)/,Inter-Protein,1,1,14.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>123,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.32531.32531.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=32531""",3,2.668381e+003,DAAAAVGKAVAER(8)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.668380e+003,null,1.000000e+000,2.307317e-003,0.001225,0.459080,sg|P0C018|RL18_ECOLI (76)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,19.5,12.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>124,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.7989.7989.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=7989""",5,2.107030e+003,SHALNATKR(8)-EKLQER(2),Cross-Linked,DSBSO,2.107027e+003,null,1.000000e+000,2.319550e-003,0.002645,1.255323,sg|P0A7M2|RL28_ECOLI (26)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,11.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>125,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23718.23718.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23718""",4,2.476199e+003,DYSKYLNIR(4)-SHALNATKR(8),Cross-Linked,DSBSO,2.476196e+003,null,1.000000e+000,2.342012e-003,0.002858,1.154190,sg|P25888|RHLE_ECOLI (100)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,9.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>126,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.14144.14144.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14144""",5,2.370190e+003,LQANPAKIASR(7)-ELKPHDR(3),Cross-Linked,DSBSO,2.370190e+003,null,1.000000e+000,2.377987e-003,-0.000274,-0.115603,sg|P27302|TKT1_ECOLI (354)-sg|P0A9Q1|ARCA_ECOLI (195)/,Inter-Protein,1,1,9.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>127,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.22417.22417.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=22417""",4,3.070435e+003,DMLKAGVHFGHQTR(4)-MQKQAELYR(3),Cross-Linked,DSBSO,3.070436e+003,null,1.000000e+000,2.384782e-003,-0.001513,-0.492764,sg|P0A7V0|RS2_ECOLI (11)-sg|P0A7D7|PUR7_ECOLI (3)/,Inter-Protein,1,1,17.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>128,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.6351.6351.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=6351""",4,2.014952e+003,KISNGEGVER(1)-KSSAAR(1),Cross-Linked,DSBSO,2.014953e+003,null,1.000000e+000,2.403555e-003,-0.001561,-0.774708,sg|P0A7K6|RL19_ECOLI (63)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,14.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>129,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.13365.13365.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13365""",5,3.127477e+003,DMLKAGVHFGHQTR(4)-HIGGGHKQAYR(7),Cross-Linked,DSBSO,3.127477e+003,null,1.000000e+000,2.527560e-003,0.000393,0.125660,sg|P0A7V0|RS2_ECOLI (11)-sg|P60422|RL2_ECOLI (59)/,Inter-Protein,1,1,18.0,13.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>130,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29266.29266.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29266""",4,2.295293e+003,KLQLVGVGYR(1)-VAVIKAVR(5),Cross-Linked,DSBSO,2.295293e+003,null,1.000000e+000,2.543697e-003,0.000386,0.168170,sg|P0AG55|RL6_ECOLI (86)-sg|P0A7K2|RL7_ECOLI (71)/,Inter-Protein,1,1,16.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>131,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.14282.14282.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14282""",4,2.370190e+003,LQANPAKIASR(7)-ELKPHDR(3),Cross-Linked,DSBSO,2.370190e+003,null,1.000000e+000,2.555598e-003,0.000166,0.070037,sg|P27302|TKT1_ECOLI (354)-sg|P0A9Q1|ARCA_ECOLI (195)/,Inter-Protein,1,1,10.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>132,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.25843.25843.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=25843""",4,2.373123e+003,DYSKYLNIR(4)-ELKPHDR(3),Cross-Linked,DSBSO,2.373121e+003,null,1.000000e+000,2.615529e-003,0.002039,0.859206,sg|P25888|RHLE_ECOLI (100)-sg|P0A9Q1|ARCA_ECOLI (195)/,Inter-Protein,1,1,9.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>133,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.39031.39031.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=39031""",3,3.412590e+003,FAAYAKAYPQEAAEFTR(6)-DYSKYLNIR(4),Cross-Linked,DSBSO,3.412586e+003,null,1.000000e+000,2.660439e-003,0.003282,0.961734,sg|P27302|TKT1_ECOLI (316)-sg|P25888|RHLE_ECOLI (100)/,Inter-Protein,1,1,15.0,4.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>134,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.30104.30104.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=30104""",4,2.538222e+003,DYSKYLNIR(4)-VVNSKEDIR(5),Cross-Linked,DSBSO,2.538221e+003,null,1.000000e+000,2.675073e-003,0.000269,0.105980,sg|P25888|RHLE_ECOLI (100)-sg|P0A836|SUCC_ECOLI (66)/,Inter-Protein,1,1,11.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>135,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.40012.40012.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=40012""",3,3.177536e+003,ITDVEVLKAQFEEER(8)-MTDKLTSLR(4),Cross-Linked,DSBSO,3.177536e+003,null,1.000000e+000,2.677155e-003,0.000024,0.007553,sg|P0A6P1|EFTS_ECOLI (112)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,12.0,4.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>136,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.38546.38546.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=38546""",3,3.006463e+003,ITDVEVLKAQFEEER(8)-ILKCGFR(3),Cross-Linked,DSBSO,3.006462e+003,Carbamidomethyl[C](22),1.000000e+000,2.687052e-003,0.001285,0.427413,sg|P0A6P1|EFTS_ECOLI (112)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,18.0,4.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>137,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.4615.4615.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=4615""",5,1.923936e+003,SHALNATKR(8)-KSSAAR(1),Cross-Linked,DSBSO,1.923937e+003,null,1.000000e+000,2.693411e-003,-0.001428,-0.742228,sg|P0A7M2|RL28_ECOLI (26)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,9.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>138,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24972.24972.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24972""",4,2.084071e+003,VKDLPGVR(2)-ILKCGFR(3),Cross-Linked,DSBSO,2.084070e+003,Carbamidomethyl[C](15),1.000000e+000,2.712577e-003,0.001187,0.569559,sg|P0A7S3|RS12_ECOLI (88)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,10.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>139,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.2776.2776.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=2776""",4,1.545737e+003,KSSAAR(1)-KSSAAR(1),Cross-Linked,DSBSO,1.545736e+003,null,1.000000e+000,2.737333e-003,0.001197,0.774388,sg|P0A7X3|RS9_ECOLI (13)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,4.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>140,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.27359.27359.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=27359""",3,2.400300e+003,KLQLVGVGYR(1)-TIKITQTR(3),Cross-Linked,DSBSO,2.400299e+003,null,1.000000e+000,2.753157e-003,0.000986,0.410782,sg|P0AG55|RL6_ECOLI (86)-sg|P0AG51|RL30_ECOLI (6)/,Inter-Protein,1,1,9.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>141,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23602.23602.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23602""",4,2.256173e+003,ESVLPKAVTAR(6)-KAGFVTR(1),Cross-Linked,DSBSO,2.256173e+003,null,1.000000e+000,2.753157e-003,0.000394,0.174632,sg|P27302|TKT1_ECOLI (603)-sg|P0A7X3|RS9_ECOLI (100)/,Inter-Protein,1,1,12.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>142,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.25844.25844.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=25844""",5,2.373123e+003,DYSKYLNIR(4)-ELKPHDR(3),Cross-Linked,DSBSO,2.373121e+003,null,1.000000e+000,2.802352e-003,0.002039,0.859206,sg|P25888|RHLE_ECOLI (100)-sg|P0A9Q1|ARCA_ECOLI (195)/,Inter-Protein,1,1,10.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>143,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.16720.16720.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16720""",4,2.046072e+003,TIKITQTR(3)-KAGFVTR(1),Cross-Linked,DSBSO,2.046072e+003,null,1.000000e+000,2.827361e-003,-0.000482,-0.235573,sg|P0AG51|RL30_ECOLI (6)-sg|P0A7X3|RS9_ECOLI (100)/,Inter-Protein,1,1,11.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>144,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.28586.28586.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=28586""",3,2.557204e+003,DAAAAVGKAVAER(8)-DVKFGNDAR(3),Cross-Linked,DSBSO,2.557202e+003,null,1.000000e+000,2.889754e-003,0.001898,0.742217,sg|P0C018|RL18_ECOLI (76)-sg|P0A6F5|CH60_ECOLI (7)/,Inter-Protein,1,1,15.0,11.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>145,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.27601.27601.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=27601""",4,2.400297e+003,KLQLVGVGYR(1)-TIKITQTR(3),Cross-Linked,DSBSO,2.400299e+003,null,1.000000e+000,2.944580e-003,-0.001779,-0.741158,sg|P0AG55|RL6_ECOLI (86)-sg|P0AG51|RL30_ECOLI (6)/,Inter-Protein,1,1,14.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>146,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.25491.25491.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=25491""",4,2.041119e+003,VAVIKAVR(5)-TDKFIVR(3),Cross-Linked,DSBSO,2.041118e+003,null,1.000000e+000,3.000235e-003,0.000399,0.195481,sg|P0A7K2|RL7_ECOLI (71)-sg|P60422|RL2_ECOLI (265)/,Inter-Protein,1,1,8.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>147,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.36539.36539.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=36539""",4,2.405187e+003,DYSKYLNIR(4)-AKLYYLR(2),Cross-Linked,DSBSO,2.405188e+003,null,1.000000e+000,3.068510e-003,-0.000396,-0.164644,sg|P25888|RHLE_ECOLI (100)-sg|P0A7K6|RL19_ECOLI (96)/,Inter-Protein,1,1,10.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>148,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.31356.31356.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=31356""",3,2.764364e+003,DAAAAVGKAVAER(8)-DAAAAVGKAVAER(8),Cross-Linked,DSBSO,2.764360e+003,null,1.000000e+000,3.069581e-003,0.003327,1.203533,sg|P0C018|RL18_ECOLI (76)-sg|P0C018|RL18_ECOLI (76)/,Inter-Protein,1,1,9.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>149,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.3642.3642.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=3642""",5,2.284084e+003,HIGGGHKQAYR(7)-KQQGHR(1),Cross-Linked,DSBSO,2.284082e+003,null,1.000000e+000,3.089013e-003,0.001579,0.691306,sg|P60422|RL2_ECOLI (59)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,11.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>150,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.22852.22852.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=22852""",4,2.428146e+003,MQKQAELYR(3)-VGFGYGKAR(7),Cross-Linked,DSBSO,2.428146e+003,null,1.000000e+000,3.161980e-003,0.000015,0.006178,sg|P0A7D7|PUR7_ECOLI (3)-sg|P0A7W1|RS5_ECOLI (52)/,Inter-Protein,1,1,8.5,10.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>151,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23676.23676.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23676""",4,2.501221e+003,QGYPIGCKVTLR(8)-EKLQER(2),Cross-Linked,DSBSO,2.501220e+003,Carbamidomethyl[C](7),1.000000e+000,3.163840e-003,0.001169,0.467372,sg|P62399|RL5_ECOLI (88)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,14.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>152,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.28050.28050.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=28050""",4,2.557204e+003,DAAAAVGKAVAER(8)-DVKFGNDAR(3),Cross-Linked,DSBSO,2.557202e+003,null,1.000000e+000,3.166332e-003,0.001926,0.753167,sg|P0C018|RL18_ECOLI (76)-sg|P0A6F5|CH60_ECOLI (7)/,Inter-Protein,1,1,18.0,10.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>153,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29023.29023.6 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29023""",6,3.904994e+003,VFQTHSPVVDSISVKR(15)-VFQTHSPVVDSISVKR(15),Cross-Linked,DSBSO,3.904993e+003,null,1.000000e+000,3.172746e-003,0.000450,0.115237,sg|P0A7K6|RL19_ECOLI (87)-sg|P0A7K6|RL19_ECOLI (87)/,Inter-Protein,1,1,12.5,12.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>154,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.21041.21041.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=21041""",3,2.322146e+003,KISNGEGVER(1)-AKLYYLR(2),Cross-Linked,DSBSO,2.322147e+003,null,1.000000e+000,3.208398e-003,-0.001020,-0.439249,sg|P0A7K6|RL19_ECOLI (63)-sg|P0A7K6|RL19_ECOLI (96)/,Intra-Protein,1,1,9.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>155,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.11794.11794.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=11794""",4,1.819885e+003,ILKCGFR(3)-KSSAAR(1),Cross-Linked,DSBSO,1.819886e+003,Carbamidomethyl[C](4),1.000000e+000,3.222436e-003,-0.001205,-0.662129,sg|P0AG44|RL17_ECOLI (99)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,7.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>156,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.11330.11330.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=11330""",3,2.482172e+003,EIAEKMVEGR(5)-SHALNATKR(8),Cross-Linked,DSBSO,2.482173e+003,Oxidation[M](6),1.000000e+000,3.230798e-003,-0.001156,-0.465721,sg|P0A6P1|EFTS_ECOLI (214)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,10.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>157,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.37414.37414.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=37414""",5,3.957952e+003,VVEPLITLAKTDSVANR(10)-DFLKHNPQNPSWADR(4),Cross-Linked,DSBSO,3.957947e+003,null,1.000000e+000,3.250567e-003,0.004625,1.168535,sg|P0AG44|RL17_ECOLI (56)-sg|P27302|TKT1_ECOLI (46)/,Inter-Protein,1,1,17.0,15.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>158,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.37099.37099.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=37099""",5,3.105622e+003,IGVPFVDGGVIKAEVVAHGR(12)-KAGFVTR(1),Cross-Linked,DSBSO,3.105622e+003,null,1.000000e+000,3.285616e-003,-0.000471,-0.151660,sg|P0AG48|RL21_ECOLI (60)-sg|P0A7X3|RS9_ECOLI (100)/,Inter-Protein,1,1,20.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>159,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23218.23218.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23218""",4,2.149046e+003,MAALMKQR(6)-ILKCGFR(3),Cross-Linked,DSBSO,2.149046e+003,Carbamidomethyl[C](15),1.000000e+000,3.303809e-003,0.000305,0.141923,sg|P27302|TKT1_ECOLI (452)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,9.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>160,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23428.23428.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23428""",5,2.476195e+003,DYSKYLNIR(4)-SHALNATKR(8),Cross-Linked,DSBSO,2.476196e+003,null,1.000000e+000,3.306708e-003,-0.000350,-0.141346,sg|P25888|RHLE_ECOLI (100)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,9.5,11.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>161,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.17099.17099.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=17099""",4,2.155050e+003,DAAAAVGKAVAER(8)-KSSAAR(1),Cross-Linked,DSBSO,2.155048e+003,null,1.000000e+000,3.309016e-003,0.002081,0.965640,sg|P0C018|RL18_ECOLI (76)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,18.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>162,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.19180.19180.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=19180""",4,2.696332e+003,QGYPIGCKVTLR(8)-SHALNATKR(8),Cross-Linked,DSBSO,2.696332e+003,Carbamidomethyl[C](7),1.000000e+000,3.315949e-003,0.000155,0.057486,sg|P62399|RL5_ECOLI (88)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,13.0,10.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>163,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29299.29299.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29299""",5,3.170589e+003,VFQTHSPVVDSISVKR(15)-MTDKLTSLR(4),Cross-Linked,DSBSO,3.170589e+003,null,1.000000e+000,3.412948e-003,-0.000759,-0.239388,sg|P0A7K6|RL19_ECOLI (87)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,20.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>164,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.30329.30329.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=30329""",3,2.706382e+003,DAAAAVGKAVAER(8)-ESVLPKAVTAR(6),Cross-Linked,DSBSO,2.706380e+003,null,1.000000e+000,3.482001e-003,0.002534,0.936306,sg|P0C018|RL18_ECOLI (76)-sg|P27302|TKT1_ECOLI (603)/,Inter-Protein,1,1,15.0,12.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>165,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.8499.8499.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=8499""",3,1.886968e+003,TIKITQTR(3)-KSSAAR(1),Cross-Linked,DSBSO,1.886967e+003,null,1.000000e+000,3.502743e-003,0.000796,0.421841,sg|P0AG51|RL30_ECOLI (6)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,7.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>166,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.13315.13315.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13315""",4,2.046003e+003,IGSTIKTDR(6)-VSAKGMR(4),Cross-Linked,DSBSO,2.046003e+003,null,1.000000e+000,3.523187e-003,0.000473,0.231182,sg|P0A7N1|RL31B_ECOLI (30)-sg|P0A7M2|RL28_ECOLI (54)/,Inter-Protein,1,1,9.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>167,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.13366.13366.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13366""",4,3.127477e+003,DMLKAGVHFGHQTR(4)-HIGGGHKQAYR(7),Cross-Linked,DSBSO,3.127477e+003,null,1.000000e+000,3.537681e-003,0.000393,0.125660,sg|P0A7V0|RS2_ECOLI (11)-sg|P60422|RL2_ECOLI (59)/,Inter-Protein,1,1,15.0,11.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>168,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.11582.11582.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=11582""",3,2.484171e+003,KISNGEGVER(1)-KISNGEGVER(1),Cross-Linked,DSBSO,2.484170e+003,null,1.000000e+000,3.571435e-003,0.000370,0.148943,sg|P0A7K6|RL19_ECOLI (63)-sg|P0A7K6|RL19_ECOLI (63)/,Inter-Protein,1,1,6.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>169,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.37961.37961.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=37961""",4,3.911940e+003,VFQTHSPVVDSISVKR(15)-ITDVEVLKAQFEEER(8),Cross-Linked,DSBSO,3.911940e+003,null,1.000000e+000,3.577490e-003,0.000126,0.032209,sg|P0A7K6|RL19_ECOLI (87)-sg|P0A6P1|EFTS_ECOLI (112)/,Inter-Protein,1,1,12.0,15.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>170,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.26798.26798.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26798""",4,3.071413e+003,EGGNEKVILCDR(6)-EAEKYANPIPSR(4),Cross-Linked,DSBSO,3.071412e+003,Carbamidomethyl[C](10),1.000000e+000,3.761758e-003,0.001686,0.548933,sg|P0A715|KDSA_ECOLI (162)-sg|P21499|RNR_ECOLI (13)/,Inter-Protein,1,1,12.0,13.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>171,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.16207.16207.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16207""",4,2.231134e+003,SHALNATKR(8)-AKLYYLR(2),Cross-Linked,DSBSO,2.231131e+003,null,1.000000e+000,3.782464e-003,0.002666,1.194910,sg|P0A7M2|RL28_ECOLI (26)-sg|P0A7K6|RL19_ECOLI (96)/,Inter-Protein,1,1,12.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>172,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.40180.40180.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=40180""",4,4.067027e+003,FAAYAKAYPQEAAEFTR(6)-VVEPLITLAKTDSVANR(10),Cross-Linked,DSBSO,4.067014e+003,null,1.000000e+000,3.784122e-003,0.012666,3.114324,sg|P27302|TKT1_ECOLI (316)-sg|P0AG44|RL17_ECOLI (56)/,Inter-Protein,1,1,11.0,10.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>173,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.14685.14685.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14685""",3,2.901389e+003,DMLKAGVHFGHQTR(4)-SHALNATKR(8),Cross-Linked,DSBSO,2.901392e+003,null,1.000000e+000,3.799421e-003,-0.002410,-0.830636,sg|P0A7V0|RS2_ECOLI (11)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,15.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>174,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.26816.26816.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26816""",4,2.622312e+003,KLQLVGVGYR(1)-MQKQAELYR(3),Cross-Linked,DSBSO,2.622309e+003,Oxidation[M](14),1.000000e+000,3.830928e-003,0.002963,1.129920,sg|P0AG55|RL6_ECOLI (86)-sg|P0A7D7|PUR7_ECOLI (3)/,Inter-Protein,1,1,15.0,10.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>175,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.13012.13012.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13012""",4,2.046003e+003,IGSTIKTDR(6)-VSAKGMR(4),Cross-Linked,DSBSO,2.046003e+003,null,1.000000e+000,3.873908e-003,0.000158,0.077224,sg|P0A7N1|RL31B_ECOLI (30)-sg|P0A7M2|RL28_ECOLI (54)/,Inter-Protein,1,1,8.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>176,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.33096.33096.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=33096""",3,2.668382e+003,DAAAAVGKAVAER(8)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.668380e+003,null,1.000000e+000,3.907976e-003,0.002857,1.070687,sg|P0C018|RL18_ECOLI (76)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,18.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>177,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.33062.33062.6 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=33062""",6,3.386640e+003,DMLKAGVHFGHQTR(4)-QLGEDPWVAIAKR(12),Cross-Linked,DSBSO,3.386644e+003,null,1.000000e+000,3.941086e-003,-0.004465,-1.318414,sg|P0A7V0|RS2_ECOLI (11)-sg|P0AG67|RS1_ECOLI (272)/,Inter-Protein,1,1,17.0,12.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>178,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.20113.20113.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=20113""",3,2.155074e+003,MAALMKQR(6)-VKDLPGVR(2),Cross-Linked,DSBSO,2.155074e+003,Oxidation[M](1),1.000000e+000,3.944660e-003,0.000135,0.062643,sg|P27302|TKT1_ECOLI (452)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,15.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>179,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.14684.14684.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14684""",4,2.901389e+003,DMLKAGVHFGHQTR(4)-SHALNATKR(8),Cross-Linked,DSBSO,2.901392e+003,null,1.000000e+000,3.971706e-003,-0.002410,-0.830636,sg|P0A7V0|RS2_ECOLI (11)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,17.0,10.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>180,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.18437.18437.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=18437""",3,2.220050e+003,MAALMKQR(6)-MAALMKQR(6),Cross-Linked,DSBSO,2.220050e+003,Oxidation[M](1),1.000000e+000,3.976535e-003,0.000459,0.206752,sg|P27302|TKT1_ECOLI (452)-sg|P27302|TKT1_ECOLI (452)/,Inter-Protein,1,1,18.0,13.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>181,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.11290.11290.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=11290""",4,1.790860e+003,KAGFVTR(1)-AMEKAR(4),Cross-Linked,DSBSO,1.790860e+003,null,1.000000e+000,3.980973e-003,0.000097,0.054164,sg|P0A7X3|RS9_ECOLI (100)-sg|P0A7W1|RS5_ECOLI (66)/,Inter-Protein,1,1,11.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>182,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.31039.31039.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=31039""",4,2.160123e+003,AKLYYLR(2)-AKLYYLR(2),Cross-Linked,DSBSO,2.160123e+003,null,1.000000e+000,3.981053e-003,0.000330,0.152769,sg|P0A7K6|RL19_ECOLI (96)-sg|P0A7K6|RL19_ECOLI (96)/,Inter-Protein,1,1,5.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>183,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23752.23752.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23752""",3,2.848337e+003,EAEKYANPIPSR(4)-MQKQAELYR(3),Cross-Linked,DSBSO,2.848331e+003,null,1.000000e+000,4.042183e-003,0.005990,2.102986,sg|P21499|RNR_ECOLI (13)-sg|P0A7D7|PUR7_ECOLI (3)/,Inter-Protein,1,1,6.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>184,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.39175.39175.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=39175""",3,3.274556e+003,ITDVEVLKAQFEEER(8)-EIAEKMVEGR(5),Cross-Linked,DSBSO,3.274553e+003,null,1.000000e+000,4.132136e-003,0.003458,1.056022,sg|P0A6P1|EFTS_ECOLI (112)-sg|P0A6P1|EFTS_ECOLI (214)/,Intra-Protein,1,1,15.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>185,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.54460.54460.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=54460""",3,2.668379e+003,DAAAAVGKAVAER(8)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.668380e+003,null,1.000000e+000,4.164690e-003,-0.000615,-0.230477,sg|P0C018|RL18_ECOLI (76)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,10.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>186,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.39051.39051.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=39051""",4,3.412588e+003,FAAYAKAYPQEAAEFTR(6)-DYSKYLNIR(4),Cross-Linked,DSBSO,3.412586e+003,null,1.000000e+000,4.171414e-003,0.002179,0.638519,sg|P27302|TKT1_ECOLI (316)-sg|P25888|RHLE_ECOLI (100)/,Inter-Protein,1,1,21.0,10.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>187,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.20822.20822.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=20822""",4,2.120023e+003,MTDKLTSLR(4)-VSAKGMR(4),Cross-Linked,DSBSO,2.120022e+003,null,1.000000e+000,4.236594e-003,0.001688,0.796218,sg|P0A870|TALB_ECOLI (4)-sg|P0A7M2|RL28_ECOLI (54)/,Inter-Protein,1,1,8.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>188,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.8589.8589.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=8589""",4,2.053000e+003,SHALNATKR(8)-VSAKGMR(4),Cross-Linked,DSBSO,2.052999e+003,null,1.000000e+000,4.260412e-003,0.001264,0.615685,sg|P0A7M2|RL28_ECOLI (26)-sg|P0A7M2|RL28_ECOLI (54)/,Intra-Protein,1,1,6.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>189,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.22779.22779.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=22779""",4,2.277049e+003,DVKFGNDAR(3)-MAALMKQR(6),Cross-Linked,DSBSO,2.277049e+003,null,1.000000e+000,4.273583e-003,-0.000764,-0.335522,sg|P0A6F5|CH60_ECOLI (7)-sg|P27302|TKT1_ECOLI (452)/,Inter-Protein,1,1,9.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>190,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.33732.33732.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=33732""",4,4.039959e+003,FAAYAKAYPQEAAEFTR(6)-VFQTHSPVVDSISVKR(15),Cross-Linked,DSBSO,4.039957e+003,null,1.000000e+000,4.277159e-003,0.001938,0.479708,sg|P27302|TKT1_ECOLI (316)-sg|P0A7K6|RL19_ECOLI (87)/,Inter-Protein,1,1,17.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>191,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.22612.22612.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=22612""",4,2.149046e+003,MAALMKQR(6)-ILKCGFR(3),Cross-Linked,DSBSO,2.149046e+003,Carbamidomethyl[C](15),1.000000e+000,4.279715e-003,0.000268,0.124707,sg|P27302|TKT1_ECOLI (452)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,9.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>192,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.11542.11542.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=11542""",4,1.790859e+003,KAGFVTR(1)-AMEKAR(4),Cross-Linked,DSBSO,1.790860e+003,null,1.000000e+000,4.321422e-003,-0.000903,-0.504227,sg|P0A7X3|RS9_ECOLI (100)-sg|P0A7W1|RS5_ECOLI (66)/,Inter-Protein,1,1,10.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>193,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.36031.36031.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=36031""",5,3.932053e+003,VVEPLITLAKTDSVANR(10)-VFQTHSPVVDSISVKR(15),Cross-Linked,DSBSO,3.932051e+003,null,1.000000e+000,4.337630e-003,0.002179,0.554164,sg|P0AG44|RL17_ECOLI (56)-sg|P0A7K6|RL19_ECOLI (87)/,Inter-Protein,1,1,18.0,20.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>194,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.16971.16971.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16971""",4,2.231130e+003,SHALNATKR(8)-AKLYYLR(2),Cross-Linked,DSBSO,2.231131e+003,null,1.000000e+000,4.389984e-003,-0.000746,-0.334360,sg|P0A7M2|RL28_ECOLI (26)-sg|P0A7K6|RL19_ECOLI (96)/,Inter-Protein,1,1,13.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>195,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.30584.30584.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=30584""",3,2.824419e+003,QAGELQEKLIAVNR(8)-MAALMKQR(6),Cross-Linked,DSBSO,2.824419e+003,null,1.000000e+000,4.427777e-003,0.000696,0.246422,sg|P0A7W1|RS5_ECOLI (14)-sg|P27302|TKT1_ECOLI (452)/,Inter-Protein,1,1,11.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>196,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.36877.36877.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=36877""",5,2.657381e+003,HKATLLGLGLR(2)-DYSKYLNIR(4),Cross-Linked,DSBSO,2.657379e+003,null,1.000000e+000,4.480902e-003,0.001720,0.647254,sg|P0AG51|RL30_ECOLI (21)-sg|P25888|RHLE_ECOLI (100)/,Inter-Protein,1,1,12.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>197,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.11578.11578.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=11578""",4,2.261090e+003,VVNSKEDIR(5)-ELKPHDR(3),Cross-Linked,DSBSO,2.261090e+003,null,1.000000e+000,4.491710e-003,0.000461,0.203884,sg|P0A836|SUCC_ECOLI (66)-sg|P0A9Q1|ARCA_ECOLI (195)/,Inter-Protein,1,1,10.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>198,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23386.23386.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23386""",5,2.288209e+003,HKATLLGLGLR(2)-EKLQER(2),Cross-Linked,DSBSO,2.288210e+003,null,1.000000e+000,4.547997e-003,-0.000945,-0.412987,sg|P0AG51|RL30_ECOLI (21)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,17.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>199,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.15220.15220.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=15220""",5,2.085047e+003,VKDLPGVR(2)-ELKPHDR(3),Cross-Linked,DSBSO,2.085047e+003,null,1.000000e+000,4.560691e-003,0.000424,0.203353,sg|P0A7S3|RS12_ECOLI (88)-sg|P0A9Q1|ARCA_ECOLI (195)/,Inter-Protein,1,1,9.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>200,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.25965.25965.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=25965""",4,2.430271e+003,KLQLVGVGYR(1)-IGSTIKTDR(6),Cross-Linked,DSBSO,2.430273e+003,null,1.000000e+000,4.574103e-003,-0.001837,-0.755882,sg|P0AG55|RL6_ECOLI (86)-sg|P0A7N1|RL31B_ECOLI (30)/,Inter-Protein,1,1,16.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>201,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29781.29781.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29781""",3,2.413222e+003,DAAAAVGKAVAER(8)-SVAGFKIR(6),Cross-Linked,DSBSO,2.413221e+003,null,1.000000e+000,4.761309e-003,0.000504,0.208849,sg|P0C018|RL18_ECOLI (76)-sg|P62399|RL5_ECOLI (78)/,Inter-Protein,1,1,19.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>202,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.35228.35228.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=35228""",4,3.418604e+003,ATIDGLENMNSPEMVAAKR(18)-MTDKLTSLR(4),Cross-Linked,DSBSO,3.418603e+003,null,1.000000e+000,4.770083e-003,0.001401,0.409817,sg|P0A7W1|RS5_ECOLI (156)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,18.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>203,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29110.29110.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29110""",4,3.148407e+003,SMKQAIYDPENR(3)-EGGNEKVILCDR(6),Cross-Linked,DSBSO,3.148405e+003,Carbamidomethyl[C](25),1.000000e+000,4.808500e-003,0.001889,0.599986,sg|P21499|RNR_ECOLI (544)-sg|P0A715|KDSA_ECOLI (162)/,Inter-Protein,1,1,19.0,15.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>204,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.37495.37495.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=37495""",4,3.181587e+003,QLGEDPWVAIAKR(12)-QGYPIGCKVTLR(8),Cross-Linked,DSBSO,3.181584e+003,Carbamidomethyl[C](23),1.000000e+000,4.879651e-003,0.002991,0.940098,sg|P0AG67|RS1_ECOLI (272)-sg|P62399|RL5_ECOLI (88)/,Inter-Protein,1,1,11.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>205,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.16560.16560.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16560""",5,2.231128e+003,SHALNATKR(8)-AKLYYLR(2),Cross-Linked,DSBSO,2.231131e+003,null,1.000000e+000,4.888545e-003,-0.002524,-1.131265,sg|P0A7M2|RL28_ECOLI (26)-sg|P0A7K6|RL19_ECOLI (96)/,Inter-Protein,1,1,12.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>206,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.33403.33403.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=33403""",3,2.668381e+003,DAAAAVGKAVAER(8)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.668380e+003,null,1.000000e+000,4.923892e-003,0.001765,0.661450,sg|P0C018|RL18_ECOLI (76)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,18.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>207,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.18366.18366.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=18366""",3,2.865356e+003,SNVPALEACPQKR(12)-KISNGEGVER(1),Cross-Linked,DSBSO,2.865354e+003,Carbamidomethyl[C](9),1.000000e+000,5.040885e-003,0.002161,0.754183,sg|P0A7S3|RS12_ECOLI (30)-sg|P0A7K6|RL19_ECOLI (63)/,Inter-Protein,1,1,7.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>208,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.42157.42157.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=42157""",5,4.159956e+003,ATIDGLENMNSPEMVAAKR(18)-ITDVEVLKAQFEEER(8),Cross-Linked,DSBSO,4.159954e+003,null,1.000000e+000,5.087896e-003,0.002386,0.573564,sg|P0A7W1|RS5_ECOLI (156)-sg|P0A6P1|EFTS_ECOLI (112)/,Inter-Protein,1,1,14.0,13.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>209,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.33826.33826.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=33826""",3,2.668384e+003,DAAAAVGKAVAER(8)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.668380e+003,null,1.000000e+000,5.092150e-003,0.004878,1.828076,sg|P0C018|RL18_ECOLI (76)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,17.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>210,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.30301.30301.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=30301""",3,2.323247e+003,KLQLVGVGYR(1)-VKDLPGVR(2),Cross-Linked,DSBSO,2.323251e+003,null,1.000000e+000,5.098892e-003,-0.004508,-1.940384,sg|P0AG55|RL6_ECOLI (86)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,10.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>211,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.28065.28065.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=28065""",4,2.557199e+003,DAAAAVGKAVAER(8)-DVKFGNDAR(3),Cross-Linked,DSBSO,2.557202e+003,null,1.000000e+000,5.243128e-003,-0.002632,-1.029250,sg|P0C018|RL18_ECOLI (76)-sg|P0A6F5|CH60_ECOLI (7)/,Inter-Protein,1,1,17.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>212,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.38050.38050.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=38050""",3,3.061475e+003,ITDVEVLKAQFEEER(8)-MAALMKQR(6),Cross-Linked,DSBSO,3.061471e+003,null,1.000000e+000,5.266651e-003,0.004014,1.311134,sg|P0A6P1|EFTS_ECOLI (112)-sg|P27302|TKT1_ECOLI (452)/,Inter-Protein,1,1,13.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>213,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24969.24969.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24969""",4,2.074103e+003,VKDLPGVR(2)-VKDLPGVR(2),Cross-Linked,DSBSO,2.074103e+003,null,1.000000e+000,5.281761e-003,-0.000534,-0.257461,sg|P0A7S3|RS12_ECOLI (88)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,5.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>214,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29798.29798.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29798""",4,2.706381e+003,DAAAAVGKAVAER(8)-ESVLPKAVTAR(6),Cross-Linked,DSBSO,2.706380e+003,null,1.000000e+000,5.346246e-003,0.001155,0.426769,sg|P0C018|RL18_ECOLI (76)-sg|P27302|TKT1_ECOLI (603)/,Inter-Protein,1,1,15.0,11.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>215,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24212.24212.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24212""",4,2.731301e+003,SNVPALEACPQKR(12)-VGFGYGKAR(7),Cross-Linked,DSBSO,2.731300e+003,Carbamidomethyl[C](9),1.000000e+000,5.459085e-003,0.001295,0.474133,sg|P0A7S3|RS12_ECOLI (30)-sg|P0A7W1|RS5_ECOLI (52)/,Inter-Protein,1,1,10.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>216,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.16528.16528.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16528""",4,2.231133e+003,SHALNATKR(8)-AKLYYLR(2),Cross-Linked,DSBSO,2.231131e+003,null,1.000000e+000,5.521220e-003,0.001806,0.809455,sg|P0A7M2|RL28_ECOLI (26)-sg|P0A7K6|RL19_ECOLI (96)/,Inter-Protein,1,1,8.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>217,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.6437.6437.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=6437""",4,2.528226e+003,HIGGGHKQAYR(7)-SHALNATKR(8),Cross-Linked,DSBSO,2.528224e+003,null,1.000000e+000,5.571522e-003,0.001815,0.717895,sg|P60422|RL2_ECOLI (59)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,13.0,13.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>218,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.26803.26803.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26803""",3,3.071413e+003,EGGNEKVILCDR(6)-EAEKYANPIPSR(4),Cross-Linked,DSBSO,3.071412e+003,Carbamidomethyl[C](10),1.000000e+000,5.671917e-003,0.001686,0.548933,sg|P0A715|KDSA_ECOLI (162)-sg|P21499|RNR_ECOLI (13)/,Inter-Protein,1,1,6.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>219,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.31912.31912.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=31912""",4,2.883351e+003,KLMTEFNYNSVMQVPR(1)-KSSAAR(1),Cross-Linked,DSBSO,2.883351e+003,null,1.000000e+000,5.708807e-003,0.000434,0.150519,sg|P62399|RL5_ECOLI (15)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,27.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>220,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.40941.40941.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=40941""",4,2.572401e+003,KLQLVGVGYR(1)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.572399e+003,null,1.000000e+000,5.741881e-003,0.002427,0.943477,sg|P0AG55|RL6_ECOLI (86)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,9.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>221,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.16208.16208.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16208""",4,2.369164e+003,MTDKLTSLR(4)-SHALNATKR(8),Cross-Linked,DSBSO,2.369162e+003,null,1.000000e+000,5.790611e-003,0.001795,0.757652,sg|P0A870|TALB_ECOLI (4)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,9.5,12.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>222,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.13596.13596.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13596""",5,2.510228e+003,SHPFYTGKLR(8)-SHALNATKR(8),Cross-Linked,DSBSO,2.510228e+003,null,1.000000e+000,5.811374e-003,-0.000157,-0.062544,sg|P0A7N1|RL31B_ECOLI (60)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,12.5,11.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>223,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29166.29166.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29166""",4,2.281086e+003,DYSKYLNIR(4)-EKLQER(2),Cross-Linked,DSBSO,2.281084e+003,null,1.000000e+000,5.917007e-003,0.001926,0.844335,sg|P25888|RHLE_ECOLI (100)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,14.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>224,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.16451.16451.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16451""",4,2.085048e+003,VKDLPGVR(2)-ELKPHDR(3),Cross-Linked,DSBSO,2.085047e+003,null,1.000000e+000,5.933971e-003,0.000883,0.423492,sg|P0A7S3|RS12_ECOLI (88)-sg|P0A9Q1|ARCA_ECOLI (195)/,Inter-Protein,1,1,8.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>225,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.27022.27022.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=27022""",3,2.391274e+003,DAAAAVGKAVAER(8)-VAVIKAVR(5),Cross-Linked,DSBSO,2.391273e+003,null,1.000000e+000,5.996290e-003,0.001004,0.419860,sg|P0C018|RL18_ECOLI (76)-sg|P0A7K2|RL7_ECOLI (71)/,Inter-Protein,1,1,20.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>226,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.17098.17098.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=17098""",3,2.155050e+003,DAAAAVGKAVAER(8)-KSSAAR(1),Cross-Linked,DSBSO,2.155048e+003,null,1.000000e+000,5.999688e-003,0.002081,0.965640,sg|P0C018|RL18_ECOLI (76)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,18.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>227,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.35837.35837.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=35837""",4,2.827374e+003,QLGEDPWVAIAKR(12)-GLSAKSFDGR(5),Cross-Linked,DSBSO,2.827375e+003,null,1.000000e+000,6.051255e-003,-0.000943,-0.333525,sg|P0AG67|RS1_ECOLI (272)-sg|P62399|RL5_ECOLI (120)/,Inter-Protein,1,1,14.0,10.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>228,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.28869.28869.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=28869""",4,2.281083e+003,DYSKYLNIR(4)-EKLQER(2),Cross-Linked,DSBSO,2.281084e+003,null,1.000000e+000,6.073127e-003,-0.000837,-0.366931,sg|P25888|RHLE_ECOLI (100)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,11.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>229,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.36204.36204.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=36204""",4,2.572396e+003,KLQLVGVGYR(1)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.572399e+003,null,1.000000e+000,6.213858e-003,-0.002944,-1.144457,sg|P0AG55|RL6_ECOLI (86)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,8.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>230,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29917.29917.6 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29917""",6,3.930887e+003,VFQTHSPVVDSISVKR(15)-DFLKHNPQNPSWADR(4),Cross-Linked,DSBSO,3.930890e+003,null,1.000000e+000,6.275730e-003,-0.002657,-0.675928,sg|P0A7K6|RL19_ECOLI (87)-sg|P27302|TKT1_ECOLI (46)/,Inter-Protein,1,1,14.0,16.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>231,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.38530.38530.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=38530""",4,3.006462e+003,ITDVEVLKAQFEEER(8)-ILKCGFR(3),Cross-Linked,DSBSO,3.006462e+003,Carbamidomethyl[C](22),1.000000e+000,6.344136e-003,0.000432,0.143690,sg|P0A6P1|EFTS_ECOLI (112)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,18.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>232,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.10365.10365.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=10365""",4,2.295143e+003,SHALNATKR(8)-IGSTIKTDR(6),Cross-Linked,DSBSO,2.295143e+003,null,1.000000e+000,6.532056e-003,0.000026,0.011328,sg|P0A7M2|RL28_ECOLI (26)-sg|P0A7N1|RL31B_ECOLI (30)/,Inter-Protein,1,1,8.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>233,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.37960.37960.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=37960""",5,3.911940e+003,VFQTHSPVVDSISVKR(15)-ITDVEVLKAQFEEER(8),Cross-Linked,DSBSO,3.911940e+003,null,1.000000e+000,6.553767e-003,0.000126,0.032209,sg|P0A7K6|RL19_ECOLI (87)-sg|P0A6P1|EFTS_ECOLI (112)/,Inter-Protein,1,1,17.0,16.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>234,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.2946.2946.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=2946""",4,1.545736e+003,KSSAAR(1)-KSSAAR(1),Cross-Linked,DSBSO,1.545736e+003,null,1.000000e+000,6.618211e-003,0.000505,0.326705,sg|P0A7X3|RS9_ECOLI (13)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,4.0,4.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>235,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24915.24915.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24915""",5,3.238527e+003,FAAYAKAYPQEAAEFTR(6)-SHALNATKR(8),Cross-Linked,DSBSO,3.238529e+003,null,1.000000e+000,6.649513e-003,-0.002676,-0.826301,sg|P27302|TKT1_ECOLI (316)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,20.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>236,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.28989.28989.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=28989""",4,2.295291e+003,KLQLVGVGYR(1)-VAVIKAVR(5),Cross-Linked,DSBSO,2.295293e+003,null,1.000000e+000,6.667371e-003,-0.001804,-0.785956,sg|P0AG55|RL6_ECOLI (86)-sg|P0A7K2|RL7_ECOLI (71)/,Inter-Protein,1,1,11.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>237,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.27222.27222.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=27222""",4,2.368158e+003,EIAEKMVEGR(5)-VKDLPGVR(2),Cross-Linked,DSBSO,2.368156e+003,Oxidation[M](6),1.000000e+000,6.762615e-003,0.002290,0.966997,sg|P0A6P1|EFTS_ECOLI (214)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,10.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>238,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.41170.41170.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=41170""",4,3.177538e+003,ITDVEVLKAQFEEER(8)-MTDKLTSLR(4),Cross-Linked,DSBSO,3.177536e+003,null,1.000000e+000,6.975786e-003,0.001465,0.461049,sg|P0A6P1|EFTS_ECOLI (112)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,19.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>239,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.37990.37990.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=37990""",4,3.219545e+003,MAEITASLVKELR(10)-SMKQAIYDPENR(3),Cross-Linked,DSBSO,3.219540e+003,null,1.000000e+000,7.133034e-003,0.004869,1.512328,sg|P0A6P1|EFTS_ECOLI (10)-sg|P21499|RNR_ECOLI (544)/,Inter-Protein,1,1,15.0,10.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>240,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.22563.22563.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=22563""",3,2.495134e+003,MQKQAELYR(3)-DVKFGNDAR(3),Cross-Linked,DSBSO,2.495136e+003,null,1.000000e+000,7.245592e-003,-0.001977,-0.792342,sg|P0A7D7|PUR7_ECOLI (3)-sg|P0A6F5|CH60_ECOLI (7)/,Inter-Protein,1,1,9.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>241,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.6462.6462.6 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=6462""",6,2.528226e+003,HIGGGHKQAYR(7)-SHALNATKR(8),Cross-Linked,DSBSO,2.528224e+003,null,1.000000e+000,7.458829e-003,0.001628,0.643930,sg|P60422|RL2_ECOLI (59)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,12.0,10.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>242,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.15358.15358.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=15358""",4,2.452189e+003,QGYPIGCKVTLR(8)-KQQGHR(1),Cross-Linked,DSBSO,2.452189e+003,Carbamidomethyl[C](7),1.000000e+000,7.531209e-003,0.000235,0.095833,sg|P62399|RL5_ECOLI (88)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,14.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>243,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.22576.22576.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=22576""",5,3.109480e+003,DMLKAGVHFGHQTR(4)-SHPFYTGKLR(8),Cross-Linked,DSBSO,3.109480e+003,null,1.000000e+000,7.538313e-003,-0.000225,-0.072359,sg|P0A7V0|RS2_ECOLI (11)-sg|P0A7N1|RL31B_ECOLI (60)/,Inter-Protein,1,1,20.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>244,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.10111.10111.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=10111""",5,2.295144e+003,SHALNATKR(8)-IGSTIKTDR(6),Cross-Linked,DSBSO,2.295143e+003,null,1.000000e+000,7.646814e-003,0.001328,0.578613,sg|P0A7M2|RL28_ECOLI (26)-sg|P0A7N1|RL31B_ECOLI (30)/,Inter-Protein,1,1,8.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>245,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23233.23233.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23233""",3,2.139079e+003,MAALMKQR(6)-VKDLPGVR(2),Cross-Linked,DSBSO,2.139079e+003,null,1.000000e+000,7.710973e-003,0.000042,0.019635,sg|P27302|TKT1_ECOLI (452)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,9.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>246,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.8259.8259.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=8259""",5,2.107028e+003,SHALNATKR(8)-EKLQER(2),Cross-Linked,DSBSO,2.107027e+003,null,1.000000e+000,7.921749e-003,0.000869,0.412429,sg|P0A7M2|RL28_ECOLI (26)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,10.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>247,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.18852.18852.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=18852""",4,2.236995e+003,DVKFGNDAR(3)-ASFDKANR(5),Cross-Linked,DSBSO,2.236996e+003,null,1.000000e+000,7.966039e-003,-0.000984,-0.439876,sg|P0A6F5|CH60_ECOLI (7)-sg|P0A715|KDSA_ECOLI (60)/,Inter-Protein,1,1,11.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>248,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.30026.30026.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=30026""",3,2.706383e+003,DAAAAVGKAVAER(8)-ESVLPKAVTAR(6),Cross-Linked,DSBSO,2.706380e+003,null,1.000000e+000,8.059033e-003,0.003247,1.199758,sg|P0C018|RL18_ECOLI (76)-sg|P27302|TKT1_ECOLI (603)/,Inter-Protein,1,1,12.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>249,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24851.24851.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24851""",4,2.417135e+003,EIAEKMVEGR(5)-MAALMKQR(6),Cross-Linked,DSBSO,2.417136e+003,null,1.000000e+000,8.074797e-003,-0.001255,-0.519209,sg|P0A6P1|EFTS_ECOLI (214)-sg|P27302|TKT1_ECOLI (452)/,Inter-Protein,1,1,7.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>250,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.36834.36834.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=36834""",4,4.065860e+003,FAAYAKAYPQEAAEFTR(6)-DFLKHNPQNPSWADR(4),Cross-Linked,DSBSO,4.065853e+003,null,1.000000e+000,8.161762e-003,0.007162,1.761500,sg|P27302|TKT1_ECOLI (316)-sg|P27302|TKT1_ECOLI (46)/,Intra-Protein,1,1,14.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>251,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.31265.31265.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=31265""",3,3.538621e+003,FAAYAKAYPQEAAEFTR(6)-DIDGHDAASIKR(11),Cross-Linked,DSBSO,3.538625e+003,null,1.000000e+000,8.162652e-003,-0.003924,-1.108905,sg|P27302|TKT1_ECOLI (316)-sg|P27302|TKT1_ECOLI (225)/,Intra-Protein,1,1,6.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>252,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.20111.20111.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=20111""",4,2.155074e+003,MAALMKQR(6)-VKDLPGVR(2),Cross-Linked,DSBSO,2.155074e+003,Oxidation[M](1),1.000000e+000,8.193475e-003,0.000135,0.062643,sg|P27302|TKT1_ECOLI (452)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,14.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>253,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.16527.16527.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16527""",4,2.369163e+003,MTDKLTSLR(4)-SHALNATKR(8),Cross-Linked,DSBSO,2.369162e+003,null,1.000000e+000,8.202500e-003,0.000950,0.400986,sg|P0A870|TALB_ECOLI (4)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,8.5,10.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>254,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.22914.22914.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=22914""",4,2.149045e+003,MAALMKQR(6)-ILKCGFR(3),Cross-Linked,DSBSO,2.149046e+003,Carbamidomethyl[C](15),1.000000e+000,8.218623e-003,-0.001085,-0.504875,sg|P27302|TKT1_ECOLI (452)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,10.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>255,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.7892.7892.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=7892""",5,1.916022e+003,VAVIKAVR(5)-KQQGHR(1),Cross-Linked,DSBSO,1.916020e+003,null,1.000000e+000,8.264395e-003,0.001486,0.775566,sg|P0A7K2|RL7_ECOLI (71)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,6.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>256,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.38261.38261.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=38261""",4,2.832424e+003,MAEITASLVKELR(10)-MTDKLTSLR(4),Cross-Linked,DSBSO,2.832422e+003,null,1.000000e+000,8.369470e-003,0.001993,0.703638,sg|P0A6P1|EFTS_ECOLI (10)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,16.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>257,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.36070.36070.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=36070""",4,2.827374e+003,QLGEDPWVAIAKR(12)-GLSAKSFDGR(5),Cross-Linked,DSBSO,2.827375e+003,null,1.000000e+000,8.400734e-003,-0.000834,-0.294973,sg|P0AG67|RS1_ECOLI (272)-sg|P62399|RL5_ECOLI (120)/,Inter-Protein,1,1,12.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>258,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.36760.36760.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=36760""",4,2.572401e+003,KLQLVGVGYR(1)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.572399e+003,null,1.000000e+000,8.430776e-003,0.001695,0.658918,sg|P0AG55|RL6_ECOLI (86)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,9.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>259,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.4344.4344.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=4344""",4,1.631756e+003,AMEKAR(4)-KSSAAR(1),Cross-Linked,DSBSO,1.631755e+003,null,1.000000e+000,8.431361e-003,0.000862,0.528266,sg|P0A7W1|RS5_ECOLI (66)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,8.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>260,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.26302.26302.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26302""",4,3.056435e+003,EAEKYANPIPSR(4)-EAEKYANPIPSR(4),Cross-Linked,DSBSO,3.056434e+003,null,1.000000e+000,8.806846e-003,0.001630,0.533301,sg|P21499|RNR_ECOLI (13)-sg|P21499|RNR_ECOLI (13)/,Inter-Protein,1,1,8.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>261,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.34870.34870.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=34870""",3,2.572399e+003,KLQLVGVGYR(1)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.572399e+003,null,1.000000e+000,8.894658e-003,0.000283,0.110014,sg|P0AG55|RL6_ECOLI (86)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,4.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>262,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.13331.13331.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13331""",5,2.403212e+003,LQANPAKIASR(7)-TSGEKHLR(5),Cross-Linked,DSBSO,2.403212e+003,null,1.000000e+000,8.977107e-003,-0.000215,-0.089464,sg|P27302|TKT1_ECOLI (354)-sg|P0A7N4|RL32_ECOLI (37)/,Inter-Protein,1,1,11.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>263,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.3065.3065.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=3065""",4,1.647750e+003,AMEKAR(4)-KSSAAR(1),Cross-Linked,DSBSO,1.647750e+003,Oxidation[M](2),1.000000e+000,8.989214e-003,0.000211,0.128053,sg|P0A7W1|RS5_ECOLI (66)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,10.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>264,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.28280.28280.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=28280""",4,2.608394e+003,LQANPAKIASR(7)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.608395e+003,null,1.000000e+000,8.991976e-003,-0.000587,-0.225043,sg|P27302|TKT1_ECOLI (354)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,9.0,16.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>265,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29380.29380.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29380""",4,2.395168e+003,EIAEKMVEGR(5)-AKLYYLR(2),Cross-Linked,DSBSO,2.395170e+003,null,1.000000e+000,9.064354e-003,-0.002867,-1.196992,sg|P0A6P1|EFTS_ECOLI (214)-sg|P0A7K6|RL19_ECOLI (96)/,Inter-Protein,1,1,9.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>266,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.8756.8756.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=8756""",4,1.806855e+003,KAGFVTR(1)-AMEKAR(4),Cross-Linked,DSBSO,1.806855e+003,Oxidation[M](12),1.000000e+000,9.119762e-003,0.000352,0.194814,sg|P0A7X3|RS9_ECOLI (100)-sg|P0A7W1|RS5_ECOLI (66)/,Inter-Protein,1,1,9.5,10.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>267,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23678.23678.6 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23678""",6,2.858355e+003,DMLKAGVHFGHQTR(4)-VGFGYGKAR(7),Cross-Linked,DSBSO,2.858353e+003,null,1.000000e+000,9.218333e-003,0.001176,0.411426,sg|P0A7V0|RS2_ECOLI (11)-sg|P0A7W1|RS5_ECOLI (52)/,Inter-Protein,1,1,19.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>268,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.21324.21324.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=21324""",4,2.322144e+003,KISNGEGVER(1)-AKLYYLR(2),Cross-Linked,DSBSO,2.322147e+003,null,1.000000e+000,9.225185e-003,-0.002780,-1.197168,sg|P0A7K6|RL19_ECOLI (63)-sg|P0A7K6|RL19_ECOLI (96)/,Intra-Protein,1,1,13.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>269,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29655.29655.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29655""",4,2.395168e+003,EIAEKMVEGR(5)-AKLYYLR(2),Cross-Linked,DSBSO,2.395170e+003,null,1.000000e+000,9.231677e-003,-0.002571,-1.073410,sg|P0A6P1|EFTS_ECOLI (214)-sg|P0A7K6|RL19_ECOLI (96)/,Inter-Protein,1,1,8.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>270,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.16209.16209.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16209""",3,2.231134e+003,SHALNATKR(8)-AKLYYLR(2),Cross-Linked,DSBSO,2.231131e+003,null,1.000000e+000,9.615280e-003,0.002666,1.194910,sg|P0A7M2|RL28_ECOLI (26)-sg|P0A7K6|RL19_ECOLI (96)/,Inter-Protein,1,1,8.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>271,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.28954.28954.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=28954""",3,3.148407e+003,SMKQAIYDPENR(3)-EGGNEKVILCDR(6),Cross-Linked,DSBSO,3.148405e+003,Carbamidomethyl[C](25),1.000000e+000,9.621948e-003,0.001921,0.610150,sg|P21499|RNR_ECOLI (544)-sg|P0A715|KDSA_ECOLI (162)/,Inter-Protein,1,1,10.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>272,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.35070.35070.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=35070""",4,2.640234e+003,EIAEKMVEGR(5)-DYSKYLNIR(4),Cross-Linked,DSBSO,2.640235e+003,null,1.000000e+000,9.720790e-003,-0.001495,-0.566237,sg|P0A6P1|EFTS_ECOLI (214)-sg|P25888|RHLE_ECOLI (100)/,Inter-Protein,1,1,12.0,11.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>273,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29707.29707.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29707""",4,2.323251e+003,KLQLVGVGYR(1)-VKDLPGVR(2),Cross-Linked,DSBSO,2.323251e+003,null,1.000000e+000,9.824042e-003,0.000240,0.103304,sg|P0AG55|RL6_ECOLI (86)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,13.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>274,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.22740.22740.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=22740""",3,1.963998e+003,TDKFIVR(3)-KAGFVTR(1),Cross-Linked,DSBSO,1.963998e+003,null,1.000000e+000,9.833580e-003,-0.000261,-0.132892,sg|P60422|RL2_ECOLI (265)-sg|P0A7X3|RS9_ECOLI (100)/,Inter-Protein,1,1,10.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>275,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.38062.38062.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=38062""",4,3.061474e+003,ITDVEVLKAQFEEER(8)-MAALMKQR(6),Cross-Linked,DSBSO,3.061471e+003,null,1.000000e+000,9.980613e-003,0.003301,1.078240,sg|P0A6P1|EFTS_ECOLI (112)-sg|P27302|TKT1_ECOLI (452)/,Inter-Protein,1,1,21.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>276,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.27980.27980.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=27980""",4,3.133424e+003,SMKQAIYDPENR(3)-EAEKYANPIPSR(4),Cross-Linked,DSBSO,3.133427e+003,null,1.000000e+000,1.002647e-002,-0.003239,-1.033692,sg|P21499|RNR_ECOLI (544)-sg|P21499|RNR_ECOLI (13)/,Intra-Protein,1,1,13.0,13.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>277,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24827.24827.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24827""",4,2.139081e+003,MAALMKQR(6)-VKDLPGVR(2),Cross-Linked,DSBSO,2.139079e+003,null,1.000000e+000,1.015502e-002,0.002017,0.942929,sg|P27302|TKT1_ECOLI (452)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,12.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>278,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24345.24345.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24345""",4,2.074103e+003,VKDLPGVR(2)-VKDLPGVR(2),Cross-Linked,DSBSO,2.074103e+003,null,1.000000e+000,1.045029e-002,-0.000695,-0.335085,sg|P0A7S3|RS12_ECOLI (88)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,6.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>279,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.2780.2780.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=2780""",3,1.545737e+003,KSSAAR(1)-KSSAAR(1),Cross-Linked,DSBSO,1.545736e+003,null,1.000000e+000,1.051273e-002,0.000684,0.442508,sg|P0A7X3|RS9_ECOLI (13)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,3.5,3.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>280,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23163.23163.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23163""",3,2.362165e+003,MTDKLTSLR(4)-IGSTIKTDR(6),Cross-Linked,DSBSO,2.362166e+003,null,1.000000e+000,1.055160e-002,-0.000716,-0.303112,sg|P0A870|TALB_ECOLI (4)-sg|P0A7N1|RL31B_ECOLI (30)/,Inter-Protein,1,1,8.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>281,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.26204.26204.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26204""",5,2.968413e+003,DMLKAGVHFGHQTR(4)-MTDKLTSLR(4),Cross-Linked,DSBSO,2.968415e+003,null,1.000000e+000,1.063524e-002,-0.001410,-0.475001,sg|P0A7V0|RS2_ECOLI (11)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,19.0,11.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>282,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.27337.27337.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=27337""",4,2.352161e+003,EIAEKMVEGR(5)-VKDLPGVR(2),Cross-Linked,DSBSO,2.352161e+003,null,1.000000e+000,1.073737e-002,0.000089,0.037838,sg|P0A6P1|EFTS_ECOLI (214)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,10.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>283,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.22610.22610.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=22610""",5,3.109480e+003,DMLKAGVHFGHQTR(4)-SHPFYTGKLR(8),Cross-Linked,DSBSO,3.109480e+003,null,1.000000e+000,1.079029e-002,-0.000486,-0.156296,sg|P0A7V0|RS2_ECOLI (11)-sg|P0A7N1|RL31B_ECOLI (60)/,Inter-Protein,1,1,20.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>284,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.26149.26149.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26149""",4,2.702287e+003,DAAAAVGKAVAER(8)-MQKQAELYR(3),Cross-Linked,DSBSO,2.702295e+003,null,1.000000e+000,1.080406e-002,-0.007188,-2.659962,sg|P0C018|RL18_ECOLI (76)-sg|P0A7D7|PUR7_ECOLI (3)/,Inter-Protein,1,1,24.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>285,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.30303.30303.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=30303""",4,2.860371e+003,QGYPIGCKVTLR(8)-EIAEKMVEGR(5),Cross-Linked,DSBSO,2.860371e+003,Carbamidomethyl[C](7),1.000000e+000,1.082696e-002,-0.000173,-0.060482,sg|P62399|RL5_ECOLI (88)-sg|P0A6P1|EFTS_ECOLI (214)/,Inter-Protein,1,1,11.0,11.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>286,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.22712.22712.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=22712""",4,2.359244e+003,LQANPAKIASR(7)-VKDLPGVR(2),Cross-Linked,DSBSO,2.359247e+003,null,1.000000e+000,1.088064e-002,-0.002963,-1.255909,sg|P27302|TKT1_ECOLI (354)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,13.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>287,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.36372.36372.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=36372""",4,3.733751e+003,KLMTEFNYNSVMQVPR(1)-SNVPALEACPQKR(12),Cross-Linked,DSBSO,3.733751e+003,Carbamidomethyl[C](28),1.000000e+000,1.090866e-002,-0.000198,-0.053030,sg|P62399|RL5_ECOLI (15)-sg|P0A7S3|RS12_ECOLI (30)/,Inter-Protein,1,1,29.0,12.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>288,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.13907.13907.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13907""",5,2.189047e+003,VGFGYGKAR(7)-TSGEKHLR(5),Cross-Linked,DSBSO,2.189048e+003,null,1.000000e+000,1.094692e-002,-0.000237,-0.108266,sg|P0A7W1|RS5_ECOLI (52)-sg|P0A7N4|RL32_ECOLI (37)/,Inter-Protein,1,1,9.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>289,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24008.24008.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24008""",3,2.848333e+003,EAEKYANPIPSR(4)-MQKQAELYR(3),Cross-Linked,DSBSO,2.848331e+003,null,1.000000e+000,1.102286e-002,0.002141,0.751668,sg|P21499|RNR_ECOLI (13)-sg|P0A7D7|PUR7_ECOLI (3)/,Inter-Protein,1,1,6.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>290,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29148.29148.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29148""",4,2.925375e+003,DAAAAVGKAVAER(8)-EGGNEKVILCDR(6),Cross-Linked,DSBSO,2.925375e+003,Carbamidomethyl[C](26),1.000000e+000,1.103551e-002,-0.000275,-0.094005,sg|P0C018|RL18_ECOLI (76)-sg|P0A715|KDSA_ECOLI (162)/,Inter-Protein,1,1,20.5,11.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>291,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.27428.27428.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=27428""",4,2.222094e+003,GLSAKSFDGR(5)-SVAGFKIR(6),Cross-Linked,DSBSO,2.222094e+003,null,1.000000e+000,1.108550e-002,0.000037,0.016651,sg|P62399|RL5_ECOLI (120)-sg|P62399|RL5_ECOLI (78)/,Intra-Protein,1,1,10.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>292,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.38021.38021.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=38021""",4,2.832422e+003,MAEITASLVKELR(10)-MTDKLTSLR(4),Cross-Linked,DSBSO,2.832422e+003,null,1.000000e+000,1.113043e-002,-0.000390,-0.137691,sg|P0A6P1|EFTS_ECOLI (10)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,16.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>293,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.21143.21143.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=21143""",5,2.334194e+003,KLQLVGVGYR(1)-ELKPHDR(3),Cross-Linked,DSBSO,2.334194e+003,null,1.000000e+000,1.113802e-002,-0.000030,-0.012852,sg|P0AG55|RL6_ECOLI (86)-sg|P0A9Q1|ARCA_ECOLI (195)/,Inter-Protein,1,1,17.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>294,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.26828.26828.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26828""",3,2.622311e+003,KLQLVGVGYR(1)-MQKQAELYR(3),Cross-Linked,DSBSO,2.622309e+003,Oxidation[M](14),1.000000e+000,1.117156e-002,0.001999,0.762305,sg|P0AG55|RL6_ECOLI (86)-sg|P0A7D7|PUR7_ECOLI (3)/,Inter-Protein,1,1,8.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>295,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.11489.11489.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=11489""",5,2.386248e+003,HIGGGHKQAYR(7)-VAVIKAVR(5),Cross-Linked,DSBSO,2.386248e+003,null,1.000000e+000,1.118029e-002,0.000278,0.116501,sg|P60422|RL2_ECOLI (59)-sg|P0A7K2|RL7_ECOLI (71)/,Inter-Protein,1,1,11.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>296,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.38866.38866.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=38866""",3,2.996497e+003,ITDVEVLKAQFEEER(8)-VKDLPGVR(2),Cross-Linked,DSBSO,2.996495e+003,null,1.000000e+000,1.128502e-002,0.001850,0.617388,sg|P0A6P1|EFTS_ECOLI (112)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,16.0,4.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>297,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.38763.38763.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=38763""",4,3.006464e+003,ITDVEVLKAQFEEER(8)-ILKCGFR(3),Cross-Linked,DSBSO,3.006462e+003,Carbamidomethyl[C](22),1.000000e+000,1.137699e-002,0.002508,0.834203,sg|P0A6P1|EFTS_ECOLI (112)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,22.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>298,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.21685.21685.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=21685""",4,2.245124e+003,VVNSKEDIR(5)-TDKFIVR(3),Cross-Linked,DSBSO,2.245120e+003,null,1.000000e+000,1.139613e-002,0.003503,1.560273,sg|P0A836|SUCC_ECOLI (66)-sg|P60422|RL2_ECOLI (265)/,Inter-Protein,1,1,9.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>299,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.20759.20759.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=20759""",4,2.222130e+003,VGFGYGKAR(7)-TIKITQTR(3),Cross-Linked,DSBSO,2.222131e+003,null,1.000000e+000,1.146211e-002,-0.000518,-0.233110,sg|P0A7W1|RS5_ECOLI (52)-sg|P0AG51|RL30_ECOLI (6)/,Inter-Protein,1,1,10.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>300,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.40420.40420.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=40420""",4,3.564657e+003,ITDVEVLKAQFEEER(8)-SMKQAIYDPENR(3),Cross-Linked,DSBSO,3.564654e+003,null,1.000000e+000,1.156625e-002,0.002782,0.780440,sg|P0A6P1|EFTS_ECOLI (112)-sg|P21499|RNR_ECOLI (544)/,Inter-Protein,1,1,16.0,10.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>301,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.35327.35327.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=35327""",3,2.640238e+003,EIAEKMVEGR(5)-DYSKYLNIR(4),Cross-Linked,DSBSO,2.640235e+003,null,1.000000e+000,1.162861e-002,0.002676,1.013546,sg|P0A6P1|EFTS_ECOLI (214)-sg|P25888|RHLE_ECOLI (100)/,Inter-Protein,1,1,8.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>302,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.16779.16779.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16779""",3,2.576213e+003,EAEKYANPIPSR(4)-ELKPHDR(3),Cross-Linked,DSBSO,2.576212e+003,null,1.000000e+000,1.171015e-002,0.001320,0.512380,sg|P21499|RNR_ECOLI (13)-sg|P0A9Q1|ARCA_ECOLI (195)/,Inter-Protein,1,1,9.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>303,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.19389.19389.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=19389""",4,2.271066e+003,EIAEKMVEGR(5)-EKLQER(2),Cross-Linked,DSBSO,2.271066e+003,null,1.000000e+000,1.173633e-002,-0.000361,-0.158956,sg|P0A6P1|EFTS_ECOLI (214)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,8.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>304,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.21416.21416.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=21416""",4,2.334192e+003,KLQLVGVGYR(1)-ELKPHDR(3),Cross-Linked,DSBSO,2.334194e+003,null,1.000000e+000,1.185090e-002,-0.002545,-1.090312,sg|P0AG55|RL6_ECOLI (86)-sg|P0A9Q1|ARCA_ECOLI (195)/,Inter-Protein,1,1,16.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>305,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.6446.6446.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=6446""",3,2.528223e+003,HIGGGHKQAYR(7)-SHALNATKR(8),Cross-Linked,DSBSO,2.528224e+003,null,1.000000e+000,1.188737e-002,-0.001244,-0.492045,sg|P60422|RL2_ECOLI (59)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,13.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>306,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29997.29997.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29997""",3,2.823304e+003,SMKQAIYDPENR(3)-MTDKLTSLR(4),Cross-Linked,DSBSO,2.823303e+003,null,1.000000e+000,1.214186e-002,0.001177,0.416888,sg|P21499|RNR_ECOLI (544)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,9.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>307,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.27777.27777.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=27777""",3,2.429199e+003,DAAAAVGKAVAER(8)-ILKCGFR(3),Cross-Linked,DSBSO,2.429198e+003,Carbamidomethyl[C](20),1.000000e+000,1.219451e-002,0.000853,0.351145,sg|P0C018|RL18_ECOLI (76)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,17.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>308,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.12106.12106.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=12106""",4,1.880899e+003,VGFGYGKAR(7)-KSSAAR(1),Cross-Linked,DSBSO,1.880899e+003,null,1.000000e+000,1.231227e-002,-0.000052,-0.027646,sg|P0A7W1|RS5_ECOLI (52)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,7.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>309,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.21908.21908.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=21908""",4,2.222132e+003,VGFGYGKAR(7)-TIKITQTR(3),Cross-Linked,DSBSO,2.222131e+003,null,1.000000e+000,1.250281e-002,0.001298,0.584124,sg|P0A7W1|RS5_ECOLI (52)-sg|P0AG51|RL30_ECOLI (6)/,Inter-Protein,1,1,8.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>310,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.25845.25845.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=25845""",3,2.373123e+003,DYSKYLNIR(4)-ELKPHDR(3),Cross-Linked,DSBSO,2.373121e+003,null,1.000000e+000,1.253248e-002,0.002039,0.859206,sg|P25888|RHLE_ECOLI (100)-sg|P0A9Q1|ARCA_ECOLI (195)/,Inter-Protein,1,1,10.5,10.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>311,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.16761.16761.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16761""",4,2.261088e+003,SHPFYTGKLR(8)-VSAKGMR(4),Cross-Linked,DSBSO,2.261087e+003,null,1.000000e+000,1.258481e-002,0.000304,0.134449,sg|P0A7N1|RL31B_ECOLI (60)-sg|P0A7M2|RL28_ECOLI (54)/,Inter-Protein,1,1,11.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>312,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.17451.17451.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=17451""",4,2.136018e+003,MTDKLTSLR(4)-VSAKGMR(4),Cross-Linked,DSBSO,2.136017e+003,Oxidation[M](18),1.000000e+000,1.260832e-002,0.001337,0.625931,sg|P0A870|TALB_ECOLI (4)-sg|P0A7M2|RL28_ECOLI (54)/,Inter-Protein,1,1,9.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>313,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.6790.6790.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=6790""",3,2.302141e+003,SHALNATKR(8)-SHALNATKR(8),Cross-Linked,DSBSO,2.302139e+003,null,1.000000e+000,1.278469e-002,0.002140,0.929570,sg|P0A7M2|RL28_ECOLI (26)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,6.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>314,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.35347.35347.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=35347""",4,3.224582e+003,KLMTEFNYNSVMQVPR(1)-TIKITQTR(3),Cross-Linked,DSBSO,3.224582e+003,null,1.000000e+000,1.285810e-002,0.000101,0.031322,sg|P62399|RL5_ECOLI (15)-sg|P0AG51|RL30_ECOLI (6)/,Inter-Protein,1,1,24.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>315,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.32951.32951.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=32951""",4,2.610399e+003,ESVLPKAVTAR(6)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.610399e+003,null,1.000000e+000,1.321643e-002,-0.000649,-0.248621,sg|P27302|TKT1_ECOLI (603)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,10.0,15.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>316,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.26243.26243.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26243""",4,2.362128e+003,EIAEKMVEGR(5)-ILKCGFR(3),Cross-Linked,DSBSO,2.362127e+003,Carbamidomethyl[C](17),1.000000e+000,1.322778e-002,0.000974,0.412340,sg|P0A6P1|EFTS_ECOLI (214)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,7.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>317,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.26327.26327.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26327""",4,2.373250e+003,KLQLVGVGYR(1)-TDKLTSLR(3),Cross-Linked,DSBSO,2.373252e+003,null,1.000000e+000,1.341058e-002,-0.001616,-0.680922,sg|P0AG55|RL6_ECOLI (86)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,12.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>318,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.16479.16479.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16479""",4,1.863943e+003,KAGFVTR(1)-KAGFVTR(1),Cross-Linked,DSBSO,1.863945e+003,null,1.000000e+000,1.344317e-002,-0.002007,-1.076748,sg|P0A7X3|RS9_ECOLI (100)-sg|P0A7X3|RS9_ECOLI (100)/,Inter-Protein,1,1,5.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>319,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.35738.35738.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=35738""",3,2.827375e+003,QLGEDPWVAIAKR(12)-GLSAKSFDGR(5),Cross-Linked,DSBSO,2.827375e+003,null,1.000000e+000,1.370601e-002,-0.000399,-0.141120,sg|P0AG67|RS1_ECOLI (272)-sg|P62399|RL5_ECOLI (120)/,Inter-Protein,1,1,18.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>320,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.26087.26087.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26087""",4,2.741341e+003,DAAAAVGKAVAER(8)-SHPFYTGKLR(8),Cross-Linked,DSBSO,2.741338e+003,null,1.000000e+000,1.380613e-002,0.002117,0.772251,sg|P0C018|RL18_ECOLI (76)-sg|P0A7N1|RL31B_ECOLI (60)/,Inter-Protein,1,1,23.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>321,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.30941.30941.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=30941""",5,2.647361e+003,HKATLLGLGLR(2)-EIAEKMVEGR(5),Cross-Linked,DSBSO,2.647361e+003,null,1.000000e+000,1.395850e-002,-0.000756,-0.285567,sg|P0AG51|RL30_ECOLI (21)-sg|P0A6P1|EFTS_ECOLI (214)/,Inter-Protein,1,1,14.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>322,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24210.24210.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24210""",4,2.139079e+003,MAALMKQR(6)-VKDLPGVR(2),Cross-Linked,DSBSO,2.139079e+003,null,1.000000e+000,1.403288e-002,0.000271,0.126690,sg|P27302|TKT1_ECOLI (452)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,11.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>323,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.14970.14970.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14970""",4,2.356184e+003,KISNGEGVER(1)-TIKITQTR(3),Cross-Linked,DSBSO,2.356185e+003,null,1.000000e+000,1.418799e-002,-0.000821,-0.348445,sg|P0A7K6|RL19_ECOLI (63)-sg|P0AG51|RL30_ECOLI (6)/,Inter-Protein,1,1,11.5,10.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>324,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.35204.35204.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=35204""",4,3.805724e+003,ATIDGLENMNSPEMVAAKR(18)-SMKQAIYDPENR(3),Cross-Linked,DSBSO,3.805721e+003,null,1.000000e+000,1.419386e-002,0.003068,0.806155,sg|P0A7W1|RS5_ECOLI (156)-sg|P21499|RNR_ECOLI (544)/,Inter-Protein,1,1,22.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>325,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.3826.3826.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=3826""",5,2.284082e+003,HIGGGHKQAYR(7)-KQQGHR(1),Cross-Linked,DSBSO,2.284082e+003,null,1.000000e+000,1.427454e-002,-0.000228,-0.099821,sg|P60422|RL2_ECOLI (59)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,11.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>326,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.17054.17054.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=17054""",5,2.591193e+003,EGGNEKVILCDR(6)-ELKPHDR(3),Cross-Linked,DSBSO,2.591190e+003,Carbamidomethyl[C](10),1.000000e+000,1.429045e-002,0.003087,1.191345,sg|P0A715|KDSA_ECOLI (162)-sg|P0A9Q1|ARCA_ECOLI (195)/,Inter-Protein,1,1,13.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>327,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.41951.41951.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=41951""",4,3.272646e+003,QLGEDPWVAIAKR(12)-QLGEDPWVAIAKR(12),Cross-Linked,DSBSO,3.272644e+003,null,1.000000e+000,1.440316e-002,0.002228,0.680795,sg|P0AG67|RS1_ECOLI (272)-sg|P0AG67|RS1_ECOLI (272)/,Inter-Protein,1,1,7.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>328,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.21904.21904.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=21904""",3,2.433132e+003,EIAEKMVEGR(5)-MAALMKQR(6),Cross-Linked,DSBSO,2.433131e+003,Oxidation[M](18),1.000000e+000,1.452174e-002,0.000651,0.267556,sg|P0A6P1|EFTS_ECOLI (214)-sg|P27302|TKT1_ECOLI (452)/,Inter-Protein,1,1,9.5,11.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>329,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.10843.10843.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=10843""",4,2.224037e+003,DIDGHDAASIKR(11)-KSSAAR(1),Cross-Linked,DSBSO,2.224033e+003,null,1.000000e+000,1.456201e-002,0.003368,1.514366,sg|P27302|TKT1_ECOLI (225)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,9.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>330,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.26124.26124.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26124""",3,2.741339e+003,DAAAAVGKAVAER(8)-SHPFYTGKLR(8),Cross-Linked,DSBSO,2.741338e+003,null,1.000000e+000,1.459779e-002,0.000176,0.064202,sg|P0C018|RL18_ECOLI (76)-sg|P0A7N1|RL31B_ECOLI (60)/,Inter-Protein,1,1,8.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>331,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.8163.8163.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=8163""",5,1.916022e+003,VAVIKAVR(5)-KQQGHR(1),Cross-Linked,DSBSO,1.916020e+003,null,1.000000e+000,1.492177e-002,0.001788,0.933184,sg|P0A7K2|RL7_ECOLI (71)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,6.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>332,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.35490.35490.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=35490""",4,3.582688e+003,ATIDGLENMNSPEMVAAKR(18)-DAAAAVGKAVAER(8),Cross-Linked,DSBSO,3.582690e+003,null,1.000000e+000,1.502279e-002,-0.002120,-0.591734,sg|P0A7W1|RS5_ECOLI (156)-sg|P0C018|RL18_ECOLI (76)/,Inter-Protein,1,1,13.0,19.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>333,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.34392.34392.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=34392""",3,3.301750e+003,VVEPLITLAKTDSVANR(10)-LQANPAKIASR(7),Cross-Linked,DSBSO,3.301749e+003,null,1.000000e+000,1.506354e-002,0.000864,0.261679,sg|P0AG44|RL17_ECOLI (56)-sg|P27302|TKT1_ECOLI (354)/,Inter-Protein,1,1,10.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>334,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.15271.15271.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=15271""",3,1.852929e+003,AKLYYLR(2)-KSSAAR(1),Cross-Linked,DSBSO,1.852929e+003,null,1.000000e+000,1.539648e-002,-0.000637,-0.343780,sg|P0A7K6|RL19_ECOLI (96)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,6.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>335,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.17158.17158.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=17158""",3,2.369162e+003,MTDKLTSLR(4)-SHALNATKR(8),Cross-Linked,DSBSO,2.369162e+003,null,1.000000e+000,1.553810e-002,0.000034,0.014351,sg|P0A870|TALB_ECOLI (4)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,5.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>336,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23986.23986.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23986""",4,2.145091e+003,VGFGYGKAR(7)-VKDLPGVR(2),Cross-Linked,DSBSO,2.145083e+003,null,1.000000e+000,1.555524e-002,0.008444,3.936444,sg|P0A7W1|RS5_ECOLI (52)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,9.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>337,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23916.23916.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23916""",4,2.428148e+003,MQKQAELYR(3)-VGFGYGKAR(7),Cross-Linked,DSBSO,2.428146e+003,null,1.000000e+000,1.556260e-002,0.002174,0.895333,sg|P0A7D7|PUR7_ECOLI (3)-sg|P0A7W1|RS5_ECOLI (52)/,Inter-Protein,1,1,8.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>338,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.5338.5338.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=5338""",3,1.728827e+003,EKLQER(2)-KSSAAR(1),Cross-Linked,DSBSO,1.728825e+003,null,1.000000e+000,1.570943e-002,0.001464,0.846818,sg|P0A6F5|CH60_ECOLI (364)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,5.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>339,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.1758.1758.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=1758""",5,1.813851e+003,KQQGHR(1)-KQQGHR(1),Cross-Linked,DSBSO,1.813854e+003,null,1.000000e+000,1.598941e-002,-0.002911,-1.604870,sg|P0AG48|RL21_ECOLI (85)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,3.0,3.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>340,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.16983.16983.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16983""",4,1.863949e+003,KAGFVTR(1)-KAGFVTR(1),Cross-Linked,DSBSO,1.863945e+003,null,1.000000e+000,1.610816e-002,0.003776,2.025810,sg|P0A7X3|RS9_ECOLI (100)-sg|P0A7X3|RS9_ECOLI (100)/,Inter-Protein,1,1,6.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>341,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.25042.25042.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=25042""",3,2.833347e+003,DAAAAVGKAVAER(8)-DIDGHDAASIKR(11),Cross-Linked,DSBSO,2.833345e+003,null,1.000000e+000,1.611894e-002,0.001978,0.698115,sg|P0C018|RL18_ECOLI (76)-sg|P27302|TKT1_ECOLI (225)/,Inter-Protein,1,1,9.0,10.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>342,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.16764.16764.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16764""",5,2.261088e+003,SHPFYTGKLR(8)-VSAKGMR(4),Cross-Linked,DSBSO,2.261087e+003,null,1.000000e+000,1.618696e-002,0.000177,0.078281,sg|P0A7N1|RL31B_ECOLI (60)-sg|P0A7M2|RL28_ECOLI (54)/,Inter-Protein,1,1,14.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>343,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.18012.18012.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=18012""",4,2.350115e+003,KISNGEGVER(1)-VGFGYGKAR(7),Cross-Linked,DSBSO,2.350116e+003,null,1.000000e+000,1.632288e-002,-0.001142,-0.485933,sg|P0A7K6|RL19_ECOLI (63)-sg|P0A7W1|RS5_ECOLI (52)/,Inter-Protein,1,1,13.0,10.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>344,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.25849.25849.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=25849""",3,2.741337e+003,DAAAAVGKAVAER(8)-SHPFYTGKLR(8),Cross-Linked,DSBSO,2.741338e+003,null,1.000000e+000,1.637611e-002,-0.001655,-0.603720,sg|P0C018|RL18_ECOLI (76)-sg|P0A7N1|RL31B_ECOLI (60)/,Inter-Protein,1,1,7.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>345,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.15552.15552.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=15552""",3,1.852929e+003,AKLYYLR(2)-KSSAAR(1),Cross-Linked,DSBSO,1.852929e+003,null,1.000000e+000,1.657836e-002,-0.000776,-0.418796,sg|P0A7K6|RL19_ECOLI (96)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,6.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>346,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.26221.26221.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26221""",3,2.362127e+003,EIAEKMVEGR(5)-ILKCGFR(3),Cross-Linked,DSBSO,2.362127e+003,Carbamidomethyl[C](17),1.000000e+000,1.675223e-002,0.000101,0.042758,sg|P0A6P1|EFTS_ECOLI (214)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,11.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>347,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.32958.32958.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=32958""",4,3.037501e+003,QAGELQEKLIAVNR(8)-EIAEKMVEGR(5),Cross-Linked,DSBSO,3.037500e+003,null,1.000000e+000,1.676458e-002,0.000395,0.130041,sg|P0A7W1|RS5_ECOLI (14)-sg|P0A6P1|EFTS_ECOLI (214)/,Inter-Protein,1,1,10.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>348,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29520.29520.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29520""",4,2.413221e+003,DAAAAVGKAVAER(8)-SVAGFKIR(6),Cross-Linked,DSBSO,2.413221e+003,null,1.000000e+000,1.699275e-002,-0.000051,-0.021134,sg|P0C018|RL18_ECOLI (76)-sg|P62399|RL5_ECOLI (78)/,Inter-Protein,1,1,21.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>349,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.26144.26144.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26144""",3,2.702297e+003,DAAAAVGKAVAER(8)-MQKQAELYR(3),Cross-Linked,DSBSO,2.702295e+003,null,1.000000e+000,1.722159e-002,0.002709,1.002481,sg|P0C018|RL18_ECOLI (76)-sg|P0A7D7|PUR7_ECOLI (3)/,Inter-Protein,1,1,20.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>350,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.28537.28537.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=28537""",4,3.153415e+003,DFLKHNPQNPSWADR(4)-DVKFGNDAR(3),Cross-Linked,DSBSO,3.153415e+003,null,1.000000e+000,1.729639e-002,-0.000203,-0.064375,sg|P27302|TKT1_ECOLI (46)-sg|P0A6F5|CH60_ECOLI (7)/,Inter-Protein,1,1,17.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>351,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.20348.20348.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=20348""",4,2.476146e+003,KISNGEGVER(1)-FWVESEKR(7),Cross-Linked,DSBSO,2.476148e+003,null,1.000000e+000,1.730302e-002,-0.002035,-0.821841,sg|P0A7K6|RL19_ECOLI (63)-sg|P0A7M2|RL28_ECOLI (44)/,Inter-Protein,1,1,13.5,11.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>352,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.6854.6854.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=6854""",3,2.014952e+003,KISNGEGVER(1)-KSSAAR(1),Cross-Linked,DSBSO,2.014953e+003,null,1.000000e+000,1.745363e-002,-0.000818,-0.405965,sg|P0A7K6|RL19_ECOLI (63)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,8.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>353,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.8308.8308.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=8308""",5,2.052998e+003,SHALNATKR(8)-VSAKGMR(4),Cross-Linked,DSBSO,2.052999e+003,null,1.000000e+000,1.755993e-002,-0.000277,-0.134925,sg|P0A7M2|RL28_ECOLI (26)-sg|P0A7M2|RL28_ECOLI (54)/,Intra-Protein,1,1,9.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>354,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.34533.34533.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=34533""",4,2.546306e+003,MAEITASLVKELR(10)-KAGFVTR(1),Cross-Linked,DSBSO,2.546303e+003,null,1.000000e+000,1.779732e-002,0.003128,1.228448,sg|P0A6P1|EFTS_ECOLI (10)-sg|P0A7X3|RS9_ECOLI (100)/,Inter-Protein,1,1,17.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>355,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.11866.11866.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=11866""",4,1.880898e+003,VGFGYGKAR(7)-KSSAAR(1),Cross-Linked,DSBSO,1.880899e+003,null,1.000000e+000,1.790004e-002,-0.001028,-0.546547,sg|P0A7W1|RS5_ECOLI (52)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,3.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>356,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.33777.33777.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=33777""",4,2.668379e+003,DAAAAVGKAVAER(8)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.668380e+003,null,1.000000e+000,1.808983e-002,-0.000500,-0.187380,sg|P0C018|RL18_ECOLI (76)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,13.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>357,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.46514.46514.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=46514""",4,2.572399e+003,KLQLVGVGYR(1)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.572399e+003,null,1.000000e+000,1.813838e-002,0.000474,0.184264,sg|P0AG55|RL6_ECOLI (86)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,6.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>358,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.26795.26795.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26795""",4,2.391274e+003,DAAAAVGKAVAER(8)-VAVIKAVR(5),Cross-Linked,DSBSO,2.391273e+003,null,1.000000e+000,1.830655e-002,0.000959,0.401042,sg|P0C018|RL18_ECOLI (76)-sg|P0A7K2|RL7_ECOLI (71)/,Inter-Protein,1,1,18.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>359,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.16830.16830.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16830""",3,2.369163e+003,MTDKLTSLR(4)-SHALNATKR(8),Cross-Linked,DSBSO,2.369162e+003,null,1.000000e+000,1.831248e-002,0.001310,0.552938,sg|P0A870|TALB_ECOLI (4)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,7.5,11.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>360,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.7893.7893.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=7893""",5,2.279084e+003,HIGGGHKQAYR(7)-VSAKGMR(4),Cross-Linked,DSBSO,2.279084e+003,null,1.000000e+000,1.835514e-002,0.000323,0.141724,sg|P60422|RL2_ECOLI (59)-sg|P0A7M2|RL28_ECOLI (54)/,Inter-Protein,1,1,11.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>361,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.16529.16529.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16529""",3,2.369163e+003,MTDKLTSLR(4)-SHALNATKR(8),Cross-Linked,DSBSO,2.369162e+003,null,1.000000e+000,1.843495e-002,0.001260,0.531834,sg|P0A870|TALB_ECOLI (4)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,8.5,13.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>362,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.26439.26439.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26439""",3,2.702298e+003,DAAAAVGKAVAER(8)-MQKQAELYR(3),Cross-Linked,DSBSO,2.702295e+003,null,1.000000e+000,1.847009e-002,0.003258,1.205642,sg|P0C018|RL18_ECOLI (76)-sg|P0A7D7|PUR7_ECOLI (3)/,Inter-Protein,1,1,18.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>363,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.14968.14968.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14968""",4,1.852928e+003,AKLYYLR(2)-KSSAAR(1),Cross-Linked,DSBSO,1.852929e+003,null,1.000000e+000,1.859687e-002,-0.001603,-0.865117,sg|P0A7K6|RL19_ECOLI (96)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,5.5,3.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>364,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.33448.33448.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=33448""",4,3.598671e+003,ATIDGLENMNSPEMVAAKR(18)-DAAAAVGKAVAER(8),Cross-Linked,DSBSO,3.598685e+003,Oxidation[M](14),1.000000e+000,1.866873e-002,-0.014612,-4.060372,sg|P0A7W1|RS5_ECOLI (156)-sg|P0C018|RL18_ECOLI (76)/,Inter-Protein,1,1,11.0,13.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>365,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.17089.17089.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=17089""",3,2.591191e+003,EGGNEKVILCDR(6)-ELKPHDR(3),Cross-Linked,DSBSO,2.591190e+003,Carbamidomethyl[C](10),1.000000e+000,1.867515e-002,0.000934,0.360452,sg|P0A715|KDSA_ECOLI (162)-sg|P0A9Q1|ARCA_ECOLI (195)/,Inter-Protein,1,1,9.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>366,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.53683.53683.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=53683""",4,2.572402e+003,KLQLVGVGYR(1)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.572399e+003,null,1.000000e+000,1.882325e-002,0.003648,1.418132,sg|P0AG55|RL6_ECOLI (86)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,6.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>367,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.18969.18969.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=18969""",3,2.696329e+003,QGYPIGCKVTLR(8)-SHALNATKR(8),Cross-Linked,DSBSO,2.696332e+003,Carbamidomethyl[C](7),1.000000e+000,1.915219e-002,-0.002670,-0.990234,sg|P62399|RL5_ECOLI (88)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,11.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>368,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.39785.39785.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=39785""",4,3.177539e+003,ITDVEVLKAQFEEER(8)-MTDKLTSLR(4),Cross-Linked,DSBSO,3.177536e+003,null,1.000000e+000,1.925390e-002,0.002882,0.906992,sg|P0A6P1|EFTS_ECOLI (112)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,17.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>369,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.6381.6381.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=6381""",5,2.068996e+003,SHALNATKR(8)-VSAKGMR(4),Cross-Linked,DSBSO,2.068994e+003,Oxidation[M](18),1.000000e+000,1.935481e-002,0.002069,1.000003,sg|P0A7M2|RL28_ECOLI (26)-sg|P0A7M2|RL28_ECOLI (54)/,Intra-Protein,1,1,8.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>370,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.22887.22887.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=22887""",3,2.359247e+003,LQANPAKIASR(7)-VKDLPGVR(2),Cross-Linked,DSBSO,2.359247e+003,null,1.000000e+000,1.936620e-002,0.000190,0.080534,sg|P27302|TKT1_ECOLI (354)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,11.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>371,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.33860.33860.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=33860""",3,2.956438e+003,QLGEDPWVAIAKR(12)-MQKQAELYR(3),Cross-Linked,DSBSO,2.956436e+003,null,1.000000e+000,1.954437e-002,0.001100,0.372070,sg|P0AG67|RS1_ECOLI (272)-sg|P0A7D7|PUR7_ECOLI (3)/,Inter-Protein,1,1,10.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>372,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.6675.6675.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=6675""",4,2.528224e+003,HIGGGHKQAYR(7)-SHALNATKR(8),Cross-Linked,DSBSO,2.528224e+003,null,1.000000e+000,1.958849e-002,-0.000361,-0.142788,sg|P60422|RL2_ECOLI (59)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,10.0,11.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>373,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.37065.37065.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=37065""",4,2.667359e+003,QLGEDPWVAIAKR(12)-SVAGFKIR(6),Cross-Linked,DSBSO,2.667363e+003,null,1.000000e+000,1.963117e-002,-0.003725,-1.396510,sg|P0AG67|RS1_ECOLI (272)-sg|P62399|RL5_ECOLI (78)/,Inter-Protein,1,1,12.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>374,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.25212.25212.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=25212""",5,3.238532e+003,FAAYAKAYPQEAAEFTR(6)-SHALNATKR(8),Cross-Linked,DSBSO,3.238529e+003,null,1.000000e+000,1.969189e-002,0.002632,0.812715,sg|P27302|TKT1_ECOLI (316)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,22.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>375,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.11210.11210.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=11210""",5,2.386253e+003,HIGGGHKQAYR(7)-VAVIKAVR(5),Cross-Linked,DSBSO,2.386248e+003,null,1.000000e+000,1.981815e-002,0.004938,2.069357,sg|P60422|RL2_ECOLI (59)-sg|P0A7K2|RL7_ECOLI (71)/,Inter-Protein,1,1,9.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>376,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.37019.37019.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=37019""",4,2.572402e+003,KLQLVGVGYR(1)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.572399e+003,null,1.000000e+000,1.986969e-002,0.003307,1.285570,sg|P0AG55|RL6_ECOLI (86)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,8.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>377,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.21059.21059.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=21059""",4,2.222130e+003,VGFGYGKAR(7)-TIKITQTR(3),Cross-Linked,DSBSO,2.222131e+003,null,1.000000e+000,1.993797e-002,-0.000338,-0.152106,sg|P0A7W1|RS5_ECOLI (52)-sg|P0AG51|RL30_ECOLI (6)/,Inter-Protein,1,1,6.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>378,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.19691.19691.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=19691""",4,2.165042e+003,MAALMKQR(6)-ILKCGFR(3),Cross-Linked,DSBSO,2.165041e+003,Oxidation[M](1);Carbamidomethyl[C](15),1.000000e+000,2.003041e-002,0.000959,0.442948,sg|P27302|TKT1_ECOLI (452)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,14.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>379,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.4607.4607.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=4607""",5,1.923939e+003,SHALNATKR(8)-KSSAAR(1),Cross-Linked,DSBSO,1.923937e+003,null,1.000000e+000,2.015879e-002,0.001948,1.012507,sg|P0A7M2|RL28_ECOLI (26)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,9.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>380,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.22915.22915.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=22915""",3,2.149045e+003,MAALMKQR(6)-ILKCGFR(3),Cross-Linked,DSBSO,2.149046e+003,Carbamidomethyl[C](15),1.000000e+000,2.022824e-002,-0.001085,-0.504875,sg|P27302|TKT1_ECOLI (452)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,10.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>381,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29827.29827.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29827""",3,2.452152e+003,MTDKLTSLR(4)-FWVESEKR(7),Cross-Linked,DSBSO,2.452156e+003,null,1.000000e+000,2.025759e-002,-0.003773,-1.538646,sg|P0A870|TALB_ECOLI (4)-sg|P0A7M2|RL28_ECOLI (44)/,Inter-Protein,1,1,9.5,12.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>382,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.26244.26244.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26244""",3,2.430274e+003,KLQLVGVGYR(1)-IGSTIKTDR(6),Cross-Linked,DSBSO,2.430273e+003,null,1.000000e+000,2.027546e-002,0.000789,0.324655,sg|P0AG55|RL6_ECOLI (86)-sg|P0A7N1|RL31B_ECOLI (30)/,Inter-Protein,1,1,12.5,10.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>383,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29901.29901.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29901""",4,2.452154e+003,MTDKLTSLR(4)-FWVESEKR(7),Cross-Linked,DSBSO,2.452156e+003,null,1.000000e+000,2.053572e-002,-0.001198,-0.488550,sg|P0A870|TALB_ECOLI (4)-sg|P0A7M2|RL28_ECOLI (44)/,Inter-Protein,1,1,8.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>384,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.18488.18488.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=18488""",4,2.466271e+003,LQANPAKIASR(7)-IGSTIKTDR(6),Cross-Linked,DSBSO,2.466269e+003,null,1.000000e+000,2.056813e-002,0.001690,0.685246,sg|P27302|TKT1_ECOLI (354)-sg|P0A7N1|RL31B_ECOLI (30)/,Inter-Protein,1,1,12.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>385,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.19529.19529.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=19529""",4,2.433130e+003,EIAEKMVEGR(5)-MAALMKQR(6),Cross-Linked,DSBSO,2.433131e+003,Oxidation[M](6),1.000000e+000,2.057800e-002,-0.001803,-0.741020,sg|P0A6P1|EFTS_ECOLI (214)-sg|P27302|TKT1_ECOLI (452)/,Inter-Protein,1,1,10.5,11.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>386,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24859.24859.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24859""",4,2.242157e+003,KLQLVGVGYR(1)-EKLQER(2),Cross-Linked,DSBSO,2.242157e+003,null,1.000000e+000,2.071591e-002,-0.000012,-0.005352,sg|P0AG55|RL6_ECOLI (86)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,13.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>387,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.34973.34973.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=34973""",4,2.868320e+003,EGGNEKVILCDR(6)-DYSKYLNIR(4),Cross-Linked,DSBSO,2.868321e+003,Carbamidomethyl[C](10),1.000000e+000,2.076689e-002,-0.001376,-0.479723,sg|P0A715|KDSA_ECOLI (162)-sg|P25888|RHLE_ECOLI (100)/,Inter-Protein,1,1,8.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>388,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.35974.35974.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=35974""",4,3.932052e+003,VVEPLITLAKTDSVANR(10)-VFQTHSPVVDSISVKR(15),Cross-Linked,DSBSO,3.932051e+003,null,1.000000e+000,2.078235e-002,0.001115,0.283567,sg|P0AG44|RL17_ECOLI (56)-sg|P0A7K6|RL19_ECOLI (87)/,Inter-Protein,1,1,17.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>389,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.38000.38000.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=38000""",3,3.219541e+003,MAEITASLVKELR(10)-SMKQAIYDPENR(3),Cross-Linked,DSBSO,3.219540e+003,null,1.000000e+000,2.103867e-002,0.001161,0.360610,sg|P0A6P1|EFTS_ECOLI (10)-sg|P21499|RNR_ECOLI (544)/,Inter-Protein,1,1,5.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>390,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.30805.30805.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=30805""",3,2.839299e+003,SMKQAIYDPENR(3)-MTDKLTSLR(4),Cross-Linked,DSBSO,2.839298e+003,Oxidation[M](2),1.000000e+000,2.136803e-002,0.001541,0.542740,sg|P21499|RNR_ECOLI (544)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,10.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>391,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.26595.26595.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26595""",5,3.300588e+003,DFLKHNPQNPSWADR(4)-LQANPAKIASR(7),Cross-Linked,DSBSO,3.300589e+003,null,1.000000e+000,2.153343e-002,-0.000675,-0.204509,sg|P27302|TKT1_ECOLI (46)-sg|P27302|TKT1_ECOLI (354)/,Intra-Protein,1,1,18.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>392,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.32174.32174.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=32174""",3,2.610400e+003,ESVLPKAVTAR(6)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.610399e+003,null,1.000000e+000,2.172898e-002,0.000280,0.107263,sg|P27302|TKT1_ECOLI (603)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,13.5,10.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>393,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.32161.32161.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=32161""",4,2.412311e+003,HKATLLGLGLR(2)-AKLYYLR(2),Cross-Linked,DSBSO,2.412314e+003,null,1.000000e+000,2.173982e-002,-0.003223,-1.336062,sg|P0AG51|RL30_ECOLI (21)-sg|P0A7K6|RL19_ECOLI (96)/,Inter-Protein,1,1,10.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>394,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.14653.14653.6 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14653""",6,2.901391e+003,DMLKAGVHFGHQTR(4)-SHALNATKR(8),Cross-Linked,DSBSO,2.901392e+003,null,1.000000e+000,2.184064e-002,-0.000296,-0.102020,sg|P0A7V0|RS2_ECOLI (11)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,17.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>395,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.2615.2615.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=2615""",3,1.545737e+003,KSSAAR(1)-KSSAAR(1),Cross-Linked,DSBSO,1.545736e+003,null,1.000000e+000,2.184556e-002,0.000862,0.557663,sg|P0A7X3|RS9_ECOLI (13)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,3.5,3.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>396,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.12931.12931.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=12931""",5,2.189051e+003,VGFGYGKAR(7)-TSGEKHLR(5),Cross-Linked,DSBSO,2.189048e+003,null,1.000000e+000,2.191190e-002,0.003656,1.670133,sg|P0A7W1|RS5_ECOLI (52)-sg|P0A7N4|RL32_ECOLI (37)/,Inter-Protein,1,1,11.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>397,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.38644.38644.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=38644""",3,2.996498e+003,ITDVEVLKAQFEEER(8)-VKDLPGVR(2),Cross-Linked,DSBSO,2.996495e+003,null,1.000000e+000,2.192926e-002,0.003075,1.026199,sg|P0A6P1|EFTS_ECOLI (112)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,14.0,3.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>398,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24540.24540.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24540""",5,3.278530e+003,DMLKAGVHFGHQTR(4)-EAEKYANPIPSR(4),Cross-Linked,DSBSO,3.278539e+003,null,1.000000e+000,2.214131e-002,-0.008854,-2.700593,sg|P0A7V0|RS2_ECOLI (11)-sg|P21499|RNR_ECOLI (13)/,Inter-Protein,1,1,18.0,10.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>399,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23420.23420.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23420""",4,2.476198e+003,DYSKYLNIR(4)-SHALNATKR(8),Cross-Linked,DSBSO,2.476196e+003,null,1.000000e+000,2.216254e-002,0.002594,1.047575,sg|P25888|RHLE_ECOLI (100)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,7.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>400,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.54041.54041.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=54041""",3,2.668377e+003,DAAAAVGKAVAER(8)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.668380e+003,null,1.000000e+000,2.229970e-002,-0.002996,-1.122779,sg|P0C018|RL18_ECOLI (76)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,9.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>401,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.21009.21009.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=21009""",3,2.322151e+003,KISNGEGVER(1)-AKLYYLR(2),Cross-Linked,DSBSO,2.322147e+003,null,1.000000e+000,2.230580e-002,0.003947,1.699720,sg|P0A7K6|RL19_ECOLI (63)-sg|P0A7K6|RL19_ECOLI (96)/,Intra-Protein,1,1,9.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>402,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.11555.11555.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=11555""",5,2.132026e+003,SHPFYTGKLR(8)-KSSAAR(1),Cross-Linked,DSBSO,2.132026e+003,null,1.000000e+000,2.243571e-002,-0.000220,-0.103188,sg|P0A7N1|RL31B_ECOLI (60)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,11.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>403,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.31745.31745.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=31745""",4,2.759447e+003,QAGELQEKLIAVNR(8)-VKDLPGVR(2),Cross-Linked,DSBSO,2.759443e+003,null,1.000000e+000,2.264657e-002,0.003883,1.407168,sg|P0A7W1|RS5_ECOLI (14)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,12.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>404,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.28310.28310.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=28310""",3,2.948461e+003,MYAVFQSGGKQHR(10)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.948458e+003,null,1.000000e+000,2.266406e-002,0.003015,1.022568,sg|P0AG48|RL21_ECOLI (10)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,14.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>405,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.33499.33499.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=33499""",3,3.298585e+003,MYAVFQSGGKQHR(10)-QLGEDPWVAIAKR(12),Cross-Linked,DSBSO,3.298580e+003,null,1.000000e+000,2.272328e-002,0.004534,1.374531,sg|P0AG48|RL21_ECOLI (10)-sg|P0AG67|RS1_ECOLI (272)/,Inter-Protein,1,1,9.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>406,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.9625.9625.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=9625""",4,2.107027e+003,SHALNATKR(8)-EKLQER(2),Cross-Linked,DSBSO,2.107027e+003,null,1.000000e+000,2.276017e-002,-0.000194,-0.092073,sg|P0A7M2|RL28_ECOLI (26)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,5.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>407,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.30929.30929.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=30929""",4,2.647363e+003,HKATLLGLGLR(2)-EIAEKMVEGR(5),Cross-Linked,DSBSO,2.647361e+003,null,1.000000e+000,2.297400e-002,0.001419,0.536005,sg|P0AG51|RL30_ECOLI (21)-sg|P0A6P1|EFTS_ECOLI (214)/,Inter-Protein,1,1,11.0,11.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>408,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.27509.27509.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=27509""",4,2.429199e+003,DAAAAVGKAVAER(8)-ILKCGFR(3),Cross-Linked,DSBSO,2.429198e+003,Carbamidomethyl[C](20),1.000000e+000,2.300725e-002,0.000170,0.069982,sg|P0C018|RL18_ECOLI (76)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,19.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>409,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.13347.13347.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13347""",4,2.396138e+003,SNVPALEACPQKR(12)-KSSAAR(1),Cross-Linked,DSBSO,2.396137e+003,Carbamidomethyl[C](9),1.000000e+000,2.310591e-002,0.001036,0.432363,sg|P0A7S3|RS12_ECOLI (30)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,8.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>410,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23360.23360.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23360""",4,2.288210e+003,HKATLLGLGLR(2)-EKLQER(2),Cross-Linked,DSBSO,2.288210e+003,null,1.000000e+000,2.323401e-002,-0.000421,-0.183987,sg|P0AG51|RL30_ECOLI (21)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,11.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>411,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29868.29868.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29868""",4,2.736316e+003,QGYPIGCKVTLR(8)-GLSAKSFDGR(5),Cross-Linked,DSBSO,2.736315e+003,Carbamidomethyl[C](7),1.000000e+000,2.336417e-002,0.000777,0.283959,sg|P62399|RL5_ECOLI (88)-sg|P62399|RL5_ECOLI (120)/,Intra-Protein,1,1,12.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>412,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.19455.19455.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=19455""",5,3.099542e+003,QAGELQEKLIAVNR(8)-HIGGGHKQAYR(7),Cross-Linked,DSBSO,3.099546e+003,null,1.000000e+000,2.370474e-002,-0.003736,-1.205338,sg|P0A7W1|RS5_ECOLI (14)-sg|P60422|RL2_ECOLI (59)/,Inter-Protein,1,1,16.0,14.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>413,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.17937.17937.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=17937""",4,2.402083e+003,EGGNEKVILCDR(6)-AMEKAR(4),Cross-Linked,DSBSO,2.402082e+003,Carbamidomethyl[C](10),1.000000e+000,2.404851e-002,0.001049,0.436705,sg|P0A715|KDSA_ECOLI (162)-sg|P0A7W1|RS5_ECOLI (66)/,Inter-Protein,1,1,15.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>414,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.12143.12143.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=12143""",4,2.736314e+003,HIGGGHKQAYR(7)-SHPFYTGKLR(8),Cross-Linked,DSBSO,2.736313e+003,null,1.000000e+000,2.453892e-002,0.000830,0.303328,sg|P60422|RL2_ECOLI (59)-sg|P0A7N1|RL31B_ECOLI (60)/,Inter-Protein,1,1,13.0,10.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>415,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.8382.8382.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=8382""",4,1.916021e+003,VAVIKAVR(5)-KQQGHR(1),Cross-Linked,DSBSO,1.916020e+003,null,1.000000e+000,2.470848e-002,0.000764,0.398743,sg|P0A7K2|RL7_ECOLI (71)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,8.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>416,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.21154.21154.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=21154""",5,2.334193e+003,KLQLVGVGYR(1)-ELKPHDR(3),Cross-Linked,DSBSO,2.334194e+003,null,1.000000e+000,2.480723e-002,-0.000941,-0.403137,sg|P0AG55|RL6_ECOLI (86)-sg|P0A9Q1|ARCA_ECOLI (195)/,Inter-Protein,1,1,17.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>417,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.28046.28046.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=28046""",4,2.839299e+003,SMKQAIYDPENR(3)-MTDKLTSLR(4),Cross-Linked,DSBSO,2.839298e+003,Oxidation[M](16),1.000000e+000,2.482587e-002,0.001528,0.538161,sg|P21499|RNR_ECOLI (544)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,16.0,10.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>418,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.25217.25217.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=25217""",5,3.238533e+003,FAAYAKAYPQEAAEFTR(6)-SHALNATKR(8),Cross-Linked,DSBSO,3.238529e+003,null,1.000000e+000,2.491487e-002,0.003608,1.114086,sg|P27302|TKT1_ECOLI (316)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,21.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>419,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.30999.30999.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=30999""",3,2.647363e+003,HKATLLGLGLR(2)-EIAEKMVEGR(5),Cross-Linked,DSBSO,2.647361e+003,null,1.000000e+000,2.521347e-002,0.001333,0.503520,sg|P0AG51|RL30_ECOLI (21)-sg|P0A6P1|EFTS_ECOLI (214)/,Inter-Protein,1,1,7.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>420,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.19966.19966.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=19966""",4,2.345202e+003,MQKQAELYR(3)-VAVIKAVR(5),Cross-Linked,DSBSO,2.345202e+003,Oxidation[M](1),1.000000e+000,2.525430e-002,-0.000167,-0.071209,sg|P0A7D7|PUR7_ECOLI (3)-sg|P0A7K2|RL7_ECOLI (71)/,Inter-Protein,1,1,8.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>421,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.8627.8627.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=8627""",5,1.916023e+003,VAVIKAVR(5)-KQQGHR(1),Cross-Linked,DSBSO,1.916020e+003,null,1.000000e+000,2.540936e-002,0.002151,1.122639,sg|P0A7K2|RL7_ECOLI (71)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,7.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>422,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29560.29560.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29560""",4,3.170590e+003,VFQTHSPVVDSISVKR(15)-MTDKLTSLR(4),Cross-Linked,DSBSO,3.170589e+003,null,1.000000e+000,2.570872e-002,0.000320,0.100928,sg|P0A7K6|RL19_ECOLI (87)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,20.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>423,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.8708.8708.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=8708""",5,1.916022e+003,VAVIKAVR(5)-KQQGHR(1),Cross-Linked,DSBSO,1.916020e+003,null,1.000000e+000,2.593613e-002,0.001300,0.678490,sg|P0A7K2|RL7_ECOLI (71)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,7.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>424,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.27372.27372.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=27372""",4,2.499223e+003,ESVLPKAVTAR(6)-DVKFGNDAR(3),Cross-Linked,DSBSO,2.499222e+003,null,1.000000e+000,2.593739e-002,0.001619,0.647802,sg|P27302|TKT1_ECOLI (603)-sg|P0A6F5|CH60_ECOLI (7)/,Inter-Protein,1,1,12.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>425,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.20906.20906.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=20906""",3,2.151151e+003,TIKITQTR(3)-VKDLPGVR(2),Cross-Linked,DSBSO,2.151151e+003,null,1.000000e+000,2.601355e-002,0.000217,0.100876,sg|P0AG51|RL30_ECOLI (6)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,7.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>426,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.25432.25432.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=25432""",5,2.886482e+003,VVEPLITLAKTDSVANR(10)-KQQGHR(1),Cross-Linked,DSBSO,2.886481e+003,null,1.000000e+000,2.614486e-002,0.000829,0.287201,sg|P0AG44|RL17_ECOLI (56)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,19.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>427,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.15435.15435.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=15435""",4,2.275070e+003,VVNSKEDIR(5)-ASFDKANR(5),Cross-Linked,DSBSO,2.275069e+003,null,1.000000e+000,2.664234e-002,0.000630,0.276915,sg|P0A836|SUCC_ECOLI (66)-sg|P0A715|KDSA_ECOLI (60)/,Inter-Protein,1,1,8.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>428,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.31901.31901.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=31901""",4,2.610400e+003,ESVLPKAVTAR(6)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.610399e+003,null,1.000000e+000,2.671479e-002,0.000548,0.209930,sg|P27302|TKT1_ECOLI (603)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,9.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>429,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.32363.32363.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=32363""",5,3.485727e+003,TVGQLLKEHNAEVTGFIR(7)-MQKQAELYR(3),Cross-Linked,DSBSO,3.485722e+003,null,1.000000e+000,2.674626e-002,0.004652,1.334587,sg|P0A6P1|EFTS_ECOLI (247)-sg|P0A7D7|PUR7_ECOLI (3)/,Inter-Protein,1,1,14.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>430,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.36392.36392.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=36392""",4,2.870389e+003,QGYPIGCKVTLR(8)-DYSKYLNIR(4),Cross-Linked,DSBSO,2.870388e+003,Carbamidomethyl[C](7),1.000000e+000,2.679994e-002,0.000901,0.313895,sg|P62399|RL5_ECOLI (88)-sg|P25888|RHLE_ECOLI (100)/,Inter-Protein,1,1,14.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>431,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.13254.13254.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13254""",3,2.510230e+003,SHPFYTGKLR(8)-SHALNATKR(8),Cross-Linked,DSBSO,2.510228e+003,null,1.000000e+000,2.685268e-002,0.002715,1.081575,sg|P0A7N1|RL31B_ECOLI (60)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,9.0,10.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>432,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.28023.28023.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=28023""",4,2.452180e+003,MTDKLTSLR(4)-MTDKLTSLR(4),Cross-Linked,DSBSO,2.452180e+003,Oxidation[M](1),1.000000e+000,2.706042e-002,-0.000123,-0.050159,sg|P0A870|TALB_ECOLI (4)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,8.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>433,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.8115.8115.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=8115""",4,1.916024e+003,VAVIKAVR(5)-KQQGHR(1),Cross-Linked,DSBSO,1.916020e+003,null,1.000000e+000,2.715747e-002,0.003523,1.838707,sg|P0A7K2|RL7_ECOLI (71)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,7.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>434,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.28404.28404.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=28404""",3,2.606306e+003,KLQLVGVGYR(1)-MQKQAELYR(3),Cross-Linked,DSBSO,2.606314e+003,null,1.000000e+000,2.717042e-002,-0.007758,-2.976618,sg|P0AG55|RL6_ECOLI (86)-sg|P0A7D7|PUR7_ECOLI (3)/,Inter-Protein,1,1,8.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>435,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.8518.8518.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=8518""",5,1.916019e+003,VAVIKAVR(5)-KQQGHR(1),Cross-Linked,DSBSO,1.916020e+003,null,1.000000e+000,2.719396e-002,-0.001242,-0.648219,sg|P0A7K2|RL7_ECOLI (71)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,8.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>436,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23709.23709.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23709""",4,2.482208e+003,DIDGHDAASIKR(11)-SVAGFKIR(6),Cross-Linked,DSBSO,2.482206e+003,null,1.000000e+000,2.722704e-002,0.002041,0.822252,sg|P27302|TKT1_ECOLI (225)-sg|P62399|RL5_ECOLI (78)/,Inter-Protein,1,1,12.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>437,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.35873.35873.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=35873""",4,3.235532e+003,MAEITASLVKELR(10)-SMKQAIYDPENR(3),Cross-Linked,DSBSO,3.235535e+003,Oxidation[M](1),1.000000e+000,2.734303e-002,-0.003545,-1.095646,sg|P0A6P1|EFTS_ECOLI (10)-sg|P21499|RNR_ECOLI (544)/,Inter-Protein,1,1,16.0,10.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>438,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.34843.34843.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=34843""",3,3.524712e+003,ATIDGLENMNSPEMVAAKR(18)-ESVLPKAVTAR(6),Cross-Linked,DSBSO,3.524710e+003,null,1.000000e+000,2.738241e-002,0.001643,0.466138,sg|P0A7W1|RS5_ECOLI (156)-sg|P27302|TKT1_ECOLI (603)/,Inter-Protein,1,1,25.0,10.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>439,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.22419.22419.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=22419""",3,1.963998e+003,TDKFIVR(3)-KAGFVTR(1),Cross-Linked,DSBSO,1.963998e+003,null,1.000000e+000,2.748460e-002,0.000129,0.065682,sg|P60422|RL2_ECOLI (265)-sg|P0A7X3|RS9_ECOLI (100)/,Inter-Protein,1,1,9.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>440,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.13906.13906.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13906""",4,2.189047e+003,VGFGYGKAR(7)-TSGEKHLR(5),Cross-Linked,DSBSO,2.189048e+003,null,1.000000e+000,2.750198e-002,-0.000237,-0.108266,sg|P0A7W1|RS5_ECOLI (52)-sg|P0A7N4|RL32_ECOLI (37)/,Inter-Protein,1,1,12.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>441,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24410.24410.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24410""",5,2.902353e+003,EGGNEKVILCDR(6)-SHPFYTGKLR(8),Cross-Linked,DSBSO,2.902353e+003,Carbamidomethyl[C](10),1.000000e+000,2.756008e-002,-0.000498,-0.171585,sg|P0A715|KDSA_ECOLI (162)-sg|P0A7N1|RL31B_ECOLI (60)/,Inter-Protein,1,1,14.0,11.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>442,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.4547.4547.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=4547""",4,1.631753e+003,AMEKAR(4)-KSSAAR(1),Cross-Linked,DSBSO,1.631755e+003,null,1.000000e+000,2.808562e-002,-0.001945,-1.191968,sg|P0A7W1|RS5_ECOLI (66)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,6.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>443,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.28578.28578.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=28578""",4,2.608393e+003,LQANPAKIASR(7)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.608395e+003,null,1.000000e+000,2.809245e-002,-0.002092,-0.802026,sg|P27302|TKT1_ECOLI (354)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,9.0,12.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>444,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24394.24394.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24394""",4,2.902355e+003,EGGNEKVILCDR(6)-SHPFYTGKLR(8),Cross-Linked,DSBSO,2.902353e+003,Carbamidomethyl[C](10),1.000000e+000,2.839214e-002,0.001802,0.620876,sg|P0A715|KDSA_ECOLI (162)-sg|P0A7N1|RL31B_ECOLI (60)/,Inter-Protein,1,1,16.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>445,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.35020.35020.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=35020""",4,2.744355e+003,QLGEDPWVAIAKR(12)-VGFGYGKAR(7),Cross-Linked,DSBSO,2.744353e+003,null,1.000000e+000,2.841090e-002,0.001742,0.634758,sg|P0AG67|RS1_ECOLI (272)-sg|P0A7W1|RS5_ECOLI (52)/,Inter-Protein,1,1,17.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>446,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24299.24299.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24299""",4,2.390200e+003,SHPFYTGKLR(8)-SVAGFKIR(6),Cross-Linked,DSBSO,2.390199e+003,null,1.000000e+000,2.865844e-002,0.000425,0.177809,sg|P0A7N1|RL31B_ECOLI (60)-sg|P62399|RL5_ECOLI (78)/,Inter-Protein,1,1,8.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>447,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29003.29003.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29003""",3,2.606315e+003,KLQLVGVGYR(1)-MQKQAELYR(3),Cross-Linked,DSBSO,2.606314e+003,null,1.000000e+000,2.883126e-002,0.001370,0.525647,sg|P0AG55|RL6_ECOLI (86)-sg|P0A7D7|PUR7_ECOLI (3)/,Inter-Protein,1,1,9.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>448,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29919.29919.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29919""",4,3.930887e+003,VFQTHSPVVDSISVKR(15)-DFLKHNPQNPSWADR(4),Cross-Linked,DSBSO,3.930890e+003,null,1.000000e+000,2.895697e-002,-0.002657,-0.675928,sg|P0A7K6|RL19_ECOLI (87)-sg|P27302|TKT1_ECOLI (46)/,Inter-Protein,1,1,7.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>449,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.30234.30234.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=30234""",3,2.538221e+003,DYSKYLNIR(4)-VVNSKEDIR(5),Cross-Linked,DSBSO,2.538221e+003,null,1.000000e+000,2.898482e-002,-0.000491,-0.193443,sg|P25888|RHLE_ECOLI (100)-sg|P0A836|SUCC_ECOLI (66)/,Inter-Protein,1,1,8.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>450,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.17039.17039.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=17039""",4,2.591191e+003,EGGNEKVILCDR(6)-ELKPHDR(3),Cross-Linked,DSBSO,2.591190e+003,Carbamidomethyl[C](10),1.000000e+000,2.934440e-002,0.000860,0.331894,sg|P0A715|KDSA_ECOLI (162)-sg|P0A9Q1|ARCA_ECOLI (195)/,Inter-Protein,1,1,13.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>451,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.11862.11862.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=11862""",3,1.880900e+003,VGFGYGKAR(7)-KSSAAR(1),Cross-Linked,DSBSO,1.880899e+003,null,1.000000e+000,2.942654e-002,0.000517,0.274869,sg|P0A7W1|RS5_ECOLI (52)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,9.0,4.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>452,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.18965.18965.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=18965""",3,2.222188e+003,VVNSKEDIR(5)-VAVIKAVR(5),Cross-Linked,DSBSO,2.222188e+003,null,1.000000e+000,2.957887e-002,-0.000076,-0.034201,sg|P0A836|SUCC_ECOLI (66)-sg|P0A7K2|RL7_ECOLI (71)/,Inter-Protein,1,1,10.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>453,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.33787.33787.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=33787""",5,3.693824e+003,TVGQLLKEHNAEVTGFIR(7)-EAEKYANPIPSR(4),Cross-Linked,DSBSO,3.693825e+003,null,1.000000e+000,2.961505e-002,-0.001259,-0.340839,sg|P0A6P1|EFTS_ECOLI (247)-sg|P21499|RNR_ECOLI (13)/,Inter-Protein,1,1,16.0,11.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>454,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.12961.12961.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=12961""",4,2.092945e+003,DVKFGNDAR(3)-VSAKGMR(4),Cross-Linked,DSBSO,2.092946e+003,Oxidation[M](18),1.000000e+000,2.966740e-002,-0.000952,-0.454861,sg|P0A6F5|CH60_ECOLI (7)-sg|P0A7M2|RL28_ECOLI (54)/,Inter-Protein,1,1,11.0,10.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>455,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29748.29748.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29748""",3,2.706391e+003,DAAAAVGKAVAER(8)-ESVLPKAVTAR(6),Cross-Linked,DSBSO,2.706380e+003,null,1.000000e+000,2.985683e-002,0.011140,4.116200,sg|P0C018|RL18_ECOLI (76)-sg|P27302|TKT1_ECOLI (603)/,Inter-Protein,1,1,15.5,10.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>456,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.13352.13352.6 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13352""",6,2.510229e+003,SHPFYTGKLR(8)-SHALNATKR(8),Cross-Linked,DSBSO,2.510228e+003,null,1.000000e+000,2.991656e-002,0.001151,0.458524,sg|P0A7N1|RL31B_ECOLI (60)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,8.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>457,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.17663.17663.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=17663""",3,2.350116e+003,KISNGEGVER(1)-VGFGYGKAR(7),Cross-Linked,DSBSO,2.350116e+003,null,1.000000e+000,2.994240e-002,-0.000701,-0.298283,sg|P0A7K6|RL19_ECOLI (63)-sg|P0A7W1|RS5_ECOLI (52)/,Inter-Protein,1,1,9.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>458,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.33733.33733.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=33733""",4,4.153012e+003,ATIDGLENMNSPEMVAAKR(18)-VFQTHSPVVDSISVKR(15),Cross-Linked,DSBSO,4.153007e+003,null,1.000000e+000,2.995576e-002,0.005417,1.304356,sg|P0A7W1|RS5_ECOLI (156)-sg|P0A7K6|RL19_ECOLI (87)/,Inter-Protein,1,1,8.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>459,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.15690.15690.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=15690""",4,2.609234e+003,EAEKYANPIPSR(4)-TSGEKHLR(5),Cross-Linked,DSBSO,2.609233e+003,null,1.000000e+000,3.019057e-002,0.000972,0.372523,sg|P21499|RNR_ECOLI (13)-sg|P0A7N4|RL32_ECOLI (37)/,Inter-Protein,1,1,20.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>460,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.12154.12154.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=12154""",4,2.736322e+003,HIGGGHKQAYR(7)-SHPFYTGKLR(8),Cross-Linked,DSBSO,2.736313e+003,null,1.000000e+000,3.035114e-002,0.008427,3.079691,sg|P60422|RL2_ECOLI (59)-sg|P0A7N1|RL31B_ECOLI (60)/,Inter-Protein,1,1,13.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>461,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.6733.6733.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=6733""",4,2.302140e+003,SHALNATKR(8)-SHALNATKR(8),Cross-Linked,DSBSO,2.302139e+003,null,1.000000e+000,3.058954e-002,0.001071,0.465220,sg|P0A7M2|RL28_ECOLI (26)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,6.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>462,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.11454.11454.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=11454""",4,2.192069e+003,IGSTIKTDR(6)-ELKPHDR(3),Cross-Linked,DSBSO,2.192068e+003,null,1.000000e+000,3.068785e-002,0.000027,0.012317,sg|P0A7N1|RL31B_ECOLI (30)-sg|P0A9Q1|ARCA_ECOLI (195)/,Inter-Protein,1,1,9.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>463,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.14208.14208.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14208""",5,2.189047e+003,VGFGYGKAR(7)-TSGEKHLR(5),Cross-Linked,DSBSO,2.189048e+003,null,1.000000e+000,3.108354e-002,-0.000332,-0.151664,sg|P0A7W1|RS5_ECOLI (52)-sg|P0A7N4|RL32_ECOLI (37)/,Inter-Protein,1,1,10.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>464,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.28025.28025.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=28025""",4,2.608389e+003,LQANPAKIASR(7)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.608395e+003,null,1.000000e+000,3.146283e-002,-0.006127,-2.348954,sg|P27302|TKT1_ECOLI (354)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,13.0,16.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>465,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.25135.25135.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=25135""",3,2.194159e+003,TIKITQTR(3)-AKLYYLR(2),Cross-Linked,DSBSO,2.194161e+003,null,1.000000e+000,3.148081e-002,-0.001614,-0.735589,sg|P0AG51|RL30_ECOLI (6)-sg|P0A7K6|RL19_ECOLI (96)/,Inter-Protein,1,1,9.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>466,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.8551.8551.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=8551""",5,2.052999e+003,SHALNATKR(8)-VSAKGMR(4),Cross-Linked,DSBSO,2.052999e+003,null,1.000000e+000,3.179638e-002,-0.000106,-0.051632,sg|P0A7M2|RL28_ECOLI (26)-sg|P0A7M2|RL28_ECOLI (54)/,Intra-Protein,1,1,7.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>467,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.53853.53853.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=53853""",3,2.668379e+003,DAAAAVGKAVAER(8)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.668380e+003,null,1.000000e+000,3.201011e-002,-0.000066,-0.024734,sg|P0C018|RL18_ECOLI (76)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,8.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>468,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.9713.9713.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=9713""",4,1.938945e+003,TDKFIVR(3)-KQQGHR(1),Cross-Linked,DSBSO,1.938952e+003,null,1.000000e+000,3.203242e-002,-0.007125,-3.674665,sg|P60422|RL2_ECOLI (265)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,6.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>469,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.11467.11467.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=11467""",5,2.386250e+003,HIGGGHKQAYR(7)-VAVIKAVR(5),Cross-Linked,DSBSO,2.386248e+003,null,1.000000e+000,3.226704e-002,0.001502,0.629440,sg|P60422|RL2_ECOLI (59)-sg|P0A7K2|RL7_ECOLI (71)/,Inter-Protein,1,1,10.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>470,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.10575.10575.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=10575""",4,2.224033e+003,DIDGHDAASIKR(11)-KSSAAR(1),Cross-Linked,DSBSO,2.224033e+003,null,1.000000e+000,3.232110e-002,-0.000294,-0.132192,sg|P27302|TKT1_ECOLI (225)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,11.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>471,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.18113.18113.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=18113""",3,2.865359e+003,SNVPALEACPQKR(12)-KISNGEGVER(1),Cross-Linked,DSBSO,2.865354e+003,Carbamidomethyl[C](9),1.000000e+000,3.234238e-002,0.005422,1.892262,sg|P0A7S3|RS12_ECOLI (30)-sg|P0A7K6|RL19_ECOLI (63)/,Inter-Protein,1,1,12.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>472,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.13531.13531.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13531""",3,2.396135e+003,SNVPALEACPQKR(12)-KSSAAR(1),Cross-Linked,DSBSO,2.396137e+003,Carbamidomethyl[C](9),1.000000e+000,3.240064e-002,-0.001282,-0.535028,sg|P0A7S3|RS12_ECOLI (30)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,15.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>473,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.30762.30762.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=30762""",4,2.160125e+003,AKLYYLR(2)-AKLYYLR(2),Cross-Linked,DSBSO,2.160123e+003,null,1.000000e+000,3.344907e-002,0.001772,0.820324,sg|P0A7K6|RL19_ECOLI (96)-sg|P0A7K6|RL19_ECOLI (96)/,Inter-Protein,1,1,6.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>474,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.30284.30284.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=30284""",4,2.823310e+003,SMKQAIYDPENR(3)-MTDKLTSLR(4),Cross-Linked,DSBSO,2.823303e+003,null,1.000000e+000,3.430589e-002,0.006591,2.334500,sg|P21499|RNR_ECOLI (544)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,17.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>475,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.35245.35245.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=35245""",5,4.153009e+003,ATIDGLENMNSPEMVAAKR(18)-VFQTHSPVVDSISVKR(15),Cross-Linked,DSBSO,4.153007e+003,null,1.000000e+000,3.454022e-002,0.001503,0.361906,sg|P0A7W1|RS5_ECOLI (156)-sg|P0A7K6|RL19_ECOLI (87)/,Inter-Protein,1,1,14.5,16.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>476,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.33966.33966.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=33966""",4,3.434600e+003,ATIDGLENMNSPEMVAAKR(18)-MTDKLTSLR(4),Cross-Linked,DSBSO,3.434598e+003,Oxidation[M](23),1.000000e+000,3.469897e-002,0.001690,0.492052,sg|P0A7W1|RS5_ECOLI (156)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,17.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>477,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.11795.11795.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=11795""",4,2.162093e+003,TIKITQTR(3)-ELKPHDR(3),Cross-Linked,DSBSO,2.162094e+003,null,1.000000e+000,3.515468e-002,-0.000892,-0.412563,sg|P0AG51|RL30_ECOLI (6)-sg|P0A9Q1|ARCA_ECOLI (195)/,Inter-Protein,1,1,6.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>478,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24009.24009.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24009""",3,2.293083e+003,GLSAKSFDGR(5)-MAALMKQR(6),Cross-Linked,DSBSO,2.293081e+003,null,1.000000e+000,3.536047e-002,0.001938,0.845151,sg|P62399|RL5_ECOLI (120)-sg|P27302|TKT1_ECOLI (452)/,Inter-Protein,1,1,12.5,13.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>479,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.26728.26728.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26728""",3,2.352160e+003,EIAEKMVEGR(5)-VKDLPGVR(2),Cross-Linked,DSBSO,2.352161e+003,null,1.000000e+000,3.549579e-002,-0.000387,-0.164530,sg|P0A6P1|EFTS_ECOLI (214)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,10.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>480,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.49780.49780.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=49780""",4,2.572402e+003,KLQLVGVGYR(1)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.572399e+003,null,1.000000e+000,3.559761e-002,0.003191,1.240476,sg|P0AG55|RL6_ECOLI (86)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,7.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>481,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.16763.16763.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16763""",5,2.576212e+003,EAEKYANPIPSR(4)-ELKPHDR(3),Cross-Linked,DSBSO,2.576212e+003,null,1.000000e+000,3.617261e-002,-0.000266,-0.103252,sg|P21499|RNR_ECOLI (13)-sg|P0A9Q1|ARCA_ECOLI (195)/,Inter-Protein,1,1,12.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>482,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.9588.9588.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=9588""",5,1.937970e+003,SVAGFKIR(6)-KQQGHR(1),Cross-Linked,DSBSO,1.937968e+003,null,1.000000e+000,3.627420e-002,0.001322,0.682158,sg|P62399|RL5_ECOLI (78)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,4.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>483,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.26516.26516.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26516""",3,2.362127e+003,EIAEKMVEGR(5)-ILKCGFR(3),Cross-Linked,DSBSO,2.362127e+003,Carbamidomethyl[C](17),1.000000e+000,3.640412e-002,-0.000555,-0.234958,sg|P0A6P1|EFTS_ECOLI (214)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,8.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>484,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.10686.10686.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=10686""",5,2.530198e+003,SNVPALEACPQKR(12)-KQQGHR(1),Cross-Linked,DSBSO,2.530196e+003,Carbamidomethyl[C](9),1.000000e+000,3.651760e-002,0.001801,0.711803,sg|P0A7S3|RS12_ECOLI (30)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,9.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>485,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.38834.38834.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=38834""",4,2.996495e+003,ITDVEVLKAQFEEER(8)-VKDLPGVR(2),Cross-Linked,DSBSO,2.996495e+003,null,1.000000e+000,3.678665e-002,-0.000012,-0.004005,sg|P0A6P1|EFTS_ECOLI (112)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,17.0,4.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>486,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.36407.36407.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=36407""",3,2.870389e+003,QGYPIGCKVTLR(8)-DYSKYLNIR(4),Cross-Linked,DSBSO,2.870388e+003,Carbamidomethyl[C](7),1.000000e+000,3.692936e-002,0.000814,0.283585,sg|P62399|RL5_ECOLI (88)-sg|P25888|RHLE_ECOLI (100)/,Inter-Protein,1,1,9.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>487,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.25922.25922.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=25922""",5,2.741339e+003,DAAAAVGKAVAER(8)-SHPFYTGKLR(8),Cross-Linked,DSBSO,2.741338e+003,null,1.000000e+000,3.700839e-002,0.000988,0.360408,sg|P0C018|RL18_ECOLI (76)-sg|P0A7N1|RL31B_ECOLI (60)/,Inter-Protein,1,1,14.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>488,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.8431.8431.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=8431""",5,1.916023e+003,VAVIKAVR(5)-KQQGHR(1),Cross-Linked,DSBSO,1.916020e+003,null,1.000000e+000,3.707117e-002,0.002710,1.414390,sg|P0A7K2|RL7_ECOLI (71)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,7.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>489,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.25663.25663.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=25663""",4,2.886481e+003,VVEPLITLAKTDSVANR(10)-KQQGHR(1),Cross-Linked,DSBSO,2.886481e+003,null,1.000000e+000,3.726549e-002,0.000212,0.073446,sg|P0AG44|RL17_ECOLI (56)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,24.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>490,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.26344.26344.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26344""",4,2.084069e+003,VKDLPGVR(2)-ILKCGFR(3),Cross-Linked,DSBSO,2.084070e+003,Carbamidomethyl[C](15),1.000000e+000,3.735529e-002,-0.001406,-0.674641,sg|P0A7S3|RS12_ECOLI (88)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,7.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>491,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.3236.3236.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=3236""",3,1.647751e+003,AMEKAR(4)-KSSAAR(1),Cross-Linked,DSBSO,1.647750e+003,Oxidation[M](2),1.000000e+000,3.779612e-002,0.000896,0.543772,sg|P0A7W1|RS5_ECOLI (66)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,5.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>492,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24651.24651.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24651""",4,3.356709e+003,VVEPLITLAKTDSVANR(10)-HIGGGHKQAYR(7),Cross-Linked,DSBSO,3.356709e+003,null,1.000000e+000,3.784015e-002,-0.000158,-0.047070,sg|P0AG44|RL17_ECOLI (56)-sg|P60422|RL2_ECOLI (59)/,Inter-Protein,1,1,20.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>493,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.28020.28020.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=28020""",3,2.557204e+003,DAAAAVGKAVAER(8)-DVKFGNDAR(3),Cross-Linked,DSBSO,2.557202e+003,null,1.000000e+000,3.800798e-002,0.001898,0.742217,sg|P0C018|RL18_ECOLI (76)-sg|P0A6F5|CH60_ECOLI (7)/,Inter-Protein,1,1,20.0,10.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>494,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.34444.34444.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=34444""",3,3.301749e+003,VVEPLITLAKTDSVANR(10)-LQANPAKIASR(7),Cross-Linked,DSBSO,3.301749e+003,null,1.000000e+000,3.804310e-002,-0.000217,-0.065723,sg|P0AG44|RL17_ECOLI (56)-sg|P27302|TKT1_ECOLI (354)/,Inter-Protein,1,1,13.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>495,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.16371.16371.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16371""",4,1.965050e+003,VAVIKAVR(5)-EKLQER(2),Cross-Linked,DSBSO,1.965051e+003,null,1.000000e+000,3.823128e-002,-0.000563,-0.286507,sg|P0A7K2|RL7_ECOLI (71)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,8.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>496,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.36009.36009.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=36009""",4,3.932046e+003,VVEPLITLAKTDSVANR(10)-VFQTHSPVVDSISVKR(15),Cross-Linked,DSBSO,3.932051e+003,null,1.000000e+000,3.847211e-002,-0.004531,-1.152325,sg|P0AG44|RL17_ECOLI (56)-sg|P0A7K6|RL19_ECOLI (87)/,Inter-Protein,1,1,19.0,10.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>497,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.22536.22536.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=22536""",3,2.433131e+003,EIAEKMVEGR(5)-MAALMKQR(6),Cross-Linked,DSBSO,2.433131e+003,Oxidation[M](14),1.000000e+000,3.851838e-002,-0.000081,-0.033290,sg|P0A6P1|EFTS_ECOLI (214)-sg|P27302|TKT1_ECOLI (452)/,Inter-Protein,1,1,8.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>498,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.16677.16677.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16677""",4,2.576213e+003,EAEKYANPIPSR(4)-ELKPHDR(3),Cross-Linked,DSBSO,2.576212e+003,null,1.000000e+000,3.859808e-002,0.000688,0.267059,sg|P21499|RNR_ECOLI (13)-sg|P0A9Q1|ARCA_ECOLI (195)/,Inter-Protein,1,1,10.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>499,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.14414.14414.6 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14414""",6,2.595248e+003,HIGGGHKQAYR(7)-MTDKLTSLR(4),Cross-Linked,DSBSO,2.595248e+003,null,1.000000e+000,3.906950e-002,0.000264,0.101724,sg|P60422|RL2_ECOLI (59)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,10.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>500,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.41458.41458.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=41458""",4,3.681841e+003,ITDVEVLKAQFEEER(8)-QAGELQEKLIAVNR(8),Cross-Linked,DSBSO,3.681835e+003,null,1.000000e+000,3.938608e-002,0.006377,1.732017,sg|P0A6P1|EFTS_ECOLI (112)-sg|P0A7W1|RS5_ECOLI (14)/,Inter-Protein,1,1,12.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>501,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.14320.14320.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14320""",5,2.595247e+003,HIGGGHKQAYR(7)-MTDKLTSLR(4),Cross-Linked,DSBSO,2.595248e+003,null,1.000000e+000,3.945765e-002,-0.000659,-0.253926,sg|P60422|RL2_ECOLI (59)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,12.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>502,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.25490.25490.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=25490""",3,2.041119e+003,VAVIKAVR(5)-TDKFIVR(3),Cross-Linked,DSBSO,2.041118e+003,null,1.000000e+000,3.946107e-002,0.000399,0.195481,sg|P0A7K2|RL7_ECOLI (71)-sg|P60422|RL2_ECOLI (265)/,Inter-Protein,1,1,8.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>503,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.12901.12901.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=12901""",4,1.804892e+003,TDKFIVR(3)-KSSAAR(1),Cross-Linked,DSBSO,1.804893e+003,null,1.000000e+000,4.054589e-002,-0.001229,-0.680927,sg|P60422|RL2_ECOLI (265)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,6.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>504,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.18894.18894.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=18894""",5,2.653207e+003,SMKQAIYDPENR(3)-ELKPHDR(3),Cross-Linked,DSBSO,2.653205e+003,null,1.000000e+000,4.076391e-002,0.001249,0.470751,sg|P21499|RNR_ECOLI (544)-sg|P0A9Q1|ARCA_ECOLI (195)/,Inter-Protein,1,1,13.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>505,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.11532.11532.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=11532""",4,2.261092e+003,VVNSKEDIR(5)-ELKPHDR(3),Cross-Linked,DSBSO,2.261090e+003,null,1.000000e+000,4.087472e-002,0.001759,0.777943,sg|P0A836|SUCC_ECOLI (66)-sg|P0A9Q1|ARCA_ECOLI (195)/,Inter-Protein,1,1,8.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>506,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.30701.30701.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=30701""",3,2.706385e+003,DAAAAVGKAVAER(8)-ESVLPKAVTAR(6),Cross-Linked,DSBSO,2.706380e+003,null,1.000000e+000,4.088687e-002,0.005280,1.950946,sg|P0C018|RL18_ECOLI (76)-sg|P27302|TKT1_ECOLI (603)/,Inter-Protein,1,1,14.0,10.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>507,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.34029.34029.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=34029""",4,3.430717e+003,VVEPLITLAKTDSVANR(10)-DIDGHDAASIKR(11),Cross-Linked,DSBSO,3.430719e+003,null,1.000000e+000,4.136243e-002,-0.002140,-0.623776,sg|P0AG44|RL17_ECOLI (56)-sg|P27302|TKT1_ECOLI (225)/,Inter-Protein,1,1,20.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>508,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.32272.32272.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=32272""",3,2.764355e+003,DAAAAVGKAVAER(8)-DAAAAVGKAVAER(8),Cross-Linked,DSBSO,2.764360e+003,null,1.000000e+000,4.193399e-002,-0.005136,-1.857934,sg|P0C018|RL18_ECOLI (76)-sg|P0C018|RL18_ECOLI (76)/,Inter-Protein,1,1,9.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>509,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.15031.15031.6 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=15031""",6,2.831340e+003,DMLKAGVHFGHQTR(4)-TSGEKHLR(5),Cross-Linked,DSBSO,2.831338e+003,null,1.000000e+000,4.214542e-002,0.001287,0.454555,sg|P0A7V0|RS2_ECOLI (11)-sg|P0A7N4|RL32_ECOLI (37)/,Inter-Protein,1,1,18.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>510,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.13637.13637.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13637""",5,2.189046e+003,VGFGYGKAR(7)-TSGEKHLR(5),Cross-Linked,DSBSO,2.189048e+003,null,1.000000e+000,4.248176e-002,-0.001381,-0.630868,sg|P0A7W1|RS5_ECOLI (52)-sg|P0A7N4|RL32_ECOLI (37)/,Inter-Protein,1,1,11.5,10.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>511,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29442.29442.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29442""",4,3.043417e+003,FAAYAKAYPQEAAEFTR(6)-EKLQER(2),Cross-Linked,DSBSO,3.043417e+003,null,1.000000e+000,4.298532e-002,-0.000886,-0.291120,sg|P27302|TKT1_ECOLI (316)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,24.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>512,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.28137.28137.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=28137""",4,2.839294e+003,SMKQAIYDPENR(3)-MTDKLTSLR(4),Cross-Linked,DSBSO,2.839298e+003,Oxidation[M](16),1.000000e+000,4.328249e-002,-0.003627,-1.277428,sg|P21499|RNR_ECOLI (544)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,10.0,10.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>513,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24106.24106.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24106""",4,2.350042e+003,DVKFGNDAR(3)-DVKFGNDAR(3),Cross-Linked,DSBSO,2.350044e+003,null,1.000000e+000,4.389615e-002,-0.001825,-0.776581,sg|P0A6F5|CH60_ECOLI (7)-sg|P0A6F5|CH60_ECOLI (7)/,Inter-Protein,1,1,7.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>514,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.10387.10387.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=10387""",5,1.938954e+003,TDKFIVR(3)-KQQGHR(1),Cross-Linked,DSBSO,1.938952e+003,null,1.000000e+000,4.411406e-002,0.001461,0.753500,sg|P60422|RL2_ECOLI (265)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,7.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>515,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.31937.31937.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=31937""",3,2.764364e+003,DAAAAVGKAVAER(8)-DAAAAVGKAVAER(8),Cross-Linked,DSBSO,2.764360e+003,null,1.000000e+000,4.425385e-002,0.003653,1.321463,sg|P0C018|RL18_ECOLI (76)-sg|P0C018|RL18_ECOLI (76)/,Inter-Protein,1,1,9.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>516,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.30417.30417.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=30417""",3,2.860374e+003,QGYPIGCKVTLR(8)-EIAEKMVEGR(5),Cross-Linked,DSBSO,2.860371e+003,Carbamidomethyl[C](7),1.000000e+000,4.541822e-002,0.002538,0.887297,sg|P62399|RL5_ECOLI (88)-sg|P0A6P1|EFTS_ECOLI (214)/,Inter-Protein,1,1,8.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>517,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.49200.49200.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=49200""",3,2.668382e+003,DAAAAVGKAVAER(8)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.668380e+003,null,1.000000e+000,4.591767e-002,0.002864,1.073311,sg|P0C018|RL18_ECOLI (76)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,10.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>518,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.26432.26432.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26432""",3,2.352161e+003,EIAEKMVEGR(5)-VKDLPGVR(2),Cross-Linked,DSBSO,2.352161e+003,null,1.000000e+000,4.595711e-002,0.000444,0.188763,sg|P0A6P1|EFTS_ECOLI (214)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,8.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>519,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.33730.33730.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=33730""",5,4.153012e+003,ATIDGLENMNSPEMVAAKR(18)-VFQTHSPVVDSISVKR(15),Cross-Linked,DSBSO,4.153007e+003,null,1.000000e+000,4.596237e-002,0.005417,1.304356,sg|P0A7W1|RS5_ECOLI (156)-sg|P0A7K6|RL19_ECOLI (87)/,Inter-Protein,1,1,16.5,16.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>520,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.11598.11598.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=11598""",4,1.880898e+003,VGFGYGKAR(7)-KSSAAR(1),Cross-Linked,DSBSO,1.880899e+003,null,1.000000e+000,4.600273e-002,-0.001395,-0.741667,sg|P0A7W1|RS5_ECOLI (52)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,8.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>521,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.52945.52945.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=52945""",3,2.668375e+003,DAAAAVGKAVAER(8)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.668380e+003,null,1.000000e+000,4.624162e-002,-0.004461,-1.671801,sg|P0C018|RL18_ECOLI (76)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,9.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>522,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.9915.9915.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=9915""",3,2.097982e+003,GLSAKSFDGR(5)-KQQGHR(1),Cross-Linked,DSBSO,2.097980e+003,null,1.000000e+000,4.644404e-002,0.002085,0.993813,sg|P62399|RL5_ECOLI (120)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,7.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>523,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29265.29265.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29265""",3,2.295293e+003,KLQLVGVGYR(1)-VAVIKAVR(5),Cross-Linked,DSBSO,2.295293e+003,null,1.000000e+000,4.654068e-002,0.000386,0.168170,sg|P0AG55|RL6_ECOLI (86)-sg|P0A7K2|RL7_ECOLI (71)/,Inter-Protein,1,1,10.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>524,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.30602.30602.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=30602""",4,2.387102e+003,DYSKYLNIR(4)-ASFDKANR(5),Cross-Linked,DSBSO,2.387101e+003,null,1.000000e+000,4.691440e-002,0.001090,0.456621,sg|P25888|RHLE_ECOLI (100)-sg|P0A715|KDSA_ECOLI (60)/,Inter-Protein,1,1,12.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>525,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.12095.12095.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=12095""",3,1.880899e+003,VGFGYGKAR(7)-KSSAAR(1),Cross-Linked,DSBSO,1.880899e+003,null,1.000000e+000,4.704783e-002,-0.000161,-0.085597,sg|P0A7W1|RS5_ECOLI (52)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,15.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>526,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.16675.16675.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16675""",4,1.965049e+003,VAVIKAVR(5)-EKLQER(2),Cross-Linked,DSBSO,1.965051e+003,null,1.000000e+000,4.709941e-002,-0.001430,-0.727717,sg|P0A7K2|RL7_ECOLI (71)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,9.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>527,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.13055.13055.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13055""",5,2.532182e+003,DIDGHDAASIKR(11)-TSGEKHLR(5),Cross-Linked,DSBSO,2.532182e+003,null,1.000000e+000,4.711423e-002,0.000077,0.030409,sg|P27302|TKT1_ECOLI (225)-sg|P0A7N4|RL32_ECOLI (37)/,Inter-Protein,1,1,13.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>528,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.20764.20764.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=20764""",4,2.810324e+003,DIDGHDAASIKR(11)-SHPFYTGKLR(8),Cross-Linked,DSBSO,2.810323e+003,null,1.000000e+000,4.740464e-002,0.000365,0.129878,sg|P27302|TKT1_ECOLI (225)-sg|P0A7N1|RL31B_ECOLI (60)/,Inter-Protein,1,1,8.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>529,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.40692.40692.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=40692""",3,3.177539e+003,ITDVEVLKAQFEEER(8)-MTDKLTSLR(4),Cross-Linked,DSBSO,3.177536e+003,null,1.000000e+000,4.756884e-002,0.002310,0.726978,sg|P0A6P1|EFTS_ECOLI (112)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,11.0,3.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>530,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29154.29154.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29154""",3,2.281084e+003,DYSKYLNIR(4)-EKLQER(2),Cross-Linked,DSBSO,2.281084e+003,null,1.000000e+000,4.847628e-002,0.000457,0.200343,sg|P25888|RHLE_ECOLI (100)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,9.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>531,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.35170.35170.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=35170""",4,3.602822e+003,VVEPLITLAKTDSVANR(10)-SNVPALEACPQKR(12),Cross-Linked,DSBSO,3.602822e+003,Carbamidomethyl[C](29),1.000000e+000,4.872087e-002,-0.000088,-0.024425,sg|P0AG44|RL17_ECOLI (56)-sg|P0A7S3|RS12_ECOLI (30)/,Inter-Protein,1,1,16.0,10.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>532,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29024.29024.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29024""",4,3.904994e+003,VFQTHSPVVDSISVKR(15)-VFQTHSPVVDSISVKR(15),Cross-Linked,DSBSO,3.904993e+003,null,1.000000e+000,4.900390e-002,0.000450,0.115237,sg|P0A7K6|RL19_ECOLI (87)-sg|P0A7K6|RL19_ECOLI (87)/,Inter-Protein,1,1,6.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>533,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.27311.27311.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=27311""",3,2.391273e+003,DAAAAVGKAVAER(8)-VAVIKAVR(5),Cross-Linked,DSBSO,2.391273e+003,null,1.000000e+000,4.938417e-002,0.000099,0.041401,sg|P0C018|RL18_ECOLI (76)-sg|P0A7K2|RL7_ECOLI (71)/,Inter-Protein,1,1,20.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>534,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.20957.20957.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=20957""",3,2.036021e+003,AKLYYLR(2)-EKLQER(2),Cross-Linked,DSBSO,2.036019e+003,null,1.000000e+000,4.974927e-002,0.001737,0.853135,sg|P0A7K6|RL19_ECOLI (96)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,6.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>535,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24153.24153.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24153""",3,3.246539e+003,SNVPALEACPQKR(12)-SNVPALEACPQKR(12),Cross-Linked,DSBSO,3.246537e+003,Carbamidomethyl[C](9);Carbamidomethyl[C](25),1.000000e+000,5.022844e-002,0.001845,0.568298,sg|P0A7S3|RS12_ECOLI (30)-sg|P0A7S3|RS12_ECOLI (30)/,Inter-Protein,1,1,6.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>536,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23405.23405.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23405""",3,2.288210e+003,HKATLLGLGLR(2)-EKLQER(2),Cross-Linked,DSBSO,2.288210e+003,null,1.000000e+000,5.045888e-002,-0.000248,-0.108382,sg|P0AG51|RL30_ECOLI (21)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,9.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>537,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.11516.11516.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=11516""",3,2.261093e+003,VVNSKEDIR(5)-ELKPHDR(3),Cross-Linked,DSBSO,2.261090e+003,null,1.000000e+000,5.052313e-002,0.003298,1.458589,sg|P0A836|SUCC_ECOLI (66)-sg|P0A9Q1|ARCA_ECOLI (195)/,Inter-Protein,1,1,8.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>538,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.6589.6589.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=6589""",3,2.014952e+003,KISNGEGVER(1)-KSSAAR(1),Cross-Linked,DSBSO,2.014953e+003,null,1.000000e+000,5.083199e-002,-0.001466,-0.727560,sg|P0A7K6|RL19_ECOLI (63)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,10.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>539,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.20065.20065.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=20065""",4,2.776358e+003,MYAVFQSGGKQHR(10)-TIKITQTR(3),Cross-Linked,DSBSO,2.776358e+003,null,1.000000e+000,5.091552e-002,0.000408,0.146955,sg|P0AG48|RL21_ECOLI (10)-sg|P0AG51|RL30_ECOLI (6)/,Inter-Protein,1,1,12.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>540,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.9550.9550.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=9550""",5,2.097987e+003,GLSAKSFDGR(5)-KQQGHR(1),Cross-Linked,DSBSO,2.097980e+003,null,1.000000e+000,5.102387e-002,0.006646,3.167809,sg|P62399|RL5_ECOLI (120)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,7.5,11.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>541,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.13709.13709.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13709""",4,2.277082e+003,SHPFYTGKLR(8)-VSAKGMR(4),Cross-Linked,DSBSO,2.277082e+003,Oxidation[M](19),1.000000e+000,5.106408e-002,0.000054,0.023715,sg|P0A7N1|RL31B_ECOLI (60)-sg|P0A7M2|RL28_ECOLI (54)/,Inter-Protein,1,1,9.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>542,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.18546.18546.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=18546""",4,2.228198e+003,TIKITQTR(3)-TIKITQTR(3),Cross-Linked,DSBSO,2.228199e+003,null,1.000000e+000,5.109219e-002,-0.000678,-0.304282,sg|P0AG51|RL30_ECOLI (6)-sg|P0AG51|RL30_ECOLI (6)/,Inter-Protein,1,1,5.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>543,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.36813.36813.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=36813""",4,2.667366e+003,QLGEDPWVAIAKR(12)-SVAGFKIR(6),Cross-Linked,DSBSO,2.667363e+003,null,1.000000e+000,5.143995e-002,0.003120,1.169694,sg|P0AG67|RS1_ECOLI (272)-sg|P62399|RL5_ECOLI (78)/,Inter-Protein,1,1,13.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>544,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29812.29812.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29812""",3,2.925377e+003,DAAAAVGKAVAER(8)-EGGNEKVILCDR(6),Cross-Linked,DSBSO,2.925375e+003,Carbamidomethyl[C](26),1.000000e+000,5.150928e-002,0.002241,0.766056,sg|P0C018|RL18_ECOLI (76)-sg|P0A715|KDSA_ECOLI (162)/,Inter-Protein,1,1,12.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>545,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23055.23055.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23055""",5,2.543250e+003,QLGEDPWVAIAKR(12)-KQQGHR(1),Cross-Linked,DSBSO,2.543249e+003,null,1.000000e+000,5.183121e-002,0.001087,0.427406,sg|P0AG67|RS1_ECOLI (272)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,14.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>546,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.35548.35548.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=35548""",4,2.988647e+003,VVEPLITLAKTDSVANR(10)-VAVIKAVR(5),Cross-Linked,DSBSO,2.988647e+003,null,1.000000e+000,5.189465e-002,-0.000213,-0.071270,sg|P0AG44|RL17_ECOLI (56)-sg|P0A7K2|RL7_ECOLI (71)/,Inter-Protein,1,1,18.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>547,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.25414.25414.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=25414""",4,2.636250e+003,EAEKYANPIPSR(4)-VGFGYGKAR(7),Cross-Linked,DSBSO,2.636248e+003,null,1.000000e+000,5.261920e-002,0.001992,0.755619,sg|P21499|RNR_ECOLI (13)-sg|P0A7W1|RS5_ECOLI (52)/,Inter-Protein,1,1,11.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>548,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.38340.38340.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=38340""",5,3.210710e+003,IGVPFVDGGVIKAEVVAHGR(12)-VKDLPGVR(2),Cross-Linked,DSBSO,3.210701e+003,null,1.000000e+000,5.292763e-002,0.008737,2.721212,sg|P0AG48|RL21_ECOLI (60)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,21.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>549,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.25692.25692.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=25692""",3,2.417140e+003,EIAEKMVEGR(5)-MAALMKQR(6),Cross-Linked,DSBSO,2.417136e+003,null,1.000000e+000,5.303400e-002,0.003281,1.357391,sg|P0A6P1|EFTS_ECOLI (214)-sg|P27302|TKT1_ECOLI (452)/,Inter-Protein,1,1,8.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>550,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.7737.7737.6 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=7737""",6,2.279085e+003,HIGGGHKQAYR(7)-VSAKGMR(4),Cross-Linked,DSBSO,2.279084e+003,null,1.000000e+000,5.366935e-002,0.000572,0.250978,sg|P60422|RL2_ECOLI (59)-sg|P0A7M2|RL28_ECOLI (54)/,Inter-Protein,1,1,11.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>551,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.6976.6976.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=6976""",4,2.302143e+003,SHALNATKR(8)-SHALNATKR(8),Cross-Linked,DSBSO,2.302139e+003,null,1.000000e+000,5.372829e-002,0.003981,1.729261,sg|P0A7M2|RL28_ECOLI (26)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,6.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>552,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.25110.25110.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=25110""",3,2.417137e+003,EIAEKMVEGR(5)-MAALMKQR(6),Cross-Linked,DSBSO,2.417136e+003,null,1.000000e+000,5.413392e-002,0.000954,0.394682,sg|P0A6P1|EFTS_ECOLI (214)-sg|P27302|TKT1_ECOLI (452)/,Inter-Protein,1,1,9.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>553,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.16889.16889.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16889""",4,2.369163e+003,MTDKLTSLR(4)-SHALNATKR(8),Cross-Linked,DSBSO,2.369162e+003,null,1.000000e+000,5.477029e-002,0.000708,0.298840,sg|P0A870|TALB_ECOLI (4)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,8.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>554,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.31451.31451.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=31451""",4,2.759446e+003,QAGELQEKLIAVNR(8)-VKDLPGVR(2),Cross-Linked,DSBSO,2.759443e+003,null,1.000000e+000,5.533316e-002,0.003483,1.262211,sg|P0A7W1|RS5_ECOLI (14)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,18.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>555,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.9934.9934.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=9934""",4,2.097985e+003,GLSAKSFDGR(5)-KQQGHR(1),Cross-Linked,DSBSO,2.097980e+003,null,1.000000e+000,5.555678e-002,0.004656,2.219277,sg|P62399|RL5_ECOLI (120)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,7.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>556,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.27490.27490.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=27490""",4,2.703329e+003,SNVPALEACPQKR(12)-AKLYYLR(2),Cross-Linked,DSBSO,2.703330e+003,Carbamidomethyl[C](9),1.000000e+000,5.621313e-002,-0.001147,-0.424291,sg|P0A7S3|RS12_ECOLI (30)-sg|P0A7K6|RL19_ECOLI (96)/,Inter-Protein,1,1,11.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>557,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.31604.31604.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=31604""",5,2.759444e+003,QAGELQEKLIAVNR(8)-VKDLPGVR(2),Cross-Linked,DSBSO,2.759443e+003,null,1.000000e+000,5.637623e-002,0.001189,0.430884,sg|P0A7W1|RS5_ECOLI (14)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,15.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>558,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29960.29960.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29960""",4,3.930898e+003,VFQTHSPVVDSISVKR(15)-DFLKHNPQNPSWADR(4),Cross-Linked,DSBSO,3.930890e+003,null,1.000000e+000,5.652003e-002,0.007759,1.973853,sg|P0A7K6|RL19_ECOLI (87)-sg|P27302|TKT1_ECOLI (46)/,Inter-Protein,1,1,8.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>559,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.46286.46286.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=46286""",3,2.668377e+003,DAAAAVGKAVAER(8)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.668380e+003,null,1.000000e+000,5.667113e-002,-0.002446,-0.916661,sg|P0C018|RL18_ECOLI (76)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,9.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>560,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.21583.21583.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=21583""",5,2.718318e+003,SHPFYTGKLR(8)-SHPFYTGKLR(8),Cross-Linked,DSBSO,2.718317e+003,null,1.000000e+000,5.701962e-002,0.001143,0.420481,sg|P0A7N1|RL31B_ECOLI (60)-sg|P0A7N1|RL31B_ECOLI (60)/,Inter-Protein,1,1,6.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>561,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.42686.42686.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=42686""",4,3.177538e+003,ITDVEVLKAQFEEER(8)-MTDKLTSLR(4),Cross-Linked,DSBSO,3.177536e+003,null,1.000000e+000,5.738148e-002,0.001510,0.475211,sg|P0A6P1|EFTS_ECOLI (112)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,12.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>562,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.13029.13029.6 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13029""",6,2.409180e+003,HIGGGHKQAYR(7)-TDKFIVR(3),Cross-Linked,DSBSO,2.409180e+003,null,1.000000e+000,5.762591e-002,0.000086,0.035697,sg|P60422|RL2_ECOLI (59)-sg|P60422|RL2_ECOLI (265)/,Intra-Protein,1,1,9.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>563,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.8226.8226.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=8226""",4,2.107029e+003,SHALNATKR(8)-EKLQER(2),Cross-Linked,DSBSO,2.107027e+003,null,1.000000e+000,5.772537e-002,0.002408,1.142843,sg|P0A7M2|RL28_ECOLI (26)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,4.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>564,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.26069.26069.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26069""",4,2.333295e+003,ESVLPKAVTAR(6)-VAVIKAVR(5),Cross-Linked,DSBSO,2.333293e+003,null,1.000000e+000,5.786477e-002,0.001981,0.849015,sg|P27302|TKT1_ECOLI (603)-sg|P0A7K2|RL7_ECOLI (71)/,Inter-Protein,1,1,13.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>565,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.14233.14233.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14233""",5,2.385158e+003,MTDKLTSLR(4)-SHALNATKR(8),Cross-Linked,DSBSO,2.385157e+003,Oxidation[M](1),1.000000e+000,5.797882e-002,0.001215,0.509400,sg|P0A870|TALB_ECOLI (4)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,8.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>566,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.13679.13679.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13679""",4,2.277084e+003,SHPFYTGKLR(8)-VSAKGMR(4),Cross-Linked,DSBSO,2.277082e+003,Oxidation[M](19),1.000000e+000,5.824044e-002,0.002034,0.893248,sg|P0A7N1|RL31B_ECOLI (60)-sg|P0A7M2|RL28_ECOLI (54)/,Inter-Protein,1,1,9.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>567,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.28566.28566.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=28566""",4,2.064050e+003,TDKFIVR(3)-TDKFIVR(3),Cross-Linked,DSBSO,2.064050e+003,null,1.000000e+000,5.842501e-002,-0.000366,-0.177321,sg|P60422|RL2_ECOLI (265)-sg|P60422|RL2_ECOLI (265)/,Inter-Protein,1,1,4.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>568,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.30860.30860.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=30860""",4,2.839296e+003,SMKQAIYDPENR(3)-MTDKLTSLR(4),Cross-Linked,DSBSO,2.839298e+003,Oxidation[M](2),1.000000e+000,5.881903e-002,-0.002134,-0.751594,sg|P21499|RNR_ECOLI (544)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,22.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>569,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.26645.26645.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26645""",4,2.084071e+003,VKDLPGVR(2)-ILKCGFR(3),Cross-Linked,DSBSO,2.084070e+003,Carbamidomethyl[C](15),1.000000e+000,5.910422e-002,0.000765,0.367070,sg|P0A7S3|RS12_ECOLI (88)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,11.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>570,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.16462.16462.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16462""",4,2.261088e+003,SHPFYTGKLR(8)-VSAKGMR(4),Cross-Linked,DSBSO,2.261087e+003,null,1.000000e+000,5.923226e-002,0.000106,0.046880,sg|P0A7N1|RL31B_ECOLI (60)-sg|P0A7M2|RL28_ECOLI (54)/,Inter-Protein,1,1,7.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>571,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.21906.21906.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=21906""",4,2.329213e+003,MQKQAELYR(3)-VAVIKAVR(5),Cross-Linked,DSBSO,2.329208e+003,null,1.000000e+000,5.949638e-002,0.005452,2.340710,sg|P0A7D7|PUR7_ECOLI (3)-sg|P0A7K2|RL7_ECOLI (71)/,Inter-Protein,1,1,8.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>572,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29869.29869.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29869""",3,2.736316e+003,QGYPIGCKVTLR(8)-GLSAKSFDGR(5),Cross-Linked,DSBSO,2.736315e+003,Carbamidomethyl[C](7),1.000000e+000,6.000312e-002,0.000777,0.283959,sg|P62399|RL5_ECOLI (88)-sg|P62399|RL5_ECOLI (120)/,Intra-Protein,1,1,9.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>573,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.37254.37254.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=37254""",4,3.181586e+003,QLGEDPWVAIAKR(12)-QGYPIGCKVTLR(8),Cross-Linked,DSBSO,3.181584e+003,Carbamidomethyl[C](23),1.000000e+000,6.002963e-002,0.001467,0.461091,sg|P0AG67|RS1_ECOLI (272)-sg|P62399|RL5_ECOLI (88)/,Inter-Protein,1,1,12.0,13.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>574,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.13268.13268.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13268""",5,2.401131e+003,MQKQAELYR(3)-TSGEKHLR(5),Cross-Linked,DSBSO,2.401131e+003,null,1.000000e+000,6.009738e-002,0.000393,0.163673,sg|P0A7D7|PUR7_ECOLI (3)-sg|P0A7N4|RL32_ECOLI (37)/,Inter-Protein,1,1,7.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>575,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.10208.10208.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=10208""",4,2.097985e+003,GLSAKSFDGR(5)-KQQGHR(1),Cross-Linked,DSBSO,2.097980e+003,null,1.000000e+000,6.052584e-002,0.004236,2.019085,sg|P62399|RL5_ECOLI (120)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,6.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>576,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.30910.30910.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=30910""",3,2.160123e+003,AKLYYLR(2)-AKLYYLR(2),Cross-Linked,DSBSO,2.160123e+003,null,1.000000e+000,6.106657e-002,0.000008,0.003703,sg|P0A7K6|RL19_ECOLI (96)-sg|P0A7K6|RL19_ECOLI (96)/,Inter-Protein,1,1,3.0,3.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>577,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.38291.38291.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=38291""",3,3.061472e+003,ITDVEVLKAQFEEER(8)-MAALMKQR(6),Cross-Linked,DSBSO,3.061471e+003,null,1.000000e+000,6.106829e-002,0.001196,0.390662,sg|P0A6P1|EFTS_ECOLI (112)-sg|P27302|TKT1_ECOLI (452)/,Inter-Protein,1,1,18.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>578,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.15725.15725.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=15725""",3,2.609234e+003,EAEKYANPIPSR(4)-TSGEKHLR(5),Cross-Linked,DSBSO,2.609233e+003,null,1.000000e+000,6.113312e-002,0.000596,0.228420,sg|P21499|RNR_ECOLI (13)-sg|P0A7N4|RL32_ECOLI (37)/,Inter-Protein,1,1,10.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>579,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.31761.31761.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=31761""",3,2.759447e+003,QAGELQEKLIAVNR(8)-VKDLPGVR(2),Cross-Linked,DSBSO,2.759443e+003,null,1.000000e+000,6.180405e-002,0.003770,1.366218,sg|P0A7W1|RS5_ECOLI (14)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,12.0,4.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>580,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.19254.19254.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=19254""",4,2.503233e+003,SHPFYTGKLR(8)-IGSTIKTDR(6),Cross-Linked,DSBSO,2.503232e+003,null,1.000000e+000,6.184117e-002,0.000914,0.365128,sg|P0A7N1|RL31B_ECOLI (60)-sg|P0A7N1|RL31B_ECOLI (30)/,Intra-Protein,1,1,7.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>581,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29809.29809.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29809""",4,2.413222e+003,DAAAAVGKAVAER(8)-SVAGFKIR(6),Cross-Linked,DSBSO,2.413221e+003,null,1.000000e+000,6.188702e-002,0.000369,0.152908,sg|P0C018|RL18_ECOLI (76)-sg|P62399|RL5_ECOLI (78)/,Inter-Protein,1,1,17.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>582,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.28017.28017.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=28017""",3,3.396542e+003,VVSMPSTDAFDKQDAAYR(12)-KISNGEGVER(1),Cross-Linked,DSBSO,3.396539e+003,null,1.000000e+000,6.191605e-002,0.002956,0.870298,sg|P27302|TKT1_ECOLI (591)-sg|P0A7K6|RL19_ECOLI (63)/,Inter-Protein,1,1,8.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>583,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.11178.11178.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=11178""",4,2.192075e+003,IGSTIKTDR(6)-ELKPHDR(3),Cross-Linked,DSBSO,2.192068e+003,null,1.000000e+000,6.254573e-002,0.006567,2.995801,sg|P0A7N1|RL31B_ECOLI (30)-sg|P0A9Q1|ARCA_ECOLI (195)/,Inter-Protein,1,1,7.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>584,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.18710.18710.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=18710""",5,2.503233e+003,SHPFYTGKLR(8)-IGSTIKTDR(6),Cross-Linked,DSBSO,2.503232e+003,null,1.000000e+000,6.281599e-002,0.000709,0.283234,sg|P0A7N1|RL31B_ECOLI (60)-sg|P0A7N1|RL31B_ECOLI (30)/,Intra-Protein,1,1,9.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>585,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.33852.33852.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=33852""",4,2.956438e+003,QLGEDPWVAIAKR(12)-MQKQAELYR(3),Cross-Linked,DSBSO,2.956436e+003,null,1.000000e+000,6.289846e-002,0.001722,0.582458,sg|P0AG67|RS1_ECOLI (272)-sg|P0A7D7|PUR7_ECOLI (3)/,Inter-Protein,1,1,13.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>586,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.33076.33076.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=33076""",3,2.610399e+003,ESVLPKAVTAR(6)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.610399e+003,null,1.000000e+000,6.304657e-002,-0.000453,-0.173537,sg|P27302|TKT1_ECOLI (603)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,9.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>587,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.27920.27920.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=27920""",3,2.400305e+003,KLQLVGVGYR(1)-TIKITQTR(3),Cross-Linked,DSBSO,2.400299e+003,null,1.000000e+000,6.409126e-002,0.006047,2.519270,sg|P0AG55|RL6_ECOLI (86)-sg|P0AG51|RL30_ECOLI (6)/,Inter-Protein,1,1,8.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>588,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.25416.25416.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=25416""",4,2.644314e+003,ESVLPKAVTAR(6)-MQKQAELYR(3),Cross-Linked,DSBSO,2.644314e+003,null,1.000000e+000,6.419991e-002,-0.000309,-0.116854,sg|P27302|TKT1_ECOLI (603)-sg|P0A7D7|PUR7_ECOLI (3)/,Inter-Protein,1,1,12.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>589,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.18007.18007.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=18007""",3,2.155049e+003,DAAAAVGKAVAER(8)-KSSAAR(1),Cross-Linked,DSBSO,2.155048e+003,null,1.000000e+000,6.421494e-002,0.000726,0.336883,sg|P0C018|RL18_ECOLI (76)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,19.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>590,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.27378.27378.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=27378""",3,2.362127e+003,EIAEKMVEGR(5)-ILKCGFR(3),Cross-Linked,DSBSO,2.362127e+003,Carbamidomethyl[C](17),1.000000e+000,6.429972e-002,0.000108,0.045721,sg|P0A6P1|EFTS_ECOLI (214)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,10.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>591,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.25785.25785.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=25785""",4,2.333293e+003,ESVLPKAVTAR(6)-VAVIKAVR(5),Cross-Linked,DSBSO,2.333293e+003,null,1.000000e+000,6.432740e-002,-0.000473,-0.202718,sg|P27302|TKT1_ECOLI (603)-sg|P0A7K2|RL7_ECOLI (71)/,Inter-Protein,1,1,13.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>592,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.20935.20935.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=20935""",3,2.036015e+003,AKLYYLR(2)-EKLQER(2),Cross-Linked,DSBSO,2.036019e+003,null,1.000000e+000,6.519471e-002,-0.003601,-1.768648,sg|P0A7K6|RL19_ECOLI (96)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,6.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>593,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.19951.19951.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=19951""",3,2.271066e+003,EIAEKMVEGR(5)-EKLQER(2),Cross-Linked,DSBSO,2.271066e+003,null,1.000000e+000,6.528130e-002,-0.000349,-0.153672,sg|P0A6P1|EFTS_ECOLI (214)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,9.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>594,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24319.24319.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24319""",4,2.293079e+003,GLSAKSFDGR(5)-MAALMKQR(6),Cross-Linked,DSBSO,2.293081e+003,null,1.000000e+000,6.530876e-002,-0.001876,-0.818113,sg|P62399|RL5_ECOLI (120)-sg|P27302|TKT1_ECOLI (452)/,Inter-Protein,1,1,9.5,12.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>595,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.27093.27093.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=27093""",3,2.499225e+003,ESVLPKAVTAR(6)-DVKFGNDAR(3),Cross-Linked,DSBSO,2.499222e+003,null,1.000000e+000,6.532158e-002,0.003524,1.410039,sg|P27302|TKT1_ECOLI (603)-sg|P0A6F5|CH60_ECOLI (7)/,Inter-Protein,1,1,14.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>596,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.41938.41938.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=41938""",3,3.272647e+003,QLGEDPWVAIAKR(12)-QLGEDPWVAIAKR(12),Cross-Linked,DSBSO,3.272644e+003,null,1.000000e+000,6.559809e-002,0.003323,1.015387,sg|P0AG67|RS1_ECOLI (272)-sg|P0AG67|RS1_ECOLI (272)/,Inter-Protein,1,1,3.0,3.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>597,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.15969.15969.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=15969""",4,2.426190e+003,VVNSKEDIR(5)-VVNSKEDIR(5),Cross-Linked,DSBSO,2.426190e+003,null,1.000000e+000,6.568273e-002,0.000233,0.096035,sg|P0A836|SUCC_ECOLI (66)-sg|P0A836|SUCC_ECOLI (66)/,Inter-Protein,1,1,6.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>598,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.22546.22546.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=22546""",4,2.428146e+003,MQKQAELYR(3)-VGFGYGKAR(7),Cross-Linked,DSBSO,2.428146e+003,null,1.000000e+000,6.680539e-002,0.000402,0.165558,sg|P0A7D7|PUR7_ECOLI (3)-sg|P0A7W1|RS5_ECOLI (52)/,Inter-Protein,1,1,11.0,12.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>599,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.31723.31723.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=31723""",4,3.097584e+003,TVGQLLKEHNAEVTGFIR(7)-KAGFVTR(1),Cross-Linked,DSBSO,3.097581e+003,null,1.000000e+000,6.692082e-002,0.003616,1.167363,sg|P0A6P1|EFTS_ECOLI (247)-sg|P0A7X3|RS9_ECOLI (100)/,Inter-Protein,1,1,17.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>600,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24640.24640.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24640""",3,2.074105e+003,VKDLPGVR(2)-VKDLPGVR(2),Cross-Linked,DSBSO,2.074103e+003,null,1.000000e+000,6.766646e-002,0.001232,0.593992,sg|P0A7S3|RS12_ECOLI (88)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,4.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>601,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23708.23708.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23708""",3,2.476199e+003,DYSKYLNIR(4)-SHALNATKR(8),Cross-Linked,DSBSO,2.476196e+003,null,1.000000e+000,6.804026e-002,0.002858,1.154190,sg|P25888|RHLE_ECOLI (100)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,7.5,10.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>602,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.22562.22562.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=22562""",5,2.334193e+003,KLQLVGVGYR(1)-ELKPHDR(3),Cross-Linked,DSBSO,2.334194e+003,null,1.000000e+000,6.823138e-002,-0.001301,-0.557366,sg|P0AG55|RL6_ECOLI (86)-sg|P0A9Q1|ARCA_ECOLI (195)/,Inter-Protein,1,1,14.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>603,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.16211.16211.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16211""",3,2.369164e+003,MTDKLTSLR(4)-SHALNATKR(8),Cross-Linked,DSBSO,2.369162e+003,null,1.000000e+000,6.827144e-002,0.001795,0.757652,sg|P0A870|TALB_ECOLI (4)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,8.5,12.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>604,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.38392.38392.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=38392""",5,4.401031e+003,ATIDGLENMNSPEMVAAKR(18)-ATIDGLENMNSPEMVAAKR(18),Cross-Linked,DSBSO,4.401021e+003,null,1.000000e+000,6.852249e-002,0.010600,2.408532,sg|P0A7W1|RS5_ECOLI (156)-sg|P0A7W1|RS5_ECOLI (156)/,Inter-Protein,1,1,11.0,11.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>605,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.13253.13253.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13253""",5,2.510230e+003,SHPFYTGKLR(8)-SHALNATKR(8),Cross-Linked,DSBSO,2.510228e+003,null,1.000000e+000,6.865345e-002,0.002715,1.081575,sg|P0A7N1|RL31B_ECOLI (60)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,7.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>606,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23548.23548.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23548""",4,2.994364e+003,EGGNEKVILCDR(6)-DIDGHDAASIKR(11),Cross-Linked,DSBSO,2.994360e+003,Carbamidomethyl[C](10),1.000000e+000,6.878465e-002,0.004150,1.385939,sg|P0A715|KDSA_ECOLI (162)-sg|P27302|TKT1_ECOLI (225)/,Inter-Protein,1,1,17.0,12.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>607,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.2025.2025.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=2025""",3,1.813854e+003,KQQGHR(1)-KQQGHR(1),Cross-Linked,DSBSO,1.813854e+003,null,1.000000e+000,6.915966e-002,-0.000516,-0.284477,sg|P0AG48|RL21_ECOLI (85)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,2.5,2.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>608,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.5358.5358.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=5358""",4,1.728824e+003,EKLQER(2)-KSSAAR(1),Cross-Linked,DSBSO,1.728825e+003,null,1.000000e+000,7.005922e-002,-0.001906,-1.102483,sg|P0A6F5|CH60_ECOLI (364)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,5.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>609,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.25748.25748.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=25748""",3,2.194159e+003,TIKITQTR(3)-AKLYYLR(2),Cross-Linked,DSBSO,2.194161e+003,null,1.000000e+000,7.045834e-002,-0.001705,-0.777062,sg|P0AG51|RL30_ECOLI (6)-sg|P0A7K6|RL19_ECOLI (96)/,Inter-Protein,1,1,8.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>610,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.20780.20780.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=20780""",3,2.810327e+003,DIDGHDAASIKR(11)-SHPFYTGKLR(8),Cross-Linked,DSBSO,2.810323e+003,null,1.000000e+000,7.063341e-002,0.003381,1.203064,sg|P27302|TKT1_ECOLI (225)-sg|P0A7N1|RL31B_ECOLI (60)/,Inter-Protein,1,1,10.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>611,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.28885.28885.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=28885""",4,2.608392e+003,LQANPAKIASR(7)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.608395e+003,null,1.000000e+000,7.069843e-002,-0.003060,-1.173135,sg|P27302|TKT1_ECOLI (354)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,9.0,14.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>612,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.21206.21206.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=21206""",3,2.151152e+003,TIKITQTR(3)-VKDLPGVR(2),Cross-Linked,DSBSO,2.151151e+003,null,1.000000e+000,7.127811e-002,0.000503,0.233828,sg|P0AG51|RL30_ECOLI (6)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,7.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>613,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.31896.31896.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=31896""",3,2.610398e+003,ESVLPKAVTAR(6)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.610399e+003,null,1.000000e+000,7.135958e-002,-0.001466,-0.561600,sg|P27302|TKT1_ECOLI (603)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,10.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>614,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.27108.27108.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=27108""",4,2.391275e+003,DAAAAVGKAVAER(8)-VAVIKAVR(5),Cross-Linked,DSBSO,2.391273e+003,null,1.000000e+000,7.147364e-002,0.001197,0.500570,sg|P0C018|RL18_ECOLI (76)-sg|P0A7K2|RL7_ECOLI (71)/,Inter-Protein,1,1,20.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>615,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.20383.20383.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=20383""",3,2.155073e+003,MAALMKQR(6)-VKDLPGVR(2),Cross-Linked,DSBSO,2.155074e+003,Oxidation[M](1),1.000000e+000,7.183751e-002,-0.000940,-0.436180,sg|P27302|TKT1_ECOLI (452)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,11.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>616,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.20142.20142.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=20142""",4,2.836364e+003,SNVPALEACPQKR(12)-VVNSKEDIR(5),Cross-Linked,DSBSO,2.836364e+003,Carbamidomethyl[C](9),1.000000e+000,7.190222e-002,0.000516,0.181923,sg|P0A7S3|RS12_ECOLI (30)-sg|P0A836|SUCC_ECOLI (66)/,Inter-Protein,1,1,8.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>617,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.20710.20710.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=20710""",4,2.155074e+003,MAALMKQR(6)-VKDLPGVR(2),Cross-Linked,DSBSO,2.155074e+003,Oxidation[M](1),1.000000e+000,7.199703e-002,0.000023,0.010672,sg|P27302|TKT1_ECOLI (452)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,12.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>618,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.16256.16256.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16256""",4,2.130979e+003,DVKFGNDAR(3)-EKLQER(2),Cross-Linked,DSBSO,2.130979e+003,null,1.000000e+000,7.210669e-002,-0.000366,-0.171752,sg|P0A6F5|CH60_ECOLI (7)-sg|P0A6F5|CH60_ECOLI (364)/,Intra-Protein,1,1,11.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>619,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.31102.31102.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=31102""",3,2.764369e+003,DAAAAVGKAVAER(8)-DAAAAVGKAVAER(8),Cross-Linked,DSBSO,2.764360e+003,null,1.000000e+000,7.221783e-002,0.008780,3.176142,sg|P0C018|RL18_ECOLI (76)-sg|P0C018|RL18_ECOLI (76)/,Inter-Protein,1,1,8.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>620,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.20690.20690.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=20690""",3,2.773362e+003,DIDGHDAASIKR(11)-LQANPAKIASR(7),Cross-Linked,DSBSO,2.773361e+003,null,1.000000e+000,7.233584e-002,0.001449,0.522471,sg|P27302|TKT1_ECOLI (225)-sg|P27302|TKT1_ECOLI (354)/,Intra-Protein,1,1,14.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>621,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.14608.14608.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14608""",5,2.595248e+003,HIGGGHKQAYR(7)-MTDKLTSLR(4),Cross-Linked,DSBSO,2.595248e+003,null,1.000000e+000,7.278403e-002,0.000066,0.025431,sg|P60422|RL2_ECOLI (59)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,10.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>622,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29022.29022.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29022""",3,2.648400e+003,ESVLPKAVTAR(6)-ESVLPKAVTAR(6),Cross-Linked,DSBSO,2.648400e+003,null,1.000000e+000,7.316489e-002,0.000513,0.193702,sg|P27302|TKT1_ECOLI (603)-sg|P27302|TKT1_ECOLI (603)/,Inter-Protein,1,1,7.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>623,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.26043.26043.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26043""",4,3.274696e+003,VFQTHSPVVDSISVKR(15)-LQANPAKIASR(7),Cross-Linked,DSBSO,3.274692e+003,null,1.000000e+000,7.389996e-002,0.003464,1.057809,sg|P0A7K6|RL19_ECOLI (87)-sg|P27302|TKT1_ECOLI (354)/,Inter-Protein,1,1,18.0,11.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>624,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.25601.25601.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=25601""",4,2.074104e+003,VKDLPGVR(2)-VKDLPGVR(2),Cross-Linked,DSBSO,2.074103e+003,null,1.000000e+000,7.434054e-002,0.000251,0.121016,sg|P0A7S3|RS12_ECOLI (88)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,6.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>625,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.28591.28591.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=28591""",3,2.608395e+003,LQANPAKIASR(7)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.608395e+003,null,1.000000e+000,7.450035e-002,-0.000125,-0.047922,sg|P27302|TKT1_ECOLI (354)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,11.0,10.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>626,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.6691.6691.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=6691""",5,2.528226e+003,HIGGGHKQAYR(7)-SHALNATKR(8),Cross-Linked,DSBSO,2.528224e+003,null,1.000000e+000,7.494006e-002,0.001535,0.607145,sg|P60422|RL2_ECOLI (59)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,11.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>627,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.13697.13697.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13697""",5,2.277082e+003,SHPFYTGKLR(8)-VSAKGMR(4),Cross-Linked,DSBSO,2.277082e+003,Oxidation[M](19),1.000000e+000,7.524287e-002,-0.000474,-0.208161,sg|P0A7N1|RL31B_ECOLI (60)-sg|P0A7M2|RL28_ECOLI (54)/,Inter-Protein,1,1,10.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>628,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.27629.27629.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=27629""",3,2.188096e+003,VGFGYGKAR(7)-AKLYYLR(2),Cross-Linked,DSBSO,2.188093e+003,null,1.000000e+000,7.563485e-002,0.003381,1.545181,sg|P0A7W1|RS5_ECOLI (52)-sg|P0A7K6|RL19_ECOLI (96)/,Inter-Protein,1,1,14.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>629,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.19474.19474.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=19474""",3,2.293048e+003,DVKFGNDAR(3)-MAALMKQR(6),Cross-Linked,DSBSO,2.293044e+003,Oxidation[M](13),1.000000e+000,7.590797e-002,0.003454,1.506295,sg|P0A6F5|CH60_ECOLI (7)-sg|P27302|TKT1_ECOLI (452)/,Inter-Protein,1,1,8.5,11.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>630,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23657.23657.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23657""",4,2.288211e+003,HKATLLGLGLR(2)-EKLQER(2),Cross-Linked,DSBSO,2.288210e+003,null,1.000000e+000,7.596270e-002,0.000604,0.263962,sg|P0AG51|RL30_ECOLI (21)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,11.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>631,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.39862.39862.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=39862""",4,2.996498e+003,ITDVEVLKAQFEEER(8)-VKDLPGVR(2),Cross-Linked,DSBSO,2.996495e+003,null,1.000000e+000,7.625522e-002,0.002585,0.862674,sg|P0A6P1|EFTS_ECOLI (112)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,18.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>632,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.28305.28305.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=28305""",5,2.948456e+003,MYAVFQSGGKQHR(10)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.948458e+003,null,1.000000e+000,7.632639e-002,-0.001560,-0.529090,sg|P0AG48|RL21_ECOLI (10)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,12.0,14.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>633,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.13541.13541.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13541""",3,2.510230e+003,SHPFYTGKLR(8)-SHALNATKR(8),Cross-Linked,DSBSO,2.510228e+003,null,1.000000e+000,7.704221e-002,0.002623,1.044925,sg|P0A7N1|RL31B_ECOLI (60)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,7.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>634,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.20255.20255.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=20255""",3,2.280158e+003,ESVLPKAVTAR(6)-EKLQER(2),Cross-Linked,DSBSO,2.280157e+003,null,1.000000e+000,7.716033e-002,0.000525,0.230247,sg|P27302|TKT1_ECOLI (603)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,13.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>635,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.26280.26280.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26280""",3,2.382106e+003,GLSAKSFDGR(5)-GLSAKSFDGR(5),Cross-Linked,DSBSO,2.382106e+003,null,1.000000e+000,7.810840e-002,-0.000443,-0.185970,sg|P62399|RL5_ECOLI (120)-sg|P62399|RL5_ECOLI (120)/,Inter-Protein,1,1,8.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>636,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.27763.27763.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=27763""",3,2.935487e+003,QAGELQEKLIAVNR(8)-VVNSKEDIR(5),Cross-Linked,DSBSO,2.935486e+003,null,1.000000e+000,7.814586e-002,0.000604,0.205758,sg|P0A7W1|RS5_ECOLI (14)-sg|P0A836|SUCC_ECOLI (66)/,Inter-Protein,1,1,10.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>637,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.9282.9282.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=9282""",3,2.569186e+003,MYAVFQSGGKQHR(10)-KQQGHR(1),Cross-Linked,DSBSO,2.569186e+003,null,1.000000e+000,8.605687e-002,0.000190,0.073953,sg|P0AG48|RL21_ECOLI (10)-sg|P0AG48|RL21_ECOLI (85)/,Intra-Protein,1,1,14.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>638,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.21964.21964.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=21964""",3,2.322147e+003,KISNGEGVER(1)-AKLYYLR(2),Cross-Linked,DSBSO,2.322147e+003,null,1.000000e+000,9.429632e-002,0.000651,0.280344,sg|P0A7K6|RL19_ECOLI (63)-sg|P0A7K6|RL19_ECOLI (96)/,Intra-Protein,1,1,8.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>639,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.27144.27144.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=27144""",4,2.222096e+003,GLSAKSFDGR(5)-SVAGFKIR(6),Cross-Linked,DSBSO,2.222094e+003,null,1.000000e+000,1.087319e-001,0.001279,0.575583,sg|P62399|RL5_ECOLI (120)-sg|P62399|RL5_ECOLI (78)/,Intra-Protein,1,1,11.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>640,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.26594.26594.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26594""",4,3.300588e+003,DFLKHNPQNPSWADR(4)-LQANPAKIASR(7),Cross-Linked,DSBSO,3.300589e+003,null,1.000000e+000,1.088987e-001,-0.000675,-0.204509,sg|P27302|TKT1_ECOLI (46)-sg|P27302|TKT1_ECOLI (354)/,Intra-Protein,1,1,17.0,11.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>641,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.30919.30919.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=30919""",4,2.576306e+003,QGYPIGCKVTLR(8)-SVAGFKIR(6),Cross-Linked,DSBSO,2.576303e+003,Carbamidomethyl[C](7),1.000000e+000,1.136367e-001,0.002690,1.044132,sg|P62399|RL5_ECOLI (88)-sg|P62399|RL5_ECOLI (78)/,Intra-Protein,1,1,10.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>642,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.16258.16258.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16258""",3,2.130976e+003,DVKFGNDAR(3)-EKLQER(2),Cross-Linked,DSBSO,2.130979e+003,null,1.000000e+000,1.269023e-001,-0.002857,-1.340698,sg|P0A6F5|CH60_ECOLI (7)-sg|P0A6F5|CH60_ECOLI (364)/,Intra-Protein,1,1,7.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>643,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.21567.21567.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=21567""",4,2.605170e+003,EGGNEKVILCDR(6)-ASFDKANR(5),Cross-Linked,DSBSO,2.605169e+003,Carbamidomethyl[C](10),1.000000e+000,1.492990e-001,0.001018,0.390762,sg|P0A715|KDSA_ECOLI (162)-sg|P0A715|KDSA_ECOLI (60)/,Intra-Protein,1,1,12.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>644,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.20536.20536.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=20536""",3,2.773359e+003,DIDGHDAASIKR(11)-LQANPAKIASR(7),Cross-Linked,DSBSO,2.773361e+003,null,1.000000e+000,1.578464e-001,-0.001459,-0.526077,sg|P27302|TKT1_ECOLI (225)-sg|P27302|TKT1_ECOLI (354)/,Intra-Protein,1,1,8.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>645,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.20812.20812.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=20812""",4,2.773360e+003,DIDGHDAASIKR(11)-LQANPAKIASR(7),Cross-Linked,DSBSO,2.773361e+003,null,1.000000e+000,1.607498e-001,-0.000735,-0.265021,sg|P27302|TKT1_ECOLI (225)-sg|P27302|TKT1_ECOLI (354)/,Intra-Protein,1,1,9.0,12.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>646,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.27707.27707.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=27707""",4,2.222096e+003,GLSAKSFDGR(5)-SVAGFKIR(6),Cross-Linked,DSBSO,2.222094e+003,null,1.000000e+000,1.613943e-001,0.001361,0.612485,sg|P62399|RL5_ECOLI (120)-sg|P62399|RL5_ECOLI (78)/,Intra-Protein,1,1,8.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>647,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.12929.12929.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=12929""",4,2.409183e+003,HIGGGHKQAYR(7)-TDKFIVR(3),Cross-Linked,DSBSO,2.409180e+003,null,1.000000e+000,1.828330e-001,0.002416,1.002831,sg|P60422|RL2_ECOLI (59)-sg|P60422|RL2_ECOLI (265)/,Intra-Protein,1,1,10.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>648,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.8350.8350.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=8350""",4,2.053000e+003,SHALNATKR(8)-VSAKGMR(4),Cross-Linked,DSBSO,2.052999e+003,null,1.000000e+000,2.649690e-001,0.001225,0.596688,sg|P0A7M2|RL28_ECOLI (26)-sg|P0A7M2|RL28_ECOLI (54)/,Intra-Protein,1,1,6.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>649,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.28038.28038.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=28038""",4,2.222092e+003,GLSAKSFDGR(5)-SVAGFKIR(6),Cross-Linked,DSBSO,2.222094e+003,null,1.000000e+000,2.871089e-001,-0.002113,-0.950905,sg|P62399|RL5_ECOLI (120)-sg|P62399|RL5_ECOLI (78)/,Intra-Protein,1,1,9.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>650,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.13009.13009.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13009""",3,2.409180e+003,HIGGGHKQAYR(7)-TDKFIVR(3),Cross-Linked,DSBSO,2.409180e+003,null,1.000000e+000,2.924559e-001,-0.000452,-0.187616,sg|P60422|RL2_ECOLI (59)-sg|P60422|RL2_ECOLI (265)/,Intra-Protein,1,1,11.5,3.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>651,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.8834.8834.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=8834""",4,2.053002e+003,SHALNATKR(8)-VSAKGMR(4),Cross-Linked,DSBSO,2.052999e+003,null,1.000000e+000,2.973256e-001,0.002981,1.452022,sg|P0A7M2|RL28_ECOLI (26)-sg|P0A7M2|RL28_ECOLI (54)/,Intra-Protein,1,1,10.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>652,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.28914.28914.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=28914""",4,3.149410e+003,SMKQAIYDPENR(3)-EAEKYANPIPSR(4),Cross-Linked,DSBSO,3.149422e+003,Oxidation[M](2),1.000000e+000,3.094124e-001,-0.012702,-4.033121,sg|P21499|RNR_ECOLI (544)-sg|P21499|RNR_ECOLI (13)/,Intra-Protein,1,1,12.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>653,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.20491.20491.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=20491""",4,2.773363e+003,DIDGHDAASIKR(11)-LQANPAKIASR(7),Cross-Linked,DSBSO,2.773361e+003,null,1.000000e+000,3.248264e-001,0.002329,0.839775,sg|P27302|TKT1_ECOLI (225)-sg|P27302|TKT1_ECOLI (354)/,Intra-Protein,1,1,11.0,11.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>654,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.20254.20254.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=20254""",3,2.135996e+003,FWVESEKR(7)-VSAKGMR(4),Cross-Linked,DSBSO,2.135992e+003,null,1.000000e+000,3.318366e-001,0.003705,1.734557,sg|P0A7M2|RL28_ECOLI (44)-sg|P0A7M2|RL28_ECOLI (54)/,Intra-Protein,1,1,9.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>655,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.30967.30967.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=30967""",4,3.476653e+003,VVSMPSTDAFDKQDAAYR(12)-LQANPAKIASR(7),Cross-Linked,DSBSO,3.476649e+003,null,1.000000e+000,3.357397e-001,0.003684,1.059641,sg|P27302|TKT1_ECOLI (591)-sg|P27302|TKT1_ECOLI (354)/,Intra-Protein,1,1,13.0,10.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>656,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29975.29975.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29975""",4,3.605619e+003,VVSMPSTDAFDKQDAAYR(12)-DIDGHDAASIKR(11),Cross-Linked,DSBSO,3.605619e+003,null,1.000000e+000,4.187169e-001,-0.000070,-0.019414,sg|P27302|TKT1_ECOLI (591)-sg|P27302|TKT1_ECOLI (225)/,Intra-Protein,1,1,14.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>657,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.27414.27414.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=27414""",3,2.222097e+003,GLSAKSFDGR(5)-SVAGFKIR(6),Cross-Linked,DSBSO,2.222094e+003,null,1.000000e+000,4.412955e-001,0.002954,1.329377,sg|P62399|RL5_ECOLI (120)-sg|P62399|RL5_ECOLI (78)/,Intra-Protein,1,1,8.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>658,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.8076.8076.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=8076""",4,2.053000e+003,SHALNATKR(8)-VSAKGMR(4),Cross-Linked,DSBSO,2.052999e+003,null,1.000000e+000,4.496512e-001,0.001516,0.738432,sg|P0A7M2|RL28_ECOLI (26)-sg|P0A7M2|RL28_ECOLI (54)/,Intra-Protein,1,1,6.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>659,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29588.29588.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29588""",3,2.736319e+003,QGYPIGCKVTLR(8)-GLSAKSFDGR(5),Cross-Linked,DSBSO,2.736315e+003,Carbamidomethyl[C](7),1.000000e+000,4.537533e-001,0.004251,1.553549,sg|P62399|RL5_ECOLI (88)-sg|P62399|RL5_ECOLI (120)/,Intra-Protein,1,1,14.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>660,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.18688.18688.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=18688""",3,2.503231e+003,SHPFYTGKLR(8)-IGSTIKTDR(6),Cross-Linked,DSBSO,2.503232e+003,null,1.000000e+000,4.718570e-001,-0.001257,-0.502151,sg|P0A7N1|RL31B_ECOLI (60)-sg|P0A7N1|RL31B_ECOLI (30)/,Intra-Protein,1,1,12.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>661,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.39504.39504.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=39504""",4,3.830830e+003,ATIDGLENMNSPEMVAAKR(18)-MAEITASLVKELR(10),Cross-Linked,DSBSO,3.830835e+003,Oxidation[M](23),1.000000e+000,7.840414e-002,-0.005122,-1.337045,sg|P0A7W1|RS5_ECOLI (156)-sg|P0A6P1|EFTS_ECOLI (10)/,Inter-Protein,1,1,8.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>662,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.9597.9597.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=9597""",4,1.937968e+003,SVAGFKIR(6)-KQQGHR(1),Cross-Linked,DSBSO,1.937968e+003,null,1.000000e+000,7.856615e-002,0.000020,0.010320,sg|P62399|RL5_ECOLI (78)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,5.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>663,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23388.23388.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23388""",3,2.501219e+003,QGYPIGCKVTLR(8)-EKLQER(2),Cross-Linked,DSBSO,2.501220e+003,Carbamidomethyl[C](7),1.000000e+000,7.860453e-002,-0.000348,-0.139132,sg|P62399|RL5_ECOLI (88)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,17.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>664,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.10382.10382.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=10382""",5,2.295145e+003,SHALNATKR(8)-IGSTIKTDR(6),Cross-Linked,DSBSO,2.295143e+003,null,1.000000e+000,7.880321e-002,0.001584,0.690153,sg|P0A7M2|RL28_ECOLI (26)-sg|P0A7N1|RL31B_ECOLI (30)/,Inter-Protein,1,1,7.5,10.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>665,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.21799.21799.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=21799""",5,2.191139e+003,HKATLLGLGLR(2)-AMEKAR(4),Cross-Linked,DSBSO,2.191139e+003,null,1.000000e+000,7.939322e-002,-0.000837,-0.381993,sg|P0AG51|RL30_ECOLI (21)-sg|P0A7W1|RS5_ECOLI (66)/,Inter-Protein,1,1,14.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>666,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29478.29478.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29478""",3,3.043418e+003,FAAYAKAYPQEAAEFTR(6)-EKLQER(2),Cross-Linked,DSBSO,3.043417e+003,null,1.000000e+000,8.025481e-002,0.000314,0.103173,sg|P27302|TKT1_ECOLI (316)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,18.0,4.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>667,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.38297.38297.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=38297""",3,3.006463e+003,ITDVEVLKAQFEEER(8)-ILKCGFR(3),Cross-Linked,DSBSO,3.006462e+003,Carbamidomethyl[C](22),1.000000e+000,8.082056e-002,0.001335,0.444044,sg|P0A6P1|EFTS_ECOLI (112)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,20.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>668,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.15577.15577.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=15577""",4,2.288147e+003,IGSTIKTDR(6)-IGSTIKTDR(6),Cross-Linked,DSBSO,2.288147e+003,null,1.000000e+000,8.122860e-002,0.000005,0.002185,sg|P0A7N1|RL31B_ECOLI (30)-sg|P0A7N1|RL31B_ECOLI (30)/,Inter-Protein,1,1,6.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>669,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.11603.11603.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=11603""",3,1.880900e+003,VGFGYGKAR(7)-KSSAAR(1),Cross-Linked,DSBSO,1.880899e+003,null,1.000000e+000,8.174879e-002,0.001041,0.553459,sg|P0A7W1|RS5_ECOLI (52)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,12.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>670,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.34630.34630.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=34630""",4,3.301748e+003,VVEPLITLAKTDSVANR(10)-LQANPAKIASR(7),Cross-Linked,DSBSO,3.301749e+003,null,1.000000e+000,8.215959e-002,-0.000918,-0.278034,sg|P0AG44|RL17_ECOLI (56)-sg|P27302|TKT1_ECOLI (354)/,Inter-Protein,1,1,18.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>671,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.14149.14149.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14149""",4,2.287062e+003,EIAEKMVEGR(5)-EKLQER(2),Cross-Linked,DSBSO,2.287061e+003,Oxidation[M](6),1.000000e+000,8.237703e-002,0.000784,0.342798,sg|P0A6P1|EFTS_ECOLI (214)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,9.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>672,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.28909.28909.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=28909""",5,3.169446e+003,DFLKHNPQNPSWADR(4)-GLSAKSFDGR(5),Cross-Linked,DSBSO,3.169446e+003,null,1.000000e+000,8.243828e-002,-0.000826,-0.260613,sg|P27302|TKT1_ECOLI (46)-sg|P62399|RL5_ECOLI (120)/,Inter-Protein,1,1,19.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>673,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23219.23219.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23219""",3,2.149046e+003,MAALMKQR(6)-ILKCGFR(3),Cross-Linked,DSBSO,2.149046e+003,Carbamidomethyl[C](15),1.000000e+000,8.261773e-002,0.000305,0.141923,sg|P27302|TKT1_ECOLI (452)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,11.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>674,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.34974.34974.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=34974""",3,2.868320e+003,EGGNEKVILCDR(6)-DYSKYLNIR(4),Cross-Linked,DSBSO,2.868321e+003,Carbamidomethyl[C](10),1.000000e+000,8.393997e-002,-0.001376,-0.479723,sg|P0A715|KDSA_ECOLI (162)-sg|P25888|RHLE_ECOLI (100)/,Inter-Protein,1,1,10.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>675,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.18236.18236.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=18236""",4,2.136018e+003,MTDKLTSLR(4)-VSAKGMR(4),Cross-Linked,DSBSO,2.136017e+003,Oxidation[M](1),1.000000e+000,8.468731e-002,0.001235,0.578179,sg|P0A870|TALB_ECOLI (4)-sg|P0A7M2|RL28_ECOLI (54)/,Inter-Protein,1,1,11.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>676,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.33159.33159.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=33159""",4,2.754418e+003,QAGELQEKLIAVNR(8)-TDKFIVR(3),Cross-Linked,DSBSO,2.754416e+003,null,1.000000e+000,8.476796e-002,0.002109,0.765679,sg|P0A7W1|RS5_ECOLI (14)-sg|P60422|RL2_ECOLI (265)/,Inter-Protein,1,1,15.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>677,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.10654.10654.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=10654""",3,2.530196e+003,SNVPALEACPQKR(12)-KQQGHR(1),Cross-Linked,DSBSO,2.530196e+003,Carbamidomethyl[C](9),1.000000e+000,8.545240e-002,0.000678,0.267963,sg|P0A7S3|RS12_ECOLI (30)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,14.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>678,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.19905.19905.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=19905""",4,2.436294e+003,LQANPAKIASR(7)-TIKITQTR(3),Cross-Linked,DSBSO,2.436295e+003,null,1.000000e+000,8.593739e-002,-0.001203,-0.493783,sg|P27302|TKT1_ECOLI (354)-sg|P0AG51|RL30_ECOLI (6)/,Inter-Protein,1,1,8.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>679,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.4624.4624.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=4624""",4,1.631751e+003,AMEKAR(4)-KSSAAR(1),Cross-Linked,DSBSO,1.631755e+003,null,1.000000e+000,8.610407e-002,-0.003532,-2.164541,sg|P0A7W1|RS5_ECOLI (66)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,6.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>680,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.25190.25190.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=25190""",4,2.041119e+003,VAVIKAVR(5)-TDKFIVR(3),Cross-Linked,DSBSO,2.041118e+003,null,1.000000e+000,8.645094e-002,0.000379,0.185683,sg|P0A7K2|RL7_ECOLI (71)-sg|P60422|RL2_ECOLI (265)/,Inter-Protein,1,1,9.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>681,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.36615.36615.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=36615""",3,2.572399e+003,KLQLVGVGYR(1)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.572399e+003,null,1.000000e+000,8.736510e-002,0.000269,0.104572,sg|P0AG55|RL6_ECOLI (86)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,4.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>682,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.34588.34588.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=34588""",4,3.418600e+003,ATIDGLENMNSPEMVAAKR(18)-MTDKLTSLR(4),Cross-Linked,DSBSO,3.418603e+003,null,1.000000e+000,8.772777e-002,-0.002693,-0.787749,sg|P0A7W1|RS5_ECOLI (156)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,26.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>683,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.7627.7627.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=7627""",4,2.279084e+003,HIGGGHKQAYR(7)-VSAKGMR(4),Cross-Linked,DSBSO,2.279084e+003,null,1.000000e+000,8.783186e-002,-0.000100,-0.043877,sg|P60422|RL2_ECOLI (59)-sg|P0A7M2|RL28_ECOLI (54)/,Inter-Protein,1,1,13.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>684,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23296.23296.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23296""",3,2.184116e+003,DVKFGNDAR(3)-VAVIKAVR(5),Cross-Linked,DSBSO,2.184115e+003,null,1.000000e+000,8.794169e-002,0.001030,0.471587,sg|P0A6F5|CH60_ECOLI (7)-sg|P0A7K2|RL7_ECOLI (71)/,Inter-Protein,1,1,9.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>685,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.11195.11195.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=11195""",4,2.386251e+003,HIGGGHKQAYR(7)-VAVIKAVR(5),Cross-Linked,DSBSO,2.386248e+003,null,1.000000e+000,8.801791e-002,0.002739,1.147827,sg|P60422|RL2_ECOLI (59)-sg|P0A7K2|RL7_ECOLI (71)/,Inter-Protein,1,1,14.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>686,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.32693.32693.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=32693""",3,2.610401e+003,ESVLPKAVTAR(6)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.610399e+003,null,1.000000e+000,8.837577e-002,0.001561,0.597993,sg|P27302|TKT1_ECOLI (603)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,9.0,10.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>687,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.13661.13661.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13661""",3,2.189048e+003,VGFGYGKAR(7)-TSGEKHLR(5),Cross-Linked,DSBSO,2.189048e+003,null,1.000000e+000,8.857094e-002,0.000752,0.343528,sg|P0A7W1|RS5_ECOLI (52)-sg|P0A7N4|RL32_ECOLI (37)/,Inter-Protein,1,1,7.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>688,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.52198.52198.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=52198""",3,2.668374e+003,DAAAAVGKAVAER(8)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.668380e+003,null,1.000000e+000,8.870099e-002,-0.005925,-2.220449,sg|P0C018|RL18_ECOLI (76)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,9.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>689,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.3666.3666.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=3666""",4,1.545737e+003,KSSAAR(1)-KSSAAR(1),Cross-Linked,DSBSO,1.545736e+003,null,1.000000e+000,8.883203e-002,0.001303,0.842964,sg|P0A7X3|RS9_ECOLI (13)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,3.0,3.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>690,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23187.23187.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23187""",5,2.699309e+003,MYAVFQSGGKQHR(10)-VKDLPGVR(2),Cross-Linked,DSBSO,2.699310e+003,null,1.000000e+000,8.918963e-002,-0.000715,-0.264882,sg|P0AG48|RL21_ECOLI (10)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,9.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>691,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.16477.16477.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16477""",3,1.863945e+003,KAGFVTR(1)-KAGFVTR(1),Cross-Linked,DSBSO,1.863945e+003,null,1.000000e+000,8.989644e-002,-0.000427,-0.229084,sg|P0A7X3|RS9_ECOLI (100)-sg|P0A7X3|RS9_ECOLI (100)/,Inter-Protein,1,1,4.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>692,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.21676.21676.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=21676""",4,2.204053e+003,MAALMKQR(6)-MAALMKQR(6),Cross-Linked,DSBSO,2.204055e+003,null,1.000000e+000,8.990463e-002,-0.001588,-0.720490,sg|P27302|TKT1_ECOLI (452)-sg|P27302|TKT1_ECOLI (452)/,Inter-Protein,1,1,6.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>693,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.30760.30760.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=30760""",4,2.824421e+003,QAGELQEKLIAVNR(8)-MAALMKQR(6),Cross-Linked,DSBSO,2.824419e+003,null,1.000000e+000,9.017911e-002,0.002015,0.713421,sg|P0A7W1|RS5_ECOLI (14)-sg|P27302|TKT1_ECOLI (452)/,Inter-Protein,1,1,11.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>694,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.30135.30135.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=30135""",4,3.210425e+003,SMKQAIYDPENR(3)-SMKQAIYDPENR(3),Cross-Linked,DSBSO,3.210421e+003,null,1.000000e+000,9.054488e-002,0.004312,1.343126,sg|P21499|RNR_ECOLI (544)-sg|P21499|RNR_ECOLI (544)/,Inter-Protein,1,1,7.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>695,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.18799.18799.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=18799""",4,2.466269e+003,LQANPAKIASR(7)-IGSTIKTDR(6),Cross-Linked,DSBSO,2.466269e+003,null,1.000000e+000,9.064127e-002,-0.000265,-0.107450,sg|P27302|TKT1_ECOLI (354)-sg|P0A7N1|RL31B_ECOLI (30)/,Inter-Protein,1,1,8.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>696,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.35257.35257.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=35257""",4,3.632714e+003,FAAYAKAYPQEAAEFTR(6)-QGYPIGCKVTLR(8),Cross-Linked,DSBSO,3.632722e+003,Carbamidomethyl[C](27),1.000000e+000,9.122820e-002,-0.008193,-2.255334,sg|P27302|TKT1_ECOLI (316)-sg|P62399|RL5_ECOLI (88)/,Inter-Protein,1,1,18.0,11.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>697,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.33321.33321.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=33321""",4,2.746312e+003,EAEKYANPIPSR(4)-MTDKLTSLR(4),Cross-Linked,DSBSO,2.746309e+003,null,1.000000e+000,9.139497e-002,0.002424,0.882639,sg|P21499|RNR_ECOLI (13)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,13.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>698,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.3641.3641.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=3641""",4,2.284084e+003,HIGGGHKQAYR(7)-KQQGHR(1),Cross-Linked,DSBSO,2.284082e+003,null,1.000000e+000,9.212754e-002,0.001579,0.691306,sg|P60422|RL2_ECOLI (59)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,9.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>699,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.34067.34067.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=34067""",4,2.853350e+003,EAEKYANPIPSR(4)-DYSKYLNIR(4),Cross-Linked,DSBSO,2.853343e+003,null,1.000000e+000,9.237541e-002,0.006280,2.200927,sg|P21499|RNR_ECOLI (13)-sg|P25888|RHLE_ECOLI (100)/,Inter-Protein,1,1,10.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>700,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.38777.38777.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=38777""",3,3.006460e+003,ITDVEVLKAQFEEER(8)-ILKCGFR(3),Cross-Linked,DSBSO,3.006462e+003,Carbamidomethyl[C](22),1.000000e+000,9.338984e-002,-0.002107,-0.700824,sg|P0A6P1|EFTS_ECOLI (112)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,17.0,4.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>701,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.21808.21808.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=21808""",3,2.338138e+003,DAAAAVGKAVAER(8)-EKLQER(2),Cross-Linked,DSBSO,2.338138e+003,null,1.000000e+000,9.424765e-002,0.000729,0.311787,sg|P0C018|RL18_ECOLI (76)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,19.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>702,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.9448.9448.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=9448""",4,2.521232e+003,HIGGGHKQAYR(7)-IGSTIKTDR(6),Cross-Linked,DSBSO,2.521228e+003,null,1.000000e+000,9.430572e-002,0.003536,1.402491,sg|P60422|RL2_ECOLI (59)-sg|P0A7N1|RL31B_ECOLI (30)/,Inter-Protein,1,1,11.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>703,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.21651.21651.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=21651""",3,2.756290e+003,EGGNEKVILCDR(6)-VVNSKEDIR(5),Cross-Linked,DSBSO,2.756290e+003,Carbamidomethyl[C](10),1.000000e+000,9.515126e-002,0.000068,0.024671,sg|P0A715|KDSA_ECOLI (162)-sg|P0A836|SUCC_ECOLI (66)/,Inter-Protein,1,1,10.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>704,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.36119.36119.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=36119""",3,3.077466e+003,ITDVEVLKAQFEEER(8)-MAALMKQR(6),Cross-Linked,DSBSO,3.077466e+003,Oxidation[M](23),1.000000e+000,9.532877e-002,-0.000010,-0.003249,sg|P0A6P1|EFTS_ECOLI (112)-sg|P27302|TKT1_ECOLI (452)/,Inter-Protein,1,1,22.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>705,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23661.23661.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23661""",4,2.858356e+003,DMLKAGVHFGHQTR(4)-VGFGYGKAR(7),Cross-Linked,DSBSO,2.858353e+003,null,1.000000e+000,9.555150e-002,0.002538,0.887924,sg|P0A7V0|RS2_ECOLI (11)-sg|P0A7W1|RS5_ECOLI (52)/,Inter-Protein,1,1,17.0,12.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>706,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.38548.38548.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=38548""",4,3.061474e+003,ITDVEVLKAQFEEER(8)-MAALMKQR(6),Cross-Linked,DSBSO,3.061471e+003,null,1.000000e+000,9.556879e-002,0.002446,0.798962,sg|P0A6P1|EFTS_ECOLI (112)-sg|P27302|TKT1_ECOLI (452)/,Inter-Protein,1,1,19.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>707,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.9206.9206.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=9206""",5,2.521231e+003,HIGGGHKQAYR(7)-IGSTIKTDR(6),Cross-Linked,DSBSO,2.521228e+003,null,1.000000e+000,9.644884e-002,0.002691,1.067337,sg|P60422|RL2_ECOLI (59)-sg|P0A7N1|RL31B_ECOLI (30)/,Inter-Protein,1,1,10.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>708,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.17654.17654.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=17654""",3,2.155047e+003,DAAAAVGKAVAER(8)-KSSAAR(1),Cross-Linked,DSBSO,2.155048e+003,null,1.000000e+000,9.779220e-002,-0.001106,-0.513214,sg|P0C018|RL18_ECOLI (76)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,21.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>709,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.16053.16053.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16053""",3,1.965048e+003,VAVIKAVR(5)-EKLQER(2),Cross-Linked,DSBSO,1.965051e+003,null,1.000000e+000,9.836365e-002,-0.002153,-1.095646,sg|P0A7K2|RL7_ECOLI (71)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,11.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>710,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.32243.32243.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=32243""",3,3.090526e+003,QGYPIGCKVTLR(8)-QGYPIGCKVTLR(8),Cross-Linked,DSBSO,3.090524e+003,Carbamidomethyl[C](7);Carbamidomethyl[C](22),1.000000e+000,9.850297e-002,0.001448,0.468529,sg|P62399|RL5_ECOLI (88)-sg|P62399|RL5_ECOLI (88)/,Inter-Protein,1,1,6.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>711,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23538.23538.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23538""",5,2.593246e+003,SHPFYTGKLR(8)-MTDKLTSLR(4),Cross-Linked,DSBSO,2.593246e+003,Oxidation[M](14),1.000000e+000,9.890241e-002,0.000208,0.080208,sg|P0A7N1|RL31B_ECOLI (60)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,10.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>712,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.20079.20079.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=20079""",4,2.350115e+003,KISNGEGVER(1)-VGFGYGKAR(7),Cross-Linked,DSBSO,2.350116e+003,null,1.000000e+000,9.930686e-002,-0.001839,-0.782514,sg|P0A7K6|RL19_ECOLI (63)-sg|P0A7W1|RS5_ECOLI (52)/,Inter-Protein,1,1,9.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>713,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23020.23020.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23020""",4,2.359247e+003,LQANPAKIASR(7)-VKDLPGVR(2),Cross-Linked,DSBSO,2.359247e+003,null,1.000000e+000,9.936143e-002,0.000116,0.049168,sg|P27302|TKT1_ECOLI (354)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,9.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>714,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.32959.32959.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=32959""",3,3.037501e+003,QAGELQEKLIAVNR(8)-EIAEKMVEGR(5),Cross-Linked,DSBSO,3.037500e+003,null,1.000000e+000,9.941424e-002,0.000395,0.130041,sg|P0A7W1|RS5_ECOLI (14)-sg|P0A6P1|EFTS_ECOLI (214)/,Inter-Protein,1,1,10.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>715,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.22778.22778.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=22778""",3,2.277051e+003,DVKFGNDAR(3)-MAALMKQR(6),Cross-Linked,DSBSO,2.277049e+003,null,1.000000e+000,1.001157e-001,0.002091,0.918294,sg|P0A6F5|CH60_ECOLI (7)-sg|P27302|TKT1_ECOLI (452)/,Inter-Protein,1,1,11.5,13.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>716,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.14322.14322.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14322""",5,2.385160e+003,MTDKLTSLR(4)-SHALNATKR(8),Cross-Linked,DSBSO,2.385157e+003,Oxidation[M](1),1.000000e+000,1.002013e-001,0.002894,1.213337,sg|P0A870|TALB_ECOLI (4)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,5.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>717,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.38252.38252.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=38252""",3,2.832421e+003,MAEITASLVKELR(10)-MTDKLTSLR(4),Cross-Linked,DSBSO,2.832422e+003,null,1.000000e+000,1.007526e-001,-0.001817,-0.641500,sg|P0A6P1|EFTS_ECOLI (10)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,16.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>718,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.25662.25662.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=25662""",4,2.577252e+003,SHPFYTGKLR(8)-MTDKLTSLR(4),Cross-Linked,DSBSO,2.577251e+003,null,1.000000e+000,1.012147e-001,0.001009,0.391502,sg|P0A7N1|RL31B_ECOLI (60)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,6.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>719,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.20769.20769.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=20769""",3,2.222133e+003,VGFGYGKAR(7)-TIKITQTR(3),Cross-Linked,DSBSO,2.222131e+003,null,1.000000e+000,1.013713e-001,0.001922,0.864936,sg|P0A7W1|RS5_ECOLI (52)-sg|P0AG51|RL30_ECOLI (6)/,Inter-Protein,1,1,10.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>720,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.27886.27886.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=27886""",4,2.429200e+003,DAAAAVGKAVAER(8)-ILKCGFR(3),Cross-Linked,DSBSO,2.429198e+003,Carbamidomethyl[C](20),1.000000e+000,1.014396e-001,0.001307,0.538038,sg|P0C018|RL18_ECOLI (76)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,19.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>721,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.25185.25185.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=25185""",3,2.041119e+003,VAVIKAVR(5)-TDKFIVR(3),Cross-Linked,DSBSO,2.041118e+003,null,1.000000e+000,1.015618e-001,0.000416,0.203810,sg|P0A7K2|RL7_ECOLI (71)-sg|P60422|RL2_ECOLI (265)/,Inter-Protein,1,1,14.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>722,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.14031.14031.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14031""",3,2.316064e+003,EGGNEKVILCDR(6)-KSSAAR(1),Cross-Linked,DSBSO,2.316063e+003,Carbamidomethyl[C](10),1.000000e+000,1.016312e-001,0.001038,0.448174,sg|P0A715|KDSA_ECOLI (162)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,11.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>723,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.25882.25882.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=25882""",4,2.433131e+003,EIAEKMVEGR(5)-MAALMKQR(6),Cross-Linked,DSBSO,2.433131e+003,Oxidation[M](18),1.000000e+000,1.017618e-001,0.000150,0.061649,sg|P0A6P1|EFTS_ECOLI (214)-sg|P27302|TKT1_ECOLI (452)/,Inter-Protein,1,1,9.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>724,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.14030.14030.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14030""",4,2.310053e+003,DIDGHDAASIKR(11)-AMEKAR(4),Cross-Linked,DSBSO,2.310052e+003,null,1.000000e+000,1.020575e-001,0.000873,0.377914,sg|P27302|TKT1_ECOLI (225)-sg|P0A7W1|RS5_ECOLI (66)/,Inter-Protein,1,1,12.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>725,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.10095.10095.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=10095""",4,2.295145e+003,SHALNATKR(8)-IGSTIKTDR(6),Cross-Linked,DSBSO,2.295143e+003,null,1.000000e+000,1.021198e-001,0.002053,0.894498,sg|P0A7M2|RL28_ECOLI (26)-sg|P0A7N1|RL31B_ECOLI (30)/,Inter-Protein,1,1,7.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>726,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.17717.17717.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=17717""",4,1.890912e+003,TDKFIVR(3)-AMEKAR(4),Cross-Linked,DSBSO,1.890912e+003,null,1.000000e+000,1.027773e-001,0.000385,0.203605,sg|P60422|RL2_ECOLI (265)-sg|P0A7W1|RS5_ECOLI (66)/,Inter-Protein,1,1,10.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>727,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.15290.15290.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=15290""",4,2.288147e+003,IGSTIKTDR(6)-IGSTIKTDR(6),Cross-Linked,DSBSO,2.288147e+003,null,1.000000e+000,1.030431e-001,-0.000233,-0.101829,sg|P0A7N1|RL31B_ECOLI (30)-sg|P0A7N1|RL31B_ECOLI (30)/,Inter-Protein,1,1,6.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>728,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29974.29974.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29974""",4,2.436186e+003,MTDKLTSLR(4)-MTDKLTSLR(4),Cross-Linked,DSBSO,2.436185e+003,null,1.000000e+000,1.030672e-001,0.000724,0.297186,sg|P0A870|TALB_ECOLI (4)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,7.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>729,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.21071.21071.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=21071""",4,2.120019e+003,MTDKLTSLR(4)-VSAKGMR(4),Cross-Linked,DSBSO,2.120022e+003,null,1.000000e+000,1.034524e-001,-0.003029,-1.428759,sg|P0A870|TALB_ECOLI (4)-sg|P0A7M2|RL28_ECOLI (54)/,Inter-Protein,1,1,11.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>730,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.35091.35091.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=35091""",4,3.502709e+003,ATIDGLENMNSPEMVAAKR(18)-KLQLVGVGYR(1),Cross-Linked,DSBSO,3.502705e+003,Oxidation[M](14),1.000000e+000,1.036594e-001,0.003946,1.126558,sg|P0A7W1|RS5_ECOLI (156)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,14.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>731,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.26810.26810.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26810""",3,2.362126e+003,EIAEKMVEGR(5)-ILKCGFR(3),Cross-Linked,DSBSO,2.362127e+003,Carbamidomethyl[C](17),1.000000e+000,1.040121e-001,-0.001540,-0.651955,sg|P0A6P1|EFTS_ECOLI (214)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,8.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>732,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.22061.22061.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=22061""",4,2.120024e+003,MTDKLTSLR(4)-VSAKGMR(4),Cross-Linked,DSBSO,2.120022e+003,null,1.000000e+000,1.041855e-001,0.001854,0.874519,sg|P0A870|TALB_ECOLI (4)-sg|P0A7M2|RL28_ECOLI (54)/,Inter-Protein,1,1,8.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>733,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24052.24052.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24052""",4,2.853311e+003,MYAVFQSGGKQHR(10)-GLSAKSFDGR(5),Cross-Linked,DSBSO,2.853312e+003,null,1.000000e+000,1.042444e-001,-0.000529,-0.185399,sg|P0AG48|RL21_ECOLI (10)-sg|P62399|RL5_ECOLI (120)/,Inter-Protein,1,1,14.0,11.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>734,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.31697.31697.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=31697""",3,2.625326e+003,QGYPIGCKVTLR(8)-AKLYYLR(2),Cross-Linked,DSBSO,2.625324e+003,Carbamidomethyl[C](7),1.000000e+000,1.046175e-001,0.002034,0.774762,sg|P62399|RL5_ECOLI (88)-sg|P0A7K6|RL19_ECOLI (96)/,Inter-Protein,1,1,11.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>735,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.11513.11513.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=11513""",4,1.819882e+003,ILKCGFR(3)-KSSAAR(1),Cross-Linked,DSBSO,1.819886e+003,Carbamidomethyl[C](4),1.000000e+000,1.050708e-001,-0.004178,-2.295748,sg|P0AG44|RL17_ECOLI (99)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,6.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>736,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23523.23523.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23523""",3,2.139080e+003,MAALMKQR(6)-VKDLPGVR(2),Cross-Linked,DSBSO,2.139079e+003,null,1.000000e+000,1.055561e-001,0.001168,0.546029,sg|P27302|TKT1_ECOLI (452)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,7.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>737,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23601.23601.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23601""",3,2.256173e+003,ESVLPKAVTAR(6)-KAGFVTR(1),Cross-Linked,DSBSO,2.256173e+003,null,1.000000e+000,1.055617e-001,0.000394,0.174632,sg|P27302|TKT1_ECOLI (603)-sg|P0A7X3|RS9_ECOLI (100)/,Inter-Protein,1,1,13.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>738,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.12663.12663.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=12663""",5,2.736312e+003,HIGGGHKQAYR(7)-SHPFYTGKLR(8),Cross-Linked,DSBSO,2.736313e+003,null,1.000000e+000,1.062910e-001,-0.001130,-0.412964,sg|P60422|RL2_ECOLI (59)-sg|P0A7N1|RL31B_ECOLI (60)/,Inter-Protein,1,1,13.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>739,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.28825.28825.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=28825""",4,2.452178e+003,MTDKLTSLR(4)-MTDKLTSLR(4),Cross-Linked,DSBSO,2.452180e+003,Oxidation[M](1),1.000000e+000,1.063746e-001,-0.002430,-0.990955,sg|P0A870|TALB_ECOLI (4)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,8.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>740,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.30246.30246.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=30246""",3,2.395171e+003,EIAEKMVEGR(5)-AKLYYLR(2),Cross-Linked,DSBSO,2.395170e+003,null,1.000000e+000,1.065468e-001,0.000076,0.031731,sg|P0A6P1|EFTS_ECOLI (214)-sg|P0A7K6|RL19_ECOLI (96)/,Inter-Protein,1,1,8.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>741,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.2954.2954.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=2954""",3,1.545736e+003,KSSAAR(1)-KSSAAR(1),Cross-Linked,DSBSO,1.545736e+003,null,1.000000e+000,1.073989e-001,0.000119,0.076986,sg|P0A7X3|RS9_ECOLI (13)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,3.5,3.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>742,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29290.29290.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29290""",3,3.043419e+003,FAAYAKAYPQEAAEFTR(6)-EKLQER(2),Cross-Linked,DSBSO,3.043417e+003,null,1.000000e+000,1.075140e-001,0.001409,0.462966,sg|P27302|TKT1_ECOLI (316)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,20.0,4.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>743,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.22853.22853.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=22853""",3,2.428146e+003,MQKQAELYR(3)-VGFGYGKAR(7),Cross-Linked,DSBSO,2.428146e+003,null,1.000000e+000,1.079417e-001,0.000015,0.006178,sg|P0A7D7|PUR7_ECOLI (3)-sg|P0A7W1|RS5_ECOLI (52)/,Inter-Protein,1,1,8.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>744,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.27637.27637.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=27637""",5,3.207519e+003,MYAVFQSGGKQHR(10)-QGYPIGCKVTLR(8),Cross-Linked,DSBSO,3.207520e+003,Carbamidomethyl[C](23),1.000000e+000,1.083256e-001,-0.001418,-0.442086,sg|P0AG48|RL21_ECOLI (10)-sg|P62399|RL5_ECOLI (88)/,Inter-Protein,1,1,7.0,12.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>745,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.6444.6444.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=6444""",5,2.528223e+003,HIGGGHKQAYR(7)-SHALNATKR(8),Cross-Linked,DSBSO,2.528224e+003,null,1.000000e+000,1.089754e-001,-0.001244,-0.492045,sg|P60422|RL2_ECOLI (59)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,11.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>746,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.40810.40810.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=40810""",3,2.668376e+003,DAAAAVGKAVAER(8)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.668380e+003,null,1.000000e+000,1.091950e-001,-0.003545,-1.328522,sg|P0C018|RL18_ECOLI (76)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,10.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>747,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.26049.26049.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26049""",3,3.056433e+003,EAEKYANPIPSR(4)-EAEKYANPIPSR(4),Cross-Linked,DSBSO,3.056434e+003,null,1.000000e+000,1.093235e-001,-0.001132,-0.370366,sg|P21499|RNR_ECOLI (13)-sg|P21499|RNR_ECOLI (13)/,Inter-Protein,1,1,4.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>748,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.2457.2457.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=2457""",3,1.545738e+003,KSSAAR(1)-KSSAAR(1),Cross-Linked,DSBSO,1.545736e+003,null,1.000000e+000,1.096745e-001,0.002153,1.392864,sg|P0A7X3|RS9_ECOLI (13)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,3.5,3.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>749,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.12780.12780.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=12780""",5,2.611245e+003,HIGGGHKQAYR(7)-MTDKLTSLR(4),Cross-Linked,DSBSO,2.611242e+003,Oxidation[M](15),1.000000e+000,1.099570e-001,0.002221,0.850553,sg|P60422|RL2_ECOLI (59)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,10.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>750,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.17052.17052.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=17052""",4,2.261088e+003,SHPFYTGKLR(8)-VSAKGMR(4),Cross-Linked,DSBSO,2.261087e+003,null,1.000000e+000,1.100070e-001,0.001016,0.449341,sg|P0A7N1|RL31B_ECOLI (60)-sg|P0A7M2|RL28_ECOLI (54)/,Inter-Protein,1,1,9.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>751,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.16167.16167.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16167""",3,1.863944e+003,KAGFVTR(1)-KAGFVTR(1),Cross-Linked,DSBSO,1.863945e+003,null,1.000000e+000,1.100373e-001,-0.001948,-1.045095,sg|P0A7X3|RS9_ECOLI (100)-sg|P0A7X3|RS9_ECOLI (100)/,Inter-Protein,1,1,4.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>752,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.34377.34377.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=34377""",3,2.572402e+003,KLQLVGVGYR(1)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.572399e+003,null,1.000000e+000,1.109642e-001,0.003121,1.213264,sg|P0AG55|RL6_ECOLI (86)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,5.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>753,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.18108.18108.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=18108""",5,2.629318e+003,QAGELQEKLIAVNR(8)-KQQGHR(1),Cross-Linked,DSBSO,2.629318e+003,null,1.000000e+000,1.119496e-001,-0.000813,-0.309206,sg|P0A7W1|RS5_ECOLI (14)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,14.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>754,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.18899.18899.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=18899""",4,2.653202e+003,SMKQAIYDPENR(3)-ELKPHDR(3),Cross-Linked,DSBSO,2.653205e+003,null,1.000000e+000,1.123538e-001,-0.003804,-1.433737,sg|P21499|RNR_ECOLI (544)-sg|P0A9Q1|ARCA_ECOLI (195)/,Inter-Protein,1,1,16.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>755,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.35500.35500.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=35500""",4,3.632728e+003,FAAYAKAYPQEAAEFTR(6)-QGYPIGCKVTLR(8),Cross-Linked,DSBSO,3.632722e+003,Carbamidomethyl[C](27),1.000000e+000,1.125125e-001,0.005846,1.609262,sg|P27302|TKT1_ECOLI (316)-sg|P62399|RL5_ECOLI (88)/,Inter-Protein,1,1,19.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>756,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.7628.7628.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=7628""",5,2.279084e+003,HIGGGHKQAYR(7)-VSAKGMR(4),Cross-Linked,DSBSO,2.279084e+003,null,1.000000e+000,1.127544e-001,-0.000100,-0.043877,sg|P60422|RL2_ECOLI (59)-sg|P0A7M2|RL28_ECOLI (54)/,Inter-Protein,1,1,11.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>757,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.35004.35004.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=35004""",3,2.868321e+003,EGGNEKVILCDR(6)-DYSKYLNIR(4),Cross-Linked,DSBSO,2.868321e+003,Carbamidomethyl[C](10),1.000000e+000,1.132385e-001,-0.000217,-0.075654,sg|P0A715|KDSA_ECOLI (162)-sg|P25888|RHLE_ECOLI (100)/,Inter-Protein,1,1,10.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>758,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.10370.10370.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=10370""",4,1.938953e+003,TDKFIVR(3)-KQQGHR(1),Cross-Linked,DSBSO,1.938952e+003,null,1.000000e+000,1.136428e-001,0.001075,0.554423,sg|P60422|RL2_ECOLI (265)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,5.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>759,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.14631.14631.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14631""",4,2.174059e+003,KISNGEGVER(1)-KAGFVTR(1),Cross-Linked,DSBSO,2.174058e+003,null,1.000000e+000,1.147372e-001,0.001312,0.603480,sg|P0A7K6|RL19_ECOLI (63)-sg|P0A7X3|RS9_ECOLI (100)/,Inter-Protein,1,1,6.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>760,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.35720.35720.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=35720""",4,3.418604e+003,ATIDGLENMNSPEMVAAKR(18)-MTDKLTSLR(4),Cross-Linked,DSBSO,3.418603e+003,null,1.000000e+000,1.160069e-001,0.000835,0.244252,sg|P0A7W1|RS5_ECOLI (156)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,29.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>761,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.14343.14343.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14343""",3,2.316061e+003,EGGNEKVILCDR(6)-KSSAAR(1),Cross-Linked,DSBSO,2.316063e+003,Carbamidomethyl[C](10),1.000000e+000,1.164064e-001,-0.001419,-0.612678,sg|P0A715|KDSA_ECOLI (162)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,11.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>762,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.30566.30566.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=30566""",4,2.436186e+003,MTDKLTSLR(4)-MTDKLTSLR(4),Cross-Linked,DSBSO,2.436185e+003,null,1.000000e+000,1.164928e-001,0.000813,0.333718,sg|P0A870|TALB_ECOLI (4)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,5.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>763,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.22547.22547.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=22547""",3,2.428146e+003,MQKQAELYR(3)-VGFGYGKAR(7),Cross-Linked,DSBSO,2.428146e+003,null,1.000000e+000,1.166030e-001,0.000402,0.165558,sg|P0A7D7|PUR7_ECOLI (3)-sg|P0A7W1|RS5_ECOLI (52)/,Inter-Protein,1,1,8.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>764,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.10180.10180.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=10180""",4,2.062003e+003,IGSTIKTDR(6)-VSAKGMR(4),Cross-Linked,DSBSO,2.061998e+003,Oxidation[M](18),1.000000e+000,1.169247e-001,0.005205,2.524251,sg|P0A7N1|RL31B_ECOLI (30)-sg|P0A7M2|RL28_ECOLI (54)/,Inter-Protein,1,1,8.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>765,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.16054.16054.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16054""",4,1.965048e+003,VAVIKAVR(5)-EKLQER(2),Cross-Linked,DSBSO,1.965051e+003,null,1.000000e+000,1.170446e-001,-0.002532,-1.288516,sg|P0A7K2|RL7_ECOLI (71)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,11.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>766,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.26088.26088.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26088""",5,2.717338e+003,QLGEDPWVAIAKR(12)-TSGEKHLR(5),Cross-Linked,DSBSO,2.717338e+003,null,1.000000e+000,1.170528e-001,-0.000858,-0.315750,sg|P0AG67|RS1_ECOLI (272)-sg|P0A7N4|RL32_ECOLI (37)/,Inter-Protein,1,1,13.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>767,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.33157.33157.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=33157""",4,3.434602e+003,ATIDGLENMNSPEMVAAKR(18)-MTDKLTSLR(4),Cross-Linked,DSBSO,3.434598e+003,Oxidation[M](14),1.000000e+000,1.170663e-001,0.003698,1.076691,sg|P0A7W1|RS5_ECOLI (156)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,18.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>768,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.10096.10096.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=10096""",3,2.295145e+003,SHALNATKR(8)-IGSTIKTDR(6),Cross-Linked,DSBSO,2.295143e+003,null,1.000000e+000,1.185639e-001,0.002053,0.894498,sg|P0A7M2|RL28_ECOLI (26)-sg|P0A7N1|RL31B_ECOLI (30)/,Inter-Protein,1,1,13.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>769,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.10255.10255.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=10255""",4,1.911916e+003,EKLQER(2)-EKLQER(2),Cross-Linked,DSBSO,1.911915e+003,null,1.000000e+000,1.212368e-001,0.001116,0.583708,sg|P0A6F5|CH60_ECOLI (364)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,3.5,3.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>770,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.15399.15399.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=15399""",4,2.609232e+003,EAEKYANPIPSR(4)-TSGEKHLR(5),Cross-Linked,DSBSO,2.609233e+003,null,1.000000e+000,1.214223e-001,-0.000972,-0.372523,sg|P21499|RNR_ECOLI (13)-sg|P0A7N4|RL32_ECOLI (37)/,Inter-Protein,1,1,15.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>771,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.4451.4451.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=4451""",3,1.631757e+003,AMEKAR(4)-KSSAAR(1),Cross-Linked,DSBSO,1.631755e+003,null,1.000000e+000,1.231222e-001,0.002096,1.284507,sg|P0A7W1|RS5_ECOLI (66)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,4.0,4.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>772,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.9257.9257.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=9257""",4,1.886967e+003,TIKITQTR(3)-KSSAAR(1),Cross-Linked,DSBSO,1.886967e+003,null,1.000000e+000,1.234898e-001,-0.000255,-0.135137,sg|P0AG51|RL30_ECOLI (6)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,6.0,4.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>773,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.30266.30266.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=30266""",4,2.436187e+003,MTDKLTSLR(4)-MTDKLTSLR(4),Cross-Linked,DSBSO,2.436185e+003,null,1.000000e+000,1.235071e-001,0.002196,0.901409,sg|P0A870|TALB_ECOLI (4)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,5.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>774,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.13041.13041.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13041""",3,2.401133e+003,MQKQAELYR(3)-TSGEKHLR(5),Cross-Linked,DSBSO,2.401131e+003,null,1.000000e+000,1.249038e-001,0.002194,0.913736,sg|P0A7D7|PUR7_ECOLI (3)-sg|P0A7N4|RL32_ECOLI (37)/,Inter-Protein,1,1,8.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>775,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.8244.8244.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=8244""",3,1.886969e+003,TIKITQTR(3)-KSSAAR(1),Cross-Linked,DSBSO,1.886967e+003,null,1.000000e+000,1.255578e-001,0.001731,0.917345,sg|P0AG51|RL30_ECOLI (6)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,7.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>776,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.39551.39551.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=39551""",4,3.177541e+003,ITDVEVLKAQFEEER(8)-MTDKLTSLR(4),Cross-Linked,DSBSO,3.177536e+003,null,1.000000e+000,1.256808e-001,0.004440,1.397309,sg|P0A6P1|EFTS_ECOLI (112)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,16.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>777,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.28058.28058.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=28058""",3,3.396542e+003,VVSMPSTDAFDKQDAAYR(12)-KISNGEGVER(1),Cross-Linked,DSBSO,3.396539e+003,null,1.000000e+000,1.259217e-001,0.002750,0.809648,sg|P27302|TKT1_ECOLI (591)-sg|P0A7K6|RL19_ECOLI (63)/,Inter-Protein,1,1,8.0,4.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>778,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.34788.34788.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=34788""",3,3.524709e+003,ATIDGLENMNSPEMVAAKR(18)-ESVLPKAVTAR(6),Cross-Linked,DSBSO,3.524710e+003,null,1.000000e+000,1.271585e-001,-0.001279,-0.362867,sg|P0A7W1|RS5_ECOLI (156)-sg|P27302|TKT1_ECOLI (603)/,Inter-Protein,1,1,11.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>779,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.25377.25377.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=25377""",4,2.593220e+003,SHPFYTGKLR(8)-FWVESEKR(7),Cross-Linked,DSBSO,2.593221e+003,null,1.000000e+000,1.273361e-001,-0.001253,-0.483183,sg|P0A7N1|RL31B_ECOLI (60)-sg|P0A7M2|RL28_ECOLI (44)/,Inter-Protein,1,1,9.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>780,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29385.29385.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29385""",3,2.395167e+003,EIAEKMVEGR(5)-AKLYYLR(2),Cross-Linked,DSBSO,2.395170e+003,null,1.000000e+000,1.275385e-001,-0.003953,-1.650404,sg|P0A6P1|EFTS_ECOLI (214)-sg|P0A7K6|RL19_ECOLI (96)/,Inter-Protein,1,1,11.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>781,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.14183.14183.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14183""",4,1.906906e+003,TDKFIVR(3)-AMEKAR(4),Cross-Linked,DSBSO,1.906907e+003,Oxidation[M](12),1.000000e+000,1.281663e-001,-0.000879,-0.460956,sg|P60422|RL2_ECOLI (265)-sg|P0A7W1|RS5_ECOLI (66)/,Inter-Protein,1,1,9.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>782,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.33991.33991.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=33991""",5,3.221645e+003,IGVPFVDGGVIKAEVVAHGR(12)-ELKPHDR(3),Cross-Linked,DSBSO,3.221644e+003,null,1.000000e+000,1.294196e-001,0.000919,0.285258,sg|P0AG48|RL21_ECOLI (60)-sg|P0A9Q1|ARCA_ECOLI (195)/,Inter-Protein,1,1,16.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>783,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.12066.12066.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=12066""",4,2.162094e+003,TIKITQTR(3)-ELKPHDR(3),Cross-Linked,DSBSO,2.162094e+003,null,1.000000e+000,1.296451e-001,-0.000404,-0.186856,sg|P0AG51|RL30_ECOLI (6)-sg|P0A9Q1|ARCA_ECOLI (195)/,Inter-Protein,1,1,6.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>784,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.16323.16323.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16323""",3,2.258173e+003,IGSTIKTDR(6)-TIKITQTR(3),Cross-Linked,DSBSO,2.258173e+003,null,1.000000e+000,1.300949e-001,0.000134,0.059340,sg|P0A7N1|RL31B_ECOLI (30)-sg|P0AG51|RL30_ECOLI (6)/,Inter-Protein,1,1,10.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>785,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.36740.36740.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=36740""",4,2.848419e+003,MAEITASLVKELR(10)-MTDKLTSLR(4),Cross-Linked,DSBSO,2.848417e+003,Oxidation[M](17),1.000000e+000,1.330046e-001,0.002020,0.709166,sg|P0A6P1|EFTS_ECOLI (10)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,15.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>786,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.53604.53604.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=53604""",4,2.139082e+003,MAALMKQR(6)-VKDLPGVR(2),Cross-Linked,DSBSO,2.139079e+003,null,1.000000e+000,1.340145e-001,0.002854,1.334219,sg|P27302|TKT1_ECOLI (452)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,8.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>787,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.13507.13507.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13507""",4,2.510228e+003,SHPFYTGKLR(8)-SHALNATKR(8),Cross-Linked,DSBSO,2.510228e+003,null,1.000000e+000,1.340691e-001,-0.000097,-0.038642,sg|P0A7N1|RL31B_ECOLI (60)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,5.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>788,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.13299.13299.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13299""",4,2.403212e+003,LQANPAKIASR(7)-TSGEKHLR(5),Cross-Linked,DSBSO,2.403212e+003,null,1.000000e+000,1.345132e-001,0.000145,0.060336,sg|P27302|TKT1_ECOLI (354)-sg|P0A7N4|RL32_ECOLI (37)/,Inter-Protein,1,1,10.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>789,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.30975.30975.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=30975""",4,3.956790e+003,DFLKHNPQNPSWADR(4)-DFLKHNPQNPSWADR(4),Cross-Linked,DSBSO,3.956787e+003,null,1.000000e+000,1.347322e-001,0.003010,0.760718,sg|P27302|TKT1_ECOLI (46)-sg|P27302|TKT1_ECOLI (46)/,Inter-Protein,1,1,5.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>790,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23583.23583.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23583""",3,2.184116e+003,DVKFGNDAR(3)-VAVIKAVR(5),Cross-Linked,DSBSO,2.184115e+003,null,1.000000e+000,1.349118e-001,0.000664,0.304013,sg|P0A6F5|CH60_ECOLI (7)-sg|P0A7K2|RL7_ECOLI (71)/,Inter-Protein,1,1,10.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>791,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.35461.35461.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=35461""",3,2.572399e+003,KLQLVGVGYR(1)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.572399e+003,null,1.000000e+000,1.355234e-001,0.000060,0.023325,sg|P0AG55|RL6_ECOLI (86)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,4.0,4.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>792,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.19701.19701.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=19701""",3,2.165040e+003,MAALMKQR(6)-ILKCGFR(3),Cross-Linked,DSBSO,2.165041e+003,Oxidation[M](1);Carbamidomethyl[C](15),1.000000e+000,1.355351e-001,-0.001103,-0.509459,sg|P27302|TKT1_ECOLI (452)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,16.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>793,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23258.23258.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23258""",3,2.818308e+003,SMKQAIYDPENR(3)-VVNSKEDIR(5),Cross-Linked,DSBSO,2.818305e+003,null,1.000000e+000,1.356711e-001,0.002544,0.902670,sg|P21499|RNR_ECOLI (544)-sg|P0A836|SUCC_ECOLI (66)/,Inter-Protein,1,1,9.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>794,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.27239.27239.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=27239""",3,2.702292e+003,DAAAAVGKAVAER(8)-MQKQAELYR(3),Cross-Linked,DSBSO,2.702295e+003,null,1.000000e+000,1.367771e-001,-0.002785,-1.030606,sg|P0C018|RL18_ECOLI (76)-sg|P0A7D7|PUR7_ECOLI (3)/,Inter-Protein,1,1,13.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>795,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.35446.35446.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=35446""",4,3.805723e+003,ATIDGLENMNSPEMVAAKR(18)-SMKQAIYDPENR(3),Cross-Linked,DSBSO,3.805721e+003,null,1.000000e+000,1.368208e-001,0.002241,0.588850,sg|P0A7W1|RS5_ECOLI (156)-sg|P21499|RNR_ECOLI (544)/,Inter-Protein,1,1,20.0,10.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>796,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.6353.6353.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=6353""",3,2.189043e+003,KISNGEGVER(1)-QPHAKGR(5),Cross-Linked,DSBSO,2.189044e+003,null,1.000000e+000,1.371329e-001,-0.000961,-0.439004,sg|P0A7K6|RL19_ECOLI (63)-sg|P25888|RHLE_ECOLI (71)/,Inter-Protein,1,1,10.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>797,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.33346.33346.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=33346""",4,3.192650e+003,VVEPLITLAKTDSVANR(10)-VVNSKEDIR(5),Cross-Linked,DSBSO,3.192649e+003,null,1.000000e+000,1.372406e-001,0.001208,0.378369,sg|P0AG44|RL17_ECOLI (56)-sg|P0A836|SUCC_ECOLI (66)/,Inter-Protein,1,1,19.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>798,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.34164.34164.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=34164""",4,3.375523e+003,ATIDGLENMNSPEMVAAKR(18)-DVKFGNDAR(3),Cross-Linked,DSBSO,3.375532e+003,null,1.000000e+000,1.374658e-001,-0.009289,-2.751862,sg|P0A7W1|RS5_ECOLI (156)-sg|P0A6F5|CH60_ECOLI (7)/,Inter-Protein,1,1,17.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>799,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.18266.18266.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=18266""",5,2.652251e+003,DMLKAGVHFGHQTR(4)-VSAKGMR(4),Cross-Linked,DSBSO,2.652251e+003,null,1.000000e+000,1.377256e-001,-0.000416,-0.156848,sg|P0A7V0|RS2_ECOLI (11)-sg|P0A7M2|RL28_ECOLI (54)/,Inter-Protein,1,1,19.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>800,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.19857.19857.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=19857""",4,2.902329e+003,DIDGHDAASIKR(11)-DIDGHDAASIKR(11),Cross-Linked,DSBSO,2.902330e+003,null,1.000000e+000,1.383467e-001,-0.001888,-0.650512,sg|P27302|TKT1_ECOLI (225)-sg|P27302|TKT1_ECOLI (225)/,Inter-Protein,1,1,5.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>801,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.30618.30618.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=30618""",3,2.387100e+003,DYSKYLNIR(4)-ASFDKANR(5),Cross-Linked,DSBSO,2.387101e+003,null,1.000000e+000,1.385364e-001,-0.000409,-0.171338,sg|P25888|RHLE_ECOLI (100)-sg|P0A715|KDSA_ECOLI (60)/,Inter-Protein,1,1,8.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>802,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.11486.11486.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=11486""",3,1.819889e+003,ILKCGFR(3)-KSSAAR(1),Cross-Linked,DSBSO,1.819886e+003,Carbamidomethyl[C](4),1.000000e+000,1.394231e-001,0.002448,1.345139,sg|P0AG44|RL17_ECOLI (99)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,7.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>803,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.9501.9501.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=9501""",3,1.886971e+003,TIKITQTR(3)-KSSAAR(1),Cross-Linked,DSBSO,1.886967e+003,null,1.000000e+000,1.395575e-001,0.004167,2.208305,sg|P0AG51|RL30_ECOLI (6)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,7.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>804,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.38335.38335.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=38335""",5,4.401030e+003,ATIDGLENMNSPEMVAAKR(18)-ATIDGLENMNSPEMVAAKR(18),Cross-Linked,DSBSO,4.401021e+003,null,1.000000e+000,1.399037e-001,0.009697,2.203352,sg|P0A7W1|RS5_ECOLI (156)-sg|P0A7W1|RS5_ECOLI (156)/,Inter-Protein,1,1,8.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>805,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.37802.37802.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=37802""",3,3.011582e+003,VVEPLITLAKTDSVANR(10)-TDKFIVR(3),Cross-Linked,DSBSO,3.011579e+003,null,1.000000e+000,1.401469e-001,0.002940,0.976232,sg|P0AG44|RL17_ECOLI (56)-sg|P60422|RL2_ECOLI (265)/,Inter-Protein,1,1,19.0,4.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>806,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.35085.35085.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=35085""",3,3.164536e+003,QLGEDPWVAIAKR(12)-EAEKYANPIPSR(4),Cross-Linked,DSBSO,3.164539e+003,null,1.000000e+000,1.404895e-001,-0.002560,-0.808965,sg|P0AG67|RS1_ECOLI (272)-sg|P21499|RNR_ECOLI (13)/,Inter-Protein,1,1,7.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>807,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.15015.15015.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=15015""",5,2.831337e+003,DMLKAGVHFGHQTR(4)-TSGEKHLR(5),Cross-Linked,DSBSO,2.831338e+003,null,1.000000e+000,1.410459e-001,-0.001117,-0.394513,sg|P0A7V0|RS2_ECOLI (11)-sg|P0A7N4|RL32_ECOLI (37)/,Inter-Protein,1,1,18.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>808,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.35855.35855.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=35855""",3,2.827376e+003,QLGEDPWVAIAKR(12)-GLSAKSFDGR(5),Cross-Linked,DSBSO,2.827375e+003,null,1.000000e+000,1.412059e-001,0.000712,0.251824,sg|P0AG67|RS1_ECOLI (272)-sg|P62399|RL5_ECOLI (120)/,Inter-Protein,1,1,18.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>809,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.1762.1762.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=1762""",4,1.813854e+003,KQQGHR(1)-KQQGHR(1),Cross-Linked,DSBSO,1.813854e+003,null,1.000000e+000,1.416783e-001,-0.000045,-0.024809,sg|P0AG48|RL21_ECOLI (85)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,3.0,3.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>810,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.25981.25981.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=25981""",3,2.590212e+003,EGGNEKVILCDR(6)-ILKCGFR(3),Cross-Linked,DSBSO,2.590213e+003,Carbamidomethyl[C](10);Carbamidomethyl[C](19),1.000000e+000,1.418365e-001,-0.000706,-0.272564,sg|P0A715|KDSA_ECOLI (162)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,14.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>811,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.4026.4026.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=4026""",5,2.284082e+003,HIGGGHKQAYR(7)-KQQGHR(1),Cross-Linked,DSBSO,2.284082e+003,null,1.000000e+000,1.433918e-001,-0.000085,-0.037214,sg|P60422|RL2_ECOLI (59)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,9.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>812,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24899.24899.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24899""",4,2.693297e+003,MYAVFQSGGKQHR(10)-SVAGFKIR(6),Cross-Linked,DSBSO,2.693300e+003,null,1.000000e+000,1.436216e-001,-0.002198,-0.816099,sg|P0AG48|RL21_ECOLI (10)-sg|P62399|RL5_ECOLI (78)/,Inter-Protein,1,1,13.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>813,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.6735.6735.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=6735""",5,2.302140e+003,SHALNATKR(8)-SHALNATKR(8),Cross-Linked,DSBSO,2.302139e+003,null,1.000000e+000,1.436413e-001,0.001071,0.465220,sg|P0A7M2|RL28_ECOLI (26)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,6.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>814,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.6336.6336.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=6336""",3,2.754312e+003,HIGGGHKQAYR(7)-HIGGGHKQAYR(7),Cross-Linked,DSBSO,2.754310e+003,null,1.000000e+000,1.439590e-001,0.001979,0.718510,sg|P60422|RL2_ECOLI (59)-sg|P60422|RL2_ECOLI (59)/,Inter-Protein,1,1,7.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>815,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.25956.25956.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=25956""",4,2.362130e+003,EIAEKMVEGR(5)-ILKCGFR(3),Cross-Linked,DSBSO,2.362127e+003,Carbamidomethyl[C](17),1.000000e+000,1.441822e-001,0.002780,1.176905,sg|P0A6P1|EFTS_ECOLI (214)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,8.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>816,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.27180.27180.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=27180""",4,2.430274e+003,KLQLVGVGYR(1)-IGSTIKTDR(6),Cross-Linked,DSBSO,2.430273e+003,null,1.000000e+000,1.444254e-001,0.001337,0.550144,sg|P0AG55|RL6_ECOLI (86)-sg|P0A7N1|RL31B_ECOLI (30)/,Inter-Protein,1,1,13.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>817,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.3245.3245.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=3245""",4,1.647751e+003,AMEKAR(4)-KSSAAR(1),Cross-Linked,DSBSO,1.647750e+003,Oxidation[M](2),1.000000e+000,1.444749e-001,0.001686,1.023214,sg|P0A7W1|RS5_ECOLI (66)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,5.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>818,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.3489.3489.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=3489""",4,1.647750e+003,AMEKAR(4)-KSSAAR(1),Cross-Linked,DSBSO,1.647750e+003,Oxidation[M](2),1.000000e+000,1.454752e-001,-0.000033,-0.020027,sg|P0A7W1|RS5_ECOLI (66)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,4.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>819,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.28062.28062.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=28062""",3,2.429199e+003,DAAAAVGKAVAER(8)-ILKCGFR(3),Cross-Linked,DSBSO,2.429198e+003,Carbamidomethyl[C](20),1.000000e+000,1.455796e-001,0.000820,0.337560,sg|P0C018|RL18_ECOLI (76)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,23.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>820,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.28128.28128.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=28128""",4,2.606310e+003,KLQLVGVGYR(1)-MQKQAELYR(3),Cross-Linked,DSBSO,2.606314e+003,null,1.000000e+000,1.456792e-001,-0.004168,-1.599193,sg|P0AG55|RL6_ECOLI (86)-sg|P0A7D7|PUR7_ECOLI (3)/,Inter-Protein,1,1,13.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>821,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.13316.13316.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13316""",3,2.046003e+003,IGSTIKTDR(6)-VSAKGMR(4),Cross-Linked,DSBSO,2.046003e+003,null,1.000000e+000,1.467866e-001,0.000473,0.231182,sg|P0A7N1|RL31B_ECOLI (30)-sg|P0A7M2|RL28_ECOLI (54)/,Inter-Protein,1,1,9.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>822,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.6110.6110.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=6110""",5,2.120025e+003,VVNSKEDIR(5)-KQQGHR(1),Cross-Linked,DSBSO,2.120022e+003,null,1.000000e+000,1.475522e-001,0.002660,1.254704,sg|P0A836|SUCC_ECOLI (66)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,7.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>823,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.28202.28202.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=28202""",4,2.188092e+003,VGFGYGKAR(7)-AKLYYLR(2),Cross-Linked,DSBSO,2.188093e+003,null,1.000000e+000,1.491898e-001,-0.000905,-0.413602,sg|P0A7W1|RS5_ECOLI (52)-sg|P0A7K6|RL19_ECOLI (96)/,Inter-Protein,1,1,13.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>824,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.13107.13107.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13107""",4,2.019949e+003,MAALMKQR(6)-VSAKGMR(4),Cross-Linked,DSBSO,2.019952e+003,Oxidation[M](1),1.000000e+000,1.494464e-001,-0.002670,-1.321814,sg|P27302|TKT1_ECOLI (452)-sg|P0A7M2|RL28_ECOLI (54)/,Inter-Protein,1,1,9.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>825,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.10891.10891.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=10891""",5,2.224037e+003,DIDGHDAASIKR(11)-KSSAAR(1),Cross-Linked,DSBSO,2.224033e+003,null,1.000000e+000,1.507655e-001,0.003658,1.644760,sg|P27302|TKT1_ECOLI (225)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,6.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>826,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.6346.6346.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=6346""",5,2.120024e+003,VVNSKEDIR(5)-KQQGHR(1),Cross-Linked,DSBSO,2.120022e+003,null,1.000000e+000,1.512783e-001,0.001785,0.841972,sg|P0A836|SUCC_ECOLI (66)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,9.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>827,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.22750.22750.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=22750""",5,2.543249e+003,QLGEDPWVAIAKR(12)-KQQGHR(1),Cross-Linked,DSBSO,2.543249e+003,null,1.000000e+000,1.517012e-001,-0.000215,-0.084538,sg|P0AG67|RS1_ECOLI (272)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,12.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>828,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.13784.13784.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13784""",3,2.316061e+003,EGGNEKVILCDR(6)-KSSAAR(1),Cross-Linked,DSBSO,2.316063e+003,Carbamidomethyl[C](10),1.000000e+000,1.519794e-001,-0.001236,-0.533664,sg|P0A715|KDSA_ECOLI (162)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,12.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>829,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.11050.11050.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=11050""",4,2.109972e+003,ASFDKANR(5)-ELKPHDR(3),Cross-Linked,DSBSO,2.109969e+003,null,1.000000e+000,1.525008e-001,0.002719,1.288644,sg|P0A715|KDSA_ECOLI (60)-sg|P0A9Q1|ARCA_ECOLI (195)/,Inter-Protein,1,1,6.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>830,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.11493.11493.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=11493""",4,2.132026e+003,SHPFYTGKLR(8)-KSSAAR(1),Cross-Linked,DSBSO,2.132026e+003,null,1.000000e+000,1.530859e-001,0.000043,0.020169,sg|P0A7N1|RL31B_ECOLI (60)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,15.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>831,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23487.23487.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23487""",3,2.632363e+003,SNVPALEACPQKR(12)-VAVIKAVR(5),Cross-Linked,DSBSO,2.632362e+003,Carbamidomethyl[C](9),1.000000e+000,1.534129e-001,0.001552,0.589585,sg|P0A7S3|RS12_ECOLI (30)-sg|P0A7K2|RL7_ECOLI (71)/,Inter-Protein,1,1,14.0,4.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>832,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.10196.10196.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=10196""",3,2.097980e+003,GLSAKSFDGR(5)-KQQGHR(1),Cross-Linked,DSBSO,2.097980e+003,null,1.000000e+000,1.538719e-001,-0.000527,-0.251194,sg|P62399|RL5_ECOLI (120)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,10.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>833,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.33095.33095.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=33095""",4,2.754413e+003,QAGELQEKLIAVNR(8)-TDKFIVR(3),Cross-Linked,DSBSO,2.754416e+003,null,1.000000e+000,1.548313e-001,-0.003013,-1.093880,sg|P0A7W1|RS5_ECOLI (14)-sg|P60422|RL2_ECOLI (265)/,Inter-Protein,1,1,15.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>834,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.14150.14150.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14150""",4,2.316058e+003,EGGNEKVILCDR(6)-KSSAAR(1),Cross-Linked,DSBSO,2.316063e+003,Carbamidomethyl[C](10),1.000000e+000,1.551299e-001,-0.004484,-1.936044,sg|P0A715|KDSA_ECOLI (162)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,9.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>835,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.11750.11750.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=11750""",4,2.132027e+003,SHPFYTGKLR(8)-KSSAAR(1),Cross-Linked,DSBSO,2.132026e+003,null,1.000000e+000,1.557903e-001,0.001027,0.481701,sg|P0A7N1|RL31B_ECOLI (60)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,7.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>836,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.27995.27995.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=27995""",3,2.630215e+003,EIAEKMVEGR(5)-EIAEKMVEGR(5),Cross-Linked,DSBSO,2.630218e+003,null,1.000000e+000,1.560812e-001,-0.002817,-1.071014,sg|P0A6P1|EFTS_ECOLI (214)-sg|P0A6P1|EFTS_ECOLI (214)/,Inter-Protein,1,1,8.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>837,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.17354.17354.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=17354""",3,2.155046e+003,DAAAAVGKAVAER(8)-KSSAAR(1),Cross-Linked,DSBSO,2.155048e+003,null,1.000000e+000,1.562947e-001,-0.001655,-0.767964,sg|P0C018|RL18_ECOLI (76)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,24.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>838,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.38423.38423.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=38423""",5,4.401026e+003,ATIDGLENMNSPEMVAAKR(18)-ATIDGLENMNSPEMVAAKR(18),Cross-Linked,DSBSO,4.401021e+003,null,1.000000e+000,1.570544e-001,0.005434,1.234714,sg|P0A7W1|RS5_ECOLI (156)-sg|P0A7W1|RS5_ECOLI (156)/,Inter-Protein,1,1,7.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>839,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.16829.16829.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16829""",4,2.369163e+003,MTDKLTSLR(4)-SHALNATKR(8),Cross-Linked,DSBSO,2.369162e+003,null,1.000000e+000,1.574361e-001,0.001310,0.552938,sg|P0A870|TALB_ECOLI (4)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,8.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>840,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24327.24327.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24327""",4,2.216060e+003,VGFGYGKAR(7)-VGFGYGKAR(7),Cross-Linked,DSBSO,2.216063e+003,null,1.000000e+000,1.583149e-001,-0.002161,-0.975153,sg|P0A7W1|RS5_ECOLI (52)-sg|P0A7W1|RS5_ECOLI (52)/,Inter-Protein,1,1,5.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>841,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.35532.35532.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=35532""",3,2.988649e+003,VVEPLITLAKTDSVANR(10)-VAVIKAVR(5),Cross-Linked,DSBSO,2.988647e+003,null,1.000000e+000,1.591602e-001,0.001721,0.575846,sg|P0AG44|RL17_ECOLI (56)-sg|P0A7K2|RL7_ECOLI (71)/,Inter-Protein,1,1,17.0,3.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>842,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.10621.10621.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=10621""",4,2.295142e+003,SHALNATKR(8)-IGSTIKTDR(6),Cross-Linked,DSBSO,2.295143e+003,null,1.000000e+000,1.593624e-001,-0.001037,-0.451824,sg|P0A7M2|RL28_ECOLI (26)-sg|P0A7N1|RL31B_ECOLI (30)/,Inter-Protein,1,1,8.5,12.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>843,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.6036.6036.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=6036""",5,2.295084e+003,HIGGGHKQAYR(7)-VSAKGMR(4),Cross-Linked,DSBSO,2.295079e+003,Oxidation[M](20),1.000000e+000,1.594186e-001,0.004694,2.045246,sg|P60422|RL2_ECOLI (59)-sg|P0A7M2|RL28_ECOLI (54)/,Inter-Protein,1,1,11.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>844,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.17269.17269.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=17269""",3,1.890912e+003,TDKFIVR(3)-AMEKAR(4),Cross-Linked,DSBSO,1.890912e+003,null,1.000000e+000,1.595795e-001,-0.000517,-0.273413,sg|P60422|RL2_ECOLI (265)-sg|P0A7W1|RS5_ECOLI (66)/,Inter-Protein,1,1,7.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>845,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.30974.30974.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=30974""",5,3.956790e+003,DFLKHNPQNPSWADR(4)-DFLKHNPQNPSWADR(4),Cross-Linked,DSBSO,3.956787e+003,null,1.000000e+000,1.598184e-001,0.003010,0.760718,sg|P27302|TKT1_ECOLI (46)-sg|P27302|TKT1_ECOLI (46)/,Inter-Protein,1,1,9.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>846,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.15560.15560.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=15560""",3,1.852928e+003,AKLYYLR(2)-KSSAAR(1),Cross-Linked,DSBSO,1.852929e+003,null,1.000000e+000,1.598211e-001,-0.001590,-0.858101,sg|P0A7K6|RL19_ECOLI (96)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,5.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>847,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.14021.14021.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14021""",5,2.310053e+003,DIDGHDAASIKR(11)-AMEKAR(4),Cross-Linked,DSBSO,2.310052e+003,null,1.000000e+000,1.598264e-001,0.000974,0.421635,sg|P27302|TKT1_ECOLI (225)-sg|P0A7W1|RS5_ECOLI (66)/,Inter-Protein,1,1,10.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t>848,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.36286.36286.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=36286""",4,2.405188e+003,DYSKYLNIR(4)-AKLYYLR(2),Cross-Linked,DSBSO,2.405188e+003,null,1.000000e+000,1.602122e-001,-0.000198,-0.082322,sg|P25888|RHLE_ECOLI (100)-sg|P0A7K6|RL19_ECOLI (96)/,Inter-Protein,1,1,7.0,4.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>849,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.27199.27199.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=27199""",3,2.430271e+003,KLQLVGVGYR(1)-IGSTIKTDR(6),Cross-Linked,DSBSO,2.430273e+003,null,1.000000e+000,1.613794e-001,-0.001938,-0.797441,sg|P0AG55|RL6_ECOLI (86)-sg|P0A7N1|RL31B_ECOLI (30)/,Inter-Protein,1,1,9.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>850,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.38549.38549.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=38549""",3,3.061474e+003,ITDVEVLKAQFEEER(8)-MAALMKQR(6),Cross-Linked,DSBSO,3.061471e+003,null,1.000000e+000,1.613997e-001,0.002446,0.798962,sg|P0A6P1|EFTS_ECOLI (112)-sg|P27302|TKT1_ECOLI (452)/,Inter-Protein,1,1,18.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>851,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.8114.8114.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=8114""",3,1.916024e+003,VAVIKAVR(5)-KQQGHR(1),Cross-Linked,DSBSO,1.916020e+003,null,1.000000e+000,1.616462e-001,0.003523,1.838707,sg|P0A7K2|RL7_ECOLI (71)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,7.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>852,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.19603.19603.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=19603""",4,2.656222e+003,MQKQAELYR(3)-MQKQAELYR(3),Cross-Linked,DSBSO,2.656224e+003,Oxidation[M](1),1.000000e+000,1.630974e-001,-0.001769,-0.665983,sg|P0A7D7|PUR7_ECOLI (3)-sg|P0A7D7|PUR7_ECOLI (3)/,Inter-Protein,1,1,5.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>853,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.15367.15367.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=15367""",5,2.452191e+003,QGYPIGCKVTLR(8)-KQQGHR(1),Cross-Linked,DSBSO,2.452189e+003,Carbamidomethyl[C](7),1.000000e+000,1.634376e-001,0.002027,0.826608,sg|P62399|RL5_ECOLI (88)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,14.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>854,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.4552.4552.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=4552""",4,1.923939e+003,SHALNATKR(8)-KSSAAR(1),Cross-Linked,DSBSO,1.923937e+003,null,1.000000e+000,1.639756e-001,0.001972,1.024981,sg|P0A7M2|RL28_ECOLI (26)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,7.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>855,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.30134.30134.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=30134""",3,2.436187e+003,MTDKLTSLR(4)-MTDKLTSLR(4),Cross-Linked,DSBSO,2.436185e+003,null,1.000000e+000,1.644423e-001,0.001676,0.687961,sg|P0A870|TALB_ECOLI (4)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,5.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>856,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.39014.39014.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=39014""",4,3.061472e+003,ITDVEVLKAQFEEER(8)-MAALMKQR(6),Cross-Linked,DSBSO,3.061471e+003,null,1.000000e+000,1.645893e-001,0.000934,0.305082,sg|P0A6P1|EFTS_ECOLI (112)-sg|P27302|TKT1_ECOLI (452)/,Inter-Protein,1,1,19.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>857,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.21405.21405.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=21405""",4,2.737367e+003,SNVPALEACPQKR(12)-TIKITQTR(3),Cross-Linked,DSBSO,2.737368e+003,Carbamidomethyl[C](9),1.000000e+000,1.645962e-001,-0.000830,-0.303211,sg|P0A7S3|RS12_ECOLI (30)-sg|P0AG51|RL30_ECOLI (6)/,Inter-Protein,1,1,7.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>858,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.26003.26003.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26003""",3,2.078057e+003,SVAGFKIR(6)-ILKCGFR(3),Cross-Linked,DSBSO,2.078059e+003,Carbamidomethyl[C](15),1.000000e+000,1.652794e-001,-0.002813,-1.353667,sg|P62399|RL5_ECOLI (78)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,12.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>859,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.26013.26013.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26013""",4,3.056431e+003,EAEKYANPIPSR(4)-EAEKYANPIPSR(4),Cross-Linked,DSBSO,3.056434e+003,null,1.000000e+000,1.655113e-001,-0.002528,-0.827108,sg|P21499|RNR_ECOLI (13)-sg|P21499|RNR_ECOLI (13)/,Inter-Protein,1,1,10.0,10.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>860,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.35207.35207.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=35207""",3,2.668382e+003,DAAAAVGKAVAER(8)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.668380e+003,null,1.000000e+000,1.659094e-001,0.001948,0.730031,sg|P0C018|RL18_ECOLI (76)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,12.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>861,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.16048.16048.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16048""",3,2.003957e+003,MAALMKQR(6)-VSAKGMR(4),Cross-Linked,DSBSO,2.003957e+003,null,1.000000e+000,1.665914e-001,0.000131,0.065371,sg|P27302|TKT1_ECOLI (452)-sg|P0A7M2|RL28_ECOLI (54)/,Inter-Protein,1,1,14.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>862,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24142.24142.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24142""",4,3.246538e+003,SNVPALEACPQKR(12)-SNVPALEACPQKR(12),Cross-Linked,DSBSO,3.246537e+003,Carbamidomethyl[C](9);Carbamidomethyl[C](25),1.000000e+000,1.669318e-001,0.000921,0.283687,sg|P0A7S3|RS12_ECOLI (30)-sg|P0A7S3|RS12_ECOLI (30)/,Inter-Protein,1,1,6.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>863,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.31363.31363.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=31363""",5,4.030798e+003,ANPWQQFAETHNKGDR(13)-DFLKHNPQNPSWADR(4),Cross-Linked,DSBSO,4.030798e+003,null,1.000000e+000,1.681928e-001,-0.000660,-0.163739,sg|P0AG67|RS1_ECOLI (363)-sg|P27302|TKT1_ECOLI (46)/,Inter-Protein,1,1,7.5,15.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>864,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.7965.7965.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=7965""",3,2.107028e+003,SHALNATKR(8)-EKLQER(2),Cross-Linked,DSBSO,2.107027e+003,null,1.000000e+000,1.688626e-001,0.001528,0.725192,sg|P0A7M2|RL28_ECOLI (26)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,13.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>865,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.3053.3053.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=3053""",3,1.647751e+003,AMEKAR(4)-KSSAAR(1),Cross-Linked,DSBSO,1.647750e+003,Oxidation[M](2),1.000000e+000,1.693867e-001,0.001445,0.876954,sg|P0A7W1|RS5_ECOLI (66)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,5.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>866,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.14146.14146.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14146""",3,2.287062e+003,EIAEKMVEGR(5)-EKLQER(2),Cross-Linked,DSBSO,2.287061e+003,Oxidation[M](6),1.000000e+000,1.696697e-001,0.000784,0.342798,sg|P0A6P1|EFTS_ECOLI (214)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,10.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>867,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.14936.14936.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14936""",5,2.218045e+003,SHPFYTGKLR(8)-AMEKAR(4),Cross-Linked,DSBSO,2.218045e+003,null,1.000000e+000,1.699206e-001,0.000013,0.005861,sg|P0A7N1|RL31B_ECOLI (60)-sg|P0A7W1|RS5_ECOLI (66)/,Inter-Protein,1,1,11.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>868,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.8383.8383.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=8383""",3,1.916021e+003,VAVIKAVR(5)-KQQGHR(1),Cross-Linked,DSBSO,1.916020e+003,null,1.000000e+000,1.701761e-001,0.000764,0.398743,sg|P0A7K2|RL7_ECOLI (71)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,9.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>869,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.12170.12170.6 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=12170""",6,2.736315e+003,HIGGGHKQAYR(7)-SHPFYTGKLR(8),Cross-Linked,DSBSO,2.736313e+003,null,1.000000e+000,1.705846e-001,0.001659,0.606290,sg|P60422|RL2_ECOLI (59)-sg|P0A7N1|RL31B_ECOLI (60)/,Inter-Protein,1,1,10.0,11.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>870,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.35929.35929.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=35929""",3,3.235538e+003,MAEITASLVKELR(10)-SMKQAIYDPENR(3),Cross-Linked,DSBSO,3.235535e+003,Oxidation[M](18),1.000000e+000,1.707105e-001,0.003244,1.002616,sg|P0A6P1|EFTS_ECOLI (10)-sg|P21499|RNR_ECOLI (544)/,Inter-Protein,1,1,7.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>871,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.12751.12751.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=12751""",4,2.475175e+003,EAEKYANPIPSR(4)-QPHAKGR(5),Cross-Linked,DSBSO,2.475175e+003,null,1.000000e+000,1.709953e-001,0.000095,0.038381,sg|P21499|RNR_ECOLI (13)-sg|P25888|RHLE_ECOLI (71)/,Inter-Protein,1,1,15.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>872,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.25967.25967.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=25967""",4,2.590212e+003,EGGNEKVILCDR(6)-ILKCGFR(3),Cross-Linked,DSBSO,2.590213e+003,Carbamidomethyl[C](10);Carbamidomethyl[C](19),1.000000e+000,1.714977e-001,-0.001256,-0.484902,sg|P0A715|KDSA_ECOLI (162)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,16.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>873,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.28988.28988.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=28988""",3,2.295293e+003,KLQLVGVGYR(1)-VAVIKAVR(5),Cross-Linked,DSBSO,2.295293e+003,null,1.000000e+000,1.715204e-001,0.000897,0.390800,sg|P0AG55|RL6_ECOLI (86)-sg|P0A7K2|RL7_ECOLI (71)/,Inter-Protein,1,1,10.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>874,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.13932.13932.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13932""",3,2.189048e+003,VGFGYGKAR(7)-TSGEKHLR(5),Cross-Linked,DSBSO,2.189048e+003,null,1.000000e+000,1.718389e-001,0.000324,0.148010,sg|P0A7W1|RS5_ECOLI (52)-sg|P0A7N4|RL32_ECOLI (37)/,Inter-Protein,1,1,7.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>875,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.35297.35297.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=35297""",4,2.988648e+003,VVEPLITLAKTDSVANR(10)-VAVIKAVR(5),Cross-Linked,DSBSO,2.988647e+003,null,1.000000e+000,1.718873e-001,0.000667,0.223178,sg|P0AG44|RL17_ECOLI (56)-sg|P0A7K2|RL7_ECOLI (71)/,Inter-Protein,1,1,17.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>876,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.20800.20800.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=20800""",4,2.084059e+003,VKDLPGVR(2)-ILKCGFR(3),Cross-Linked,DSBSO,2.084070e+003,Carbamidomethyl[C](15),1.000000e+000,1.720739e-001,-0.011020,-5.287730,sg|P0A7S3|RS12_ECOLI (88)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,7.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>877,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.9451.9451.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=9451""",4,2.590255e+003,HIGGGHKQAYR(7)-VVNSKEDIR(5),Cross-Linked,DSBSO,2.590250e+003,null,1.000000e+000,1.729575e-001,0.005379,2.076634,sg|P60422|RL2_ECOLI (59)-sg|P0A836|SUCC_ECOLI (66)/,Inter-Protein,1,1,12.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>878,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24940.24940.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24940""",3,2.074103e+003,VKDLPGVR(2)-VKDLPGVR(2),Cross-Linked,DSBSO,2.074103e+003,null,1.000000e+000,1.731937e-001,-0.000871,-0.419940,sg|P0A7S3|RS12_ECOLI (88)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,4.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>879,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.16370.16370.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16370""",3,1.965050e+003,VAVIKAVR(5)-EKLQER(2),Cross-Linked,DSBSO,1.965051e+003,null,1.000000e+000,1.743984e-001,-0.000563,-0.286507,sg|P0A7K2|RL7_ECOLI (71)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,8.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>880,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.10279.10279.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=10279""",4,1.938954e+003,TDKFIVR(3)-KQQGHR(1),Cross-Linked,DSBSO,1.938952e+003,null,1.000000e+000,1.765687e-001,0.001420,0.732354,sg|P60422|RL2_ECOLI (265)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,5.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>881,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.31331.31331.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=31331""",4,4.030793e+003,ANPWQQFAETHNKGDR(13)-DFLKHNPQNPSWADR(4),Cross-Linked,DSBSO,4.030798e+003,null,1.000000e+000,1.766298e-001,-0.004808,-1.192816,sg|P0AG67|RS1_ECOLI (363)-sg|P27302|TKT1_ECOLI (46)/,Inter-Protein,1,1,5.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>882,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.18817.18817.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=18817""",4,2.318132e+003,QGYPIGCKVTLR(8)-KSSAAR(1),Cross-Linked,DSBSO,2.318130e+003,Carbamidomethyl[C](7),1.000000e+000,1.767127e-001,0.002110,0.910216,sg|P62399|RL5_ECOLI (88)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,11.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>883,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.27073.27073.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=27073""",4,2.391276e+003,DAAAAVGKAVAER(8)-VAVIKAVR(5),Cross-Linked,DSBSO,2.391273e+003,null,1.000000e+000,1.776969e-001,0.002418,1.011177,sg|P0C018|RL18_ECOLI (76)-sg|P0A7K2|RL7_ECOLI (71)/,Inter-Protein,1,1,17.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>884,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24346.24346.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24346""",5,2.390199e+003,SHPFYTGKLR(8)-SVAGFKIR(6),Cross-Linked,DSBSO,2.390199e+003,null,1.000000e+000,1.778971e-001,-0.000271,-0.113380,sg|P0A7N1|RL31B_ECOLI (60)-sg|P62399|RL5_ECOLI (78)/,Inter-Protein,1,1,12.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>885,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.48013.48013.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=48013""",4,2.084070e+003,VKDLPGVR(2)-ILKCGFR(3),Cross-Linked,DSBSO,2.084070e+003,Carbamidomethyl[C](15),1.000000e+000,1.780683e-001,0.000455,0.218323,sg|P0A7S3|RS12_ECOLI (88)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,5.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>886,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.7351.7351.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=7351""",3,2.302141e+003,SHALNATKR(8)-SHALNATKR(8),Cross-Linked,DSBSO,2.302139e+003,null,1.000000e+000,1.785328e-001,0.001588,0.689793,sg|P0A7M2|RL28_ECOLI (26)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,6.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>887,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.36258.36258.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=36258""",3,2.572400e+003,KLQLVGVGYR(1)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.572399e+003,null,1.000000e+000,1.791584e-001,0.001159,0.450552,sg|P0AG55|RL6_ECOLI (86)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,4.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>888,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.14614.14614.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14614""",5,2.595249e+003,HIGGGHKQAYR(7)-MTDKLTSLR(4),Cross-Linked,DSBSO,2.595248e+003,null,1.000000e+000,1.798049e-001,0.001076,0.414604,sg|P60422|RL2_ECOLI (59)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,13.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>889,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.14319.14319.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14319""",4,2.595247e+003,HIGGGHKQAYR(7)-MTDKLTSLR(4),Cross-Linked,DSBSO,2.595248e+003,null,1.000000e+000,1.805065e-001,-0.000659,-0.253926,sg|P60422|RL2_ECOLI (59)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,12.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>890,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.9426.9426.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=9426""",4,2.097984e+003,GLSAKSFDGR(5)-KQQGHR(1),Cross-Linked,DSBSO,2.097980e+003,null,1.000000e+000,1.814165e-001,0.004160,1.982859,sg|P62399|RL5_ECOLI (120)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,11.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>891,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.43271.43271.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=43271""",4,3.177549e+003,ITDVEVLKAQFEEER(8)-MTDKLTSLR(4),Cross-Linked,DSBSO,3.177536e+003,null,1.000000e+000,1.815249e-001,0.012740,4.009396,sg|P0A6P1|EFTS_ECOLI (112)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,16.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>892,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.18404.18404.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=18404""",4,2.865357e+003,SNVPALEACPQKR(12)-KISNGEGVER(1),Cross-Linked,DSBSO,2.865354e+003,Carbamidomethyl[C](9),1.000000e+000,1.816081e-001,0.002848,0.993944,sg|P0A7S3|RS12_ECOLI (30)-sg|P0A7K6|RL19_ECOLI (63)/,Inter-Protein,1,1,7.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>893,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.7157.7157.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=7157""",4,2.014956e+003,KISNGEGVER(1)-KSSAAR(1),Cross-Linked,DSBSO,2.014953e+003,null,1.000000e+000,1.817375e-001,0.003078,1.527579,sg|P0A7K6|RL19_ECOLI (63)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,10.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>894,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.27718.27718.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=27718""",3,2.935474e+003,QAGELQEKLIAVNR(8)-VVNSKEDIR(5),Cross-Linked,DSBSO,2.935486e+003,null,1.000000e+000,1.826986e-001,-0.011853,-4.037832,sg|P0A7W1|RS5_ECOLI (14)-sg|P0A836|SUCC_ECOLI (66)/,Inter-Protein,1,1,10.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>895,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.27930.27930.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=27930""",4,2.188094e+003,VGFGYGKAR(7)-AKLYYLR(2),Cross-Linked,DSBSO,2.188093e+003,null,1.000000e+000,1.827180e-001,0.000924,0.422286,sg|P0A7W1|RS5_ECOLI (52)-sg|P0A7K6|RL19_ECOLI (96)/,Inter-Protein,1,1,7.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>896,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.15265.15265.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=15265""",3,2.085044e+003,VKDLPGVR(2)-ELKPHDR(3),Cross-Linked,DSBSO,2.085047e+003,null,1.000000e+000,1.835303e-001,-0.002806,-1.345773,sg|P0A7S3|RS12_ECOLI (88)-sg|P0A9Q1|ARCA_ECOLI (195)/,Inter-Protein,1,1,7.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>897,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.12996.12996.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=12996""",4,1.803909e+003,SVAGFKIR(6)-KSSAAR(1),Cross-Linked,DSBSO,1.803909e+003,null,1.000000e+000,1.837672e-001,0.000365,0.202338,sg|P62399|RL5_ECOLI (78)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,5.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>898,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.27996.27996.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=27996""",3,2.452181e+003,MTDKLTSLR(4)-MTDKLTSLR(4),Cross-Linked,DSBSO,2.452180e+003,Oxidation[M](1),1.000000e+000,1.838317e-001,0.001247,0.508527,sg|P0A870|TALB_ECOLI (4)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,8.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>899,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.19505.19505.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=19505""",3,2.433128e+003,EIAEKMVEGR(5)-MAALMKQR(6),Cross-Linked,DSBSO,2.433131e+003,Oxidation[M](6),1.000000e+000,1.844356e-001,-0.003560,-1.463135,sg|P0A6P1|EFTS_ECOLI (214)-sg|P27302|TKT1_ECOLI (452)/,Inter-Protein,1,1,9.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>900,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.33629.33629.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=33629""",4,2.746318e+003,EAEKYANPIPSR(4)-MTDKLTSLR(4),Cross-Linked,DSBSO,2.746309e+003,null,1.000000e+000,1.848843e-001,0.008283,3.016048,sg|P21499|RNR_ECOLI (13)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,15.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>901,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.16086.16086.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16086""",4,2.003955e+003,MAALMKQR(6)-VSAKGMR(4),Cross-Linked,DSBSO,2.003957e+003,null,1.000000e+000,1.856375e-001,-0.001775,-0.885748,sg|P27302|TKT1_ECOLI (452)-sg|P0A7M2|RL28_ECOLI (54)/,Inter-Protein,1,1,9.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>902,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.13458.13458.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13458""",3,2.174055e+003,KISNGEGVER(1)-KAGFVTR(1),Cross-Linked,DSBSO,2.174058e+003,null,1.000000e+000,1.871798e-001,-0.002678,-1.231798,sg|P0A7K6|RL19_ECOLI (63)-sg|P0A7X3|RS9_ECOLI (100)/,Inter-Protein,1,1,8.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>903,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.9668.9668.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=9668""",3,2.097983e+003,GLSAKSFDGR(5)-KQQGHR(1),Cross-Linked,DSBSO,2.097980e+003,null,1.000000e+000,1.882059e-001,0.002250,1.072460,sg|P62399|RL5_ECOLI (120)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,9.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>904,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.6759.6759.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=6759""",5,2.162035e+003,TSGEKHLR(5)-TSGEKHLR(5),Cross-Linked,DSBSO,2.162033e+003,null,1.000000e+000,1.886831e-001,0.002126,0.983334,sg|P0A7N4|RL32_ECOLI (37)-sg|P0A7N4|RL32_ECOLI (37)/,Inter-Protein,1,1,4.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>905,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.17961.17961.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=17961""",5,2.652251e+003,DMLKAGVHFGHQTR(4)-VSAKGMR(4),Cross-Linked,DSBSO,2.652251e+003,null,1.000000e+000,1.893698e-001,-0.000403,-0.151946,sg|P0A7V0|RS2_ECOLI (11)-sg|P0A7M2|RL28_ECOLI (54)/,Inter-Protein,1,1,20.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>906,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.31469.31469.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=31469""",3,2.759447e+003,QAGELQEKLIAVNR(8)-VKDLPGVR(2),Cross-Linked,DSBSO,2.759443e+003,null,1.000000e+000,1.898231e-001,0.004419,1.601410,sg|P0A7W1|RS5_ECOLI (14)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,12.0,4.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>907,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24332.24332.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24332""",3,2.074104e+003,VKDLPGVR(2)-VKDLPGVR(2),Cross-Linked,DSBSO,2.074103e+003,null,1.000000e+000,1.907862e-001,0.000227,0.109445,sg|P0A7S3|RS12_ECOLI (88)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,4.0,4.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>908,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29907.29907.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29907""",3,2.281084e+003,DYSKYLNIR(4)-EKLQER(2),Cross-Linked,DSBSO,2.281084e+003,null,1.000000e+000,1.909236e-001,-0.000199,-0.087239,sg|P25888|RHLE_ECOLI (100)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,7.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>909,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.44956.44956.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=44956""",4,2.139079e+003,MAALMKQR(6)-VKDLPGVR(2),Cross-Linked,DSBSO,2.139079e+003,null,1.000000e+000,1.916755e-001,0.000064,0.029919,sg|P27302|TKT1_ECOLI (452)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,5.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>910,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.21884.21884.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=21884""",4,2.433133e+003,EIAEKMVEGR(5)-MAALMKQR(6),Cross-Linked,DSBSO,2.433131e+003,Oxidation[M](18),1.000000e+000,1.935587e-001,0.001376,0.565526,sg|P0A6P1|EFTS_ECOLI (214)-sg|P27302|TKT1_ECOLI (452)/,Inter-Protein,1,1,8.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>911,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24802.24802.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24802""",3,2.417129e+003,EIAEKMVEGR(5)-MAALMKQR(6),Cross-Linked,DSBSO,2.417136e+003,null,1.000000e+000,1.937336e-001,-0.007303,-3.021344,sg|P0A6P1|EFTS_ECOLI (214)-sg|P27302|TKT1_ECOLI (452)/,Inter-Protein,1,1,9.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>912,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.12175.12175.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=12175""",3,2.736316e+003,HIGGGHKQAYR(7)-SHPFYTGKLR(8),Cross-Linked,DSBSO,2.736313e+003,null,1.000000e+000,1.937774e-001,0.003083,1.126699,sg|P60422|RL2_ECOLI (59)-sg|P0A7N1|RL31B_ECOLI (60)/,Inter-Protein,1,1,9.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>913,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.13111.13111.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13111""",5,2.271156e+003,ESVLPKAVTAR(6)-QPHAKGR(5),Cross-Linked,DSBSO,2.271158e+003,null,1.000000e+000,1.940634e-001,-0.002153,-0.947974,sg|P27302|TKT1_ECOLI (603)-sg|P25888|RHLE_ECOLI (71)/,Inter-Protein,1,1,13.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>914,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24643.24643.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24643""",4,3.356710e+003,VVEPLITLAKTDSVANR(10)-HIGGGHKQAYR(7),Cross-Linked,DSBSO,3.356709e+003,null,1.000000e+000,1.953869e-001,0.001679,0.500192,sg|P0AG44|RL17_ECOLI (56)-sg|P60422|RL2_ECOLI (59)/,Inter-Protein,1,1,16.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>915,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.11536.11536.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=11536""",3,1.790861e+003,KAGFVTR(1)-AMEKAR(4),Cross-Linked,DSBSO,1.790860e+003,null,1.000000e+000,1.959314e-001,0.001133,0.632657,sg|P0A7X3|RS9_ECOLI (100)-sg|P0A7W1|RS5_ECOLI (66)/,Inter-Protein,1,1,6.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>916,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.22425.22425.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=22425""",5,2.406179e+003,SHPFYTGKLR(8)-ILKCGFR(3),Cross-Linked,DSBSO,2.406177e+003,Carbamidomethyl[C](17),1.000000e+000,1.995770e-001,0.002294,0.953380,sg|P0A7N1|RL31B_ECOLI (60)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,10.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>917,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.25150.25150.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=25150""",4,2.417138e+003,EIAEKMVEGR(5)-MAALMKQR(6),Cross-Linked,DSBSO,2.417136e+003,null,1.000000e+000,1.999431e-001,0.001173,0.485285,sg|P0A6P1|EFTS_ECOLI (214)-sg|P27302|TKT1_ECOLI (452)/,Inter-Protein,1,1,7.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>918,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.3824.3824.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=3824""",4,2.284084e+003,HIGGGHKQAYR(7)-KQQGHR(1),Cross-Linked,DSBSO,2.284082e+003,null,1.000000e+000,1.999623e-001,0.002056,0.900143,sg|P60422|RL2_ECOLI (59)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,9.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>919,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.37664.37664.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=37664""",4,3.486692e+003,ATIDGLENMNSPEMVAAKR(18)-KLQLVGVGYR(1),Cross-Linked,DSBSO,3.486710e+003,null,1.000000e+000,2.004651e-001,-0.017985,-5.158158,sg|P0A7W1|RS5_ECOLI (156)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,10.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>920,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.14841.14841.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14841""",5,2.710255e+003,MYAVFQSGGKQHR(10)-ELKPHDR(3),Cross-Linked,DSBSO,2.710253e+003,null,1.000000e+000,2.009399e-001,0.001309,0.482981,sg|P0AG48|RL21_ECOLI (10)-sg|P0A9Q1|ARCA_ECOLI (195)/,Inter-Protein,1,1,7.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>921,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.28589.28589.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=28589""",4,2.948461e+003,MYAVFQSGGKQHR(10)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.948458e+003,null,1.000000e+000,2.010973e-001,0.003210,1.088705,sg|P0AG48|RL21_ECOLI (10)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,9.0,16.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>922,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.33215.33215.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=33215""",3,3.192651e+003,VVEPLITLAKTDSVANR(10)-VVNSKEDIR(5),Cross-Linked,DSBSO,3.192649e+003,null,1.000000e+000,2.013224e-001,0.001690,0.529341,sg|P0AG44|RL17_ECOLI (56)-sg|P0A836|SUCC_ECOLI (66)/,Inter-Protein,1,1,15.0,4.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>923,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.35080.35080.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=35080""",3,2.640239e+003,EIAEKMVEGR(5)-DYSKYLNIR(4),Cross-Linked,DSBSO,2.640235e+003,null,1.000000e+000,2.027265e-001,0.004209,1.594176,sg|P0A6P1|EFTS_ECOLI (214)-sg|P25888|RHLE_ECOLI (100)/,Inter-Protein,1,1,10.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>924,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.10653.10653.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=10653""",4,2.530196e+003,SNVPALEACPQKR(12)-KQQGHR(1),Cross-Linked,DSBSO,2.530196e+003,Carbamidomethyl[C](9),1.000000e+000,2.030273e-001,0.000678,0.267963,sg|P0A7S3|RS12_ECOLI (30)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,8.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>925,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.7844.7844.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=7844""",4,1.916022e+003,VAVIKAVR(5)-KQQGHR(1),Cross-Linked,DSBSO,1.916020e+003,null,1.000000e+000,2.030370e-001,0.001764,0.920658,sg|P0A7K2|RL7_ECOLI (71)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,5.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>926,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.37088.37088.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=37088""",4,2.657378e+003,HKATLLGLGLR(2)-DYSKYLNIR(4),Cross-Linked,DSBSO,2.657379e+003,null,1.000000e+000,2.033009e-001,-0.001245,-0.468507,sg|P0AG51|RL30_ECOLI (21)-sg|P25888|RHLE_ECOLI (100)/,Inter-Protein,1,1,8.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>927,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.21709.21709.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=21709""",3,2.245119e+003,VVNSKEDIR(5)-TDKFIVR(3),Cross-Linked,DSBSO,2.245120e+003,null,1.000000e+000,2.043037e-001,-0.001244,-0.554091,sg|P0A836|SUCC_ECOLI (66)-sg|P60422|RL2_ECOLI (265)/,Inter-Protein,1,1,9.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>928,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23692.23692.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23692""",3,2.501222e+003,QGYPIGCKVTLR(8)-EKLQER(2),Cross-Linked,DSBSO,2.501220e+003,Carbamidomethyl[C](7),1.000000e+000,2.043232e-001,0.002166,0.865978,sg|P62399|RL5_ECOLI (88)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,9.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>929,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.20307.20307.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=20307""",3,2.836367e+003,SNVPALEACPQKR(12)-VVNSKEDIR(5),Cross-Linked,DSBSO,2.836364e+003,Carbamidomethyl[C](9),1.000000e+000,2.056563e-001,0.003398,1.198013,sg|P0A7S3|RS12_ECOLI (30)-sg|P0A836|SUCC_ECOLI (66)/,Inter-Protein,1,1,15.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>930,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.12362.12362.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=12362""",4,1.880899e+003,VGFGYGKAR(7)-KSSAAR(1),Cross-Linked,DSBSO,1.880899e+003,null,1.000000e+000,2.064448e-001,-0.000662,-0.351959,sg|P0A7W1|RS5_ECOLI (52)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,9.0,4.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>931,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.25083.25083.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=25083""",5,2.833346e+003,DAAAAVGKAVAER(8)-DIDGHDAASIKR(11),Cross-Linked,DSBSO,2.833345e+003,null,1.000000e+000,2.065103e-001,0.000731,0.257999,sg|P0C018|RL18_ECOLI (76)-sg|P27302|TKT1_ECOLI (225)/,Inter-Protein,1,1,12.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>932,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24089.24089.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24089""",3,2.350043e+003,DVKFGNDAR(3)-DVKFGNDAR(3),Cross-Linked,DSBSO,2.350044e+003,null,1.000000e+000,2.072109e-001,-0.000774,-0.329356,sg|P0A6F5|CH60_ECOLI (7)-sg|P0A6F5|CH60_ECOLI (7)/,Inter-Protein,1,1,6.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t>933,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24060.24060.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24060""",4,2.256173e+003,ESVLPKAVTAR(6)-KAGFVTR(1),Cross-Linked,DSBSO,2.256173e+003,null,1.000000e+000,2.079330e-001,-0.000036,-0.015956,sg|P27302|TKT1_ECOLI (603)-sg|P0A7X3|RS9_ECOLI (100)/,Inter-Protein,1,1,11.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
+          <t>934,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.17119.17119.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=17119""",4,1.889931e+003,SVAGFKIR(6)-AMEKAR(4),Cross-Linked,DSBSO,1.889928e+003,null,1.000000e+000,2.088040e-001,0.003018,1.596886,sg|P62399|RL5_ECOLI (78)-sg|P0A7W1|RS5_ECOLI (66)/,Inter-Protein,1,1,5.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>935,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.6731.6731.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=6731""",3,2.162034e+003,TSGEKHLR(5)-TSGEKHLR(5),Cross-Linked,DSBSO,2.162033e+003,null,1.000000e+000,2.088353e-001,0.000764,0.353371,sg|P0A7N4|RL32_ECOLI (37)-sg|P0A7N4|RL32_ECOLI (37)/,Inter-Protein,1,1,4.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="inlineStr">
+        <is>
+          <t>936,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.19730.19730.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=19730""",4,2.271066e+003,EIAEKMVEGR(5)-EKLQER(2),Cross-Linked,DSBSO,2.271066e+003,null,1.000000e+000,2.090353e-001,-0.000770,-0.339048,sg|P0A6P1|EFTS_ECOLI (214)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,6.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="inlineStr">
+        <is>
+          <t>937,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.33521.33521.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=33521""",4,3.273638e+003,TVGQLLKEHNAEVTGFIR(7)-VGFGYGKAR(7),Cross-Linked,DSBSO,3.273639e+003,null,1.000000e+000,2.091461e-001,-0.001245,-0.380311,sg|P0A6P1|EFTS_ECOLI (247)-sg|P0A7W1|RS5_ECOLI (52)/,Inter-Protein,1,1,17.0,12.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>938,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.10994.10994.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=10994""",4,1.803860e+003,VSAKGMR(4)-VSAKGMR(4),Cross-Linked,DSBSO,1.803858e+003,null,1.000000e+000,2.094142e-001,0.001456,0.807159,sg|P0A7M2|RL28_ECOLI (54)-sg|P0A7M2|RL28_ECOLI (54)/,Inter-Protein,1,1,3.5,3.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>939,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.28129.28129.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=28129""",3,2.606310e+003,KLQLVGVGYR(1)-MQKQAELYR(3),Cross-Linked,DSBSO,2.606314e+003,null,1.000000e+000,2.113178e-001,-0.004168,-1.599193,sg|P0AG55|RL6_ECOLI (86)-sg|P0A7D7|PUR7_ECOLI (3)/,Inter-Protein,1,1,10.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>940,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.16332.16332.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16332""",4,2.276074e+003,MQKQAELYR(3)-EKLQER(2),Cross-Linked,DSBSO,2.276072e+003,null,1.000000e+000,2.122928e-001,0.001697,0.745583,sg|P0A7D7|PUR7_ECOLI (3)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,10.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>941,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.22496.22496.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=22496""",4,2.018190e+003,VAVIKAVR(5)-VAVIKAVR(5),Cross-Linked,DSBSO,2.018186e+003,null,1.000000e+000,2.143401e-001,0.003543,1.755537,sg|P0A7K2|RL7_ECOLI (71)-sg|P0A7K2|RL7_ECOLI (71)/,Inter-Protein,1,1,5.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>942,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.17867.17867.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=17867""",4,2.257062e+003,DAAAAVGKAVAER(8)-AMEKAR(4),Cross-Linked,DSBSO,2.257062e+003,Oxidation[M](18),1.000000e+000,2.156396e-001,-0.000141,-0.062471,sg|P0C018|RL18_ECOLI (76)-sg|P0A7W1|RS5_ECOLI (66)/,Inter-Protein,1,1,19.5,10.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>943,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.19779.19779.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=19779""",4,2.350113e+003,KISNGEGVER(1)-VGFGYGKAR(7),Cross-Linked,DSBSO,2.350116e+003,null,1.000000e+000,2.159832e-001,-0.003060,-1.302063,sg|P0A7K6|RL19_ECOLI (63)-sg|P0A7W1|RS5_ECOLI (52)/,Inter-Protein,1,1,7.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="inlineStr">
+        <is>
+          <t>944,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.6102.6102.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=6102""",4,2.120026e+003,VVNSKEDIR(5)-KQQGHR(1),Cross-Linked,DSBSO,2.120022e+003,null,1.000000e+000,2.162932e-001,0.003954,1.865075,sg|P0A836|SUCC_ECOLI (66)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,8.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>945,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.10399.10399.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=10399""",4,2.530198e+003,SNVPALEACPQKR(12)-KQQGHR(1),Cross-Linked,DSBSO,2.530196e+003,Carbamidomethyl[C](9),1.000000e+000,2.163932e-001,0.001728,0.682951,sg|P0A7S3|RS12_ECOLI (30)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,7.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>946,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.25158.25158.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=25158""",3,2.636250e+003,EAEKYANPIPSR(4)-VGFGYGKAR(7),Cross-Linked,DSBSO,2.636248e+003,null,1.000000e+000,2.172729e-001,0.001720,0.652442,sg|P21499|RNR_ECOLI (13)-sg|P0A7W1|RS5_ECOLI (52)/,Inter-Protein,1,1,11.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>947,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.14428.14428.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14428""",3,2.370193e+003,LQANPAKIASR(7)-ELKPHDR(3),Cross-Linked,DSBSO,2.370190e+003,null,1.000000e+000,2.173460e-001,0.002799,1.180918,sg|P27302|TKT1_ECOLI (354)-sg|P0A9Q1|ARCA_ECOLI (195)/,Inter-Protein,1,1,11.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>948,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.25726.25726.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=25726""",5,2.886484e+003,VVEPLITLAKTDSVANR(10)-KQQGHR(1),Cross-Linked,DSBSO,2.886481e+003,null,1.000000e+000,2.183462e-001,0.002681,0.928813,sg|P0AG44|RL17_ECOLI (56)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,22.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t>949,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.39876.39876.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=39876""",4,3.801927e+003,TVGQLLKEHNAEVTGFIR(7)-QLGEDPWVAIAKR(12),Cross-Linked,DSBSO,3.801930e+003,null,1.000000e+000,2.185835e-001,-0.003407,-0.896124,sg|P0A6P1|EFTS_ECOLI (247)-sg|P0AG67|RS1_ECOLI (272)/,Inter-Protein,1,1,10.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="inlineStr">
+        <is>
+          <t>950,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.17420.17420.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=17420""",4,1.890910e+003,TDKFIVR(3)-AMEKAR(4),Cross-Linked,DSBSO,1.890912e+003,null,1.000000e+000,2.207003e-001,-0.002425,-1.282450,sg|P60422|RL2_ECOLI (265)-sg|P0A7W1|RS5_ECOLI (66)/,Inter-Protein,1,1,9.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="inlineStr">
+        <is>
+          <t>951,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.26546.26546.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26546""",5,2.968415e+003,DMLKAGVHFGHQTR(4)-MTDKLTSLR(4),Cross-Linked,DSBSO,2.968415e+003,null,1.000000e+000,2.210479e-001,0.000726,0.244575,sg|P0A7V0|RS2_ECOLI (11)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,17.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>952,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.32235.32235.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=32235""",3,3.090528e+003,QGYPIGCKVTLR(8)-QGYPIGCKVTLR(8),Cross-Linked,DSBSO,3.090524e+003,Carbamidomethyl[C](7);Carbamidomethyl[C](22),1.000000e+000,2.218099e-001,0.004327,1.400086,sg|P62399|RL5_ECOLI (88)-sg|P62399|RL5_ECOLI (88)/,Inter-Protein,1,1,7.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t>953,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.14100.14100.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14100""",3,2.287061e+003,EIAEKMVEGR(5)-EKLQER(2),Cross-Linked,DSBSO,2.287061e+003,Oxidation[M](6),1.000000e+000,2.226101e-001,0.000098,0.042850,sg|P0A6P1|EFTS_ECOLI (214)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,10.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="inlineStr">
+        <is>
+          <t>954,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.53226.53226.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=53226""",4,2.139080e+003,MAALMKQR(6)-VKDLPGVR(2),Cross-Linked,DSBSO,2.139079e+003,null,1.000000e+000,2.236103e-001,0.001040,0.486191,sg|P27302|TKT1_ECOLI (452)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,6.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t>955,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.6333.6333.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=6333""",4,2.120027e+003,VVNSKEDIR(5)-KQQGHR(1),Cross-Linked,DSBSO,2.120022e+003,null,1.000000e+000,2.247007e-001,0.004312,2.033941,sg|P0A836|SUCC_ECOLI (66)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,7.5,3.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="inlineStr">
+        <is>
+          <t>956,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23452.23452.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23452""",3,2.362169e+003,MTDKLTSLR(4)-IGSTIKTDR(6),Cross-Linked,DSBSO,2.362166e+003,null,1.000000e+000,2.254070e-001,0.003205,1.356806,sg|P0A870|TALB_ECOLI (4)-sg|P0A7N1|RL31B_ECOLI (30)/,Inter-Protein,1,1,8.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>957,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.35021.35021.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=35021""",3,2.744354e+003,QLGEDPWVAIAKR(12)-VGFGYGKAR(7),Cross-Linked,DSBSO,2.744353e+003,null,1.000000e+000,2.254280e-001,0.000550,0.200412,sg|P0AG67|RS1_ECOLI (272)-sg|P0A7W1|RS5_ECOLI (52)/,Inter-Protein,1,1,13.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>958,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.26435.26435.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26435""",4,2.382106e+003,GLSAKSFDGR(5)-GLSAKSFDGR(5),Cross-Linked,DSBSO,2.382106e+003,null,1.000000e+000,2.260747e-001,-0.000255,-0.107048,sg|P62399|RL5_ECOLI (120)-sg|P62399|RL5_ECOLI (120)/,Inter-Protein,1,1,6.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>959,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.20465.20465.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=20465""",4,2.181124e+003,IGSTIKTDR(6)-VKDLPGVR(2),Cross-Linked,DSBSO,2.181125e+003,null,1.000000e+000,2.262077e-001,-0.001583,-0.725772,sg|P0A7N1|RL31B_ECOLI (30)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,7.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>960,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.20152.20152.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=20152""",5,2.776357e+003,MYAVFQSGGKQHR(10)-TIKITQTR(3),Cross-Linked,DSBSO,2.776358e+003,null,1.000000e+000,2.267174e-001,-0.000717,-0.258252,sg|P0AG48|RL21_ECOLI (10)-sg|P0AG51|RL30_ECOLI (6)/,Inter-Protein,1,1,11.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>961,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.28259.28259.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=28259""",4,2.064051e+003,TDKFIVR(3)-TDKFIVR(3),Cross-Linked,DSBSO,2.064050e+003,null,1.000000e+000,2.287805e-001,0.000535,0.259199,sg|P60422|RL2_ECOLI (265)-sg|P60422|RL2_ECOLI (265)/,Inter-Protein,1,1,6.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>962,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.20009.20009.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=20009""",3,2.165045e+003,MAALMKQR(6)-ILKCGFR(3),Cross-Linked,DSBSO,2.165041e+003,Oxidation[M](5);Carbamidomethyl[C](15),1.000000e+000,2.293544e-001,0.004671,2.157465,sg|P27302|TKT1_ECOLI (452)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,11.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="inlineStr">
+        <is>
+          <t>963,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.22365.22365.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=22365""",3,3.070439e+003,DMLKAGVHFGHQTR(4)-MQKQAELYR(3),Cross-Linked,DSBSO,3.070436e+003,null,1.000000e+000,2.301490e-001,0.002567,0.836038,sg|P0A7V0|RS2_ECOLI (11)-sg|P0A7D7|PUR7_ECOLI (3)/,Inter-Protein,1,1,15.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="inlineStr">
+        <is>
+          <t>964,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.9200.9200.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=9200""",3,2.521229e+003,HIGGGHKQAYR(7)-IGSTIKTDR(6),Cross-Linked,DSBSO,2.521228e+003,null,1.000000e+000,2.316852e-001,0.000874,0.346656,sg|P60422|RL2_ECOLI (59)-sg|P0A7N1|RL31B_ECOLI (30)/,Inter-Protein,1,1,14.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="inlineStr">
+        <is>
+          <t>965,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.30042.30042.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=30042""",4,2.538227e+003,DYSKYLNIR(4)-VVNSKEDIR(5),Cross-Linked,DSBSO,2.538221e+003,null,1.000000e+000,2.322910e-001,0.005616,2.212573,sg|P25888|RHLE_ECOLI (100)-sg|P0A836|SUCC_ECOLI (66)/,Inter-Protein,1,1,11.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="inlineStr">
+        <is>
+          <t>966,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.14324.14324.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14324""",3,2.595247e+003,HIGGGHKQAYR(7)-MTDKLTSLR(4),Cross-Linked,DSBSO,2.595248e+003,null,1.000000e+000,2.341831e-001,-0.000659,-0.253926,sg|P60422|RL2_ECOLI (59)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,11.0,4.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="inlineStr">
+        <is>
+          <t>967,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.27027.27027.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=27027""",3,3.226418e+003,SMKQAIYDPENR(3)-SMKQAIYDPENR(3),Cross-Linked,DSBSO,3.226416e+003,Oxidation[M](2),1.000000e+000,2.344971e-001,0.002507,0.777023,sg|P21499|RNR_ECOLI (544)-sg|P21499|RNR_ECOLI (544)/,Inter-Protein,1,1,3.0,3.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="inlineStr">
+        <is>
+          <t>968,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29854.29854.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29854""",4,3.210424e+003,SMKQAIYDPENR(3)-SMKQAIYDPENR(3),Cross-Linked,DSBSO,3.210421e+003,null,1.000000e+000,2.346174e-001,0.003461,1.078052,sg|P21499|RNR_ECOLI (544)-sg|P21499|RNR_ECOLI (544)/,Inter-Protein,1,1,8.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="inlineStr">
+        <is>
+          <t>969,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.35171.35171.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=35171""",5,3.418604e+003,ATIDGLENMNSPEMVAAKR(18)-MTDKLTSLR(4),Cross-Linked,DSBSO,3.418603e+003,null,1.000000e+000,2.351079e-001,0.001118,0.327034,sg|P0A7W1|RS5_ECOLI (156)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,14.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="inlineStr">
+        <is>
+          <t>970,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.22591.22591.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=22591""",3,2.378140e+003,IGSTIKTDR(6)-FWVESEKR(7),Cross-Linked,DSBSO,2.378137e+003,null,1.000000e+000,2.352572e-001,0.002972,1.249718,sg|P0A7N1|RL31B_ECOLI (30)-sg|P0A7M2|RL28_ECOLI (44)/,Inter-Protein,1,1,9.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="inlineStr">
+        <is>
+          <t>971,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.7594.7594.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=7594""",4,1.878931e+003,QPHAKGR(5)-KAGFVTR(1),Cross-Linked,DSBSO,1.878931e+003,null,1.000000e+000,2.352788e-001,-0.000019,-0.010112,sg|P25888|RHLE_ECOLI (71)-sg|P0A7X3|RS9_ECOLI (100)/,Inter-Protein,1,1,2.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="inlineStr">
+        <is>
+          <t>972,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.15566.15566.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=15566""",3,2.288147e+003,IGSTIKTDR(6)-IGSTIKTDR(6),Cross-Linked,DSBSO,2.288147e+003,null,1.000000e+000,2.359055e-001,-0.000555,-0.242554,sg|P0A7N1|RL31B_ECOLI (30)-sg|P0A7N1|RL31B_ECOLI (30)/,Inter-Protein,1,1,5.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="inlineStr">
+        <is>
+          <t>973,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.10061.10061.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=10061""",5,2.097981e+003,GLSAKSFDGR(5)-KQQGHR(1),Cross-Linked,DSBSO,2.097980e+003,null,1.000000e+000,2.377110e-001,0.000337,0.160631,sg|P62399|RL5_ECOLI (120)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,5.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="inlineStr">
+        <is>
+          <t>974,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.22520.22520.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=22520""",4,2.036028e+003,AKLYYLR(2)-EKLQER(2),Cross-Linked,DSBSO,2.036019e+003,null,1.000000e+000,2.379086e-001,0.008959,4.400254,sg|P0A7K6|RL19_ECOLI (96)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,6.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="inlineStr">
+        <is>
+          <t>975,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.13797.13797.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13797""",4,2.401132e+003,MQKQAELYR(3)-TSGEKHLR(5),Cross-Linked,DSBSO,2.401131e+003,null,1.000000e+000,2.382006e-001,0.001717,0.715080,sg|P0A7D7|PUR7_ECOLI (3)-sg|P0A7N4|RL32_ECOLI (37)/,Inter-Protein,1,1,7.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="inlineStr">
+        <is>
+          <t>976,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.21091.21091.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=21091""",3,2.741315e+003,EAEKYANPIPSR(4)-VVNSKEDIR(5),Cross-Linked,DSBSO,2.741312e+003,null,1.000000e+000,2.392565e-001,0.002863,1.044390,sg|P21499|RNR_ECOLI (13)-sg|P0A836|SUCC_ECOLI (66)/,Inter-Protein,1,1,15.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="inlineStr">
+        <is>
+          <t>977,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.20139.20139.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=20139""",3,2.181126e+003,IGSTIKTDR(6)-VKDLPGVR(2),Cross-Linked,DSBSO,2.181125e+003,null,1.000000e+000,2.399525e-001,0.000435,0.199438,sg|P0A7N1|RL31B_ECOLI (30)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,5.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="inlineStr">
+        <is>
+          <t>978,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.18970.18970.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=18970""",4,2.806333e+003,MYAVFQSGGKQHR(10)-IGSTIKTDR(6),Cross-Linked,DSBSO,2.806332e+003,null,1.000000e+000,2.399999e-001,0.000712,0.253712,sg|P0AG48|RL21_ECOLI (10)-sg|P0A7N1|RL31B_ECOLI (30)/,Inter-Protein,1,1,15.0,10.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="inlineStr">
+        <is>
+          <t>979,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.43221.43221.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=43221""",5,3.959109e+003,VVEPLITLAKTDSVANR(10)-VVEPLITLAKTDSVANR(10),Cross-Linked,DSBSO,3.959108e+003,null,1.000000e+000,2.406754e-001,0.001351,0.341239,sg|P0AG44|RL17_ECOLI (56)-sg|P0AG44|RL17_ECOLI (56)/,Inter-Protein,1,1,9.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>980,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.31910.31910.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=31910""",4,2.625325e+003,QGYPIGCKVTLR(8)-AKLYYLR(2),Cross-Linked,DSBSO,2.625324e+003,Carbamidomethyl[C](7),1.000000e+000,2.413816e-001,0.001457,0.554979,sg|P62399|RL5_ECOLI (88)-sg|P0A7K6|RL19_ECOLI (96)/,Inter-Protein,1,1,9.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>981,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.9467.9467.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=9467""",5,2.521232e+003,HIGGGHKQAYR(7)-IGSTIKTDR(6),Cross-Linked,DSBSO,2.521228e+003,null,1.000000e+000,2.423149e-001,0.004005,1.588511,sg|P60422|RL2_ECOLI (59)-sg|P0A7N1|RL31B_ECOLI (30)/,Inter-Protein,1,1,10.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>982,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.15678.15678.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=15678""",3,2.426189e+003,VVNSKEDIR(5)-VVNSKEDIR(5),Cross-Linked,DSBSO,2.426190e+003,null,1.000000e+000,2.430169e-001,-0.000670,-0.276153,sg|P0A836|SUCC_ECOLI (66)-sg|P0A836|SUCC_ECOLI (66)/,Inter-Protein,1,1,7.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>983,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.13652.13652.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13652""",4,2.484175e+003,KISNGEGVER(1)-KISNGEGVER(1),Cross-Linked,DSBSO,2.484170e+003,null,1.000000e+000,2.433150e-001,0.005075,2.042936,sg|P0A7K6|RL19_ECOLI (63)-sg|P0A7K6|RL19_ECOLI (63)/,Inter-Protein,1,1,6.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>984,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.37262.37262.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=37262""",3,3.181587e+003,QLGEDPWVAIAKR(12)-QGYPIGCKVTLR(8),Cross-Linked,DSBSO,3.181584e+003,Carbamidomethyl[C](23),1.000000e+000,2.442128e-001,0.003203,1.006731,sg|P0AG67|RS1_ECOLI (272)-sg|P62399|RL5_ECOLI (88)/,Inter-Protein,1,1,5.0,3.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>985,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.22787.22787.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=22787""",3,2.018187e+003,VAVIKAVR(5)-VAVIKAVR(5),Cross-Linked,DSBSO,2.018186e+003,null,1.000000e+000,2.442718e-001,0.001046,0.518287,sg|P0A7K2|RL7_ECOLI (71)-sg|P0A7K2|RL7_ECOLI (71)/,Inter-Protein,1,1,6.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="inlineStr">
+        <is>
+          <t>986,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.8227.8227.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=8227""",3,2.107029e+003,SHALNATKR(8)-EKLQER(2),Cross-Linked,DSBSO,2.107027e+003,null,1.000000e+000,2.461820e-001,0.002408,1.142843,sg|P0A7M2|RL28_ECOLI (26)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,8.5,3.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>987,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.27487.27487.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=27487""",3,2.429202e+003,DAAAAVGKAVAER(8)-ILKCGFR(3),Cross-Linked,DSBSO,2.429198e+003,Carbamidomethyl[C](20),1.000000e+000,2.463657e-001,0.003441,1.416517,sg|P0C018|RL18_ECOLI (76)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,19.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="inlineStr">
+        <is>
+          <t>988,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23828.23828.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23828""",3,2.165040e+003,MAALMKQR(6)-ILKCGFR(3),Cross-Linked,DSBSO,2.165041e+003,Oxidation[M](5);Carbamidomethyl[C](15),1.000000e+000,2.470013e-001,-0.000737,-0.340409,sg|P27302|TKT1_ECOLI (452)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,11.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="inlineStr">
+        <is>
+          <t>989,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.22022.22022.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=22022""",4,2.498183e+003,DIDGHDAASIKR(11)-ILKCGFR(3),Cross-Linked,DSBSO,2.498184e+003,Carbamidomethyl[C](19),1.000000e+000,2.481637e-001,-0.000314,-0.125691,sg|P27302|TKT1_ECOLI (225)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,9.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="inlineStr">
+        <is>
+          <t>990,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.27063.27063.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=27063""",4,3.226412e+003,SMKQAIYDPENR(3)-SMKQAIYDPENR(3),Cross-Linked,DSBSO,3.226416e+003,Oxidation[M](2),1.000000e+000,2.481880e-001,-0.004037,-1.251234,sg|P21499|RNR_ECOLI (544)-sg|P21499|RNR_ECOLI (544)/,Inter-Protein,1,1,11.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="inlineStr">
+        <is>
+          <t>991,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.27848.27848.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=27848""",3,2.362129e+003,EIAEKMVEGR(5)-ILKCGFR(3),Cross-Linked,DSBSO,2.362127e+003,Carbamidomethyl[C](17),1.000000e+000,2.496369e-001,0.001573,0.665925,sg|P0A6P1|EFTS_ECOLI (214)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,9.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="inlineStr">
+        <is>
+          <t>992,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.17377.17377.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=17377""",4,2.136019e+003,MTDKLTSLR(4)-VSAKGMR(4),Cross-Linked,DSBSO,2.136017e+003,Oxidation[M](18),1.000000e+000,2.501129e-001,0.002056,0.962539,sg|P0A870|TALB_ECOLI (4)-sg|P0A7M2|RL28_ECOLI (54)/,Inter-Protein,1,1,11.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="inlineStr">
+        <is>
+          <t>993,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.13267.13267.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13267""",3,2.396138e+003,SNVPALEACPQKR(12)-KSSAAR(1),Cross-Linked,DSBSO,2.396137e+003,Carbamidomethyl[C](9),1.000000e+000,2.509316e-001,0.001834,0.765399,sg|P0A7S3|RS12_ECOLI (30)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,16.5,3.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="inlineStr">
+        <is>
+          <t>994,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.8164.8164.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=8164""",4,2.279078e+003,HIGGGHKQAYR(7)-VSAKGMR(4),Cross-Linked,DSBSO,2.279084e+003,null,1.000000e+000,2.526271e-001,-0.006432,-2.822186,sg|P60422|RL2_ECOLI (59)-sg|P0A7M2|RL28_ECOLI (54)/,Inter-Protein,1,1,11.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="inlineStr">
+        <is>
+          <t>995,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.46824.46824.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=46824""",4,2.084071e+003,VKDLPGVR(2)-ILKCGFR(3),Cross-Linked,DSBSO,2.084070e+003,Carbamidomethyl[C](15),1.000000e+000,2.543130e-001,0.001431,0.686637,sg|P0A7S3|RS12_ECOLI (88)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,7.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="inlineStr">
+        <is>
+          <t>996,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.12135.12135.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=12135""",5,2.736318e+003,HIGGGHKQAYR(7)-SHPFYTGKLR(8),Cross-Linked,DSBSO,2.736313e+003,null,1.000000e+000,2.554544e-001,0.004973,1.817409,sg|P60422|RL2_ECOLI (59)-sg|P0A7N1|RL31B_ECOLI (60)/,Inter-Protein,1,1,12.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>997,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.16839.16839.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16839""",4,1.852928e+003,AKLYYLR(2)-KSSAAR(1),Cross-Linked,DSBSO,1.852929e+003,null,1.000000e+000,2.565172e-001,-0.001848,-0.997340,sg|P0A7K6|RL19_ECOLI (96)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,9.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="inlineStr">
+        <is>
+          <t>998,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.21528.21528.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=21528""",3,2.718315e+003,SHPFYTGKLR(8)-SHPFYTGKLR(8),Cross-Linked,DSBSO,2.718317e+003,null,1.000000e+000,2.567308e-001,-0.001755,-0.645620,sg|P0A7N1|RL31B_ECOLI (60)-sg|P0A7N1|RL31B_ECOLI (60)/,Inter-Protein,1,1,4.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="inlineStr">
+        <is>
+          <t>999,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.54074.54074.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=54074""",3,2.572404e+003,KLQLVGVGYR(1)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.572399e+003,null,1.000000e+000,2.574643e-001,0.005553,2.158685,sg|P0AG55|RL6_ECOLI (86)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,4.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t>1000,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.14607.14607.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14607""",4,2.595248e+003,HIGGGHKQAYR(7)-MTDKLTSLR(4),Cross-Linked,DSBSO,2.595248e+003,null,1.000000e+000,2.576211e-001,0.000066,0.025431,sg|P60422|RL2_ECOLI (59)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,8.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t>1001,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.26235.26235.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26235""",3,2.968409e+003,DMLKAGVHFGHQTR(4)-MTDKLTSLR(4),Cross-Linked,DSBSO,2.968415e+003,null,1.000000e+000,2.586188e-001,-0.005127,-1.727185,sg|P0A7V0|RS2_ECOLI (11)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,15.0,4.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="inlineStr">
+        <is>
+          <t>1002,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.19993.19993.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=19993""",4,2.165041e+003,MAALMKQR(6)-ILKCGFR(3),Cross-Linked,DSBSO,2.165041e+003,Oxidation[M](5);Carbamidomethyl[C](15),1.000000e+000,2.593653e-001,0.000715,0.330248,sg|P27302|TKT1_ECOLI (452)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,7.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="inlineStr">
+        <is>
+          <t>1003,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.31357.31357.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=31357""",4,2.764364e+003,DAAAAVGKAVAER(8)-DAAAAVGKAVAER(8),Cross-Linked,DSBSO,2.764360e+003,null,1.000000e+000,2.596497e-001,0.003327,1.203533,sg|P0C018|RL18_ECOLI (76)-sg|P0C018|RL18_ECOLI (76)/,Inter-Protein,1,1,8.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="inlineStr">
+        <is>
+          <t>1004,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.36287.36287.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=36287""",3,2.405188e+003,DYSKYLNIR(4)-AKLYYLR(2),Cross-Linked,DSBSO,2.405188e+003,null,1.000000e+000,2.611731e-001,-0.000198,-0.082322,sg|P25888|RHLE_ECOLI (100)-sg|P0A7K6|RL19_ECOLI (96)/,Inter-Protein,1,1,6.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="inlineStr">
+        <is>
+          <t>1005,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.19167.19167.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=19167""",4,2.232118e+003,MAALMKQR(6)-TIKITQTR(3),Cross-Linked,DSBSO,2.232122e+003,Oxidation[M](5),1.000000e+000,2.630259e-001,-0.003950,-1.769617,sg|P27302|TKT1_ECOLI (452)-sg|P0AG51|RL30_ECOLI (6)/,Inter-Protein,1,1,5.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="inlineStr">
+        <is>
+          <t>1006,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.37785.37785.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=37785""",4,3.011581e+003,VVEPLITLAKTDSVANR(10)-TDKFIVR(3),Cross-Linked,DSBSO,3.011579e+003,null,1.000000e+000,2.639089e-001,0.001830,0.607655,sg|P0AG44|RL17_ECOLI (56)-sg|P60422|RL2_ECOLI (265)/,Inter-Protein,1,1,18.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="inlineStr">
+        <is>
+          <t>1007,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.36626.36626.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=36626""",4,3.077466e+003,ITDVEVLKAQFEEER(8)-MAALMKQR(6),Cross-Linked,DSBSO,3.077466e+003,Oxidation[M](19),1.000000e+000,2.643034e-001,0.000404,0.131277,sg|P0A6P1|EFTS_ECOLI (112)-sg|P27302|TKT1_ECOLI (452)/,Inter-Protein,1,1,17.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="inlineStr">
+        <is>
+          <t>1008,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.9197.9197.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=9197""",4,2.521234e+003,HIGGGHKQAYR(7)-IGSTIKTDR(6),Cross-Linked,DSBSO,2.521228e+003,null,1.000000e+000,2.644843e-001,0.005547,2.200118,sg|P60422|RL2_ECOLI (59)-sg|P0A7N1|RL31B_ECOLI (30)/,Inter-Protein,1,1,7.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="inlineStr">
+        <is>
+          <t>1009,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.10799.10799.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=10799""",5,2.109973e+003,ASFDKANR(5)-ELKPHDR(3),Cross-Linked,DSBSO,2.109969e+003,null,1.000000e+000,2.647879e-001,0.003521,1.668745,sg|P0A715|KDSA_ECOLI (60)-sg|P0A9Q1|ARCA_ECOLI (195)/,Inter-Protein,1,1,4.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="inlineStr">
+        <is>
+          <t>1010,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.31646.31646.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=31646""",3,2.764369e+003,DAAAAVGKAVAER(8)-DAAAAVGKAVAER(8),Cross-Linked,DSBSO,2.764360e+003,null,1.000000e+000,2.683756e-001,0.008231,2.977542,sg|P0C018|RL18_ECOLI (76)-sg|P0C018|RL18_ECOLI (76)/,Inter-Protein,1,1,8.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="inlineStr">
+        <is>
+          <t>1011,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.39806.39806.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=39806""",3,1.657826e+003,MAKGIR(3)-MAKGIR(3),Cross-Linked,DSBSO,1.657826e+003,null,1.000000e+000,2.690683e-001,0.000162,0.097718,sg|P0A7N9|RL33_ECOLI (3)-sg|P0A7N9|RL33_ECOLI (3)/,Inter-Protein,1,1,3.5,3.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="inlineStr">
+        <is>
+          <t>1012,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.14466.14466.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14466""",4,2.316063e+003,EGGNEKVILCDR(6)-KSSAAR(1),Cross-Linked,DSBSO,2.316063e+003,Carbamidomethyl[C](10),1.000000e+000,2.691825e-001,-0.000090,-0.038859,sg|P0A715|KDSA_ECOLI (162)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,8.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="inlineStr">
+        <is>
+          <t>1013,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.50305.50305.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=50305""",3,2.240136e+003,IQKLHTYR(3)-SVEEILGK(8),Cross-Linked,DSBSO,2.240130e+003,null,1.000000e+000,2.691884e-001,0.006312,2.817694,sg|P09373|PFLB_ECOLI (591)-sg|P0A7W1|RS5_ECOLI (167)/,Inter-Protein,1,1,7.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="inlineStr">
+        <is>
+          <t>1014,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.22873.22873.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=22873""",4,2.362165e+003,MTDKLTSLR(4)-IGSTIKTDR(6),Cross-Linked,DSBSO,2.362166e+003,null,1.000000e+000,2.696274e-001,-0.001529,-0.647287,sg|P0A870|TALB_ECOLI (4)-sg|P0A7N1|RL31B_ECOLI (30)/,Inter-Protein,1,1,9.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="inlineStr">
+        <is>
+          <t>1015,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.32676.32676.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=32676""",4,3.037504e+003,QAGELQEKLIAVNR(8)-EIAEKMVEGR(5),Cross-Linked,DSBSO,3.037500e+003,null,1.000000e+000,2.705958e-001,0.004239,1.395555,sg|P0A7W1|RS5_ECOLI (14)-sg|P0A6P1|EFTS_ECOLI (214)/,Inter-Protein,1,1,18.0,10.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="inlineStr">
+        <is>
+          <t>1016,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.26133.26133.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26133""",3,2.352165e+003,EIAEKMVEGR(5)-VKDLPGVR(2),Cross-Linked,DSBSO,2.352161e+003,null,1.000000e+000,2.719111e-001,0.004297,1.826831,sg|P0A6P1|EFTS_ECOLI (214)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,10.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="inlineStr">
+        <is>
+          <t>1017,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.20067.20067.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=20067""",3,2.776358e+003,MYAVFQSGGKQHR(10)-TIKITQTR(3),Cross-Linked,DSBSO,2.776358e+003,null,1.000000e+000,2.725812e-001,0.000408,0.146955,sg|P0AG48|RL21_ECOLI (10)-sg|P0AG51|RL30_ECOLI (6)/,Inter-Protein,1,1,12.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="inlineStr">
+        <is>
+          <t>1018,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29407.29407.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29407""",4,2.558264e+003,ESVLPKAVTAR(6)-FWVESEKR(7),Cross-Linked,DSBSO,2.558263e+003,null,1.000000e+000,2.726760e-001,0.001499,0.585944,sg|P27302|TKT1_ECOLI (603)-sg|P0A7M2|RL28_ECOLI (44)/,Inter-Protein,1,1,14.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="inlineStr">
+        <is>
+          <t>1019,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.14141.14141.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14141""",3,2.046003e+003,IGSTIKTDR(6)-VSAKGMR(4),Cross-Linked,DSBSO,2.046003e+003,null,1.000000e+000,2.736918e-001,0.000559,0.273216,sg|P0A7N1|RL31B_ECOLI (30)-sg|P0A7M2|RL28_ECOLI (54)/,Inter-Protein,1,1,11.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="inlineStr">
+        <is>
+          <t>1020,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.13106.13106.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13106""",3,2.271157e+003,ESVLPKAVTAR(6)-QPHAKGR(5),Cross-Linked,DSBSO,2.271158e+003,null,1.000000e+000,2.740829e-001,-0.001577,-0.694359,sg|P27302|TKT1_ECOLI (603)-sg|P25888|RHLE_ECOLI (71)/,Inter-Protein,1,1,10.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="inlineStr">
+        <is>
+          <t>1021,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.53580.53580.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=53580""",4,2.084069e+003,VKDLPGVR(2)-ILKCGFR(3),Cross-Linked,DSBSO,2.084070e+003,Carbamidomethyl[C](15),1.000000e+000,2.746354e-001,-0.001010,-0.484629,sg|P0A7S3|RS12_ECOLI (88)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,4.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="inlineStr">
+        <is>
+          <t>1022,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.22955.22955.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=22955""",4,2.139081e+003,MAALMKQR(6)-VKDLPGVR(2),Cross-Linked,DSBSO,2.139079e+003,null,1.000000e+000,2.762308e-001,0.002060,0.963031,sg|P27302|TKT1_ECOLI (452)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,5.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="inlineStr">
+        <is>
+          <t>1023,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.28200.28200.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=28200""",3,2.840415e+003,QAGELQEKLIAVNR(8)-MAALMKQR(6),Cross-Linked,DSBSO,2.840414e+003,Oxidation[M](18),1.000000e+000,2.782974e-001,0.001752,0.616812,sg|P0A7W1|RS5_ECOLI (14)-sg|P27302|TKT1_ECOLI (452)/,Inter-Protein,1,1,17.0,11.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="inlineStr">
+        <is>
+          <t>1024,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.19590.19590.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=19590""",4,2.436296e+003,LQANPAKIASR(7)-TIKITQTR(3),Cross-Linked,DSBSO,2.436295e+003,null,1.000000e+000,2.785833e-001,0.001514,0.621435,sg|P27302|TKT1_ECOLI (354)-sg|P0AG51|RL30_ECOLI (6)/,Inter-Protein,1,1,7.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="inlineStr">
+        <is>
+          <t>1025,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.8720.8720.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=8720""",4,2.107028e+003,SHALNATKR(8)-EKLQER(2),Cross-Linked,DSBSO,2.107027e+003,null,1.000000e+000,2.813963e-001,0.001012,0.480298,sg|P0A7M2|RL28_ECOLI (26)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,7.5,3.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="inlineStr">
+        <is>
+          <t>1026,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24648.24648.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24648""",4,2.149046e+003,MAALMKQR(6)-ILKCGFR(3),Cross-Linked,DSBSO,2.149046e+003,Carbamidomethyl[C](15),1.000000e+000,2.853472e-001,0.000512,0.238245,sg|P27302|TKT1_ECOLI (452)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,5.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="inlineStr">
+        <is>
+          <t>1027,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.53165.53165.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=53165""",3,2.572406e+003,KLQLVGVGYR(1)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.572399e+003,null,1.000000e+000,2.856044e-001,0.007201,2.799333,sg|P0AG55|RL6_ECOLI (86)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,4.0,4.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="inlineStr">
+        <is>
+          <t>1028,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.39505.39505.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=39505""",5,3.210699e+003,IGVPFVDGGVIKAEVVAHGR(12)-VKDLPGVR(2),Cross-Linked,DSBSO,3.210701e+003,null,1.000000e+000,2.880192e-001,-0.002217,-0.690503,sg|P0AG48|RL21_ECOLI (60)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,13.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="inlineStr">
+        <is>
+          <t>1029,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23192.23192.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23192""",3,2.277046e+003,DVKFGNDAR(3)-MAALMKQR(6),Cross-Linked,DSBSO,2.277049e+003,null,1.000000e+000,2.893280e-001,-0.003219,-1.413672,sg|P0A6F5|CH60_ECOLI (7)-sg|P27302|TKT1_ECOLI (452)/,Inter-Protein,1,1,8.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="inlineStr">
+        <is>
+          <t>1030,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.15750.15750.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=15750""",5,2.609235e+003,EAEKYANPIPSR(4)-TSGEKHLR(5),Cross-Linked,DSBSO,2.609233e+003,null,1.000000e+000,2.911441e-001,0.001618,0.620106,sg|P21499|RNR_ECOLI (13)-sg|P0A7N4|RL32_ECOLI (37)/,Inter-Protein,1,1,11.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="inlineStr">
+        <is>
+          <t>1031,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.14170.14170.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14170""",3,2.174062e+003,KISNGEGVER(1)-KAGFVTR(1),Cross-Linked,DSBSO,2.174058e+003,null,1.000000e+000,2.915188e-001,0.004011,1.844937,sg|P0A7K6|RL19_ECOLI (63)-sg|P0A7X3|RS9_ECOLI (100)/,Inter-Protein,1,1,7.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="inlineStr">
+        <is>
+          <t>1032,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29143.29143.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29143""",4,2.436183e+003,MTDKLTSLR(4)-MTDKLTSLR(4),Cross-Linked,DSBSO,2.436185e+003,null,1.000000e+000,2.918740e-001,-0.002633,-1.080788,sg|P0A870|TALB_ECOLI (4)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,5.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="inlineStr">
+        <is>
+          <t>1033,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.9081.9081.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=9081""",4,1.916021e+003,VAVIKAVR(5)-KQQGHR(1),Cross-Linked,DSBSO,1.916020e+003,null,1.000000e+000,2.927691e-001,0.000419,0.218682,sg|P0A7K2|RL7_ECOLI (71)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,10.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="inlineStr">
+        <is>
+          <t>1034,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.18126.18126.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=18126""",4,2.105122e+003,HKATLLGLGLR(2)-KSSAAR(1),Cross-Linked,DSBSO,2.105120e+003,null,1.000000e+000,2.945987e-001,0.001516,0.720149,sg|P0AG51|RL30_ECOLI (21)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,8.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="inlineStr">
+        <is>
+          <t>1035,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29094.29094.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29094""",4,2.460166e+003,KISNGEGVER(1)-MTDKLTSLR(4),Cross-Linked,DSBSO,2.460178e+003,null,1.000000e+000,2.956571e-001,-0.011929,-4.848837,sg|P0A7K6|RL19_ECOLI (63)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,8.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="inlineStr">
+        <is>
+          <t>1036,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23510.23510.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23510""",4,2.632364e+003,SNVPALEACPQKR(12)-VAVIKAVR(5),Cross-Linked,DSBSO,2.632362e+003,Carbamidomethyl[C](9),1.000000e+000,2.976972e-001,0.002320,0.881338,sg|P0A7S3|RS12_ECOLI (30)-sg|P0A7K2|RL7_ECOLI (71)/,Inter-Protein,1,1,10.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="inlineStr">
+        <is>
+          <t>1037,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29536.29536.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29536""",3,2.295293e+003,KLQLVGVGYR(1)-VAVIKAVR(5),Cross-Linked,DSBSO,2.295293e+003,null,1.000000e+000,2.977521e-001,0.000165,0.071886,sg|P0AG55|RL6_ECOLI (86)-sg|P0A7K2|RL7_ECOLI (71)/,Inter-Protein,1,1,11.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="inlineStr">
+        <is>
+          <t>1038,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.36540.36540.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=36540""",4,3.317721e+003,IGVPFVDGGVIKAEVVAHGR(12)-IGSTIKTDR(6),Cross-Linked,DSBSO,3.317723e+003,null,1.000000e+000,2.983748e-001,-0.001730,-0.521442,sg|P0AG48|RL21_ECOLI (60)-sg|P0A7N1|RL31B_ECOLI (30)/,Inter-Protein,1,1,18.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="inlineStr">
+        <is>
+          <t>1039,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29414.29414.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29414""",3,2.558264e+003,ESVLPKAVTAR(6)-FWVESEKR(7),Cross-Linked,DSBSO,2.558263e+003,null,1.000000e+000,2.997560e-001,0.001452,0.567573,sg|P27302|TKT1_ECOLI (603)-sg|P0A7M2|RL28_ECOLI (44)/,Inter-Protein,1,1,14.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="inlineStr">
+        <is>
+          <t>1040,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.14216.14216.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14216""",4,2.046001e+003,IGSTIKTDR(6)-VSAKGMR(4),Cross-Linked,DSBSO,2.046003e+003,null,1.000000e+000,3.014053e-001,-0.001834,-0.896382,sg|P0A7N1|RL31B_ECOLI (30)-sg|P0A7M2|RL28_ECOLI (54)/,Inter-Protein,1,1,11.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="inlineStr">
+        <is>
+          <t>1041,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.14269.14269.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14269""",3,2.552167e+003,SMKQAIYDPENR(3)-QPHAKGR(5),Cross-Linked,DSBSO,2.552169e+003,null,1.000000e+000,3.020854e-001,-0.001976,-0.774243,sg|P21499|RNR_ECOLI (544)-sg|P25888|RHLE_ECOLI (71)/,Inter-Protein,1,1,8.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="inlineStr">
+        <is>
+          <t>1042,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.37929.37929.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=37929""",3,2.646356e+003,MAEITASLVKELR(10)-TDKFIVR(3),Cross-Linked,DSBSO,2.646355e+003,null,1.000000e+000,3.022891e-001,0.000889,0.335934,sg|P0A6P1|EFTS_ECOLI (10)-sg|P60422|RL2_ECOLI (265)/,Inter-Protein,1,1,24.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="inlineStr">
+        <is>
+          <t>1043,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.12998.12998.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=12998""",3,2.092950e+003,DVKFGNDAR(3)-VSAKGMR(4),Cross-Linked,DSBSO,2.092946e+003,Oxidation[M](18),1.000000e+000,3.029315e-001,0.004488,2.144346,sg|P0A6F5|CH60_ECOLI (7)-sg|P0A7M2|RL28_ECOLI (54)/,Inter-Protein,1,1,10.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="inlineStr">
+        <is>
+          <t>1044,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.13888.13888.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13888""",3,2.087979e+003,EIAEKMVEGR(5)-KSSAAR(1),Cross-Linked,DSBSO,2.087977e+003,null,1.000000e+000,3.034599e-001,0.001661,0.795507,sg|P0A6P1|EFTS_ECOLI (214)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,10.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="inlineStr">
+        <is>
+          <t>1045,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.8973.8973.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=8973""",3,1.886968e+003,TIKITQTR(3)-KSSAAR(1),Cross-Linked,DSBSO,1.886967e+003,null,1.000000e+000,3.039579e-001,0.000979,0.518822,sg|P0AG51|RL30_ECOLI (6)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,8.0,4.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="inlineStr">
+        <is>
+          <t>1046,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.20448.20448.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=20448""",3,2.040001e+003,VGFGYGKAR(7)-KAGFVTR(1),Cross-Linked,DSBSO,2.040004e+003,null,1.000000e+000,3.055824e-001,-0.002598,-1.273527,sg|P0A7W1|RS5_ECOLI (52)-sg|P0A7X3|RS9_ECOLI (100)/,Inter-Protein,1,1,11.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="inlineStr">
+        <is>
+          <t>1047,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24313.24313.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24313""",3,2.293079e+003,GLSAKSFDGR(5)-MAALMKQR(6),Cross-Linked,DSBSO,2.293081e+003,null,1.000000e+000,3.058293e-001,-0.001436,-0.626232,sg|P62399|RL5_ECOLI (120)-sg|P27302|TKT1_ECOLI (452)/,Inter-Protein,1,1,8.5,9.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="inlineStr">
+        <is>
+          <t>1048,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.26746.26746.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26746""",4,2.382106e+003,GLSAKSFDGR(5)-GLSAKSFDGR(5),Cross-Linked,DSBSO,2.382106e+003,null,1.000000e+000,3.058615e-001,0.000032,0.013433,sg|P62399|RL5_ECOLI (120)-sg|P62399|RL5_ECOLI (120)/,Inter-Protein,1,1,6.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="inlineStr">
+        <is>
+          <t>1049,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.32513.32513.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=32513""",4,2.255155e+003,MTDKLTSLR(4)-VKDLPGVR(2),Cross-Linked,DSBSO,2.255144e+003,null,1.000000e+000,3.062094e-001,0.011138,4.938930,sg|P0A870|TALB_ECOLI (4)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,5.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="inlineStr">
+        <is>
+          <t>1050,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.18685.18685.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=18685""",4,2.092983e+003,GLSAKSFDGR(5)-VSAKGMR(4),Cross-Linked,DSBSO,2.092982e+003,null,1.000000e+000,3.063046e-001,0.000460,0.219782,sg|P62399|RL5_ECOLI (120)-sg|P0A7M2|RL28_ECOLI (54)/,Inter-Protein,1,1,6.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="inlineStr">
+        <is>
+          <t>1051,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.16785.16785.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16785""",3,1.863944e+003,KAGFVTR(1)-KAGFVTR(1),Cross-Linked,DSBSO,1.863945e+003,null,1.000000e+000,3.070420e-001,-0.001609,-0.863223,sg|P0A7X3|RS9_ECOLI (100)-sg|P0A7X3|RS9_ECOLI (100)/,Inter-Protein,1,1,4.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="inlineStr">
+        <is>
+          <t>1052,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.12592.12592.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=12592""",3,1.880899e+003,VGFGYGKAR(7)-KSSAAR(1),Cross-Linked,DSBSO,1.880899e+003,null,1.000000e+000,3.076123e-001,-0.000161,-0.085597,sg|P0A7W1|RS5_ECOLI (52)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,10.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="inlineStr">
+        <is>
+          <t>1053,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.12307.12307.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=12307""",5,2.917391e+003,DMLKAGVHFGHQTR(4)-SHALNATKR(8),Cross-Linked,DSBSO,2.917386e+003,Oxidation[M](2),1.000000e+000,3.079804e-001,0.004742,1.625427,sg|P0A7V0|RS2_ECOLI (11)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,19.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="inlineStr">
+        <is>
+          <t>1054,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.12344.12344.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=12344""",3,1.880901e+003,VGFGYGKAR(7)-KSSAAR(1),Cross-Linked,DSBSO,1.880899e+003,null,1.000000e+000,3.081055e-001,0.001533,0.815036,sg|P0A7W1|RS5_ECOLI (52)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,11.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="inlineStr">
+        <is>
+          <t>1055,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.37723.37723.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=37723""",3,2.189103e+003,KLQLVGVGYR(1)-IKMEGR(2),Cross-Linked,DSBSO,2.189113e+003,Oxidation[M](16),1.000000e+000,3.103615e-001,-0.010015,-4.574913,sg|P0AG55|RL6_ECOLI (86)-sg|P0A8X0|YJGA_ECOLI (74)/,Inter-Protein,1,1,11.5,3.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="inlineStr">
+        <is>
+          <t>1056,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.19859.19859.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=19859""",4,2.181128e+003,IGSTIKTDR(6)-VKDLPGVR(2),Cross-Linked,DSBSO,2.181125e+003,null,1.000000e+000,3.104835e-001,0.003000,1.375437,sg|P0A7N1|RL31B_ECOLI (30)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,5.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="inlineStr">
+        <is>
+          <t>1057,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.16867.16867.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16867""",3,1.863944e+003,KAGFVTR(1)-KAGFVTR(1),Cross-Linked,DSBSO,1.863945e+003,null,1.000000e+000,3.127706e-001,-0.001399,-0.750558,sg|P0A7X3|RS9_ECOLI (100)-sg|P0A7X3|RS9_ECOLI (100)/,Inter-Protein,1,1,4.0,4.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="inlineStr">
+        <is>
+          <t>1058,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23577.23577.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23577""",5,2.994359e+003,EGGNEKVILCDR(6)-DIDGHDAASIKR(11),Cross-Linked,DSBSO,2.994360e+003,Carbamidomethyl[C](10),1.000000e+000,3.141658e-001,-0.001259,-0.420457,sg|P0A715|KDSA_ECOLI (162)-sg|P27302|TKT1_ECOLI (225)/,Inter-Protein,1,1,15.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="inlineStr">
+        <is>
+          <t>1059,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.28399.28399.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=28399""",4,2.606313e+003,KLQLVGVGYR(1)-MQKQAELYR(3),Cross-Linked,DSBSO,2.606314e+003,null,1.000000e+000,3.166247e-001,-0.000902,-0.346083,sg|P0AG55|RL6_ECOLI (86)-sg|P0A7D7|PUR7_ECOLI (3)/,Inter-Protein,1,1,14.5,10.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="inlineStr">
+        <is>
+          <t>1060,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.12237.12237.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=12237""",4,2.386250e+003,HIGGGHKQAYR(7)-VAVIKAVR(5),Cross-Linked,DSBSO,2.386248e+003,null,1.000000e+000,3.169476e-001,0.001553,0.650812,sg|P60422|RL2_ECOLI (59)-sg|P0A7K2|RL7_ECOLI (71)/,Inter-Protein,1,1,12.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="inlineStr">
+        <is>
+          <t>1061,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.10179.10179.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=10179""",3,2.061999e+003,IGSTIKTDR(6)-VSAKGMR(4),Cross-Linked,DSBSO,2.061998e+003,Oxidation[M](18),1.000000e+000,3.176800e-001,0.001556,0.754608,sg|P0A7N1|RL31B_ECOLI (30)-sg|P0A7M2|RL28_ECOLI (54)/,Inter-Protein,1,1,10.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="inlineStr">
+        <is>
+          <t>1062,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.10783.10783.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=10783""",4,2.109973e+003,ASFDKANR(5)-ELKPHDR(3),Cross-Linked,DSBSO,2.109969e+003,null,1.000000e+000,3.189596e-001,0.004200,1.990550,sg|P0A715|KDSA_ECOLI (60)-sg|P0A9Q1|ARCA_ECOLI (195)/,Inter-Protein,1,1,7.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="inlineStr">
+        <is>
+          <t>1063,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.22067.22067.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=22067""",3,2.245122e+003,VVNSKEDIR(5)-TDKFIVR(3),Cross-Linked,DSBSO,2.245120e+003,null,1.000000e+000,3.197730e-001,0.002235,0.995492,sg|P0A836|SUCC_ECOLI (66)-sg|P60422|RL2_ECOLI (265)/,Inter-Protein,1,1,8.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="inlineStr">
+        <is>
+          <t>1064,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24372.24372.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24372""",5,2.390201e+003,SHPFYTGKLR(8)-SVAGFKIR(6),Cross-Linked,DSBSO,2.390199e+003,null,1.000000e+000,3.211500e-001,0.001719,0.719187,sg|P0A7N1|RL31B_ECOLI (60)-sg|P62399|RL5_ECOLI (78)/,Inter-Protein,1,1,12.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="inlineStr">
+        <is>
+          <t>1065,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.11752.11752.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=11752""",3,2.132025e+003,SHPFYTGKLR(8)-KSSAAR(1),Cross-Linked,DSBSO,2.132026e+003,null,1.000000e+000,3.213879e-001,-0.000744,-0.348964,sg|P0A7N1|RL31B_ECOLI (60)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,8.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="inlineStr">
+        <is>
+          <t>1066,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.37052.37052.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=37052""",4,3.218515e+003,KLMTEFNYNSVMQVPR(1)-VGFGYGKAR(7),Cross-Linked,DSBSO,3.218514e+003,null,1.000000e+000,3.225016e-001,0.000730,0.226813,sg|P62399|RL5_ECOLI (15)-sg|P0A7W1|RS5_ECOLI (52)/,Inter-Protein,1,1,27.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="inlineStr">
+        <is>
+          <t>1067,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.21440.21440.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=21440""",4,2.245119e+003,VVNSKEDIR(5)-TDKFIVR(3),Cross-Linked,DSBSO,2.245120e+003,null,1.000000e+000,3.225479e-001,-0.001624,-0.723347,sg|P0A836|SUCC_ECOLI (66)-sg|P60422|RL2_ECOLI (265)/,Inter-Protein,1,1,9.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="inlineStr">
+        <is>
+          <t>1068,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.27297.27297.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=27297""",3,2.703332e+003,SNVPALEACPQKR(12)-AKLYYLR(2),Cross-Linked,DSBSO,2.703330e+003,Carbamidomethyl[C](9),1.000000e+000,3.229821e-001,0.001729,0.639582,sg|P0A7S3|RS12_ECOLI (30)-sg|P0A7K6|RL19_ECOLI (96)/,Inter-Protein,1,1,8.0,4.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="inlineStr">
+        <is>
+          <t>1069,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.26369.26369.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26369""",4,2.663358e+003,HKATLLGLGLR(2)-EIAEKMVEGR(5),Cross-Linked,DSBSO,2.663356e+003,Oxidation[M](20),1.000000e+000,3.239811e-001,0.001432,0.537667,sg|P0AG51|RL30_ECOLI (21)-sg|P0A6P1|EFTS_ECOLI (214)/,Inter-Protein,1,1,9.0,13.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="inlineStr">
+        <is>
+          <t>1070,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.28163.28163.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=28163""",3,2.391274e+003,DAAAAVGKAVAER(8)-VAVIKAVR(5),Cross-Linked,DSBSO,2.391273e+003,null,1.000000e+000,3.242897e-001,0.000222,0.092838,sg|P0C018|RL18_ECOLI (76)-sg|P0A7K2|RL7_ECOLI (71)/,Inter-Protein,1,1,18.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="inlineStr">
+        <is>
+          <t>1071,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.31930.31930.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=31930""",3,2.047986e+003,GLSAKSFDGR(5)-KGDAGKK(6),Cross-Linked,DSBSO,2.047979e+003,null,1.000000e+000,3.245242e-001,0.006963,3.399938,sg|P62399|RL5_ECOLI (120)-sg|P21499|RNR_ECOLI (749)/,Inter-Protein,1,1,10.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="inlineStr">
+        <is>
+          <t>1072,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.8753.8753.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=8753""",3,2.107028e+003,SHALNATKR(8)-EKLQER(2),Cross-Linked,DSBSO,2.107027e+003,null,1.000000e+000,3.266887e-001,0.000723,0.343138,sg|P0A7M2|RL28_ECOLI (26)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,9.5,3.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="inlineStr">
+        <is>
+          <t>1073,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.19172.19172.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=19172""",4,2.228198e+003,TIKITQTR(3)-TIKITQTR(3),Cross-Linked,DSBSO,2.228199e+003,null,1.000000e+000,3.289151e-001,-0.001103,-0.495019,sg|P0AG51|RL30_ECOLI (6)-sg|P0AG51|RL30_ECOLI (6)/,Inter-Protein,1,1,7.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="inlineStr">
+        <is>
+          <t>1074,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.18425.18425.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=18425""",4,1.906907e+003,TDKFIVR(3)-AMEKAR(4),Cross-Linked,DSBSO,1.906907e+003,Oxidation[M](12),1.000000e+000,3.306404e-001,-0.000394,-0.206617,sg|P60422|RL2_ECOLI (265)-sg|P0A7W1|RS5_ECOLI (66)/,Inter-Protein,1,1,12.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="inlineStr">
+        <is>
+          <t>1075,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.28856.28856.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=28856""",3,2.281089e+003,DYSKYLNIR(4)-EKLQER(2),Cross-Linked,DSBSO,2.281084e+003,null,1.000000e+000,3.309260e-001,0.004928,2.160377,sg|P25888|RHLE_ECOLI (100)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,8.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="inlineStr">
+        <is>
+          <t>1076,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.17169.17169.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=17169""",4,1.889929e+003,SVAGFKIR(6)-AMEKAR(4),Cross-Linked,DSBSO,1.889928e+003,null,1.000000e+000,3.320087e-001,0.001300,0.687857,sg|P62399|RL5_ECOLI (78)-sg|P0A7W1|RS5_ECOLI (66)/,Inter-Protein,1,1,5.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="inlineStr">
+        <is>
+          <t>1077,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.16298.16298.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16298""",4,2.258171e+003,IGSTIKTDR(6)-TIKITQTR(3),Cross-Linked,DSBSO,2.258173e+003,null,1.000000e+000,3.321824e-001,-0.001649,-0.730236,sg|P0A7N1|RL31B_ECOLI (30)-sg|P0AG51|RL30_ECOLI (6)/,Inter-Protein,1,1,10.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="inlineStr">
+        <is>
+          <t>1078,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.21142.21142.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=21142""",3,2.737373e+003,SNVPALEACPQKR(12)-TIKITQTR(3),Cross-Linked,DSBSO,2.737368e+003,Carbamidomethyl[C](9),1.000000e+000,3.334536e-001,0.004531,1.655240,sg|P0A7S3|RS12_ECOLI (30)-sg|P0AG51|RL30_ECOLI (6)/,Inter-Protein,1,1,14.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="inlineStr">
+        <is>
+          <t>1079,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.12394.12394.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=12394""",4,1.806853e+003,KAGFVTR(1)-AMEKAR(4),Cross-Linked,DSBSO,1.806855e+003,Oxidation[M](12),1.000000e+000,3.337884e-001,-0.001921,-1.063174,sg|P0A7X3|RS9_ECOLI (100)-sg|P0A7W1|RS5_ECOLI (66)/,Inter-Protein,1,1,13.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="inlineStr">
+        <is>
+          <t>1080,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.28018.28018.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=28018""",4,2.630218e+003,EIAEKMVEGR(5)-EIAEKMVEGR(5),Cross-Linked,DSBSO,2.630218e+003,null,1.000000e+000,3.345151e-001,-0.000226,-0.085924,sg|P0A6P1|EFTS_ECOLI (214)-sg|P0A6P1|EFTS_ECOLI (214)/,Inter-Protein,1,1,6.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="inlineStr">
+        <is>
+          <t>1081,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.48928.48928.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=48928""",4,2.084069e+003,VKDLPGVR(2)-ILKCGFR(3),Cross-Linked,DSBSO,2.084070e+003,Carbamidomethyl[C](15),1.000000e+000,3.365323e-001,-0.001254,-0.601707,sg|P0A7S3|RS12_ECOLI (88)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,6.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="inlineStr">
+        <is>
+          <t>1082,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.13332.13332.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13332""",3,2.403212e+003,LQANPAKIASR(7)-TSGEKHLR(5),Cross-Linked,DSBSO,2.403212e+003,null,1.000000e+000,3.367400e-001,-0.000215,-0.089464,sg|P27302|TKT1_ECOLI (354)-sg|P0A7N4|RL32_ECOLI (37)/,Inter-Protein,1,1,9.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="inlineStr">
+        <is>
+          <t>1083,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.36831.36831.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=36831""",4,2.657387e+003,HKATLLGLGLR(2)-DYSKYLNIR(4),Cross-Linked,DSBSO,2.657379e+003,null,1.000000e+000,3.369346e-001,0.008292,3.120368,sg|P0AG51|RL30_ECOLI (21)-sg|P25888|RHLE_ECOLI (100)/,Inter-Protein,1,1,9.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="inlineStr">
+        <is>
+          <t>1084,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.14317.14317.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14317""",4,2.552169e+003,SMKQAIYDPENR(3)-QPHAKGR(5),Cross-Linked,DSBSO,2.552169e+003,null,1.000000e+000,3.376324e-001,0.000180,0.070528,sg|P21499|RNR_ECOLI (544)-sg|P25888|RHLE_ECOLI (71)/,Inter-Protein,1,1,14.5,2.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="inlineStr">
+        <is>
+          <t>1085,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.22089.22089.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=22089""",5,3.324515e+003,MYAVFQSGGKQHR(10)-MYAVFQSGGKQHR(10),Cross-Linked,DSBSO,3.324517e+003,null,1.000000e+000,3.379368e-001,-0.001392,-0.418707,sg|P0AG48|RL21_ECOLI (10)-sg|P0AG48|RL21_ECOLI (10)/,Inter-Protein,1,1,6.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="inlineStr">
+        <is>
+          <t>1086,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.20841.20841.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=20841""",3,2.120024e+003,MTDKLTSLR(4)-VSAKGMR(4),Cross-Linked,DSBSO,2.120022e+003,null,1.000000e+000,3.386599e-001,0.002521,1.189139,sg|P0A870|TALB_ECOLI (4)-sg|P0A7M2|RL28_ECOLI (54)/,Inter-Protein,1,1,8.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="inlineStr">
+        <is>
+          <t>1087,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.13634.13634.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13634""",4,2.189042e+003,VGFGYGKAR(7)-TSGEKHLR(5),Cross-Linked,DSBSO,2.189048e+003,null,1.000000e+000,3.392328e-001,-0.005492,-2.508854,sg|P0A7W1|RS5_ECOLI (52)-sg|P0A7N4|RL32_ECOLI (37)/,Inter-Protein,1,1,9.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="inlineStr">
+        <is>
+          <t>1088,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23188.23188.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23188""",3,2.699309e+003,MYAVFQSGGKQHR(10)-VKDLPGVR(2),Cross-Linked,DSBSO,2.699310e+003,null,1.000000e+000,3.393888e-001,-0.000715,-0.264882,sg|P0AG48|RL21_ECOLI (10)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,13.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="inlineStr">
+        <is>
+          <t>1089,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.15970.15970.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=15970""",3,2.426190e+003,VVNSKEDIR(5)-VVNSKEDIR(5),Cross-Linked,DSBSO,2.426190e+003,null,1.000000e+000,3.397295e-001,0.000233,0.096035,sg|P0A836|SUCC_ECOLI (66)-sg|P0A836|SUCC_ECOLI (66)/,Inter-Protein,1,1,6.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="inlineStr">
+        <is>
+          <t>1090,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.16321.16321.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16321""",3,2.276074e+003,MQKQAELYR(3)-EKLQER(2),Cross-Linked,DSBSO,2.276072e+003,null,1.000000e+000,3.417498e-001,0.001697,0.745583,sg|P0A7D7|PUR7_ECOLI (3)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,8.5,3.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="inlineStr">
+        <is>
+          <t>1091,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.10225.10225.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=10225""",3,2.097983e+003,GLSAKSFDGR(5)-KQQGHR(1),Cross-Linked,DSBSO,2.097980e+003,null,1.000000e+000,3.426939e-001,0.002555,1.217838,sg|P62399|RL5_ECOLI (120)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,9.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="inlineStr">
+        <is>
+          <t>1092,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.9452.9452.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=9452""",3,2.590255e+003,HIGGGHKQAYR(7)-VVNSKEDIR(5),Cross-Linked,DSBSO,2.590250e+003,null,1.000000e+000,3.431293e-001,0.005379,2.076634,sg|P60422|RL2_ECOLI (59)-sg|P0A836|SUCC_ECOLI (66)/,Inter-Protein,1,1,13.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="inlineStr">
+        <is>
+          <t>1093,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.31112.31112.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=31112""",4,2.764362e+003,DAAAAVGKAVAER(8)-DAAAAVGKAVAER(8),Cross-Linked,DSBSO,2.764360e+003,null,1.000000e+000,3.432512e-001,0.001687,0.610268,sg|P0C018|RL18_ECOLI (76)-sg|P0C018|RL18_ECOLI (76)/,Inter-Protein,1,1,11.5,11.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="inlineStr">
+        <is>
+          <t>1094,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.34003.34003.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=34003""",4,3.221647e+003,IGVPFVDGGVIKAEVVAHGR(12)-ELKPHDR(3),Cross-Linked,DSBSO,3.221644e+003,null,1.000000e+000,3.438676e-001,0.002352,0.730062,sg|P0AG48|RL21_ECOLI (60)-sg|P0A9Q1|ARCA_ECOLI (195)/,Inter-Protein,1,1,20.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="inlineStr">
+        <is>
+          <t>1095,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.31070.31070.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=31070""",3,2.364278e+003,HKATLLGLGLR(2)-TDKFIVR(3),Cross-Linked,DSBSO,2.364278e+003,null,1.000000e+000,3.458510e-001,0.000532,0.225016,sg|P0AG51|RL30_ECOLI (21)-sg|P60422|RL2_ECOLI (265)/,Inter-Protein,1,1,6.5,3.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="inlineStr">
+        <is>
+          <t>1096,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.15979.15979.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=15979""",4,2.288147e+003,IGSTIKTDR(6)-IGSTIKTDR(6),Cross-Linked,DSBSO,2.288147e+003,null,1.000000e+000,3.466186e-001,-0.000029,-0.012674,sg|P0A7N1|RL31B_ECOLI (30)-sg|P0A7N1|RL31B_ECOLI (30)/,Inter-Protein,1,1,6.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="inlineStr">
+        <is>
+          <t>1097,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.27092.27092.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=27092""",3,2.362123e+003,EIAEKMVEGR(5)-ILKCGFR(3),Cross-Linked,DSBSO,2.362127e+003,Carbamidomethyl[C](17),1.000000e+000,3.504834e-001,-0.004653,-1.969835,sg|P0A6P1|EFTS_ECOLI (214)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,9.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="inlineStr">
+        <is>
+          <t>1098,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24072.24072.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24072""",3,2.084071e+003,VKDLPGVR(2)-ILKCGFR(3),Cross-Linked,DSBSO,2.084070e+003,Carbamidomethyl[C](15),1.000000e+000,3.507744e-001,0.000529,0.253830,sg|P0A7S3|RS12_ECOLI (88)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,7.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="inlineStr">
+        <is>
+          <t>1099,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.36932.36932.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=36932""",5,3.495849e+003,IGVPFVDGGVIKAEVVAHGR(12)-LQANPAKIASR(7),Cross-Linked,DSBSO,3.495845e+003,null,1.000000e+000,3.509136e-001,0.003936,1.125908,sg|P0AG48|RL21_ECOLI (60)-sg|P27302|TKT1_ECOLI (354)/,Inter-Protein,1,1,15.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="inlineStr">
+        <is>
+          <t>1100,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.3785.3785.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=3785""",3,1.647753e+003,AMEKAR(4)-KSSAAR(1),Cross-Linked,DSBSO,1.647750e+003,Oxidation[M](2),1.000000e+000,3.520827e-001,0.002727,1.654984,sg|P0A7W1|RS5_ECOLI (66)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,4.0,4.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="inlineStr">
+        <is>
+          <t>1101,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.25246.25246.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=25246""",3,2.074103e+003,VKDLPGVR(2)-VKDLPGVR(2),Cross-Linked,DSBSO,2.074103e+003,null,1.000000e+000,3.548749e-001,-0.000773,-0.372691,sg|P0A7S3|RS12_ECOLI (88)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,5.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="inlineStr">
+        <is>
+          <t>1102,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.20765.20765.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=20765""",5,2.810324e+003,DIDGHDAASIKR(11)-SHPFYTGKLR(8),Cross-Linked,DSBSO,2.810323e+003,null,1.000000e+000,3.563896e-001,0.000365,0.129878,sg|P27302|TKT1_ECOLI (225)-sg|P0A7N1|RL31B_ECOLI (60)/,Inter-Protein,1,1,7.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="inlineStr">
+        <is>
+          <t>1103,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.6026.6026.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=6026""",4,2.295082e+003,HIGGGHKQAYR(7)-VSAKGMR(4),Cross-Linked,DSBSO,2.295079e+003,Oxidation[M](20),1.000000e+000,3.566030e-001,0.003180,1.385573,sg|P60422|RL2_ECOLI (59)-sg|P0A7M2|RL28_ECOLI (54)/,Inter-Protein,1,1,13.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="inlineStr">
+        <is>
+          <t>1104,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.21094.21094.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=21094""",3,2.310078e+003,GLSAKSFDGR(5)-MNLSTKQK(6),Cross-Linked,DSBSO,2.310077e+003,Oxidation[M](14),1.000000e+000,3.578762e-001,0.000288,0.124671,sg|P62399|RL5_ECOLI (120)-sg|P0AGK4|YHBY_ECOLI (6)/,Inter-Protein,1,1,11.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="inlineStr">
+        <is>
+          <t>1105,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.35776.35776.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=35776""",3,2.930332e+003,SMKQAIYDPENR(3)-DYSKYLNIR(4),Cross-Linked,DSBSO,2.930337e+003,null,1.000000e+000,3.582601e-001,-0.004572,-1.560230,sg|P21499|RNR_ECOLI (544)-sg|P25888|RHLE_ECOLI (100)/,Inter-Protein,1,1,12.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="inlineStr">
+        <is>
+          <t>1106,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.12736.12736.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=12736""",5,2.475176e+003,EAEKYANPIPSR(4)-QPHAKGR(5),Cross-Linked,DSBSO,2.475175e+003,null,1.000000e+000,3.583907e-001,0.000313,0.126456,sg|P21499|RNR_ECOLI (13)-sg|P25888|RHLE_ECOLI (71)/,Inter-Protein,1,1,12.5,2.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="inlineStr">
+        <is>
+          <t>1107,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.14791.14791.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14791""",4,2.609240e+003,EAEKYANPIPSR(4)-TSGEKHLR(5),Cross-Linked,DSBSO,2.609233e+003,null,1.000000e+000,3.598134e-001,0.006962,2.668217,sg|P21499|RNR_ECOLI (13)-sg|P0A7N4|RL32_ECOLI (37)/,Inter-Protein,1,1,18.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="inlineStr">
+        <is>
+          <t>1108,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.22858.22858.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=22858""",3,2.646213e+003,EIAEKMVEGR(5)-EIAEKMVEGR(5),Cross-Linked,DSBSO,2.646213e+003,Oxidation[M](6),1.000000e+000,3.602090e-001,-0.000071,-0.026831,sg|P0A6P1|EFTS_ECOLI (214)-sg|P0A6P1|EFTS_ECOLI (214)/,Inter-Protein,1,1,9.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="inlineStr">
+        <is>
+          <t>1109,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23513.23513.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23513""",4,2.593244e+003,SHPFYTGKLR(8)-MTDKLTSLR(4),Cross-Linked,DSBSO,2.593246e+003,Oxidation[M](14),1.000000e+000,3.603796e-001,-0.002192,-0.845273,sg|P0A7N1|RL31B_ECOLI (60)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,7.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="inlineStr">
+        <is>
+          <t>1110,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.9086.9086.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=9086""",4,2.107026e+003,SHALNATKR(8)-EKLQER(2),Cross-Linked,DSBSO,2.107027e+003,null,1.000000e+000,3.607600e-001,-0.000927,-0.439956,sg|P0A7M2|RL28_ECOLI (26)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,7.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="inlineStr">
+        <is>
+          <t>1111,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.28552.28552.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=28552""",4,2.064047e+003,TDKFIVR(3)-TDKFIVR(3),Cross-Linked,DSBSO,2.064050e+003,null,1.000000e+000,3.618070e-001,-0.003572,-1.730578,sg|P60422|RL2_ECOLI (265)-sg|P60422|RL2_ECOLI (265)/,Inter-Protein,1,1,5.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="inlineStr">
+        <is>
+          <t>1112,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.21769.21769.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=21769""",3,2.984458e+003,MYAVFQSGGKQHR(10)-LQANPAKIASR(7),Cross-Linked,DSBSO,2.984454e+003,null,1.000000e+000,3.619908e-001,0.004546,1.523227,sg|P0AG48|RL21_ECOLI (10)-sg|P27302|TKT1_ECOLI (354)/,Inter-Protein,1,1,8.0,4.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="inlineStr">
+        <is>
+          <t>1113,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.37819.37819.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=37819""",4,3.061475e+003,ITDVEVLKAQFEEER(8)-MAALMKQR(6),Cross-Linked,DSBSO,3.061471e+003,null,1.000000e+000,3.634922e-001,0.004093,1.336939,sg|P0A6P1|EFTS_ECOLI (112)-sg|P27302|TKT1_ECOLI (452)/,Inter-Protein,1,1,24.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="inlineStr">
+        <is>
+          <t>1114,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.12829.12829.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=12829""",4,2.532176e+003,DIDGHDAASIKR(11)-TSGEKHLR(5),Cross-Linked,DSBSO,2.532182e+003,null,1.000000e+000,3.641930e-001,-0.005568,-2.198894,sg|P27302|TKT1_ECOLI (225)-sg|P0A7N4|RL32_ECOLI (37)/,Inter-Protein,1,1,7.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="inlineStr">
+        <is>
+          <t>1115,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.35468.35468.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=35468""",4,3.418607e+003,ATIDGLENMNSPEMVAAKR(18)-MTDKLTSLR(4),Cross-Linked,DSBSO,3.418603e+003,null,1.000000e+000,3.655898e-001,0.004210,1.231497,sg|P0A7W1|RS5_ECOLI (156)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,28.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="inlineStr">
+        <is>
+          <t>1116,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.22806.22806.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=22806""",4,2.018186e+003,VAVIKAVR(5)-VAVIKAVR(5),Cross-Linked,DSBSO,2.018186e+003,null,1.000000e+000,3.669151e-001,0.000135,0.066892,sg|P0A7K2|RL7_ECOLI (71)-sg|P0A7K2|RL7_ECOLI (71)/,Inter-Protein,1,1,5.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="inlineStr">
+        <is>
+          <t>1117,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24574.24574.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24574""",3,2.314152e+003,DAAAAVGKAVAER(8)-KAGFVTR(1),Cross-Linked,DSBSO,2.314153e+003,null,1.000000e+000,3.676218e-001,-0.000613,-0.264892,sg|P0C018|RL18_ECOLI (76)-sg|P0A7X3|RS9_ECOLI (100)/,Inter-Protein,1,1,21.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="inlineStr">
+        <is>
+          <t>1118,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.27561.27561.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=27561""",3,2.703331e+003,SNVPALEACPQKR(12)-AKLYYLR(2),Cross-Linked,DSBSO,2.703330e+003,Carbamidomethyl[C](9),1.000000e+000,3.678320e-001,0.001055,0.390259,sg|P0A7S3|RS12_ECOLI (30)-sg|P0A7K6|RL19_ECOLI (96)/,Inter-Protein,1,1,16.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="inlineStr">
+        <is>
+          <t>1119,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29950.29950.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29950""",3,2.332198e+003,MTDKLTSLR(4)-TIKITQTR(3),Cross-Linked,DSBSO,2.332192e+003,null,1.000000e+000,3.679694e-001,0.005897,2.528523,sg|P0A870|TALB_ECOLI (4)-sg|P0AG51|RL30_ECOLI (6)/,Inter-Protein,1,1,5.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="inlineStr">
+        <is>
+          <t>1120,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29718.29718.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29718""",3,2.323253e+003,KLQLVGVGYR(1)-VKDLPGVR(2),Cross-Linked,DSBSO,2.323251e+003,null,1.000000e+000,3.691526e-001,0.002023,0.870763,sg|P0AG55|RL6_ECOLI (86)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,10.5,3.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="inlineStr">
+        <is>
+          <t>1121,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.36555.36555.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=36555""",3,2.668368e+003,DAAAAVGKAVAER(8)-KLQLVGVGYR(1),Cross-Linked,DSBSO,2.668380e+003,null,1.000000e+000,3.730321e-001,-0.011968,-4.485119,sg|P0C018|RL18_ECOLI (76)-sg|P0AG55|RL6_ECOLI (86)/,Inter-Protein,1,1,11.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="inlineStr">
+        <is>
+          <t>1122,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.11085.11085.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=11085""",3,2.109972e+003,ASFDKANR(5)-ELKPHDR(3),Cross-Linked,DSBSO,2.109969e+003,null,1.000000e+000,3.764035e-001,0.002610,1.236985,sg|P0A715|KDSA_ECOLI (60)-sg|P0A9Q1|ARCA_ECOLI (195)/,Inter-Protein,1,1,5.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="inlineStr">
+        <is>
+          <t>1123,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.3404.3404.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=3404""",3,1.647752e+003,AMEKAR(4)-KSSAAR(1),Cross-Linked,DSBSO,1.647750e+003,Oxidation[M](2),1.000000e+000,3.783442e-001,0.002572,1.560917,sg|P0A7W1|RS5_ECOLI (66)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,5.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="inlineStr">
+        <is>
+          <t>1124,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24819.24819.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24819""",4,2.731294e+003,SNVPALEACPQKR(12)-VGFGYGKAR(7),Cross-Linked,DSBSO,2.731300e+003,Carbamidomethyl[C](9),1.000000e+000,3.783798e-001,-0.005620,-2.057628,sg|P0A7S3|RS12_ECOLI (30)-sg|P0A7W1|RS5_ECOLI (52)/,Inter-Protein,1,1,13.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="inlineStr">
+        <is>
+          <t>1125,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.1597.1597.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=1597""",4,1.813855e+003,KQQGHR(1)-KQQGHR(1),Cross-Linked,DSBSO,1.813854e+003,null,1.000000e+000,3.791334e-001,0.000521,0.287234,sg|P0AG48|RL21_ECOLI (85)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,4.0,4.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="inlineStr">
+        <is>
+          <t>1126,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.13680.13680.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13680""",3,2.277084e+003,SHPFYTGKLR(8)-VSAKGMR(4),Cross-Linked,DSBSO,2.277082e+003,Oxidation[M](19),1.000000e+000,3.795469e-001,0.002034,0.893248,sg|P0A7N1|RL31B_ECOLI (60)-sg|P0A7M2|RL28_ECOLI (54)/,Inter-Protein,1,1,10.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="inlineStr">
+        <is>
+          <t>1127,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.50138.50138.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=50138""",4,2.436185e+003,MTDKLTSLR(4)-MTDKLTSLR(4),Cross-Linked,DSBSO,2.436185e+003,null,1.000000e+000,3.796955e-001,-0.000191,-0.078401,sg|P0A870|TALB_ECOLI (4)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,4.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="inlineStr">
+        <is>
+          <t>1128,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23531.23531.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23531""",3,2.149046e+003,MAALMKQR(6)-ILKCGFR(3),Cross-Linked,DSBSO,2.149046e+003,Carbamidomethyl[C](15),1.000000e+000,3.800922e-001,0.000329,0.153091,sg|P27302|TKT1_ECOLI (452)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,10.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="inlineStr">
+        <is>
+          <t>1129,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.44397.44397.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=44397""",4,2.139083e+003,MAALMKQR(6)-VKDLPGVR(2),Cross-Linked,DSBSO,2.139079e+003,null,1.000000e+000,3.802689e-001,0.003477,1.625466,sg|P27302|TKT1_ECOLI (452)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,7.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="inlineStr">
+        <is>
+          <t>1130,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.5545.5545.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=5545""",4,1.733769e+003,AMEKAR(4)-AMEKAR(4),Cross-Linked,DSBSO,1.733769e+003,Oxidation[M](2),1.000000e+000,3.823546e-001,0.000358,0.206487,sg|P0A7W1|RS5_ECOLI (66)-sg|P0A7W1|RS5_ECOLI (66)/,Inter-Protein,1,1,8.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="inlineStr">
+        <is>
+          <t>1131,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.12591.12591.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=12591""",3,2.019947e+003,MAALMKQR(6)-VSAKGMR(4),Cross-Linked,DSBSO,2.019952e+003,Oxidation[M](17),1.000000e+000,3.827245e-001,-0.004915,-2.433227,sg|P27302|TKT1_ECOLI (452)-sg|P0A7M2|RL28_ECOLI (54)/,Inter-Protein,1,1,12.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="inlineStr">
+        <is>
+          <t>1132,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.28502.28502.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=28502""",4,2.574237e+003,EGGNEKVILCDR(6)-SVAGFKIR(6),Cross-Linked,DSBSO,2.574236e+003,Carbamidomethyl[C](10),1.000000e+000,3.828821e-001,0.000781,0.303391,sg|P0A715|KDSA_ECOLI (162)-sg|P62399|RL5_ECOLI (78)/,Inter-Protein,1,1,11.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="inlineStr">
+        <is>
+          <t>1133,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.2303.2303.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=2303""",3,1.813857e+003,KQQGHR(1)-KQQGHR(1),Cross-Linked,DSBSO,1.813854e+003,null,1.000000e+000,3.834318e-001,0.002487,1.371113,sg|P0AG48|RL21_ECOLI (85)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,2.0,2.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="inlineStr">
+        <is>
+          <t>1134,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23366.23366.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23366""",3,2.288211e+003,HKATLLGLGLR(2)-EKLQER(2),Cross-Linked,DSBSO,2.288210e+003,null,1.000000e+000,3.834938e-001,0.001399,0.611395,sg|P0AG51|RL30_ECOLI (21)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,10.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="inlineStr">
+        <is>
+          <t>1135,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.11434.11434.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=11434""",5,2.417134e+003,MQKQAELYR(3)-TSGEKHLR(5),Cross-Linked,DSBSO,2.417126e+003,Oxidation[M](1),1.000000e+000,3.835732e-001,0.007949,3.288617,sg|P0A7D7|PUR7_ECOLI (3)-sg|P0A7N4|RL32_ECOLI (37)/,Inter-Protein,1,1,8.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="inlineStr">
+        <is>
+          <t>1136,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.10622.10622.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=10622""",3,2.295142e+003,SHALNATKR(8)-IGSTIKTDR(6),Cross-Linked,DSBSO,2.295143e+003,null,1.000000e+000,3.836841e-001,-0.001037,-0.451824,sg|P0A7M2|RL28_ECOLI (26)-sg|P0A7N1|RL31B_ECOLI (30)/,Inter-Protein,1,1,9.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="inlineStr">
+        <is>
+          <t>1137,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.25900.25900.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=25900""",3,2.655298e+003,SNVPALEACPQKR(12)-TDKFIVR(3),Cross-Linked,DSBSO,2.655294e+003,Carbamidomethyl[C](9),1.000000e+000,3.847523e-001,0.003923,1.477426,sg|P0A7S3|RS12_ECOLI (30)-sg|P60422|RL2_ECOLI (265)/,Inter-Protein,1,1,17.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="inlineStr">
+        <is>
+          <t>1138,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.40711.40711.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=40711""",4,3.177533e+003,ITDVEVLKAQFEEER(8)-MTDKLTSLR(4),Cross-Linked,DSBSO,3.177536e+003,null,1.000000e+000,3.853884e-001,-0.003373,-1.061514,sg|P0A6P1|EFTS_ECOLI (112)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,19.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="inlineStr">
+        <is>
+          <t>1139,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.8096.8096.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=8096""",4,2.302143e+003,SHALNATKR(8)-SHALNATKR(8),Cross-Linked,DSBSO,2.302139e+003,null,1.000000e+000,3.871818e-001,0.004505,1.956876,sg|P0A7M2|RL28_ECOLI (26)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,5.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="inlineStr">
+        <is>
+          <t>1140,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.14887.14887.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14887""",4,2.218047e+003,SHPFYTGKLR(8)-AMEKAR(4),Cross-Linked,DSBSO,2.218045e+003,null,1.000000e+000,3.874521e-001,0.002132,0.961207,sg|P0A7N1|RL31B_ECOLI (60)-sg|P0A7W1|RS5_ECOLI (66)/,Inter-Protein,1,1,9.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="inlineStr">
+        <is>
+          <t>1141,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.33198.33198.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=33198""",4,2.200132e+003,GGRVKDLPGVR(5)-KHVAER(1),Cross-Linked,DSBSO,2.200132e+003,null,1.000000e+000,3.876403e-001,0.000056,0.025453,sg|P0A7S3|RS12_ECOLI (88)-sg|P36683|ACON2_ECOLI (7)/,Inter-Protein,1,1,7.5,3.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="inlineStr">
+        <is>
+          <t>1142,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.27727.27727.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=27727""",4,3.086397e+003,EGGNEKVILCDR(6)-EGGNEKVILCDR(6),Cross-Linked,DSBSO,3.086390e+003,Carbamidomethyl[C](10);Carbamidomethyl[C](25),1.000000e+000,3.879430e-001,0.007014,2.272558,sg|P0A715|KDSA_ECOLI (162)-sg|P0A715|KDSA_ECOLI (162)/,Inter-Protein,1,1,8.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="inlineStr">
+        <is>
+          <t>1143,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.28497.28497.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=28497""",4,2.188094e+003,VGFGYGKAR(7)-AKLYYLR(2),Cross-Linked,DSBSO,2.188093e+003,null,1.000000e+000,3.899480e-001,0.000804,0.367443,sg|P0A7W1|RS5_ECOLI (52)-sg|P0A7K6|RL19_ECOLI (96)/,Inter-Protein,1,1,13.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="inlineStr">
+        <is>
+          <t>1144,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.19848.19848.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=19848""",5,2.902334e+003,DIDGHDAASIKR(11)-DIDGHDAASIKR(11),Cross-Linked,DSBSO,2.902330e+003,null,1.000000e+000,3.904019e-001,0.003383,1.165615,sg|P27302|TKT1_ECOLI (225)-sg|P27302|TKT1_ECOLI (225)/,Inter-Protein,1,1,7.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="inlineStr">
+        <is>
+          <t>1145,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.16178.16178.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16178""",4,2.482174e+003,EIAEKMVEGR(5)-SHALNATKR(8),Cross-Linked,DSBSO,2.482173e+003,Oxidation[M](6),1.000000e+000,3.904917e-001,0.000277,0.111596,sg|P0A6P1|EFTS_ECOLI (214)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,7.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="inlineStr">
+        <is>
+          <t>1146,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.26601.26601.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26601""",3,2.741337e+003,DAAAAVGKAVAER(8)-SHPFYTGKLR(8),Cross-Linked,DSBSO,2.741338e+003,null,1.000000e+000,3.912147e-001,-0.001655,-0.603720,sg|P0C018|RL18_ECOLI (76)-sg|P0A7N1|RL31B_ECOLI (60)/,Inter-Protein,1,1,6.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="inlineStr">
+        <is>
+          <t>1147,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.6556.6556.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=6556""",3,2.120020e+003,VVNSKEDIR(5)-KQQGHR(1),Cross-Linked,DSBSO,2.120022e+003,null,1.000000e+000,3.924873e-001,-0.001832,-0.864142,sg|P0A836|SUCC_ECOLI (66)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,8.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="inlineStr">
+        <is>
+          <t>1148,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.38341.38341.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=38341""",4,3.210710e+003,IGVPFVDGGVIKAEVVAHGR(12)-VKDLPGVR(2),Cross-Linked,DSBSO,3.210701e+003,null,1.000000e+000,3.932436e-001,0.008737,2.721212,sg|P0AG48|RL21_ECOLI (60)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,20.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="inlineStr">
+        <is>
+          <t>1149,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.4873.4873.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=4873""",4,1.631755e+003,AMEKAR(4)-KSSAAR(1),Cross-Linked,DSBSO,1.631755e+003,null,1.000000e+000,3.956999e-001,0.000418,0.256166,sg|P0A7W1|RS5_ECOLI (66)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,4.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="inlineStr">
+        <is>
+          <t>1150,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.21937.21937.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=21937""",4,2.737361e+003,SNVPALEACPQKR(12)-TIKITQTR(3),Cross-Linked,DSBSO,2.737368e+003,Carbamidomethyl[C](9),1.000000e+000,3.979781e-001,-0.006530,-2.385503,sg|P0A7S3|RS12_ECOLI (30)-sg|P0AG51|RL30_ECOLI (6)/,Inter-Protein,1,1,12.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="inlineStr">
+        <is>
+          <t>1151,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.10254.10254.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=10254""",3,1.911918e+003,EKLQER(2)-EKLQER(2),Cross-Linked,DSBSO,1.911915e+003,null,1.000000e+000,3.997704e-001,0.002927,1.530926,sg|P0A6F5|CH60_ECOLI (364)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,3.0,3.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="inlineStr">
+        <is>
+          <t>1152,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.39020.39020.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=39020""",3,1.949971e+003,ITDKQER(4)-LVEHKK(5),Cross-Linked,DSBSO,1.949967e+003,null,1.000000e+000,4.010096e-001,0.003696,1.895417,sg|P05055|PNP_ECOLI (263)-sg|P0AG30|RHO_ECOLI (257)/,Inter-Protein,1,1,8.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="inlineStr">
+        <is>
+          <t>1153,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.14511.14511.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14511""",3,2.595248e+003,HIGGGHKQAYR(7)-MTDKLTSLR(4),Cross-Linked,DSBSO,2.595248e+003,null,1.000000e+000,4.050659e-001,0.000819,0.315577,sg|P60422|RL2_ECOLI (59)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,7.0,3.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="inlineStr">
+        <is>
+          <t>1154,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.35789.35789.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=35789""",4,2.988648e+003,VVEPLITLAKTDSVANR(10)-VAVIKAVR(5),Cross-Linked,DSBSO,2.988647e+003,null,1.000000e+000,4.068982e-001,0.001293,0.432637,sg|P0AG44|RL17_ECOLI (56)-sg|P0A7K2|RL7_ECOLI (71)/,Inter-Protein,1,1,19.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="inlineStr">
+        <is>
+          <t>1155,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.18562.18562.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=18562""",3,2.228198e+003,TIKITQTR(3)-TIKITQTR(3),Cross-Linked,DSBSO,2.228199e+003,null,1.000000e+000,4.070102e-001,-0.001057,-0.474374,sg|P0AG51|RL30_ECOLI (6)-sg|P0AG51|RL30_ECOLI (6)/,Inter-Protein,1,1,4.0,4.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="inlineStr">
+        <is>
+          <t>1156,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.11394.11394.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=11394""",4,2.417127e+003,MQKQAELYR(3)-TSGEKHLR(5),Cross-Linked,DSBSO,2.417126e+003,Oxidation[M](1),1.000000e+000,4.093326e-001,0.000943,0.390133,sg|P0A7D7|PUR7_ECOLI (3)-sg|P0A7N4|RL32_ECOLI (37)/,Inter-Protein,1,1,8.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="inlineStr">
+        <is>
+          <t>1157,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.13127.13127.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13127""",3,2.019952e+003,MAALMKQR(6)-VSAKGMR(4),Cross-Linked,DSBSO,2.019952e+003,Oxidation[M](1),1.000000e+000,4.093631e-001,0.000212,0.104953,sg|P27302|TKT1_ECOLI (452)-sg|P0A7M2|RL28_ECOLI (54)/,Inter-Protein,1,1,17.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="inlineStr">
+        <is>
+          <t>1158,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.32883.32883.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=32883""",4,2.554203e+003,MQKQAELYR(3)-MTDKLTSLR(4),Cross-Linked,DSBSO,2.554202e+003,Oxidation[M](13),1.000000e+000,4.094238e-001,0.000921,0.360582,sg|P0A7D7|PUR7_ECOLI (3)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,9.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="inlineStr">
+        <is>
+          <t>1159,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.14871.14871.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14871""",4,2.668247e+003,DMLKAGVHFGHQTR(4)-VSAKGMR(4),Cross-Linked,DSBSO,2.668246e+003,Oxidation[M](2),1.000000e+000,4.109630e-001,0.001126,0.422000,sg|P0A7V0|RS2_ECOLI (11)-sg|P0A7M2|RL28_ECOLI (54)/,Inter-Protein,1,1,21.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="inlineStr">
+        <is>
+          <t>1160,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.7899.7899.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=7899""",5,2.279085e+003,HIGGGHKQAYR(7)-VSAKGMR(4),Cross-Linked,DSBSO,2.279084e+003,null,1.000000e+000,4.118318e-001,0.000523,0.229478,sg|P60422|RL2_ECOLI (59)-sg|P0A7M2|RL28_ECOLI (54)/,Inter-Protein,1,1,10.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="inlineStr">
+        <is>
+          <t>1161,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.28650.28650.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=28650""",3,2.062082e+003,SVAGFKIR(6)-SVAGFKIR(6),Cross-Linked,DSBSO,2.062082e+003,null,1.000000e+000,4.147078e-001,-0.000085,-0.041220,sg|P62399|RL5_ECOLI (78)-sg|P62399|RL5_ECOLI (78)/,Inter-Protein,1,1,6.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="inlineStr">
+        <is>
+          <t>1162,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.39818.39818.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=39818""",3,2.996500e+003,ITDVEVLKAQFEEER(8)-VKDLPGVR(2),Cross-Linked,DSBSO,2.996495e+003,null,1.000000e+000,4.153616e-001,0.004551,1.518774,sg|P0A6P1|EFTS_ECOLI (112)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,12.0,3.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="inlineStr">
+        <is>
+          <t>1163,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.38906.38906.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=38906""",3,2.127032e+003,MTDKLTSLR(4)-KHVAER(1),Cross-Linked,DSBSO,2.127024e+003,Oxidation[M](1),1.000000e+000,4.153917e-001,0.007846,3.688722,sg|P0A870|TALB_ECOLI (4)-sg|P36683|ACON2_ECOLI (7)/,Inter-Protein,1,1,6.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="inlineStr">
+        <is>
+          <t>1164,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.26558.26558.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26558""",4,2.182092e+003,MAALMKQR(6)-AKLYYLR(2),Cross-Linked,DSBSO,2.182089e+003,null,1.000000e+000,4.154493e-001,0.002677,1.226806,sg|P27302|TKT1_ECOLI (452)-sg|P0A7K6|RL19_ECOLI (96)/,Inter-Protein,1,1,11.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="inlineStr">
+        <is>
+          <t>1165,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.39362.39362.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=39362""",3,2.136090e+003,GGRVKDLPGVR(5)-VTKDGR(3),Cross-Linked,DSBSO,2.136090e+003,null,1.000000e+000,4.162900e-001,0.000181,0.084734,sg|P0A7S3|RS12_ECOLI (88)-sg|P00490|PHSM_ECOLI (188)/,Inter-Protein,1,1,6.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="inlineStr">
+        <is>
+          <t>1166,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.16464.16464.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16464""",5,2.261088e+003,SHPFYTGKLR(8)-VSAKGMR(4),Cross-Linked,DSBSO,2.261087e+003,null,1.000000e+000,4.165464e-001,0.000106,0.046880,sg|P0A7N1|RL31B_ECOLI (60)-sg|P0A7M2|RL28_ECOLI (54)/,Inter-Protein,1,1,8.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="inlineStr">
+        <is>
+          <t>1167,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.10384.10384.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=10384""",3,1.938954e+003,TDKFIVR(3)-KQQGHR(1),Cross-Linked,DSBSO,1.938952e+003,null,1.000000e+000,4.180791e-001,0.001461,0.753500,sg|P60422|RL2_ECOLI (265)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,6.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="inlineStr">
+        <is>
+          <t>1168,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.12617.12617.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=12617""",3,1.963903e+003,ASFDKANR(5)-VSAKGMR(4),Cross-Linked,DSBSO,1.963903e+003,null,1.000000e+000,4.204718e-001,-0.000715,-0.364071,sg|P0A715|KDSA_ECOLI (60)-sg|P0A7M2|RL28_ECOLI (54)/,Inter-Protein,1,1,6.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="inlineStr">
+        <is>
+          <t>1169,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.11254.11254.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=11254""",4,2.295145e+003,SHALNATKR(8)-IGSTIKTDR(6),Cross-Linked,DSBSO,2.295143e+003,null,1.000000e+000,4.214029e-001,0.002132,0.928918,sg|P0A7M2|RL28_ECOLI (26)-sg|P0A7N1|RL31B_ECOLI (30)/,Inter-Protein,1,1,5.5,12.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="inlineStr">
+        <is>
+          <t>1170,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.9629.9629.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=9629""",3,1.937971e+003,SVAGFKIR(6)-KQQGHR(1),Cross-Linked,DSBSO,1.937968e+003,null,1.000000e+000,4.254802e-001,0.002232,1.151722,sg|P62399|RL5_ECOLI (78)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,6.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="inlineStr">
+        <is>
+          <t>1171,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.16508.16508.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=16508""",4,2.076952e+003,DVKFGNDAR(3)-VSAKGMR(4),Cross-Linked,DSBSO,2.076951e+003,null,1.000000e+000,4.257516e-001,0.000792,0.381328,sg|P0A6F5|CH60_ECOLI (7)-sg|P0A7M2|RL28_ECOLI (54)/,Inter-Protein,1,1,13.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="inlineStr">
+        <is>
+          <t>1172,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.26533.26533.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26533""",4,2.362122e+003,EIAEKMVEGR(5)-ILKCGFR(3),Cross-Linked,DSBSO,2.362127e+003,Carbamidomethyl[C](17),1.000000e+000,4.267832e-001,-0.005521,-2.337300,sg|P0A6P1|EFTS_ECOLI (214)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,7.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="inlineStr">
+        <is>
+          <t>1173,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.18092.18092.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=18092""",3,2.629315e+003,QAGELQEKLIAVNR(8)-KQQGHR(1),Cross-Linked,DSBSO,2.629318e+003,null,1.000000e+000,4.281069e-001,-0.003825,-1.454750,sg|P0A7W1|RS5_ECOLI (14)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,12.0,4.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="inlineStr">
+        <is>
+          <t>1174,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.31731.31731.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=31731""",5,4.104812e+003,ANPWQQFAETHNKGDR(13)-ANPWQQFAETHNKGDR(13),Cross-Linked,DSBSO,4.104810e+003,null,1.000000e+000,4.290532e-001,0.002467,0.601002,sg|P0AG67|RS1_ECOLI (363)-sg|P0AG67|RS1_ECOLI (363)/,Inter-Protein,1,1,3.5,3.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="inlineStr">
+        <is>
+          <t>1175,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.42170.42170.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=42170""",4,3.272649e+003,QLGEDPWVAIAKR(12)-QLGEDPWVAIAKR(12),Cross-Linked,DSBSO,3.272644e+003,null,1.000000e+000,4.296219e-001,0.004815,1.471287,sg|P0AG67|RS1_ECOLI (272)-sg|P0AG67|RS1_ECOLI (272)/,Inter-Protein,1,1,6.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="inlineStr">
+        <is>
+          <t>1176,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.52084.52084.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=52084""",4,2.084072e+003,VKDLPGVR(2)-ILKCGFR(3),Cross-Linked,DSBSO,2.084070e+003,Carbamidomethyl[C](15),1.000000e+000,4.324218e-001,0.001920,0.921274,sg|P0A7S3|RS12_ECOLI (88)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,6.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="inlineStr">
+        <is>
+          <t>1177,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.27201.27201.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=27201""",4,2.278109e+003,GLSAKSFDGR(5)-TDKLTSLR(3),Cross-Linked,DSBSO,2.278105e+003,null,1.000000e+000,4.328160e-001,0.003481,1.528024,sg|P62399|RL5_ECOLI (120)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,6.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="inlineStr">
+        <is>
+          <t>1178,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.12981.12981.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=12981""",4,3.000424e+003,SNVPALEACPQKR(12)-HIGGGHKQAYR(7),Cross-Linked,DSBSO,3.000424e+003,Carbamidomethyl[C](9),1.000000e+000,4.335440e-001,0.000910,0.303291,sg|P0A7S3|RS12_ECOLI (30)-sg|P60422|RL2_ECOLI (59)/,Inter-Protein,1,1,13.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="inlineStr">
+        <is>
+          <t>1179,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.2449.2449.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=2449""",3,1.813855e+003,KQQGHR(1)-KQQGHR(1),Cross-Linked,DSBSO,1.813854e+003,null,1.000000e+000,4.337847e-001,0.000839,0.462551,sg|P0AG48|RL21_ECOLI (85)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,1.5,1.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="inlineStr">
+        <is>
+          <t>1180,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24020.24020.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24020""",3,2.731299e+003,SNVPALEACPQKR(12)-VGFGYGKAR(7),Cross-Linked,DSBSO,2.731300e+003,Carbamidomethyl[C](9),1.000000e+000,4.354743e-001,-0.001003,-0.367224,sg|P0A7S3|RS12_ECOLI (30)-sg|P0A7W1|RS5_ECOLI (52)/,Inter-Protein,1,1,15.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="inlineStr">
+        <is>
+          <t>1181,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.30712.30712.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=30712""",3,2.436187e+003,MTDKLTSLR(4)-MTDKLTSLR(4),Cross-Linked,DSBSO,2.436185e+003,null,1.000000e+000,4.355033e-001,0.002198,0.902230,sg|P0A870|TALB_ECOLI (4)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,5.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="inlineStr">
+        <is>
+          <t>1182,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.6508.6508.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=6508""",5,2.162035e+003,TSGEKHLR(5)-TSGEKHLR(5),Cross-Linked,DSBSO,2.162033e+003,null,1.000000e+000,4.398046e-001,0.001971,0.911642,sg|P0A7N4|RL32_ECOLI (37)-sg|P0A7N4|RL32_ECOLI (37)/,Inter-Protein,1,1,5.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="inlineStr">
+        <is>
+          <t>1183,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.18834.18834.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=18834""",3,2.236995e+003,DVKFGNDAR(3)-ASFDKANR(5),Cross-Linked,DSBSO,2.236996e+003,null,1.000000e+000,4.405094e-001,-0.001290,-0.576666,sg|P0A6F5|CH60_ECOLI (7)-sg|P0A715|KDSA_ECOLI (60)/,Inter-Protein,1,1,8.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="inlineStr">
+        <is>
+          <t>1184,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.13010.13010.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13010""",3,2.189048e+003,VGFGYGKAR(7)-TSGEKHLR(5),Cross-Linked,DSBSO,2.189048e+003,null,1.000000e+000,4.431198e-001,0.000332,0.151664,sg|P0A7W1|RS5_ECOLI (52)-sg|P0A7N4|RL32_ECOLI (37)/,Inter-Protein,1,1,6.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="inlineStr">
+        <is>
+          <t>1185,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.27194.27194.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=27194""",3,2.368161e+003,EIAEKMVEGR(5)-VKDLPGVR(2),Cross-Linked,DSBSO,2.368156e+003,Oxidation[M](6),1.000000e+000,4.434840e-001,0.005843,2.467321,sg|P0A6P1|EFTS_ECOLI (214)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,8.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="inlineStr">
+        <is>
+          <t>1186,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.26140.26140.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26140""",4,2.382109e+003,GLSAKSFDGR(5)-GLSAKSFDGR(5),Cross-Linked,DSBSO,2.382106e+003,null,1.000000e+000,4.444026e-001,0.003132,1.314803,sg|P62399|RL5_ECOLI (120)-sg|P62399|RL5_ECOLI (120)/,Inter-Protein,1,1,8.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="inlineStr">
+        <is>
+          <t>1187,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.19610.19610.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=19610""",3,2.656228e+003,MQKQAELYR(3)-MQKQAELYR(3),Cross-Linked,DSBSO,2.656224e+003,Oxidation[M](1),1.000000e+000,4.479015e-001,0.004197,1.580063,sg|P0A7D7|PUR7_ECOLI (3)-sg|P0A7D7|PUR7_ECOLI (3)/,Inter-Protein,1,1,5.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="inlineStr">
+        <is>
+          <t>1188,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.8830.8830.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=8830""",4,1.916022e+003,VAVIKAVR(5)-KQQGHR(1),Cross-Linked,DSBSO,1.916020e+003,null,1.000000e+000,4.490688e-001,0.002128,1.110635,sg|P0A7K2|RL7_ECOLI (71)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,8.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="inlineStr">
+        <is>
+          <t>1189,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.4824.4824.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=4824""",4,1.647749e+003,AMEKAR(4)-KSSAAR(1),Cross-Linked,DSBSO,1.647750e+003,Oxidation[M](2),1.000000e+000,4.552054e-001,-0.000887,-0.538310,sg|P0A7W1|RS5_ECOLI (66)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,4.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="inlineStr">
+        <is>
+          <t>1190,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.15442.15442.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=15442""",4,1.905907e+003,ILKCGFR(3)-AMEKAR(4),Cross-Linked,DSBSO,1.905905e+003,Carbamidomethyl[C](4),1.000000e+000,4.552496e-001,0.002000,1.049370,sg|P0AG44|RL17_ECOLI (99)-sg|P0A7W1|RS5_ECOLI (66)/,Inter-Protein,1,1,5.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="inlineStr">
+        <is>
+          <t>1191,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.19972.19972.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=19972""",4,2.834299e+003,SMKQAIYDPENR(3)-VVNSKEDIR(5),Cross-Linked,DSBSO,2.834300e+003,Oxidation[M](2),1.000000e+000,4.569124e-001,-0.001648,-0.581449,sg|P21499|RNR_ECOLI (544)-sg|P0A836|SUCC_ECOLI (66)/,Inter-Protein,1,1,9.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="inlineStr">
+        <is>
+          <t>1192,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.39619.39619.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=39619""",4,2.996496e+003,ITDVEVLKAQFEEER(8)-VKDLPGVR(2),Cross-Linked,DSBSO,2.996495e+003,null,1.000000e+000,4.573715e-001,0.000876,0.292342,sg|P0A6P1|EFTS_ECOLI (112)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,12.0,3.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t>1193,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.22347.22347.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=22347""",3,3.070444e+003,DMLKAGVHFGHQTR(4)-MQKQAELYR(3),Cross-Linked,DSBSO,3.070436e+003,null,1.000000e+000,4.574678e-001,0.007155,2.330288,sg|P0A7V0|RS2_ECOLI (11)-sg|P0A7D7|PUR7_ECOLI (3)/,Inter-Protein,1,1,15.0,4.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t>1194,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.13237.13237.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=13237""",4,2.510227e+003,SHPFYTGKLR(8)-SHALNATKR(8),Cross-Linked,DSBSO,2.510228e+003,null,1.000000e+000,4.575075e-001,-0.001143,-0.455337,sg|P0A7N1|RL31B_ECOLI (60)-sg|P0A7M2|RL28_ECOLI (26)/,Inter-Protein,1,1,7.5,12.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="inlineStr">
+        <is>
+          <t>1195,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.32862.32862.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=32862""",3,2.248142e+003,IPVVSSPKAR(8)-NDVAKANR(5),Cross-Linked,DSBSO,2.248142e+003,null,1.000000e+000,4.596417e-001,-0.000189,-0.084069,sg|P0A9C5|GLNA_ECOLI (353)-sg|P23721|SERC_ECOLI (292)/,Inter-Protein,1,1,5.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="inlineStr">
+        <is>
+          <t>1196,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.8146.8146.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=8146""",3,2.160056e+003,VVNSKEDIR(5)-QPHAKGR(5),Cross-Linked,DSBSO,2.160053e+003,null,1.000000e+000,4.618888e-001,0.002637,1.220803,sg|P0A836|SUCC_ECOLI (66)-sg|P25888|RHLE_ECOLI (71)/,Inter-Protein,1,1,8.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="inlineStr">
+        <is>
+          <t>1197,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.29548.29548.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=29548""",4,2.295299e+003,KLQLVGVGYR(1)-VAVIKAVR(5),Cross-Linked,DSBSO,2.295293e+003,null,1.000000e+000,4.632850e-001,0.006622,2.885035,sg|P0AG55|RL6_ECOLI (86)-sg|P0A7K2|RL7_ECOLI (71)/,Inter-Protein,1,1,8.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="inlineStr">
+        <is>
+          <t>1198,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.34393.34393.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=34393""",4,3.402580e+003,FAAYAKAYPQEAAEFTR(6)-EIAEKMVEGR(5),Cross-Linked,DSBSO,3.402569e+003,null,1.000000e+000,4.637718e-001,0.010973,3.224916,sg|P27302|TKT1_ECOLI (316)-sg|P0A6P1|EFTS_ECOLI (214)/,Inter-Protein,1,1,18.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="inlineStr">
+        <is>
+          <t>1199,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.12488.12488.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=12488""",5,2.490152e+003,EGGNEKVILCDR(6)-QPHAKGR(5),Cross-Linked,DSBSO,2.490153e+003,Carbamidomethyl[C](10),1.000000e+000,4.638492e-001,-0.001298,-0.521253,sg|P0A715|KDSA_ECOLI (162)-sg|P25888|RHLE_ECOLI (71)/,Inter-Protein,1,1,11.5,2.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="inlineStr">
+        <is>
+          <t>1200,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.26565.26565.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26565""",3,1.778825e+003,VSAKGMR(4)-AYKGER(3),Cross-Linked,DSBSO,1.778823e+003,null,1.000000e+000,4.645401e-001,0.001803,1.013591,sg|P0A7M2|RL28_ECOLI (54)-sg|P08200|IDH_ECOLI (58)/,Inter-Protein,1,1,11.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="inlineStr">
+        <is>
+          <t>1201,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.27926.27926.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=27926""",4,2.702294e+003,DAAAAVGKAVAER(8)-MQKQAELYR(3),Cross-Linked,DSBSO,2.702295e+003,null,1.000000e+000,4.649762e-001,-0.000662,-0.244977,sg|P0C018|RL18_ECOLI (76)-sg|P0A7D7|PUR7_ECOLI (3)/,Inter-Protein,1,1,15.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="inlineStr">
+        <is>
+          <t>1202,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.12504.12504.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=12504""",4,2.403214e+003,LQANPAKIASR(7)-TSGEKHLR(5),Cross-Linked,DSBSO,2.403212e+003,null,1.000000e+000,4.650720e-001,0.001992,0.828891,sg|P27302|TKT1_ECOLI (354)-sg|P0A7N4|RL32_ECOLI (37)/,Inter-Protein,1,1,11.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="inlineStr">
+        <is>
+          <t>1203,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.9110.9110.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=9110""",5,1.916020e+003,VAVIKAVR(5)-KQQGHR(1),Cross-Linked,DSBSO,1.916020e+003,null,1.000000e+000,4.651018e-001,-0.000021,-0.010960,sg|P0A7K2|RL7_ECOLI (71)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,6.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="inlineStr">
+        <is>
+          <t>1204,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23519.23519.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23519""",3,2.593248e+003,SHPFYTGKLR(8)-MTDKLTSLR(4),Cross-Linked,DSBSO,2.593246e+003,Oxidation[M](14),1.000000e+000,4.651857e-001,0.001882,0.725731,sg|P0A7N1|RL31B_ECOLI (60)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,7.5,3.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="inlineStr">
+        <is>
+          <t>1205,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.26357.26357.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=26357""",4,2.074115e+003,VKDLPGVR(2)-VKDLPGVR(2),Cross-Linked,DSBSO,2.074103e+003,null,1.000000e+000,4.652297e-001,0.011135,5.368585,sg|P0A7S3|RS12_ECOLI (88)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,5.0,5.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="inlineStr">
+        <is>
+          <t>1206,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.14609.14609.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14609""",4,2.123946e+003,ASFDKANR(5)-ASFDKANR(5),Cross-Linked,DSBSO,2.123948e+003,null,1.000000e+000,4.684535e-001,-0.001936,-0.911510,sg|P0A715|KDSA_ECOLI (60)-sg|P0A715|KDSA_ECOLI (60)/,Inter-Protein,1,1,4.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="inlineStr">
+        <is>
+          <t>1207,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24190.24190.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24190""",3,3.246538e+003,SNVPALEACPQKR(12)-SNVPALEACPQKR(12),Cross-Linked,DSBSO,3.246537e+003,Carbamidomethyl[C](9);Carbamidomethyl[C](25),1.000000e+000,4.686370e-001,0.001230,0.378865,sg|P0A7S3|RS12_ECOLI (30)-sg|P0A7S3|RS12_ECOLI (30)/,Inter-Protein,1,1,3.5,3.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="inlineStr">
+        <is>
+          <t>1208,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.27853.27853.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=27853""",3,2.352155e+003,EIAEKMVEGR(5)-VKDLPGVR(2),Cross-Linked,DSBSO,2.352161e+003,null,1.000000e+000,4.691353e-001,-0.005590,-2.376538,sg|P0A6P1|EFTS_ECOLI (214)-sg|P0A7S3|RS12_ECOLI (88)/,Inter-Protein,1,1,9.5,7.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="inlineStr">
+        <is>
+          <t>1209,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23173.23173.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23173""",3,2.428145e+003,MQKQAELYR(3)-VGFGYGKAR(7),Cross-Linked,DSBSO,2.428146e+003,null,1.000000e+000,4.698900e-001,-0.000742,-0.305583,sg|P0A7D7|PUR7_ECOLI (3)-sg|P0A7W1|RS5_ECOLI (52)/,Inter-Protein,1,1,7.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="inlineStr">
+        <is>
+          <t>1210,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.6540.6540.6 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=6540""",6,2.162035e+003,TSGEKHLR(5)-TSGEKHLR(5),Cross-Linked,DSBSO,2.162033e+003,null,1.000000e+000,4.716893e-001,0.002139,0.989347,sg|P0A7N4|RL32_ECOLI (37)-sg|P0A7N4|RL32_ECOLI (37)/,Inter-Protein,1,1,3.5,3.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="inlineStr">
+        <is>
+          <t>1211,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.27936.27936.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=27936""",4,3.186583e+003,VFQTHSPVVDSISVKR(15)-MTDKLTSLR(4),Cross-Linked,DSBSO,3.186584e+003,Oxidation[M](20),1.000000e+000,4.723129e-001,-0.001519,-0.476686,sg|P0A7K6|RL19_ECOLI (87)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,17.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="inlineStr">
+        <is>
+          <t>1212,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.4440.4440.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=4440""",3,1.647753e+003,AMEKAR(4)-KSSAAR(1),Cross-Linked,DSBSO,1.647750e+003,Oxidation[M](2),1.000000e+000,4.735076e-001,0.003642,2.210287,sg|P0A7W1|RS5_ECOLI (66)-sg|P0A7X3|RS9_ECOLI (13)/,Inter-Protein,1,1,5.0,8.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="inlineStr">
+        <is>
+          <t>1213,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.9838.9838.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=9838""",4,1.937969e+003,SVAGFKIR(6)-KQQGHR(1),Cross-Linked,DSBSO,1.937968e+003,null,1.000000e+000,4.758069e-001,0.000328,0.169249,sg|P62399|RL5_ECOLI (78)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,5.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="inlineStr">
+        <is>
+          <t>1214,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.24711.24711.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=24711""",4,2.902350e+003,EGGNEKVILCDR(6)-SHPFYTGKLR(8),Cross-Linked,DSBSO,2.902353e+003,Carbamidomethyl[C](10),1.000000e+000,4.780788e-001,-0.003325,-1.145622,sg|P0A715|KDSA_ECOLI (162)-sg|P0A7N1|RL31B_ECOLI (60)/,Inter-Protein,1,1,9.0,4.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="inlineStr">
+        <is>
+          <t>1215,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.30596.30596.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=30596""",3,2.823304e+003,SMKQAIYDPENR(3)-MTDKLTSLR(4),Cross-Linked,DSBSO,2.823303e+003,null,1.000000e+000,4.791771e-001,0.000727,0.257500,sg|P21499|RNR_ECOLI (544)-sg|P0A870|TALB_ECOLI (4)/,Inter-Protein,1,1,7.0,7.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="inlineStr">
+        <is>
+          <t>1216,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.23578.23578.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=23578""",3,2.166036e+003,FWVESEKR(7)-KAGFVTR(1),Cross-Linked,DSBSO,2.166036e+003,null,1.000000e+000,4.810536e-001,0.000342,0.157892,sg|P0A7M2|RL28_ECOLI (44)-sg|P0A7X3|RS9_ECOLI (100)/,Inter-Protein,1,1,7.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="inlineStr">
+        <is>
+          <t>1217,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.20703.20703.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=20703""",4,2.378120e+003,EIAEKMVEGR(5)-ILKCGFR(3),Cross-Linked,DSBSO,2.378122e+003,Oxidation[M](6);Carbamidomethyl[C](17),1.000000e+000,4.854479e-001,-0.001901,-0.799370,sg|P0A6P1|EFTS_ECOLI (214)-sg|P0AG44|RL17_ECOLI (99)/,Inter-Protein,1,1,11.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="inlineStr">
+        <is>
+          <t>1218,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.30280.30280.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=30280""",4,2.860381e+003,QGYPIGCKVTLR(8)-EIAEKMVEGR(5),Cross-Linked,DSBSO,2.860371e+003,Carbamidomethyl[C](7),1.000000e+000,4.865053e-001,0.009968,3.484863,sg|P62399|RL5_ECOLI (88)-sg|P0A6P1|EFTS_ECOLI (214)/,Inter-Protein,1,1,10.0,9.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="inlineStr">
+        <is>
+          <t>1219,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.21475.21475.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=21475""",3,2.640232e+003,MQKQAELYR(3)-MQKQAELYR(3),Cross-Linked,DSBSO,2.640229e+003,null,1.000000e+000,4.872460e-001,0.002862,1.083997,sg|P0A7D7|PUR7_ECOLI (3)-sg|P0A7D7|PUR7_ECOLI (3)/,Inter-Protein,1,1,4.0,4.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="inlineStr">
+        <is>
+          <t>1220,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.9034.9034.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=9034""",3,2.107032e+003,SHALNATKR(8)-EKLQER(2),Cross-Linked,DSBSO,2.107027e+003,null,1.000000e+000,4.875243e-001,0.004641,2.202630,sg|P0A7M2|RL28_ECOLI (26)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,6.5,3.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="inlineStr">
+        <is>
+          <t>1221,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.21557.21557.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=21557""",4,2.644393e+003,LQANPAKIASR(7)-LQANPAKIASR(7),Cross-Linked,DSBSO,2.644391e+003,null,1.000000e+000,4.879753e-001,0.002137,0.808126,sg|P27302|TKT1_ECOLI (354)-sg|P27302|TKT1_ECOLI (354)/,Inter-Protein,1,1,5.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="inlineStr">
+        <is>
+          <t>1222,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.18383.18383.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=18383""",4,2.092982e+003,GLSAKSFDGR(5)-VSAKGMR(4),Cross-Linked,DSBSO,2.092982e+003,null,1.000000e+000,4.912082e-001,-0.000476,-0.227427,sg|P62399|RL5_ECOLI (120)-sg|P0A7M2|RL28_ECOLI (54)/,Inter-Protein,1,1,8.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="inlineStr">
+        <is>
+          <t>1223,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.10192.10192.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=10192""",4,2.107027e+003,SHALNATKR(8)-EKLQER(2),Cross-Linked,DSBSO,2.107027e+003,null,1.000000e+000,4.919245e-001,-0.000041,-0.019459,sg|P0A7M2|RL28_ECOLI (26)-sg|P0A6F5|CH60_ECOLI (364)/,Inter-Protein,1,1,7.5,4.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="inlineStr">
+        <is>
+          <t>1224,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.14901.14901.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=14901""",4,2.123948e+003,ASFDKANR(5)-ASFDKANR(5),Cross-Linked,DSBSO,2.123948e+003,null,1.000000e+000,4.926523e-001,-0.000184,-0.086631,sg|P0A715|KDSA_ECOLI (60)-sg|P0A715|KDSA_ECOLI (60)/,Inter-Protein,1,1,3.0,3.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="inlineStr">
+        <is>
+          <t>1225,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.12005.12005.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=12005""",4,2.386245e+003,HIGGGHKQAYR(7)-VAVIKAVR(5),Cross-Linked,DSBSO,2.386248e+003,null,1.000000e+000,4.933454e-001,-0.003574,-1.497749,sg|P60422|RL2_ECOLI (59)-sg|P0A7K2|RL7_ECOLI (71)/,Inter-Protein,1,1,9.5,8.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="inlineStr">
+        <is>
+          <t>1226,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.2051.2051.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=2051""",4,1.813855e+003,KQQGHR(1)-KQQGHR(1),Cross-Linked,DSBSO,1.813854e+003,null,1.000000e+000,4.934741e-001,0.000417,0.229897,sg|P0AG48|RL21_ECOLI (85)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,2.0,2.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="inlineStr">
+        <is>
+          <t>1227,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.39629.39629.5 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=39629""",5,3.205675e+003,IGVPFVDGGVIKAEVVAHGR(12)-TDKFIVR(3),Cross-Linked,DSBSO,3.205675e+003,null,1.000000e+000,4.935006e-001,0.000685,0.213684,sg|P0AG48|RL21_ECOLI (60)-sg|P60422|RL2_ECOLI (265)/,Inter-Protein,1,1,12.0,4.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="inlineStr">
+        <is>
+          <t>1228,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.10931.10931.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=10931""",3,2.295141e+003,SHALNATKR(8)-IGSTIKTDR(6),Cross-Linked,DSBSO,2.295143e+003,null,1.000000e+000,4.936926e-001,-0.002066,-0.900162,sg|P0A7M2|RL28_ECOLI (26)-sg|P0A7N1|RL31B_ECOLI (30)/,Inter-Protein,1,1,6.5,5.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="inlineStr">
+        <is>
+          <t>1229,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.12787.12787.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=12787""",3,2.082029e+003,VVNSKEDIR(5)-LKNANR(2),Cross-Linked,DSBSO,2.082032e+003,null,1.000000e+000,4.943765e-001,-0.002247,-1.079234,sg|P0A836|SUCC_ECOLI (66)-sg|P33195|GCSP_ECOLI (168)/,Inter-Protein,1,1,7.5,3.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="inlineStr">
+        <is>
+          <t>1230,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.40630.40630.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=40630""",4,2.650254e+003,DYSKYLNIR(4)-DYSKYLNIR(4),Cross-Linked,DSBSO,2.650253e+003,null,1.000000e+000,4.972080e-001,0.001472,0.555419,sg|P25888|RHLE_ECOLI (100)-sg|P25888|RHLE_ECOLI (100)/,Inter-Protein,1,1,6.0,6.0,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="inlineStr">
+        <is>
+          <t>1231,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.21630.21630.4 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=21630""",4,2.335190e+003,KLQLVGVGYR(1)-SKDGAYVR(2),Cross-Linked,DSBSO,2.335178e+003,null,1.000000e+000,4.981145e-001,0.011241,4.813765,sg|P0AG55|RL6_ECOLI (86)-sg|P0AFG8|ODP1_ECOLI (329)/,Inter-Protein,1,1,10.5,2.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="inlineStr">
+        <is>
+          <t>1232,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.10166.10166.3 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=10166""",3,1.937969e+003,SVAGFKIR(6)-KQQGHR(1),Cross-Linked,DSBSO,1.937968e+003,null,1.000000e+000,4.987945e-001,0.000341,0.175957,sg|P62399|RL5_ECOLI (78)-sg|P0AG48|RL21_ECOLI (85)/,Inter-Protein,1,1,7.5,6.5,1.000000e+000,1.000000e+000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="inlineStr">
+        <is>
+          <t>1233,"20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.8070.8070.6 File:""20210412_QExHFX2_RSLC3_Matzinger_Mechtler_IMP_XLMS_ADV_DSBSOpeplib2c0_rep2.raw"", NativeID:""controllerType=0 controllerNumber=1 scan=8070""",6,2.095993e+003,ELKPHDR(3)-ELKPHDR(3),Cross-Linked,DSBSO,2.095990e+003,null,1.000000e+000,5.008192e-001,0.002802,1.336839,sg|P0A9Q1|ARCA_ECOLI (195)-sg|P0A9Q1|ARCA_ECOLI (195)/,Inter-Protein,1,1,4.5,4.5,1.000000e+000,1.000000e+000</t>
         </is>
       </c>
     </row>
